--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,1072 +469,1072 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45687</v>
+        <v>45733</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>781.175</v>
       </c>
       <c r="C2">
-        <v>32.72500100000002</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>533.5</v>
+        <v>984.4000000000001</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>396</v>
+        <v>1277.175</v>
       </c>
       <c r="M2">
-        <v>580.225001</v>
+        <v>1341.4</v>
       </c>
       <c r="N2">
-        <v>-184.225001</v>
+        <v>-64.22500000000014</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45687.01041666666</v>
+        <v>45733.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>781.175</v>
       </c>
       <c r="C3">
-        <v>32.72500100000002</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>392.6</v>
+        <v>953.9000000000001</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>396</v>
+        <v>1277.175</v>
       </c>
       <c r="M3">
-        <v>439.325001</v>
+        <v>1310.9</v>
       </c>
       <c r="N3">
-        <v>-43.32500100000004</v>
+        <v>-33.72500000000014</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45687.02083333334</v>
+        <v>45733.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>781.175</v>
       </c>
       <c r="C4">
-        <v>32.72500100000002</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>445.5</v>
+        <v>1001.4</v>
       </c>
       <c r="H4">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>396</v>
+        <v>1277.175</v>
       </c>
       <c r="M4">
-        <v>492.225001</v>
+        <v>1358.4</v>
       </c>
       <c r="N4">
-        <v>-96.22500100000002</v>
+        <v>-81.22500000000014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45687.03125</v>
+        <v>45733.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>781.175</v>
       </c>
       <c r="C5">
-        <v>32.72500100000002</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>495.3</v>
+        <v>960</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>396</v>
+        <v>1277.175</v>
       </c>
       <c r="M5">
-        <v>542.025001</v>
+        <v>1317</v>
       </c>
       <c r="N5">
-        <v>-146.025001</v>
+        <v>-39.82500000000005</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45687.04166666666</v>
+        <v>45733.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>611.8750000000001</v>
       </c>
       <c r="C6">
-        <v>10.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>338.5</v>
+        <v>666.3000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="J6">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>314</v>
+        <v>1077.875</v>
       </c>
       <c r="M6">
-        <v>581.45</v>
+        <v>1142.3</v>
       </c>
       <c r="N6">
-        <v>-267.45</v>
+        <v>-64.42500000000018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45687.05208333334</v>
+        <v>45733.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>611.8750000000001</v>
       </c>
       <c r="C7">
-        <v>10.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>414.3</v>
+        <v>687.7</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="J7">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>314</v>
+        <v>1077.875</v>
       </c>
       <c r="M7">
-        <v>657.25</v>
+        <v>1163.7</v>
       </c>
       <c r="N7">
-        <v>-343.25</v>
+        <v>-85.82500000000005</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45687.0625</v>
+        <v>45733.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>611.8750000000001</v>
       </c>
       <c r="C8">
-        <v>10.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>407.1</v>
+        <v>648.7</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="J8">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>314</v>
+        <v>1077.875</v>
       </c>
       <c r="M8">
-        <v>650.05</v>
+        <v>1124.7</v>
       </c>
       <c r="N8">
-        <v>-336.05</v>
+        <v>-46.82500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45687.07291666666</v>
+        <v>45733.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>611.8750000000001</v>
       </c>
       <c r="C9">
-        <v>10.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>427.4</v>
+        <v>640</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="J9">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>314</v>
+        <v>1077.875</v>
       </c>
       <c r="M9">
-        <v>670.3499999999999</v>
+        <v>1116</v>
       </c>
       <c r="N9">
-        <v>-356.3499999999999</v>
+        <v>-38.125</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45687.08333333334</v>
+        <v>45733.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>551.2</v>
       </c>
       <c r="C10">
-        <v>157.175</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="F10">
-        <v>39.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>454.3000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="J10">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>307.3</v>
+        <v>857.2</v>
       </c>
       <c r="M10">
-        <v>565.175</v>
+        <v>892.3000000000001</v>
       </c>
       <c r="N10">
-        <v>-257.875</v>
+        <v>-35.10000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45687.09375</v>
+        <v>45733.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>551.2</v>
       </c>
       <c r="C11">
-        <v>157.175</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>12.30000000000001</v>
+        <v>444.8000000000001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="J11">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>268</v>
+        <v>857.2</v>
       </c>
       <c r="M11">
-        <v>577.475</v>
+        <v>882.8000000000001</v>
       </c>
       <c r="N11">
-        <v>-309.475</v>
+        <v>-25.60000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45687.10416666666</v>
+        <v>45733.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>551.2</v>
       </c>
       <c r="C12">
-        <v>157.175</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>42.5</v>
+        <v>441.6</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="J12">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>268</v>
+        <v>857.2</v>
       </c>
       <c r="M12">
-        <v>607.675</v>
+        <v>879.6</v>
       </c>
       <c r="N12">
-        <v>-339.675</v>
+        <v>-22.39999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45687.11458333334</v>
+        <v>45733.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>551.2</v>
       </c>
       <c r="C13">
-        <v>157.175</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>36.10000000000002</v>
+        <v>436.6</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="J13">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>268</v>
+        <v>857.2</v>
       </c>
       <c r="M13">
-        <v>601.2750000000001</v>
+        <v>874.6</v>
       </c>
       <c r="N13">
-        <v>-333.2750000000001</v>
+        <v>-17.39999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45687.125</v>
+        <v>45733.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>564.025</v>
       </c>
       <c r="C14">
-        <v>179.3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="F14">
-        <v>111.9</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>559.7</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="J14">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>353.9</v>
+        <v>910.025</v>
       </c>
       <c r="M14">
-        <v>661.3</v>
+        <v>976.7</v>
       </c>
       <c r="N14">
-        <v>-307.4</v>
+        <v>-66.67500000000007</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45687.13541666666</v>
+        <v>45733.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>564.025</v>
       </c>
       <c r="C15">
-        <v>179.3</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="F15">
-        <v>112.1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>563.9</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="J15">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>354.1</v>
+        <v>910.025</v>
       </c>
       <c r="M15">
-        <v>661.3</v>
+        <v>980.9</v>
       </c>
       <c r="N15">
-        <v>-307.1999999999999</v>
+        <v>-70.875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45687.14583333334</v>
+        <v>45733.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>564.025</v>
       </c>
       <c r="C16">
-        <v>179.3</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="F16">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>585.7</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="J16">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>317</v>
+        <v>910.025</v>
       </c>
       <c r="M16">
-        <v>661.3</v>
+        <v>1002.7</v>
       </c>
       <c r="N16">
-        <v>-344.3</v>
+        <v>-92.67500000000007</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45687.15625</v>
+        <v>45733.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>564.025</v>
       </c>
       <c r="C17">
-        <v>179.3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="F17">
-        <v>57.5</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>583.6</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="J17">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>299.5</v>
+        <v>910.025</v>
       </c>
       <c r="M17">
-        <v>661.3</v>
+        <v>1000.6</v>
       </c>
       <c r="N17">
-        <v>-361.8</v>
+        <v>-90.57500000000005</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45687.16666666666</v>
+        <v>45733.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>757.7</v>
       </c>
       <c r="C18">
-        <v>118.45</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>145.7</v>
+        <v>957.1000000000001</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J18">
-        <v>344</v>
+        <v>533</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>344</v>
+        <v>1290.7</v>
       </c>
       <c r="M18">
-        <v>461.15</v>
+        <v>1299.1</v>
       </c>
       <c r="N18">
-        <v>-117.15</v>
+        <v>-8.400000000000091</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45687.17708333334</v>
+        <v>45733.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>757.7</v>
       </c>
       <c r="C19">
-        <v>118.45</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>180.7</v>
+        <v>1053.2</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J19">
-        <v>344</v>
+        <v>533</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>344</v>
+        <v>1290.7</v>
       </c>
       <c r="M19">
-        <v>496.15</v>
+        <v>1395.2</v>
       </c>
       <c r="N19">
-        <v>-152.15</v>
+        <v>-104.5</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45687.1875</v>
+        <v>45733.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>757.7</v>
       </c>
       <c r="C20">
-        <v>118.45</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>228.1</v>
+        <v>1114.1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J20">
-        <v>344</v>
+        <v>533</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>344</v>
+        <v>1290.7</v>
       </c>
       <c r="M20">
-        <v>543.55</v>
+        <v>1456.1</v>
       </c>
       <c r="N20">
-        <v>-199.55</v>
+        <v>-165.3999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45687.19791666666</v>
+        <v>45733.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>757.7</v>
       </c>
       <c r="C21">
-        <v>118.45</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>232.4</v>
+        <v>1185.6</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J21">
-        <v>344</v>
+        <v>533</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>344</v>
+        <v>1290.7</v>
       </c>
       <c r="M21">
-        <v>547.8499999999999</v>
+        <v>1527.6</v>
       </c>
       <c r="N21">
-        <v>-203.8499999999999</v>
+        <v>-236.8999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45687.20833333334</v>
+        <v>45733.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1177.3</v>
       </c>
       <c r="C22">
-        <v>245.3249999999999</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>305.3</v>
+        <v>1755</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J22">
-        <v>393</v>
+        <v>615</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>393</v>
+        <v>1792.3</v>
       </c>
       <c r="M22">
-        <v>644.6249999999999</v>
+        <v>1977</v>
       </c>
       <c r="N22">
-        <v>-251.6249999999999</v>
+        <v>-184.7</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45687.21875</v>
+        <v>45733.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1177.3</v>
       </c>
       <c r="C23">
-        <v>245.3249999999999</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>332.6999999999999</v>
+        <v>1703.4</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J23">
-        <v>393</v>
+        <v>615</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>393</v>
+        <v>1792.3</v>
       </c>
       <c r="M23">
-        <v>672.0249999999999</v>
+        <v>1925.4</v>
       </c>
       <c r="N23">
-        <v>-279.0249999999999</v>
+        <v>-133.1000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45687.22916666666</v>
+        <v>45733.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1177.3</v>
       </c>
       <c r="C24">
-        <v>245.3249999999999</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>461.1</v>
+        <v>1739.1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J24">
-        <v>393</v>
+        <v>615</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>393</v>
+        <v>1792.3</v>
       </c>
       <c r="M24">
-        <v>800.425</v>
+        <v>1961.1</v>
       </c>
       <c r="N24">
-        <v>-407.425</v>
+        <v>-168.8</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45687.23958333334</v>
+        <v>45733.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1177.3</v>
       </c>
       <c r="C25">
-        <v>245.3249999999999</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>532.5</v>
+        <v>1740.4</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J25">
-        <v>393</v>
+        <v>615</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>393</v>
+        <v>1792.3</v>
       </c>
       <c r="M25">
-        <v>871.8249999999999</v>
+        <v>1962.4</v>
       </c>
       <c r="N25">
-        <v>-478.8249999999999</v>
+        <v>-170.1000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45687.25</v>
+        <v>45733.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>838.6999999999999</v>
       </c>
       <c r="C26">
-        <v>586.0250000000001</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1543,42 +1543,42 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>126.1</v>
+        <v>1503.7</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J26">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>582</v>
+        <v>1454.7</v>
       </c>
       <c r="M26">
-        <v>898.1250000000001</v>
+        <v>1707.7</v>
       </c>
       <c r="N26">
-        <v>-316.1250000000001</v>
+        <v>-253</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45687.26041666666</v>
+        <v>45733.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>838.6999999999999</v>
       </c>
       <c r="C27">
-        <v>586.0250000000001</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1587,42 +1587,42 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>143.9</v>
+        <v>1465.2</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J27">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>582</v>
+        <v>1454.7</v>
       </c>
       <c r="M27">
-        <v>915.9250000000001</v>
+        <v>1669.2</v>
       </c>
       <c r="N27">
-        <v>-333.9250000000001</v>
+        <v>-214.5</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45687.27083333334</v>
+        <v>45733.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>838.6999999999999</v>
       </c>
       <c r="C28">
-        <v>586.0250000000001</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1631,42 +1631,42 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>239.8000000000001</v>
+        <v>1434.2</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J28">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>582</v>
+        <v>1454.7</v>
       </c>
       <c r="M28">
-        <v>1011.825</v>
+        <v>1638.2</v>
       </c>
       <c r="N28">
-        <v>-429.8250000000002</v>
+        <v>-183.5</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45687.28125</v>
+        <v>45733.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>838.6999999999999</v>
       </c>
       <c r="C29">
-        <v>586.0250000000001</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1675,42 +1675,42 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>258.1</v>
+        <v>1410.8</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J29">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>582</v>
+        <v>1454.7</v>
       </c>
       <c r="M29">
-        <v>1030.125</v>
+        <v>1614.8</v>
       </c>
       <c r="N29">
-        <v>-448.125</v>
+        <v>-160.1000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45687.29166666666</v>
+        <v>45733.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>300.075</v>
       </c>
       <c r="C30">
-        <v>512.7</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1719,42 +1719,42 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>387.0999999999999</v>
+        <v>851.4000000000001</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="J30">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>714</v>
+        <v>711.075</v>
       </c>
       <c r="M30">
-        <v>1001.8</v>
+        <v>1038.4</v>
       </c>
       <c r="N30">
-        <v>-287.8</v>
+        <v>-327.325</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45687.30208333334</v>
+        <v>45733.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>300.075</v>
       </c>
       <c r="C31">
-        <v>512.7</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1763,42 +1763,42 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>411.0999999999999</v>
+        <v>864.7</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="J31">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>714</v>
+        <v>711.075</v>
       </c>
       <c r="M31">
-        <v>1025.8</v>
+        <v>1051.7</v>
       </c>
       <c r="N31">
-        <v>-311.8</v>
+        <v>-340.625</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45687.3125</v>
+        <v>45733.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>300.075</v>
       </c>
       <c r="C32">
-        <v>512.7</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1807,42 +1807,42 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>449.0999999999999</v>
+        <v>624.5</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="J32">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>714</v>
+        <v>711.075</v>
       </c>
       <c r="M32">
-        <v>1063.8</v>
+        <v>811.5</v>
       </c>
       <c r="N32">
-        <v>-349.8</v>
+        <v>-100.425</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45687.32291666666</v>
+        <v>45733.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>300.075</v>
       </c>
       <c r="C33">
-        <v>512.7</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1851,218 +1851,218 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>413.3000000000001</v>
+        <v>526.5999999999999</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="J33">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>714</v>
+        <v>711.075</v>
       </c>
       <c r="M33">
-        <v>1028</v>
+        <v>713.5999999999999</v>
       </c>
       <c r="N33">
-        <v>-314</v>
+        <v>-2.524999999999864</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45687.33333333334</v>
+        <v>45733.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>210.875</v>
       </c>
       <c r="C34">
-        <v>601.5749999999998</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>407.8</v>
+        <v>491.8999999999999</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="J34">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>711</v>
+        <v>721.875</v>
       </c>
       <c r="M34">
-        <v>1107.375</v>
+        <v>984.8999999999999</v>
       </c>
       <c r="N34">
-        <v>-396.3749999999998</v>
+        <v>-263.0249999999999</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45687.34375</v>
+        <v>45733.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>210.875</v>
       </c>
       <c r="C35">
-        <v>601.5749999999998</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>354.1999999999999</v>
+        <v>488</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="J35">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>711</v>
+        <v>721.875</v>
       </c>
       <c r="M35">
-        <v>1053.775</v>
+        <v>981</v>
       </c>
       <c r="N35">
-        <v>-342.7749999999996</v>
+        <v>-259.125</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45687.35416666666</v>
+        <v>45733.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>210.875</v>
       </c>
       <c r="C36">
-        <v>601.5749999999998</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>265</v>
+        <v>428.9999999999999</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="J36">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>711</v>
+        <v>721.875</v>
       </c>
       <c r="M36">
-        <v>964.5749999999998</v>
+        <v>921.9999999999999</v>
       </c>
       <c r="N36">
-        <v>-253.5749999999998</v>
+        <v>-200.1249999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45687.36458333334</v>
+        <v>45733.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>210.875</v>
       </c>
       <c r="C37">
-        <v>601.5749999999998</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>210.5</v>
+        <v>477.9999999999999</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="J37">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>711</v>
+        <v>721.875</v>
       </c>
       <c r="M37">
-        <v>910.0749999999998</v>
+        <v>970.9999999999999</v>
       </c>
       <c r="N37">
-        <v>-199.0749999999998</v>
+        <v>-249.1249999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45687.375</v>
+        <v>45733.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>212.5500010000001</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2071,42 +2071,42 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>454.6</v>
+        <v>378.7</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>782.5500010000001</v>
       </c>
       <c r="M38">
-        <v>707.6</v>
+        <v>622.7</v>
       </c>
       <c r="N38">
-        <v>-707.6</v>
+        <v>159.850001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45687.38541666666</v>
+        <v>45733.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>212.5500010000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2115,42 +2115,42 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>382</v>
+        <v>446.6</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>782.5500010000001</v>
       </c>
       <c r="M39">
-        <v>635</v>
+        <v>690.6</v>
       </c>
       <c r="N39">
-        <v>-635</v>
+        <v>91.95000100000004</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45687.39583333334</v>
+        <v>45733.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>212.5500010000001</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2159,42 +2159,42 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>376</v>
+        <v>605.0999999999999</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>782.5500010000001</v>
       </c>
       <c r="M40">
-        <v>629</v>
+        <v>849.0999999999999</v>
       </c>
       <c r="N40">
-        <v>-629</v>
+        <v>-66.54999899999984</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45687.40625</v>
+        <v>45733.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>212.5500010000001</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2203,33 +2203,33 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>589.5999999999999</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>782.5500010000001</v>
       </c>
       <c r="M41">
-        <v>253</v>
+        <v>833.5999999999999</v>
       </c>
       <c r="N41">
-        <v>-253</v>
+        <v>-51.04999899999984</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45687.41666666666</v>
+        <v>45733.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>345.2</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2265,15 +2265,15 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>345.2</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-345.2</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45687.42708333334</v>
+        <v>45733.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45687.4375</v>
+        <v>45733.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45687.44791666666</v>
+        <v>45733.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45687.45833333334</v>
+        <v>45733.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45687.46875</v>
+        <v>45733.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45687.47916666666</v>
+        <v>45733.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45687.48958333334</v>
+        <v>45733.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45687.5</v>
+        <v>45733.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45687.51041666666</v>
+        <v>45733.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45687.52083333334</v>
+        <v>45733.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45687.53125</v>
+        <v>45733.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45687.54166666666</v>
+        <v>45733.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45687.55208333334</v>
+        <v>45733.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45687.5625</v>
+        <v>45733.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45687.57291666666</v>
+        <v>45733.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45687.58333333334</v>
+        <v>45733.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45687.59375</v>
+        <v>45733.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45687.60416666666</v>
+        <v>45733.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45687.61458333334</v>
+        <v>45733.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45687.625</v>
+        <v>45733.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45687.63541666666</v>
+        <v>45733.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45687.64583333334</v>
+        <v>45733.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45687.65625</v>
+        <v>45733.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45687.66666666666</v>
+        <v>45733.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45687.67708333334</v>
+        <v>45733.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45687.6875</v>
+        <v>45733.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45687.69791666666</v>
+        <v>45733.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45687.70833333334</v>
+        <v>45733.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45687.71875</v>
+        <v>45733.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45687.72916666666</v>
+        <v>45733.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45687.73958333334</v>
+        <v>45733.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45687.75</v>
+        <v>45733.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45687.76041666666</v>
+        <v>45733.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45687.77083333334</v>
+        <v>45733.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45687.78125</v>
+        <v>45733.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45687.79166666666</v>
+        <v>45733.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45687.80208333334</v>
+        <v>45733.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45687.8125</v>
+        <v>45733.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45687.82291666666</v>
+        <v>45733.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45687.83333333334</v>
+        <v>45733.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45687.84375</v>
+        <v>45733.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45687.85416666666</v>
+        <v>45733.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45687.86458333334</v>
+        <v>45733.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45687.875</v>
+        <v>45733.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45687.88541666666</v>
+        <v>45733.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45687.89583333334</v>
+        <v>45733.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45687.90625</v>
+        <v>45733.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45687.91666666666</v>
+        <v>45733.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45687.92708333334</v>
+        <v>45733.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45687.9375</v>
+        <v>45733.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45687.94791666666</v>
+        <v>45733.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45687.95833333334</v>
+        <v>45733.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45687.96875</v>
+        <v>45733.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45687.97916666666</v>
+        <v>45733.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45687.98958333334</v>
+        <v>45733.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,1776 +469,1776 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B2">
-        <v>781.175</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>499.525</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1269.7</v>
       </c>
       <c r="G2">
-        <v>984.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>759</v>
       </c>
       <c r="J2">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L2">
-        <v>1277.175</v>
+        <v>1269.7</v>
       </c>
       <c r="M2">
-        <v>1341.4</v>
+        <v>1385.525</v>
       </c>
       <c r="N2">
-        <v>-64.22500000000014</v>
+        <v>-115.825</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45733.01041666666</v>
+        <v>45734.01041666666</v>
       </c>
       <c r="B3">
-        <v>781.175</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>499.525</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1301.6</v>
       </c>
       <c r="G3">
-        <v>953.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>759</v>
       </c>
       <c r="J3">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L3">
-        <v>1277.175</v>
+        <v>1301.6</v>
       </c>
       <c r="M3">
-        <v>1310.9</v>
+        <v>1385.525</v>
       </c>
       <c r="N3">
-        <v>-33.72500000000014</v>
+        <v>-83.92500000000018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45733.02083333334</v>
+        <v>45734.02083333334</v>
       </c>
       <c r="B4">
-        <v>781.175</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>499.525</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1281.9</v>
       </c>
       <c r="G4">
-        <v>1001.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>759</v>
       </c>
       <c r="J4">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L4">
-        <v>1277.175</v>
+        <v>1281.9</v>
       </c>
       <c r="M4">
-        <v>1358.4</v>
+        <v>1385.525</v>
       </c>
       <c r="N4">
-        <v>-81.22500000000014</v>
+        <v>-103.625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45733.03125</v>
+        <v>45734.03125</v>
       </c>
       <c r="B5">
-        <v>781.175</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>499.525</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1303.3</v>
       </c>
       <c r="G5">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>759</v>
       </c>
       <c r="J5">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L5">
-        <v>1277.175</v>
+        <v>1303.3</v>
       </c>
       <c r="M5">
-        <v>1317</v>
+        <v>1385.525</v>
       </c>
       <c r="N5">
-        <v>-39.82500000000005</v>
+        <v>-82.22500000000014</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45733.04166666666</v>
+        <v>45734.04166666666</v>
       </c>
       <c r="B6">
-        <v>611.8750000000001</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>351.425</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1341.9</v>
       </c>
       <c r="G6">
-        <v>666.3000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>147</v>
+        <v>804</v>
       </c>
       <c r="J6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L6">
-        <v>1077.875</v>
+        <v>1341.9</v>
       </c>
       <c r="M6">
-        <v>1142.3</v>
+        <v>1427.425</v>
       </c>
       <c r="N6">
-        <v>-64.42500000000018</v>
+        <v>-85.52499999999986</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45733.05208333334</v>
+        <v>45734.05208333334</v>
       </c>
       <c r="B7">
-        <v>611.8750000000001</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>351.425</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1349.4</v>
       </c>
       <c r="G7">
-        <v>687.7</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>147</v>
+        <v>804</v>
       </c>
       <c r="J7">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L7">
-        <v>1077.875</v>
+        <v>1349.4</v>
       </c>
       <c r="M7">
-        <v>1163.7</v>
+        <v>1427.425</v>
       </c>
       <c r="N7">
-        <v>-85.82500000000005</v>
+        <v>-78.02499999999986</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45733.0625</v>
+        <v>45734.0625</v>
       </c>
       <c r="B8">
-        <v>611.8750000000001</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>351.425</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1329.3</v>
       </c>
       <c r="G8">
-        <v>648.7</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>147</v>
+        <v>804</v>
       </c>
       <c r="J8">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L8">
-        <v>1077.875</v>
+        <v>1329.3</v>
       </c>
       <c r="M8">
-        <v>1124.7</v>
+        <v>1427.425</v>
       </c>
       <c r="N8">
-        <v>-46.82500000000005</v>
+        <v>-98.125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45733.07291666666</v>
+        <v>45734.07291666666</v>
       </c>
       <c r="B9">
-        <v>611.8750000000001</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>351.425</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="G9">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>147</v>
+        <v>804</v>
       </c>
       <c r="J9">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L9">
-        <v>1077.875</v>
+        <v>1284</v>
       </c>
       <c r="M9">
-        <v>1116</v>
+        <v>1427.425</v>
       </c>
       <c r="N9">
-        <v>-38.125</v>
+        <v>-143.425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45733.08333333334</v>
+        <v>45734.08333333334</v>
       </c>
       <c r="B10">
-        <v>551.2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>420.8</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1449.8</v>
       </c>
       <c r="G10">
-        <v>454.3000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>139</v>
+        <v>806</v>
       </c>
       <c r="J10">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="L10">
-        <v>857.2</v>
+        <v>1449.8</v>
       </c>
       <c r="M10">
-        <v>892.3000000000001</v>
+        <v>1541.8</v>
       </c>
       <c r="N10">
-        <v>-35.10000000000002</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45733.09375</v>
+        <v>45734.09375</v>
       </c>
       <c r="B11">
-        <v>551.2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>420.8</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1453.3</v>
       </c>
       <c r="G11">
-        <v>444.8000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>139</v>
+        <v>806</v>
       </c>
       <c r="J11">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="L11">
-        <v>857.2</v>
+        <v>1453.3</v>
       </c>
       <c r="M11">
-        <v>882.8000000000001</v>
+        <v>1541.8</v>
       </c>
       <c r="N11">
-        <v>-25.60000000000002</v>
+        <v>-88.49999999999977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45733.10416666666</v>
+        <v>45734.10416666666</v>
       </c>
       <c r="B12">
-        <v>551.2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>420.8</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1388.5</v>
       </c>
       <c r="G12">
-        <v>441.6</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>139</v>
+        <v>806</v>
       </c>
       <c r="J12">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="L12">
-        <v>857.2</v>
+        <v>1388.5</v>
       </c>
       <c r="M12">
-        <v>879.6</v>
+        <v>1541.8</v>
       </c>
       <c r="N12">
-        <v>-22.39999999999998</v>
+        <v>-153.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45733.11458333334</v>
+        <v>45734.11458333334</v>
       </c>
       <c r="B13">
-        <v>551.2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>420.8</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1410.8</v>
       </c>
       <c r="G13">
-        <v>436.6</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>139</v>
+        <v>806</v>
       </c>
       <c r="J13">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="L13">
-        <v>857.2</v>
+        <v>1410.8</v>
       </c>
       <c r="M13">
-        <v>874.6</v>
+        <v>1541.8</v>
       </c>
       <c r="N13">
-        <v>-17.39999999999998</v>
+        <v>-130.9999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45733.125</v>
+        <v>45734.125</v>
       </c>
       <c r="B14">
-        <v>564.025</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>335.625001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1242.5</v>
       </c>
       <c r="G14">
-        <v>559.7</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="J14">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L14">
-        <v>910.025</v>
+        <v>1242.5</v>
       </c>
       <c r="M14">
-        <v>976.7</v>
+        <v>1337.625001</v>
       </c>
       <c r="N14">
-        <v>-66.67500000000007</v>
+        <v>-95.12500099999988</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45733.13541666666</v>
+        <v>45734.13541666666</v>
       </c>
       <c r="B15">
-        <v>564.025</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>335.625001</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1275.6</v>
       </c>
       <c r="G15">
-        <v>563.9</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="J15">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L15">
-        <v>910.025</v>
+        <v>1275.6</v>
       </c>
       <c r="M15">
-        <v>980.9</v>
+        <v>1337.625001</v>
       </c>
       <c r="N15">
-        <v>-70.875</v>
+        <v>-62.02500099999997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45733.14583333334</v>
+        <v>45734.14583333334</v>
       </c>
       <c r="B16">
-        <v>564.025</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>335.625001</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1255.5</v>
       </c>
       <c r="G16">
-        <v>585.7</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="J16">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L16">
-        <v>910.025</v>
+        <v>1255.5</v>
       </c>
       <c r="M16">
-        <v>1002.7</v>
+        <v>1337.625001</v>
       </c>
       <c r="N16">
-        <v>-92.67500000000007</v>
+        <v>-82.12500099999988</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45733.15625</v>
+        <v>45734.15625</v>
       </c>
       <c r="B17">
-        <v>564.025</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>335.625001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1224.9</v>
       </c>
       <c r="G17">
-        <v>583.6</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="J17">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L17">
-        <v>910.025</v>
+        <v>1224.9</v>
       </c>
       <c r="M17">
-        <v>1000.6</v>
+        <v>1337.625001</v>
       </c>
       <c r="N17">
-        <v>-90.57500000000005</v>
+        <v>-112.7250009999998</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45733.16666666666</v>
+        <v>45734.16666666666</v>
       </c>
       <c r="B18">
-        <v>757.7</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>239.25</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>268</v>
+        <v>98</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>979.2</v>
       </c>
       <c r="G18">
-        <v>957.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="J18">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1290.7</v>
+        <v>999.2</v>
       </c>
       <c r="M18">
-        <v>1299.1</v>
+        <v>1050.25</v>
       </c>
       <c r="N18">
-        <v>-8.400000000000091</v>
+        <v>-51.04999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45733.17708333334</v>
+        <v>45734.17708333334</v>
       </c>
       <c r="B19">
-        <v>757.7</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>239.25</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>268</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>972.9</v>
       </c>
       <c r="G19">
-        <v>1053.2</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="J19">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1290.7</v>
+        <v>992.9</v>
       </c>
       <c r="M19">
-        <v>1395.2</v>
+        <v>1050.25</v>
       </c>
       <c r="N19">
-        <v>-104.5</v>
+        <v>-57.35000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45733.1875</v>
+        <v>45734.1875</v>
       </c>
       <c r="B20">
-        <v>757.7</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>239.25</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>268</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="G20">
-        <v>1114.1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="J20">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1290.7</v>
+        <v>955</v>
       </c>
       <c r="M20">
-        <v>1456.1</v>
+        <v>1050.25</v>
       </c>
       <c r="N20">
-        <v>-165.3999999999999</v>
+        <v>-95.25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45733.19791666666</v>
+        <v>45734.19791666666</v>
       </c>
       <c r="B21">
-        <v>757.7</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>239.25</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>268</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>902.8000000000001</v>
       </c>
       <c r="G21">
-        <v>1185.6</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="J21">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1290.7</v>
+        <v>922.8000000000001</v>
       </c>
       <c r="M21">
-        <v>1527.6</v>
+        <v>1050.25</v>
       </c>
       <c r="N21">
-        <v>-236.8999999999999</v>
+        <v>-127.4499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45733.20833333334</v>
+        <v>45734.20833333334</v>
       </c>
       <c r="B22">
-        <v>1177.3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>280.375</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>649.6</v>
       </c>
       <c r="G22">
-        <v>1755</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>64</v>
+        <v>688</v>
       </c>
       <c r="J22">
-        <v>615</v>
+        <v>146</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1792.3</v>
+        <v>895.6</v>
       </c>
       <c r="M22">
-        <v>1977</v>
+        <v>968.375</v>
       </c>
       <c r="N22">
-        <v>-184.7</v>
+        <v>-72.77499999999998</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45733.21875</v>
+        <v>45734.21875</v>
       </c>
       <c r="B23">
-        <v>1177.3</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>280.375</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>603.6</v>
       </c>
       <c r="G23">
-        <v>1703.4</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>64</v>
+        <v>688</v>
       </c>
       <c r="J23">
-        <v>615</v>
+        <v>146</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1792.3</v>
+        <v>849.6</v>
       </c>
       <c r="M23">
-        <v>1925.4</v>
+        <v>968.375</v>
       </c>
       <c r="N23">
-        <v>-133.1000000000001</v>
+        <v>-118.775</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45733.22916666666</v>
+        <v>45734.22916666666</v>
       </c>
       <c r="B24">
-        <v>1177.3</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>280.375</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>581.1</v>
       </c>
       <c r="G24">
-        <v>1739.1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>64</v>
+        <v>688</v>
       </c>
       <c r="J24">
-        <v>615</v>
+        <v>146</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1792.3</v>
+        <v>827.1</v>
       </c>
       <c r="M24">
-        <v>1961.1</v>
+        <v>968.375</v>
       </c>
       <c r="N24">
-        <v>-168.8</v>
+        <v>-141.275</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45733.23958333334</v>
+        <v>45734.23958333334</v>
       </c>
       <c r="B25">
-        <v>1177.3</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>280.375</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>596.7</v>
       </c>
       <c r="G25">
-        <v>1740.4</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>64</v>
+        <v>688</v>
       </c>
       <c r="J25">
-        <v>615</v>
+        <v>146</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1792.3</v>
+        <v>842.7</v>
       </c>
       <c r="M25">
-        <v>1962.4</v>
+        <v>968.375</v>
       </c>
       <c r="N25">
-        <v>-170.1000000000001</v>
+        <v>-125.675</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45733.25</v>
+        <v>45734.25</v>
       </c>
       <c r="B26">
-        <v>838.6999999999999</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>188.35</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>373</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>290.2</v>
       </c>
       <c r="G26">
-        <v>1503.7</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>204</v>
+        <v>697</v>
       </c>
       <c r="J26">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1454.7</v>
+        <v>741.2</v>
       </c>
       <c r="M26">
-        <v>1707.7</v>
+        <v>885.35</v>
       </c>
       <c r="N26">
-        <v>-253</v>
+        <v>-144.15</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45733.26041666666</v>
+        <v>45734.26041666666</v>
       </c>
       <c r="B27">
-        <v>838.6999999999999</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>188.35</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>373</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="G27">
-        <v>1465.2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>204</v>
+        <v>697</v>
       </c>
       <c r="J27">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1454.7</v>
+        <v>765</v>
       </c>
       <c r="M27">
-        <v>1669.2</v>
+        <v>885.35</v>
       </c>
       <c r="N27">
-        <v>-214.5</v>
+        <v>-120.35</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45733.27083333334</v>
+        <v>45734.27083333334</v>
       </c>
       <c r="B28">
-        <v>838.6999999999999</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>188.35</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>373</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>299.6</v>
       </c>
       <c r="G28">
-        <v>1434.2</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>204</v>
+        <v>697</v>
       </c>
       <c r="J28">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1454.7</v>
+        <v>750.6</v>
       </c>
       <c r="M28">
-        <v>1638.2</v>
+        <v>885.35</v>
       </c>
       <c r="N28">
-        <v>-183.5</v>
+        <v>-134.75</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45733.28125</v>
+        <v>45734.28125</v>
       </c>
       <c r="B29">
-        <v>838.6999999999999</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>188.35</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>373</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G29">
-        <v>1410.8</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>204</v>
+        <v>697</v>
       </c>
       <c r="J29">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1454.7</v>
+        <v>734</v>
       </c>
       <c r="M29">
-        <v>1614.8</v>
+        <v>885.35</v>
       </c>
       <c r="N29">
-        <v>-160.1000000000001</v>
+        <v>-151.35</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45733.29166666666</v>
+        <v>45734.29166666666</v>
       </c>
       <c r="B30">
-        <v>300.075</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>452.2</v>
       </c>
       <c r="D30">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="G30">
-        <v>851.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>187</v>
+        <v>512</v>
       </c>
       <c r="J30">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>711.075</v>
+        <v>873</v>
       </c>
       <c r="M30">
-        <v>1038.4</v>
+        <v>964.2</v>
       </c>
       <c r="N30">
-        <v>-327.325</v>
+        <v>-91.20000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45733.30208333334</v>
+        <v>45734.30208333334</v>
       </c>
       <c r="B31">
-        <v>300.075</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>452.2</v>
       </c>
       <c r="D31">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>442.4</v>
       </c>
       <c r="G31">
-        <v>864.7</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>187</v>
+        <v>512</v>
       </c>
       <c r="J31">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>711.075</v>
+        <v>849.4</v>
       </c>
       <c r="M31">
-        <v>1051.7</v>
+        <v>964.2</v>
       </c>
       <c r="N31">
-        <v>-340.625</v>
+        <v>-114.8000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45733.3125</v>
+        <v>45734.3125</v>
       </c>
       <c r="B32">
-        <v>300.075</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>452.2</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="G32">
-        <v>624.5</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>187</v>
+        <v>512</v>
       </c>
       <c r="J32">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>711.075</v>
+        <v>900</v>
       </c>
       <c r="M32">
-        <v>811.5</v>
+        <v>964.2</v>
       </c>
       <c r="N32">
-        <v>-100.425</v>
+        <v>-64.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45733.32291666666</v>
+        <v>45734.32291666666</v>
       </c>
       <c r="B33">
-        <v>300.075</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>452.2</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>554.2</v>
       </c>
       <c r="G33">
-        <v>526.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>187</v>
+        <v>512</v>
       </c>
       <c r="J33">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>711.075</v>
+        <v>961.2</v>
       </c>
       <c r="M33">
-        <v>713.5999999999999</v>
+        <v>964.2</v>
       </c>
       <c r="N33">
-        <v>-2.524999999999864</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45733.33333333334</v>
+        <v>45734.33333333334</v>
       </c>
       <c r="B34">
-        <v>210.875</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>14.97500000000002</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>167.9</v>
       </c>
       <c r="G34">
-        <v>491.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>224</v>
+        <v>358</v>
       </c>
       <c r="J34">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>721.875</v>
+        <v>288.9</v>
       </c>
       <c r="M34">
-        <v>984.8999999999999</v>
+        <v>372.975</v>
       </c>
       <c r="N34">
-        <v>-263.0249999999999</v>
+        <v>-84.07500000000005</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45733.34375</v>
+        <v>45734.34375</v>
       </c>
       <c r="B35">
-        <v>210.875</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>14.97500000000002</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G35">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>224</v>
+        <v>358</v>
       </c>
       <c r="J35">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>721.875</v>
+        <v>292</v>
       </c>
       <c r="M35">
-        <v>981</v>
+        <v>372.975</v>
       </c>
       <c r="N35">
-        <v>-259.125</v>
+        <v>-80.97500000000002</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45733.35416666666</v>
+        <v>45734.35416666666</v>
       </c>
       <c r="B36">
-        <v>210.875</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14.97500000000002</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="G36">
-        <v>428.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>224</v>
+        <v>358</v>
       </c>
       <c r="J36">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>721.875</v>
+        <v>322</v>
       </c>
       <c r="M36">
-        <v>921.9999999999999</v>
+        <v>372.975</v>
       </c>
       <c r="N36">
-        <v>-200.1249999999999</v>
+        <v>-50.97500000000002</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45733.36458333334</v>
+        <v>45734.36458333334</v>
       </c>
       <c r="B37">
-        <v>210.875</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>14.97500000000002</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="G37">
-        <v>477.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>224</v>
+        <v>358</v>
       </c>
       <c r="J37">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>721.875</v>
+        <v>349</v>
       </c>
       <c r="M37">
-        <v>970.9999999999999</v>
+        <v>372.975</v>
       </c>
       <c r="N37">
-        <v>-249.1249999999999</v>
+        <v>-23.97500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45733.375</v>
+        <v>45734.375</v>
       </c>
       <c r="B38">
-        <v>212.5500010000001</v>
+        <v>19.17499999999995</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>49.90000000000001</v>
       </c>
       <c r="G38">
-        <v>378.7</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="J38">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>782.5500010000001</v>
+        <v>383.0749999999999</v>
       </c>
       <c r="M38">
-        <v>622.7</v>
+        <v>303</v>
       </c>
       <c r="N38">
-        <v>159.850001</v>
+        <v>80.07499999999993</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45733.38541666666</v>
+        <v>45734.38541666666</v>
       </c>
       <c r="B39">
-        <v>212.5500010000001</v>
+        <v>19.17499999999995</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>107.2</v>
       </c>
       <c r="G39">
-        <v>446.6</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="J39">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>782.5500010000001</v>
+        <v>440.3749999999999</v>
       </c>
       <c r="M39">
-        <v>690.6</v>
+        <v>303</v>
       </c>
       <c r="N39">
-        <v>91.95000100000004</v>
+        <v>137.3749999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45733.39583333334</v>
+        <v>45734.39583333334</v>
       </c>
       <c r="B40">
-        <v>212.5500010000001</v>
+        <v>19.17499999999995</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>97.69999999999999</v>
       </c>
       <c r="G40">
-        <v>605.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="J40">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>782.5500010000001</v>
+        <v>430.8749999999999</v>
       </c>
       <c r="M40">
-        <v>849.0999999999999</v>
+        <v>303</v>
       </c>
       <c r="N40">
-        <v>-66.54999899999984</v>
+        <v>127.8749999999999</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45733.40625</v>
+        <v>45734.40625</v>
       </c>
       <c r="B41">
-        <v>212.5500010000001</v>
+        <v>19.17499999999995</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="G41">
-        <v>589.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="J41">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>782.5500010000001</v>
+        <v>393.675</v>
       </c>
       <c r="M41">
-        <v>833.5999999999999</v>
+        <v>303</v>
       </c>
       <c r="N41">
-        <v>-51.04999899999984</v>
+        <v>90.67499999999995</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45733.41666666666</v>
+        <v>45734.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2247,42 +2247,42 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>345.2</v>
+        <v>524.2</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="M42">
-        <v>345.2</v>
+        <v>743.2</v>
       </c>
       <c r="N42">
-        <v>-345.2</v>
+        <v>14.79999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45733.42708333334</v>
+        <v>45734.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2291,42 +2291,42 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>526.6</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>745.6</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>12.39999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45733.4375</v>
+        <v>45734.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2335,42 +2335,42 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>568.6</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>787.6</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-29.60000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45733.44791666666</v>
+        <v>45734.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2379,33 +2379,33 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>656.2</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>875.2</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>-117.2</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45733.45833333334</v>
+        <v>45734.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45733.46875</v>
+        <v>45734.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45733.47916666666</v>
+        <v>45734.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45733.48958333334</v>
+        <v>45734.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45733.5</v>
+        <v>45734.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45733.51041666666</v>
+        <v>45734.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45733.52083333334</v>
+        <v>45734.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45733.53125</v>
+        <v>45734.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45733.54166666666</v>
+        <v>45734.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45733.55208333334</v>
+        <v>45734.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45733.5625</v>
+        <v>45734.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45733.57291666666</v>
+        <v>45734.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45733.58333333334</v>
+        <v>45734.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45733.59375</v>
+        <v>45734.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45733.60416666666</v>
+        <v>45734.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45733.61458333334</v>
+        <v>45734.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45733.625</v>
+        <v>45734.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45733.63541666666</v>
+        <v>45734.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45733.64583333334</v>
+        <v>45734.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45733.65625</v>
+        <v>45734.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45733.66666666666</v>
+        <v>45734.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45733.67708333334</v>
+        <v>45734.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45733.6875</v>
+        <v>45734.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45733.69791666666</v>
+        <v>45734.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45733.70833333334</v>
+        <v>45734.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45733.71875</v>
+        <v>45734.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45733.72916666666</v>
+        <v>45734.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45733.73958333334</v>
+        <v>45734.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45733.75</v>
+        <v>45734.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45733.76041666666</v>
+        <v>45734.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45733.77083333334</v>
+        <v>45734.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45733.78125</v>
+        <v>45734.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45733.79166666666</v>
+        <v>45734.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45733.80208333334</v>
+        <v>45734.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45733.8125</v>
+        <v>45734.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45733.82291666666</v>
+        <v>45734.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45733.83333333334</v>
+        <v>45734.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45733.84375</v>
+        <v>45734.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45733.85416666666</v>
+        <v>45734.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45733.86458333334</v>
+        <v>45734.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45733.875</v>
+        <v>45734.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45733.88541666666</v>
+        <v>45734.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45733.89583333334</v>
+        <v>45734.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45733.90625</v>
+        <v>45734.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45733.91666666666</v>
+        <v>45734.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45733.92708333334</v>
+        <v>45734.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45733.9375</v>
+        <v>45734.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45733.94791666666</v>
+        <v>45734.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45733.95833333334</v>
+        <v>45734.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45733.96875</v>
+        <v>45734.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45733.97916666666</v>
+        <v>45734.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45733.98958333334</v>
+        <v>45734.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,1254 +469,1254 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>660.2249999999999</v>
       </c>
       <c r="C2">
-        <v>499.525</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="F2">
-        <v>1269.7</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1309.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I2">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="K2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1269.7</v>
+        <v>1294.225</v>
       </c>
       <c r="M2">
-        <v>1385.525</v>
+        <v>1485.1</v>
       </c>
       <c r="N2">
-        <v>-115.825</v>
+        <v>-190.875</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45734.01041666666</v>
+        <v>45736.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>660.2249999999999</v>
       </c>
       <c r="C3">
-        <v>499.525</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="F3">
-        <v>1301.6</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="K3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1301.6</v>
+        <v>1294.225</v>
       </c>
       <c r="M3">
-        <v>1385.525</v>
+        <v>1438</v>
       </c>
       <c r="N3">
-        <v>-83.92500000000018</v>
+        <v>-143.7750000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45734.02083333334</v>
+        <v>45736.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>660.2249999999999</v>
       </c>
       <c r="C4">
-        <v>499.525</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="F4">
-        <v>1281.9</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1251.5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="K4">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1281.9</v>
+        <v>1294.225</v>
       </c>
       <c r="M4">
-        <v>1385.525</v>
+        <v>1427.5</v>
       </c>
       <c r="N4">
-        <v>-103.625</v>
+        <v>-133.2750000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45734.03125</v>
+        <v>45736.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>660.2249999999999</v>
       </c>
       <c r="C5">
-        <v>499.525</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="F5">
-        <v>1303.3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1220.8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1303.3</v>
+        <v>1294.225</v>
       </c>
       <c r="M5">
-        <v>1385.525</v>
+        <v>1396.8</v>
       </c>
       <c r="N5">
-        <v>-82.22500000000014</v>
+        <v>-102.575</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45734.04166666666</v>
+        <v>45736.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>612.0500000000002</v>
       </c>
       <c r="C6">
-        <v>351.425</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F6">
-        <v>1341.9</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>896.7</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="K6">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1341.9</v>
+        <v>1174.05</v>
       </c>
       <c r="M6">
-        <v>1427.425</v>
+        <v>1231.7</v>
       </c>
       <c r="N6">
-        <v>-85.52499999999986</v>
+        <v>-57.64999999999986</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45734.05208333334</v>
+        <v>45736.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>612.0500000000002</v>
       </c>
       <c r="C7">
-        <v>351.425</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F7">
-        <v>1349.4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>921.8</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="K7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1349.4</v>
+        <v>1174.05</v>
       </c>
       <c r="M7">
-        <v>1427.425</v>
+        <v>1256.8</v>
       </c>
       <c r="N7">
-        <v>-78.02499999999986</v>
+        <v>-82.74999999999977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45734.0625</v>
+        <v>45736.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>612.0500000000002</v>
       </c>
       <c r="C8">
-        <v>351.425</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F8">
-        <v>1329.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="K8">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1329.3</v>
+        <v>1174.05</v>
       </c>
       <c r="M8">
-        <v>1427.425</v>
+        <v>1226.6</v>
       </c>
       <c r="N8">
-        <v>-98.125</v>
+        <v>-52.54999999999973</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45734.07291666666</v>
+        <v>45736.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>612.0500000000002</v>
       </c>
       <c r="C9">
-        <v>351.425</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F9">
-        <v>1284</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>902.7</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="K9">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1284</v>
+        <v>1174.05</v>
       </c>
       <c r="M9">
-        <v>1427.425</v>
+        <v>1237.7</v>
       </c>
       <c r="N9">
-        <v>-143.425</v>
+        <v>-63.64999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45734.08333333334</v>
+        <v>45736.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>625.45</v>
       </c>
       <c r="C10">
-        <v>420.8</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="F10">
-        <v>1449.8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>759.8000000000002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>806</v>
+        <v>42</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K10">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1449.8</v>
+        <v>1171.45</v>
       </c>
       <c r="M10">
-        <v>1541.8</v>
+        <v>1158.8</v>
       </c>
       <c r="N10">
-        <v>-92</v>
+        <v>12.64999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45734.09375</v>
+        <v>45736.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>625.45</v>
       </c>
       <c r="C11">
-        <v>420.8</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="F11">
-        <v>1453.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>755.3000000000002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>806</v>
+        <v>42</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K11">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1453.3</v>
+        <v>1171.45</v>
       </c>
       <c r="M11">
-        <v>1541.8</v>
+        <v>1154.3</v>
       </c>
       <c r="N11">
-        <v>-88.49999999999977</v>
+        <v>17.14999999999986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45734.10416666666</v>
+        <v>45736.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>625.45</v>
       </c>
       <c r="C12">
-        <v>420.8</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="F12">
-        <v>1388.5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>786.3000000000002</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>806</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K12">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1388.5</v>
+        <v>1171.45</v>
       </c>
       <c r="M12">
-        <v>1541.8</v>
+        <v>1185.3</v>
       </c>
       <c r="N12">
-        <v>-153.3</v>
+        <v>-13.85000000000014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45734.11458333334</v>
+        <v>45736.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>625.45</v>
       </c>
       <c r="C13">
-        <v>420.8</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="F13">
-        <v>1410.8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>806</v>
+        <v>42</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K13">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1410.8</v>
+        <v>1171.45</v>
       </c>
       <c r="M13">
-        <v>1541.8</v>
+        <v>1180</v>
       </c>
       <c r="N13">
-        <v>-130.9999999999998</v>
+        <v>-8.549999999999955</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45734.125</v>
+        <v>45736.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>709.875</v>
       </c>
       <c r="C14">
-        <v>335.625001</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="F14">
-        <v>1242.5</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>900.9000000000001</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>763</v>
+        <v>58</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K14">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1242.5</v>
+        <v>1254.875</v>
       </c>
       <c r="M14">
-        <v>1337.625001</v>
+        <v>1313.9</v>
       </c>
       <c r="N14">
-        <v>-95.12500099999988</v>
+        <v>-59.02500000000009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45734.13541666666</v>
+        <v>45736.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>709.875</v>
       </c>
       <c r="C15">
-        <v>335.625001</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="F15">
-        <v>1275.6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>914.4000000000001</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>763</v>
+        <v>58</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K15">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1275.6</v>
+        <v>1254.875</v>
       </c>
       <c r="M15">
-        <v>1337.625001</v>
+        <v>1327.4</v>
       </c>
       <c r="N15">
-        <v>-62.02500099999997</v>
+        <v>-72.52500000000009</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45734.14583333334</v>
+        <v>45736.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>709.875</v>
       </c>
       <c r="C16">
-        <v>335.625001</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="F16">
-        <v>1255.5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>944.4000000000001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>763</v>
+        <v>58</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K16">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1255.5</v>
+        <v>1254.875</v>
       </c>
       <c r="M16">
-        <v>1337.625001</v>
+        <v>1357.4</v>
       </c>
       <c r="N16">
-        <v>-82.12500099999988</v>
+        <v>-102.5250000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45734.15625</v>
+        <v>45736.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>709.875</v>
       </c>
       <c r="C17">
-        <v>335.625001</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="F17">
-        <v>1224.9</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>925.1000000000001</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>763</v>
+        <v>58</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K17">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1224.9</v>
+        <v>1254.875</v>
       </c>
       <c r="M17">
-        <v>1337.625001</v>
+        <v>1338.1</v>
       </c>
       <c r="N17">
-        <v>-112.7250009999998</v>
+        <v>-83.22500000000014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45734.16666666666</v>
+        <v>45736.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>848.9000000000001</v>
       </c>
       <c r="C18">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="F18">
-        <v>979.2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1150.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>594</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>999.2</v>
+        <v>1448.9</v>
       </c>
       <c r="M18">
-        <v>1050.25</v>
+        <v>1490.5</v>
       </c>
       <c r="N18">
-        <v>-51.04999999999995</v>
+        <v>-41.59999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45734.17708333334</v>
+        <v>45736.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>848.9000000000001</v>
       </c>
       <c r="C19">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="F19">
-        <v>972.9</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1158.7</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>594</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>992.9</v>
+        <v>1448.9</v>
       </c>
       <c r="M19">
-        <v>1050.25</v>
+        <v>1498.7</v>
       </c>
       <c r="N19">
-        <v>-57.35000000000002</v>
+        <v>-49.79999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45734.1875</v>
+        <v>45736.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>848.9000000000001</v>
       </c>
       <c r="C20">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="F20">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1242.2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>594</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>955</v>
+        <v>1448.9</v>
       </c>
       <c r="M20">
-        <v>1050.25</v>
+        <v>1582.2</v>
       </c>
       <c r="N20">
-        <v>-95.25</v>
+        <v>-133.3</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45734.19791666666</v>
+        <v>45736.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>848.9000000000001</v>
       </c>
       <c r="C21">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="F21">
-        <v>902.8000000000001</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1262.6</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>594</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>922.8000000000001</v>
+        <v>1448.9</v>
       </c>
       <c r="M21">
-        <v>1050.25</v>
+        <v>1602.6</v>
       </c>
       <c r="N21">
-        <v>-127.4499999999999</v>
+        <v>-153.6999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45734.20833333334</v>
+        <v>45736.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>631.5250000000001</v>
       </c>
       <c r="C22">
-        <v>280.375</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F22">
-        <v>649.6</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1246.7</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I22">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>146</v>
+        <v>547</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>895.6</v>
+        <v>1255.525</v>
       </c>
       <c r="M22">
-        <v>968.375</v>
+        <v>1300.7</v>
       </c>
       <c r="N22">
-        <v>-72.77499999999998</v>
+        <v>-45.17499999999973</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45734.21875</v>
+        <v>45736.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>631.5250000000001</v>
       </c>
       <c r="C23">
-        <v>280.375</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F23">
-        <v>603.6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I23">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>146</v>
+        <v>547</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>849.6</v>
+        <v>1255.525</v>
       </c>
       <c r="M23">
-        <v>968.375</v>
+        <v>1361</v>
       </c>
       <c r="N23">
-        <v>-118.775</v>
+        <v>-105.4749999999999</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45734.22916666666</v>
+        <v>45736.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>631.5250000000001</v>
       </c>
       <c r="C24">
-        <v>280.375</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>581.1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1409.2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I24">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>146</v>
+        <v>547</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>827.1</v>
+        <v>1255.525</v>
       </c>
       <c r="M24">
-        <v>968.375</v>
+        <v>1463.2</v>
       </c>
       <c r="N24">
-        <v>-141.275</v>
+        <v>-207.6749999999997</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45734.23958333334</v>
+        <v>45736.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>631.5250000000001</v>
       </c>
       <c r="C25">
-        <v>280.375</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F25">
-        <v>596.7</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1449.7</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I25">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>146</v>
+        <v>547</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>842.7</v>
+        <v>1255.525</v>
       </c>
       <c r="M25">
-        <v>968.375</v>
+        <v>1503.7</v>
       </c>
       <c r="N25">
-        <v>-125.675</v>
+        <v>-248.1749999999997</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45734.25</v>
+        <v>45736.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>246.95</v>
       </c>
       <c r="C26">
-        <v>188.35</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>373</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>290.2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>648.5999999999999</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>697</v>
+        <v>147</v>
       </c>
       <c r="J26">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>741.2</v>
+        <v>627.95</v>
       </c>
       <c r="M26">
-        <v>885.35</v>
+        <v>795.5999999999999</v>
       </c>
       <c r="N26">
-        <v>-144.15</v>
+        <v>-167.6499999999999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45734.26041666666</v>
+        <v>45736.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>246.95</v>
       </c>
       <c r="C27">
-        <v>188.35</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>373</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>723.3</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>697</v>
+        <v>147</v>
       </c>
       <c r="J27">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>765</v>
+        <v>627.95</v>
       </c>
       <c r="M27">
-        <v>885.35</v>
+        <v>870.3</v>
       </c>
       <c r="N27">
-        <v>-120.35</v>
+        <v>-242.3499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45734.27083333334</v>
+        <v>45736.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>246.95</v>
       </c>
       <c r="C28">
-        <v>188.35</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>373</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>299.6</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>550.1999999999999</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>697</v>
+        <v>147</v>
       </c>
       <c r="J28">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>750.6</v>
+        <v>627.95</v>
       </c>
       <c r="M28">
-        <v>885.35</v>
+        <v>697.1999999999999</v>
       </c>
       <c r="N28">
-        <v>-134.75</v>
+        <v>-69.24999999999989</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45734.28125</v>
+        <v>45736.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>246.95</v>
       </c>
       <c r="C29">
-        <v>188.35</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>373</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>508.3</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>697</v>
+        <v>147</v>
       </c>
       <c r="J29">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>734</v>
+        <v>627.95</v>
       </c>
       <c r="M29">
-        <v>885.35</v>
+        <v>655.3</v>
       </c>
       <c r="N29">
-        <v>-151.35</v>
+        <v>-27.34999999999991</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45734.29166666666</v>
+        <v>45736.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>452.2</v>
+        <v>323.575</v>
       </c>
       <c r="D30">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>466</v>
+        <v>373.8</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="J30">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L30">
-        <v>873</v>
+        <v>507.8</v>
       </c>
       <c r="M30">
-        <v>964.2</v>
+        <v>666.575</v>
       </c>
       <c r="N30">
-        <v>-91.20000000000005</v>
+        <v>-158.775</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45734.30208333334</v>
+        <v>45736.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>452.2</v>
+        <v>323.575</v>
       </c>
       <c r="D31">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>442.4</v>
+        <v>392.2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="J31">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L31">
-        <v>849.4</v>
+        <v>526.2</v>
       </c>
       <c r="M31">
-        <v>964.2</v>
+        <v>666.575</v>
       </c>
       <c r="N31">
-        <v>-114.8000000000001</v>
+        <v>-140.375</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45734.3125</v>
+        <v>45736.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>452.2</v>
+        <v>323.575</v>
       </c>
       <c r="D32">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>493</v>
+        <v>645.1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="J32">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L32">
-        <v>900</v>
+        <v>779.1</v>
       </c>
       <c r="M32">
-        <v>964.2</v>
+        <v>666.575</v>
       </c>
       <c r="N32">
-        <v>-64.20000000000005</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45734.32291666666</v>
+        <v>45736.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>452.2</v>
+        <v>323.575</v>
       </c>
       <c r="D33">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>554.2</v>
+        <v>843.2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L33">
-        <v>961.2</v>
+        <v>977.2</v>
       </c>
       <c r="M33">
-        <v>964.2</v>
+        <v>666.575</v>
       </c>
       <c r="N33">
-        <v>-3</v>
+        <v>310.625</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45734.33333333334</v>
+        <v>45736.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>14.97500000000002</v>
+        <v>197.2249999999999</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>167.9</v>
+        <v>653</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="J34">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L34">
-        <v>288.9</v>
+        <v>654</v>
       </c>
       <c r="M34">
-        <v>372.975</v>
+        <v>582.2249999999999</v>
       </c>
       <c r="N34">
-        <v>-84.07500000000005</v>
+        <v>71.77500000000009</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45734.34375</v>
+        <v>45736.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>14.97500000000002</v>
+        <v>197.2249999999999</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>171</v>
+        <v>592</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="J35">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L35">
-        <v>292</v>
+        <v>593</v>
       </c>
       <c r="M35">
-        <v>372.975</v>
+        <v>582.2249999999999</v>
       </c>
       <c r="N35">
-        <v>-80.97500000000002</v>
+        <v>10.77500000000009</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45734.35416666666</v>
+        <v>45736.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>14.97500000000002</v>
+        <v>197.2249999999999</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>201</v>
+        <v>643.2</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="J36">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L36">
-        <v>322</v>
+        <v>644.2</v>
       </c>
       <c r="M36">
-        <v>372.975</v>
+        <v>582.2249999999999</v>
       </c>
       <c r="N36">
-        <v>-50.97500000000002</v>
+        <v>61.97500000000014</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45734.36458333334</v>
+        <v>45736.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>14.97500000000002</v>
+        <v>197.2249999999999</v>
       </c>
       <c r="D37">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>228</v>
+        <v>773.6</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="J37">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L37">
-        <v>349</v>
+        <v>774.6</v>
       </c>
       <c r="M37">
-        <v>372.975</v>
+        <v>582.2249999999999</v>
       </c>
       <c r="N37">
-        <v>-23.97500000000002</v>
+        <v>192.3750000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45734.375</v>
+        <v>45736.375</v>
       </c>
       <c r="B38">
-        <v>19.17499999999995</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>652.2</v>
       </c>
       <c r="D38">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>49.90000000000001</v>
+        <v>1418</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="J38">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="L38">
-        <v>383.0749999999999</v>
+        <v>1540</v>
       </c>
       <c r="M38">
-        <v>303</v>
+        <v>1265.2</v>
       </c>
       <c r="N38">
-        <v>80.07499999999993</v>
+        <v>274.8</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45734.38541666666</v>
+        <v>45736.38541666666</v>
       </c>
       <c r="B39">
-        <v>19.17499999999995</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>652.2</v>
       </c>
       <c r="D39">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>107.2</v>
+        <v>1471.8</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="J39">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="L39">
-        <v>440.3749999999999</v>
+        <v>1593.8</v>
       </c>
       <c r="M39">
-        <v>303</v>
+        <v>1265.2</v>
       </c>
       <c r="N39">
-        <v>137.3749999999999</v>
+        <v>328.5999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45734.39583333334</v>
+        <v>45736.39583333334</v>
       </c>
       <c r="B40">
-        <v>19.17499999999995</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>652.2</v>
       </c>
       <c r="D40">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>97.69999999999999</v>
+        <v>1443.2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="J40">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="L40">
-        <v>430.8749999999999</v>
+        <v>1565.2</v>
       </c>
       <c r="M40">
-        <v>303</v>
+        <v>1265.2</v>
       </c>
       <c r="N40">
-        <v>127.8749999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45734.40625</v>
+        <v>45736.40625</v>
       </c>
       <c r="B41">
-        <v>19.17499999999995</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>652.2</v>
       </c>
       <c r="D41">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>60.5</v>
+        <v>1506.4</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,218 +2209,218 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="J41">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="L41">
-        <v>393.675</v>
+        <v>1628.4</v>
       </c>
       <c r="M41">
-        <v>303</v>
+        <v>1265.2</v>
       </c>
       <c r="N41">
-        <v>90.67499999999995</v>
+        <v>363.2</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45734.41666666666</v>
+        <v>45736.41666666666</v>
       </c>
       <c r="B42">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>480.05</v>
       </c>
       <c r="D42">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="G42">
-        <v>524.2</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="J42">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L42">
-        <v>758</v>
+        <v>1391</v>
       </c>
       <c r="M42">
-        <v>743.2</v>
+        <v>905.05</v>
       </c>
       <c r="N42">
-        <v>14.79999999999995</v>
+        <v>485.95</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45734.42708333334</v>
+        <v>45736.42708333334</v>
       </c>
       <c r="B43">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>480.05</v>
       </c>
       <c r="D43">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="G43">
-        <v>526.6</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="J43">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L43">
-        <v>758</v>
+        <v>1386</v>
       </c>
       <c r="M43">
-        <v>745.6</v>
+        <v>905.05</v>
       </c>
       <c r="N43">
-        <v>12.39999999999998</v>
+        <v>480.95</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45734.4375</v>
+        <v>45736.4375</v>
       </c>
       <c r="B44">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>480.05</v>
       </c>
       <c r="D44">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="G44">
-        <v>568.6</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="J44">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L44">
-        <v>758</v>
+        <v>1398</v>
       </c>
       <c r="M44">
-        <v>787.6</v>
+        <v>905.05</v>
       </c>
       <c r="N44">
-        <v>-29.60000000000002</v>
+        <v>492.95</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45734.44791666666</v>
+        <v>45736.44791666666</v>
       </c>
       <c r="B45">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>480.05</v>
       </c>
       <c r="D45">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="G45">
-        <v>656.2</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="J45">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L45">
-        <v>758</v>
+        <v>1401</v>
       </c>
       <c r="M45">
-        <v>875.2</v>
+        <v>905.05</v>
       </c>
       <c r="N45">
-        <v>-117.2</v>
+        <v>495.95</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45734.45833333334</v>
+        <v>45736.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>159.125</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>612.3</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2429,42 +2429,42 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>804.3</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>320.125</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>484.175</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45734.46875</v>
+        <v>45736.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>159.125</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>582.0999999999999</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2473,42 +2473,42 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>774.0999999999999</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>320.125</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>453.9749999999999</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45734.47916666666</v>
+        <v>45736.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>159.125</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>535.7</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2517,42 +2517,42 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>727.7</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>320.125</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>407.575</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45734.48958333334</v>
+        <v>45736.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>159.125</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>542.7</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2561,27 +2561,27 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>734.7</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>320.125</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>414.575</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45734.5</v>
+        <v>45736.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>449.5</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2614,18 +2614,18 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>449.5</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>449.5</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45734.51041666666</v>
+        <v>45736.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>454.3000000000001</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2658,18 +2658,18 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>454.3000000000001</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>454.3000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45734.52083333334</v>
+        <v>45736.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45734.53125</v>
+        <v>45736.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45734.54166666666</v>
+        <v>45736.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45734.55208333334</v>
+        <v>45736.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45734.5625</v>
+        <v>45736.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45734.57291666666</v>
+        <v>45736.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45734.58333333334</v>
+        <v>45736.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45734.59375</v>
+        <v>45736.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45734.60416666666</v>
+        <v>45736.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45734.61458333334</v>
+        <v>45736.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45734.625</v>
+        <v>45736.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45734.63541666666</v>
+        <v>45736.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45734.64583333334</v>
+        <v>45736.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45734.65625</v>
+        <v>45736.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45734.66666666666</v>
+        <v>45736.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45734.67708333334</v>
+        <v>45736.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45734.6875</v>
+        <v>45736.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45734.69791666666</v>
+        <v>45736.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45734.70833333334</v>
+        <v>45736.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45734.71875</v>
+        <v>45736.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45734.72916666666</v>
+        <v>45736.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45734.73958333334</v>
+        <v>45736.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45734.75</v>
+        <v>45736.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45734.76041666666</v>
+        <v>45736.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45734.77083333334</v>
+        <v>45736.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45734.78125</v>
+        <v>45736.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45734.79166666666</v>
+        <v>45736.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45734.80208333334</v>
+        <v>45736.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45734.8125</v>
+        <v>45736.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45734.82291666666</v>
+        <v>45736.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45734.83333333334</v>
+        <v>45736.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45734.84375</v>
+        <v>45736.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45734.85416666666</v>
+        <v>45736.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45734.86458333334</v>
+        <v>45736.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45734.875</v>
+        <v>45736.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45734.88541666666</v>
+        <v>45736.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45734.89583333334</v>
+        <v>45736.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45734.90625</v>
+        <v>45736.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45734.91666666666</v>
+        <v>45736.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45734.92708333334</v>
+        <v>45736.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45734.9375</v>
+        <v>45736.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45734.94791666666</v>
+        <v>45736.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45734.95833333334</v>
+        <v>45736.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45734.96875</v>
+        <v>45736.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45734.97916666666</v>
+        <v>45736.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45734.98958333334</v>
+        <v>45736.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,1254 +469,1254 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45736</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>660.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>504.325</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1163.3</v>
       </c>
       <c r="G2">
-        <v>1309.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J2">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>1294.225</v>
+        <v>1245.3</v>
       </c>
       <c r="M2">
-        <v>1485.1</v>
+        <v>1339.325</v>
       </c>
       <c r="N2">
-        <v>-190.875</v>
+        <v>-94.02500000000009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45736.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B3">
-        <v>660.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>504.325</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1297.6</v>
       </c>
       <c r="G3">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J3">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>1294.225</v>
+        <v>1379.6</v>
       </c>
       <c r="M3">
-        <v>1438</v>
+        <v>1339.325</v>
       </c>
       <c r="N3">
-        <v>-143.7750000000001</v>
+        <v>40.27499999999986</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45736.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B4">
-        <v>660.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>504.325</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1250.9</v>
       </c>
       <c r="G4">
-        <v>1251.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J4">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>1294.225</v>
+        <v>1332.9</v>
       </c>
       <c r="M4">
-        <v>1427.5</v>
+        <v>1339.325</v>
       </c>
       <c r="N4">
-        <v>-133.2750000000001</v>
+        <v>-6.425000000000182</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45736.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>660.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>504.325</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G5">
-        <v>1220.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J5">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>1294.225</v>
+        <v>1282</v>
       </c>
       <c r="M5">
-        <v>1396.8</v>
+        <v>1339.325</v>
       </c>
       <c r="N5">
-        <v>-102.575</v>
+        <v>-57.32500000000005</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45736.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B6">
-        <v>612.0500000000002</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>534.25</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1248.6</v>
       </c>
       <c r="G6">
-        <v>896.7</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="J6">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="L6">
-        <v>1174.05</v>
+        <v>1289.6</v>
       </c>
       <c r="M6">
-        <v>1231.7</v>
+        <v>1317.25</v>
       </c>
       <c r="N6">
-        <v>-57.64999999999986</v>
+        <v>-27.65000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45736.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B7">
-        <v>612.0500000000002</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>534.25</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="G7">
-        <v>921.8</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="J7">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="L7">
-        <v>1174.05</v>
+        <v>1368</v>
       </c>
       <c r="M7">
-        <v>1256.8</v>
+        <v>1317.25</v>
       </c>
       <c r="N7">
-        <v>-82.74999999999977</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45736.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>612.0500000000002</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>534.25</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="G8">
-        <v>891.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="J8">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="L8">
-        <v>1174.05</v>
+        <v>1378</v>
       </c>
       <c r="M8">
-        <v>1226.6</v>
+        <v>1317.25</v>
       </c>
       <c r="N8">
-        <v>-52.54999999999973</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45736.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B9">
-        <v>612.0500000000002</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>534.25</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="G9">
-        <v>902.7</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="J9">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="L9">
-        <v>1174.05</v>
+        <v>1357</v>
       </c>
       <c r="M9">
-        <v>1237.7</v>
+        <v>1317.25</v>
       </c>
       <c r="N9">
-        <v>-63.64999999999986</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45736.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B10">
-        <v>625.45</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>485.625</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="G10">
-        <v>759.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="J10">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L10">
-        <v>1171.45</v>
+        <v>1274</v>
       </c>
       <c r="M10">
-        <v>1158.8</v>
+        <v>1171.625</v>
       </c>
       <c r="N10">
-        <v>12.64999999999986</v>
+        <v>102.375</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45736.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
-        <v>625.45</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>485.625</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="G11">
-        <v>755.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="J11">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L11">
-        <v>1171.45</v>
+        <v>1308</v>
       </c>
       <c r="M11">
-        <v>1154.3</v>
+        <v>1171.625</v>
       </c>
       <c r="N11">
-        <v>17.14999999999986</v>
+        <v>136.375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45736.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B12">
-        <v>625.45</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>485.625</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1303.6</v>
       </c>
       <c r="G12">
-        <v>786.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="J12">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L12">
-        <v>1171.45</v>
+        <v>1322.6</v>
       </c>
       <c r="M12">
-        <v>1185.3</v>
+        <v>1171.625</v>
       </c>
       <c r="N12">
-        <v>-13.85000000000014</v>
+        <v>150.9749999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45736.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B13">
-        <v>625.45</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>485.625</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1275.8</v>
       </c>
       <c r="G13">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="J13">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L13">
-        <v>1171.45</v>
+        <v>1294.8</v>
       </c>
       <c r="M13">
-        <v>1180</v>
+        <v>1171.625</v>
       </c>
       <c r="N13">
-        <v>-8.549999999999955</v>
+        <v>123.175</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45736.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
-        <v>709.875</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>325.85</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="G14">
-        <v>900.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>58</v>
+        <v>493</v>
       </c>
       <c r="J14">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L14">
-        <v>1254.875</v>
+        <v>1009</v>
       </c>
       <c r="M14">
-        <v>1313.9</v>
+        <v>901.85</v>
       </c>
       <c r="N14">
-        <v>-59.02500000000009</v>
+        <v>107.15</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45736.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B15">
-        <v>709.875</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>325.85</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>932.5</v>
       </c>
       <c r="G15">
-        <v>914.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>58</v>
+        <v>493</v>
       </c>
       <c r="J15">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L15">
-        <v>1254.875</v>
+        <v>983.5</v>
       </c>
       <c r="M15">
-        <v>1327.4</v>
+        <v>901.85</v>
       </c>
       <c r="N15">
-        <v>-72.52500000000009</v>
+        <v>81.64999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45736.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B16">
-        <v>709.875</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>325.85</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>886.4000000000001</v>
       </c>
       <c r="G16">
-        <v>944.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>58</v>
+        <v>493</v>
       </c>
       <c r="J16">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L16">
-        <v>1254.875</v>
+        <v>937.4000000000001</v>
       </c>
       <c r="M16">
-        <v>1357.4</v>
+        <v>901.85</v>
       </c>
       <c r="N16">
-        <v>-102.5250000000001</v>
+        <v>35.55000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45736.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
-        <v>709.875</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>325.85</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>857.4000000000001</v>
       </c>
       <c r="G17">
-        <v>925.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>58</v>
+        <v>493</v>
       </c>
       <c r="J17">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L17">
-        <v>1254.875</v>
+        <v>908.4000000000001</v>
       </c>
       <c r="M17">
-        <v>1338.1</v>
+        <v>901.85</v>
       </c>
       <c r="N17">
-        <v>-83.22500000000014</v>
+        <v>6.550000000000068</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45736.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B18">
-        <v>848.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>195.575</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E18">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>404.2</v>
       </c>
       <c r="G18">
-        <v>1150.5</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J18">
-        <v>594</v>
+        <v>13</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1448.9</v>
+        <v>606.2</v>
       </c>
       <c r="M18">
-        <v>1490.5</v>
+        <v>650.575</v>
       </c>
       <c r="N18">
-        <v>-41.59999999999991</v>
+        <v>-44.375</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45736.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B19">
-        <v>848.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>195.575</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E19">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>353.2</v>
       </c>
       <c r="G19">
-        <v>1158.7</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J19">
-        <v>594</v>
+        <v>13</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1448.9</v>
+        <v>555.2</v>
       </c>
       <c r="M19">
-        <v>1498.7</v>
+        <v>650.575</v>
       </c>
       <c r="N19">
-        <v>-49.79999999999995</v>
+        <v>-95.375</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45736.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>848.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>195.575</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E20">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>381.8</v>
       </c>
       <c r="G20">
-        <v>1242.2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J20">
-        <v>594</v>
+        <v>13</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1448.9</v>
+        <v>583.8</v>
       </c>
       <c r="M20">
-        <v>1582.2</v>
+        <v>650.575</v>
       </c>
       <c r="N20">
-        <v>-133.3</v>
+        <v>-66.77500000000009</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45736.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B21">
-        <v>848.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>195.575</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E21">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>262.2</v>
       </c>
       <c r="G21">
-        <v>1262.6</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="J21">
-        <v>594</v>
+        <v>13</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1448.9</v>
+        <v>464.2</v>
       </c>
       <c r="M21">
-        <v>1602.6</v>
+        <v>650.575</v>
       </c>
       <c r="N21">
-        <v>-153.6999999999998</v>
+        <v>-186.375</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45736.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B22">
-        <v>631.5250000000001</v>
+        <v>52.57499900000005</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1246.7</v>
+        <v>308.2</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J22">
-        <v>547</v>
+        <v>210</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1255.525</v>
+        <v>583.574999</v>
       </c>
       <c r="M22">
-        <v>1300.7</v>
+        <v>568.2</v>
       </c>
       <c r="N22">
-        <v>-45.17499999999973</v>
+        <v>15.374999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45736.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>631.5250000000001</v>
+        <v>52.57499900000005</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E23">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1307</v>
+        <v>333.2</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J23">
-        <v>547</v>
+        <v>210</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1255.525</v>
+        <v>583.574999</v>
       </c>
       <c r="M23">
-        <v>1361</v>
+        <v>593.2</v>
       </c>
       <c r="N23">
-        <v>-105.4749999999999</v>
+        <v>-9.625000999999997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45736.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B24">
-        <v>631.5250000000001</v>
+        <v>52.57499900000005</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E24">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1409.2</v>
+        <v>473.1</v>
       </c>
       <c r="H24">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J24">
-        <v>547</v>
+        <v>210</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1255.525</v>
+        <v>583.574999</v>
       </c>
       <c r="M24">
-        <v>1463.2</v>
+        <v>733.1</v>
       </c>
       <c r="N24">
-        <v>-207.6749999999997</v>
+        <v>-149.525001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45736.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B25">
-        <v>631.5250000000001</v>
+        <v>52.57499900000005</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E25">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1449.7</v>
+        <v>546</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J25">
-        <v>547</v>
+        <v>210</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1255.525</v>
+        <v>583.574999</v>
       </c>
       <c r="M25">
-        <v>1503.7</v>
+        <v>806</v>
       </c>
       <c r="N25">
-        <v>-248.1749999999997</v>
+        <v>-222.425001</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45736.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>246.95</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>209.125</v>
       </c>
       <c r="D26">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>65.19999999999999</v>
       </c>
       <c r="G26">
-        <v>648.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="J26">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L26">
-        <v>627.95</v>
+        <v>544.2</v>
       </c>
       <c r="M26">
-        <v>795.5999999999999</v>
+        <v>568.125</v>
       </c>
       <c r="N26">
-        <v>-167.6499999999999</v>
+        <v>-23.92499999999995</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45736.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B27">
-        <v>246.95</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>209.125</v>
       </c>
       <c r="D27">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="G27">
-        <v>723.3</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="J27">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L27">
-        <v>627.95</v>
+        <v>574.5</v>
       </c>
       <c r="M27">
-        <v>870.3</v>
+        <v>568.125</v>
       </c>
       <c r="N27">
-        <v>-242.3499999999999</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45736.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B28">
-        <v>246.95</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>209.125</v>
       </c>
       <c r="D28">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="G28">
-        <v>550.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="J28">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L28">
-        <v>627.95</v>
+        <v>600.5</v>
       </c>
       <c r="M28">
-        <v>697.1999999999999</v>
+        <v>568.125</v>
       </c>
       <c r="N28">
-        <v>-69.24999999999989</v>
+        <v>32.375</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45736.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
-        <v>246.95</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>209.125</v>
       </c>
       <c r="D29">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="G29">
-        <v>508.3</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="J29">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L29">
-        <v>627.95</v>
+        <v>560.5</v>
       </c>
       <c r="M29">
-        <v>655.3</v>
+        <v>568.125</v>
       </c>
       <c r="N29">
-        <v>-27.34999999999991</v>
+        <v>-7.625</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45736.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>323.575</v>
+        <v>338.2</v>
       </c>
       <c r="D30">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>373.8</v>
+        <v>254</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="L30">
-        <v>507.8</v>
+        <v>679</v>
       </c>
       <c r="M30">
-        <v>666.575</v>
+        <v>662.2</v>
       </c>
       <c r="N30">
-        <v>-158.775</v>
+        <v>16.79999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45736.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>323.575</v>
+        <v>338.2</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>392.2</v>
+        <v>281.3</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="L31">
-        <v>526.2</v>
+        <v>706.3</v>
       </c>
       <c r="M31">
-        <v>666.575</v>
+        <v>662.2</v>
       </c>
       <c r="N31">
-        <v>-140.375</v>
+        <v>44.09999999999991</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45736.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>323.575</v>
+        <v>338.2</v>
       </c>
       <c r="D32">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>645.1</v>
+        <v>344.1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="L32">
-        <v>779.1</v>
+        <v>769.1</v>
       </c>
       <c r="M32">
-        <v>666.575</v>
+        <v>662.2</v>
       </c>
       <c r="N32">
-        <v>112.525</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45736.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>323.575</v>
+        <v>338.2</v>
       </c>
       <c r="D33">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>843.2</v>
+        <v>377.9</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="L33">
-        <v>977.2</v>
+        <v>802.9</v>
       </c>
       <c r="M33">
-        <v>666.575</v>
+        <v>662.2</v>
       </c>
       <c r="N33">
-        <v>310.625</v>
+        <v>140.6999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45736.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>197.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>582.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>71.77500000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45736.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>197.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>582.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>10.77500000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45736.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>197.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>643.2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>644.2</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>582.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>61.97500000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45736.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>197.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>773.6</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>774.6</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>582.2249999999999</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>192.3750000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45736.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>652.2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1265.2</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>274.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45736.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>652.2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1471.8</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1593.8</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1265.2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>328.5999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45736.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>652.2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1443.2</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1565.2</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1265.2</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45736.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>652.2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1506.4</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,42 +2209,42 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1628.4</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1265.2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>363.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45736.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>480.05</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2253,42 +2253,42 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>905.05</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>485.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45736.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>480.05</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2297,42 +2297,42 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>905.05</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>480.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45736.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>480.05</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2341,42 +2341,42 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>905.05</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>492.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45736.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>480.05</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2385,42 +2385,42 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>905.05</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>495.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45736.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>159.125</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>612.3</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2429,42 +2429,42 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>804.3</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>320.125</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>484.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45736.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>159.125</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>582.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2473,42 +2473,42 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>774.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>320.125</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>453.9749999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45736.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>159.125</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>535.7</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2517,42 +2517,42 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>727.7</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>320.125</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>407.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45736.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>159.125</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>542.7</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2561,27 +2561,27 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>734.7</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>320.125</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>414.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45736.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>449.5</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2614,18 +2614,18 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>449.5</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>449.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45736.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>454.3000000000001</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2658,18 +2658,18 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>454.3000000000001</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>454.3000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45736.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45736.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45736.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45736.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45736.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45736.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45736.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45736.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45736.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45736.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45736.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45736.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45736.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45736.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45736.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45736.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45736.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45736.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45736.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45736.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45736.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45736.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45736.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45736.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45736.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45736.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45736.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45736.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45736.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45736.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45736.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45736.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45736.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45736.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45736.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45736.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45736.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45736.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45736.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45736.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45736.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45736.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45736.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45736.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45736.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45736.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,22 +469,22 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>504.325</v>
+        <v>814.4000000000001</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1163.3</v>
+        <v>1112</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -493,42 +493,42 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>700</v>
+        <v>395</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1245.3</v>
+        <v>1279</v>
       </c>
       <c r="M2">
-        <v>1339.325</v>
+        <v>1211.4</v>
       </c>
       <c r="N2">
-        <v>-94.02500000000009</v>
+        <v>67.59999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>504.325</v>
+        <v>814.4000000000001</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1297.6</v>
+        <v>1157.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,42 +537,42 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>700</v>
+        <v>395</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1379.6</v>
+        <v>1324.7</v>
       </c>
       <c r="M3">
-        <v>1339.325</v>
+        <v>1211.4</v>
       </c>
       <c r="N3">
-        <v>40.27499999999986</v>
+        <v>113.2999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>504.325</v>
+        <v>814.4000000000001</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1250.9</v>
+        <v>1135.7</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -581,42 +581,42 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>700</v>
+        <v>395</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1332.9</v>
+        <v>1302.7</v>
       </c>
       <c r="M4">
-        <v>1339.325</v>
+        <v>1211.4</v>
       </c>
       <c r="N4">
-        <v>-6.425000000000182</v>
+        <v>91.29999999999973</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>504.325</v>
+        <v>814.4000000000001</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1200</v>
+        <v>1135</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -625,218 +625,218 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>700</v>
+        <v>395</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1282</v>
+        <v>1302</v>
       </c>
       <c r="M5">
-        <v>1339.325</v>
+        <v>1211.4</v>
       </c>
       <c r="N5">
-        <v>-57.32500000000005</v>
+        <v>90.59999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>534.25</v>
+        <v>50.85000000000002</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>483.7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>323</v>
+      </c>
+      <c r="J6">
         <v>41</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1248.6</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>624</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1289.6</v>
+        <v>524.7</v>
       </c>
       <c r="M6">
-        <v>1317.25</v>
+        <v>463.85</v>
       </c>
       <c r="N6">
-        <v>-27.65000000000009</v>
+        <v>60.85000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>534.25</v>
+        <v>50.85000000000002</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>493.1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>323</v>
+      </c>
+      <c r="J7">
         <v>41</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1327</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>624</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1368</v>
+        <v>534.1</v>
       </c>
       <c r="M7">
-        <v>1317.25</v>
+        <v>463.85</v>
       </c>
       <c r="N7">
-        <v>50.75</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>534.25</v>
+        <v>50.85000000000002</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>440.2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>323</v>
+      </c>
+      <c r="J8">
         <v>41</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1337</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>624</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1378</v>
+        <v>481.2</v>
       </c>
       <c r="M8">
-        <v>1317.25</v>
+        <v>463.85</v>
       </c>
       <c r="N8">
-        <v>60.75</v>
+        <v>17.35000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>534.25</v>
+        <v>50.85000000000002</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>455.3000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>323</v>
+      </c>
+      <c r="J9">
         <v>41</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1316</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>624</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1357</v>
+        <v>496.3000000000001</v>
       </c>
       <c r="M9">
-        <v>1317.25</v>
+        <v>463.85</v>
       </c>
       <c r="N9">
-        <v>39.75</v>
+        <v>32.45000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>485.625</v>
+        <v>238.4</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>1255</v>
+        <v>527</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,42 +845,42 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>543</v>
+        <v>322</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1274</v>
+        <v>592</v>
       </c>
       <c r="M10">
-        <v>1171.625</v>
+        <v>638.4000000000001</v>
       </c>
       <c r="N10">
-        <v>102.375</v>
+        <v>-46.40000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>485.625</v>
+        <v>238.4</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>1289</v>
+        <v>534.5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -889,42 +889,42 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>543</v>
+        <v>322</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1308</v>
+        <v>599.5</v>
       </c>
       <c r="M11">
-        <v>1171.625</v>
+        <v>638.4000000000001</v>
       </c>
       <c r="N11">
-        <v>136.375</v>
+        <v>-38.90000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>485.625</v>
+        <v>238.4</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>1303.6</v>
+        <v>538.4</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -933,42 +933,42 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>543</v>
+        <v>322</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1322.6</v>
+        <v>603.4</v>
       </c>
       <c r="M12">
-        <v>1171.625</v>
+        <v>638.4000000000001</v>
       </c>
       <c r="N12">
-        <v>150.9749999999999</v>
+        <v>-35.00000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>485.625</v>
+        <v>238.4</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>1275.8</v>
+        <v>551</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -977,42 +977,42 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>543</v>
+        <v>322</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1294.8</v>
+        <v>616</v>
       </c>
       <c r="M13">
-        <v>1171.625</v>
+        <v>638.4000000000001</v>
       </c>
       <c r="N13">
-        <v>123.175</v>
+        <v>-22.40000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>325.85</v>
+        <v>66.72500099999999</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>958</v>
+        <v>474.2</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,42 +1021,42 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>493</v>
+        <v>308</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1009</v>
+        <v>535.2</v>
       </c>
       <c r="M14">
-        <v>901.85</v>
+        <v>417.725001</v>
       </c>
       <c r="N14">
-        <v>107.15</v>
+        <v>117.474999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>325.85</v>
+        <v>66.72500099999999</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>932.5</v>
+        <v>473.4</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,42 +1065,42 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>493</v>
+        <v>308</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>983.5</v>
+        <v>534.4</v>
       </c>
       <c r="M15">
-        <v>901.85</v>
+        <v>417.725001</v>
       </c>
       <c r="N15">
-        <v>81.64999999999998</v>
+        <v>116.674999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>325.85</v>
+        <v>66.72500099999999</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>886.4000000000001</v>
+        <v>459.2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,42 +1109,42 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>493</v>
+        <v>308</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>937.4000000000001</v>
+        <v>520.2</v>
       </c>
       <c r="M16">
-        <v>901.85</v>
+        <v>417.725001</v>
       </c>
       <c r="N16">
-        <v>35.55000000000007</v>
+        <v>102.474999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>325.85</v>
+        <v>66.72500099999999</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>857.4000000000001</v>
+        <v>447.8</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,42 +1153,42 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>493</v>
+        <v>308</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>908.4000000000001</v>
+        <v>508.8</v>
       </c>
       <c r="M17">
-        <v>901.85</v>
+        <v>417.725001</v>
       </c>
       <c r="N17">
-        <v>6.550000000000068</v>
+        <v>91.07499899999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>276.9</v>
       </c>
       <c r="C18">
-        <v>195.575</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F18">
-        <v>404.2</v>
+        <v>76.30000000000001</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,42 +1197,42 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>606.2</v>
+        <v>529.2</v>
       </c>
       <c r="M18">
-        <v>650.575</v>
+        <v>382</v>
       </c>
       <c r="N18">
-        <v>-44.375</v>
+        <v>147.2</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>276.9</v>
       </c>
       <c r="C19">
-        <v>195.575</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F19">
-        <v>353.2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,306 +1241,306 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>555.2</v>
+        <v>452.9</v>
       </c>
       <c r="M19">
-        <v>650.575</v>
+        <v>382</v>
       </c>
       <c r="N19">
-        <v>-95.375</v>
+        <v>70.89999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>276.9</v>
       </c>
       <c r="C20">
-        <v>195.575</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F20">
-        <v>381.8</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>71.19999999999999</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>583.8</v>
+        <v>452.9</v>
       </c>
       <c r="M20">
-        <v>650.575</v>
+        <v>453.2</v>
       </c>
       <c r="N20">
-        <v>-66.77500000000009</v>
+        <v>-0.3000000000000114</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>276.9</v>
       </c>
       <c r="C21">
-        <v>195.575</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F21">
-        <v>262.2</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>194.3</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>464.2</v>
+        <v>452.9</v>
       </c>
       <c r="M21">
-        <v>650.575</v>
+        <v>576.3</v>
       </c>
       <c r="N21">
-        <v>-186.375</v>
+        <v>-123.4</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B22">
-        <v>52.57499900000005</v>
+        <v>291.3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>308.2</v>
+        <v>252.3</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="J22">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>583.574999</v>
+        <v>584.3</v>
       </c>
       <c r="M22">
-        <v>568.2</v>
+        <v>517.3</v>
       </c>
       <c r="N22">
-        <v>15.374999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B23">
-        <v>52.57499900000005</v>
+        <v>291.3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>333.2</v>
+        <v>243.1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="J23">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>583.574999</v>
+        <v>584.3</v>
       </c>
       <c r="M23">
-        <v>593.2</v>
+        <v>508.1</v>
       </c>
       <c r="N23">
-        <v>-9.625000999999997</v>
+        <v>76.19999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B24">
-        <v>52.57499900000005</v>
+        <v>291.3</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>473.1</v>
+        <v>313.9</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="J24">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>583.574999</v>
+        <v>584.3</v>
       </c>
       <c r="M24">
-        <v>733.1</v>
+        <v>578.9</v>
       </c>
       <c r="N24">
-        <v>-149.525001</v>
+        <v>5.399999999999977</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B25">
-        <v>52.57499900000005</v>
+        <v>291.3</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>546</v>
+        <v>383.3</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="J25">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>583.574999</v>
+        <v>584.3</v>
       </c>
       <c r="M25">
-        <v>806</v>
+        <v>648.3</v>
       </c>
       <c r="N25">
-        <v>-222.425001</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>209.125</v>
+        <v>412.374999</v>
       </c>
       <c r="D26">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>65.19999999999999</v>
+        <v>524.7</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1549,42 +1549,42 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>544.2</v>
+        <v>674.7</v>
       </c>
       <c r="M26">
-        <v>568.125</v>
+        <v>798.374999</v>
       </c>
       <c r="N26">
-        <v>-23.92499999999995</v>
+        <v>-123.674999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>209.125</v>
+        <v>412.374999</v>
       </c>
       <c r="D27">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>95.5</v>
+        <v>576.1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1593,42 +1593,42 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>574.5</v>
+        <v>726.1</v>
       </c>
       <c r="M27">
-        <v>568.125</v>
+        <v>798.374999</v>
       </c>
       <c r="N27">
-        <v>6.375</v>
+        <v>-72.27499899999998</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>209.125</v>
+        <v>412.374999</v>
       </c>
       <c r="D28">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>121.5</v>
+        <v>642.5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1637,42 +1637,42 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>600.5</v>
+        <v>792.5</v>
       </c>
       <c r="M28">
-        <v>568.125</v>
+        <v>798.374999</v>
       </c>
       <c r="N28">
-        <v>32.375</v>
+        <v>-5.874999000000003</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>209.125</v>
+        <v>412.374999</v>
       </c>
       <c r="D29">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>81.5</v>
+        <v>600.5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1681,42 +1681,42 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>560.5</v>
+        <v>750.5</v>
       </c>
       <c r="M29">
-        <v>568.125</v>
+        <v>798.374999</v>
       </c>
       <c r="N29">
-        <v>-7.625</v>
+        <v>-47.874999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>338.2</v>
+        <v>724.2249999999999</v>
       </c>
       <c r="D30">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>254</v>
+        <v>787.1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="L30">
-        <v>679</v>
+        <v>1046.1</v>
       </c>
       <c r="M30">
-        <v>662.2</v>
+        <v>1198.225</v>
       </c>
       <c r="N30">
-        <v>16.79999999999995</v>
+        <v>-152.125</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>338.2</v>
+        <v>724.2249999999999</v>
       </c>
       <c r="D31">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>281.3</v>
+        <v>770.4000000000001</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="L31">
-        <v>706.3</v>
+        <v>1029.4</v>
       </c>
       <c r="M31">
-        <v>662.2</v>
+        <v>1198.225</v>
       </c>
       <c r="N31">
-        <v>44.09999999999991</v>
+        <v>-168.8249999999998</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>338.2</v>
+        <v>724.2249999999999</v>
       </c>
       <c r="D32">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>344.1</v>
+        <v>803.8</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="L32">
-        <v>769.1</v>
+        <v>1062.8</v>
       </c>
       <c r="M32">
-        <v>662.2</v>
+        <v>1198.225</v>
       </c>
       <c r="N32">
-        <v>106.9</v>
+        <v>-135.425</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>338.2</v>
+        <v>724.2249999999999</v>
       </c>
       <c r="D33">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>377.9</v>
+        <v>854.7</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="L33">
-        <v>802.9</v>
+        <v>1113.7</v>
       </c>
       <c r="M33">
-        <v>662.2</v>
+        <v>1198.225</v>
       </c>
       <c r="N33">
-        <v>140.6999999999999</v>
+        <v>-84.52499999999986</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>558.3749989999999</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>822.9</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>940.9</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1068.374999</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-127.4749989999999</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>558.3749989999999</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>873.5</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>991.5</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1068.374999</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-76.87499899999989</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>558.3749989999999</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>928.3</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1046.3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1068.374999</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>-22.07499899999993</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>558.3749989999999</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>890.6</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1008.6</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1068.374999</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-59.77499899999987</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>168.3</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>841.5</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>668.3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>173.2</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>168.3</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>668.3</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>247.7</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>168.3</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>668.3</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>254.7</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>168.3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,30 +2209,30 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>668.3</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>241.7</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>18.55000000000001</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>949.8000000000001</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2253,30 +2253,30 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>968.3500000000001</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>65.35000000000014</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>18.55000000000001</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2297,30 +2297,30 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>977.55</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>74.54999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>18.55000000000001</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2341,30 +2341,30 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>958.55</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>55.54999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>18.55000000000001</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2385,27 +2385,27 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>925.55</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>22.54999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>412.374999</v>
+        <v>412.3750000000001</v>
       </c>
       <c r="D26">
         <v>141</v>
@@ -1561,10 +1561,10 @@
         <v>674.7</v>
       </c>
       <c r="M26">
-        <v>798.374999</v>
+        <v>798.3750000000001</v>
       </c>
       <c r="N26">
-        <v>-123.674999</v>
+        <v>-123.6750000000001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>412.374999</v>
+        <v>412.3750000000001</v>
       </c>
       <c r="D27">
         <v>141</v>
@@ -1605,10 +1605,10 @@
         <v>726.1</v>
       </c>
       <c r="M27">
-        <v>798.374999</v>
+        <v>798.3750000000001</v>
       </c>
       <c r="N27">
-        <v>-72.27499899999998</v>
+        <v>-72.27500000000009</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>412.374999</v>
+        <v>412.3750000000001</v>
       </c>
       <c r="D28">
         <v>141</v>
@@ -1649,10 +1649,10 @@
         <v>792.5</v>
       </c>
       <c r="M28">
-        <v>798.374999</v>
+        <v>798.3750000000001</v>
       </c>
       <c r="N28">
-        <v>-5.874999000000003</v>
+        <v>-5.875000000000114</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>412.374999</v>
+        <v>412.3750000000001</v>
       </c>
       <c r="D29">
         <v>141</v>
@@ -1693,10 +1693,10 @@
         <v>750.5</v>
       </c>
       <c r="M29">
-        <v>798.374999</v>
+        <v>798.3750000000001</v>
       </c>
       <c r="N29">
-        <v>-47.874999</v>
+        <v>-47.87500000000011</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2232,7 +2232,7 @@
         <v>45741.41666666666</v>
       </c>
       <c r="B42">
-        <v>18.55000000000001</v>
+        <v>20.55000000000001</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>445</v>
+        <v>206</v>
       </c>
       <c r="F42">
         <v>949.8000000000001</v>
@@ -2262,13 +2262,13 @@
         <v>97</v>
       </c>
       <c r="L42">
-        <v>968.3500000000001</v>
+        <v>970.3500000000001</v>
       </c>
       <c r="M42">
-        <v>903</v>
+        <v>664</v>
       </c>
       <c r="N42">
-        <v>65.35000000000014</v>
+        <v>306.3500000000001</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2276,7 +2276,7 @@
         <v>45741.42708333334</v>
       </c>
       <c r="B43">
-        <v>18.55000000000001</v>
+        <v>20.55000000000001</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>445</v>
+        <v>206</v>
       </c>
       <c r="F43">
         <v>959</v>
@@ -2306,13 +2306,13 @@
         <v>97</v>
       </c>
       <c r="L43">
-        <v>977.55</v>
+        <v>979.55</v>
       </c>
       <c r="M43">
-        <v>903</v>
+        <v>664</v>
       </c>
       <c r="N43">
-        <v>74.54999999999995</v>
+        <v>315.55</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2320,7 +2320,7 @@
         <v>45741.4375</v>
       </c>
       <c r="B44">
-        <v>18.55000000000001</v>
+        <v>20.55000000000001</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>445</v>
+        <v>206</v>
       </c>
       <c r="F44">
         <v>940</v>
@@ -2350,13 +2350,13 @@
         <v>97</v>
       </c>
       <c r="L44">
-        <v>958.55</v>
+        <v>960.55</v>
       </c>
       <c r="M44">
-        <v>903</v>
+        <v>664</v>
       </c>
       <c r="N44">
-        <v>55.54999999999995</v>
+        <v>296.55</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2364,7 +2364,7 @@
         <v>45741.44791666666</v>
       </c>
       <c r="B45">
-        <v>18.55000000000001</v>
+        <v>20.55000000000001</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>445</v>
+        <v>206</v>
       </c>
       <c r="F45">
         <v>907</v>
@@ -2394,13 +2394,13 @@
         <v>97</v>
       </c>
       <c r="L45">
-        <v>925.55</v>
+        <v>927.55</v>
       </c>
       <c r="M45">
-        <v>903</v>
+        <v>664</v>
       </c>
       <c r="N45">
-        <v>22.54999999999995</v>
+        <v>263.55</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2438,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>934</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>937</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="49" spans="1:14">

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,22 +469,22 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>90.97500000000002</v>
       </c>
       <c r="C2">
-        <v>814.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F2">
-        <v>1112</v>
+        <v>115.1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -493,42 +493,42 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1279</v>
+        <v>321.075</v>
       </c>
       <c r="M2">
-        <v>1211.4</v>
+        <v>504</v>
       </c>
       <c r="N2">
-        <v>67.59999999999991</v>
+        <v>-182.925</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>90.97500000000002</v>
       </c>
       <c r="C3">
-        <v>814.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F3">
-        <v>1157.7</v>
+        <v>257.2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,42 +537,42 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1324.7</v>
+        <v>463.175</v>
       </c>
       <c r="M3">
-        <v>1211.4</v>
+        <v>504</v>
       </c>
       <c r="N3">
-        <v>113.2999999999997</v>
+        <v>-40.82499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>90.97500000000002</v>
       </c>
       <c r="C4">
-        <v>814.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>1135.7</v>
+        <v>235.9</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -581,42 +581,42 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1302.7</v>
+        <v>441.875</v>
       </c>
       <c r="M4">
-        <v>1211.4</v>
+        <v>504</v>
       </c>
       <c r="N4">
-        <v>91.29999999999973</v>
+        <v>-62.125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>90.97500000000002</v>
       </c>
       <c r="C5">
-        <v>814.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F5">
-        <v>1135</v>
+        <v>247.4</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -625,42 +625,42 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1302</v>
+        <v>453.375</v>
       </c>
       <c r="M5">
-        <v>1211.4</v>
+        <v>504</v>
       </c>
       <c r="N5">
-        <v>90.59999999999991</v>
+        <v>-50.625</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50.85000000000002</v>
+        <v>99.65000000000003</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="F6">
-        <v>483.7</v>
+        <v>617.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -669,42 +669,42 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="J6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>524.7</v>
+        <v>617.1</v>
       </c>
       <c r="M6">
-        <v>463.85</v>
+        <v>900.6500000000001</v>
       </c>
       <c r="N6">
-        <v>60.85000000000002</v>
+        <v>-283.5500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>50.85000000000002</v>
+        <v>99.65000000000003</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="F7">
-        <v>493.1</v>
+        <v>642.7</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -713,42 +713,42 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="J7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>534.1</v>
+        <v>642.7</v>
       </c>
       <c r="M7">
-        <v>463.85</v>
+        <v>900.6500000000001</v>
       </c>
       <c r="N7">
-        <v>70.25</v>
+        <v>-257.95</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>50.85000000000002</v>
+        <v>99.65000000000003</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="F8">
-        <v>440.2</v>
+        <v>635.5</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -757,42 +757,42 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="J8">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>481.2</v>
+        <v>635.5</v>
       </c>
       <c r="M8">
-        <v>463.85</v>
+        <v>900.6500000000001</v>
       </c>
       <c r="N8">
-        <v>17.35000000000002</v>
+        <v>-265.1500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>50.85000000000002</v>
+        <v>99.65000000000003</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="F9">
-        <v>455.3000000000001</v>
+        <v>655.3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -801,42 +801,42 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="J9">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>496.3000000000001</v>
+        <v>655.3</v>
       </c>
       <c r="M9">
-        <v>463.85</v>
+        <v>900.6500000000001</v>
       </c>
       <c r="N9">
-        <v>32.45000000000005</v>
+        <v>-245.3500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>238.4</v>
+        <v>278.9</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="F10">
-        <v>527</v>
+        <v>1081.2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,42 +845,42 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="J10">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L10">
-        <v>592</v>
+        <v>1081.2</v>
       </c>
       <c r="M10">
-        <v>638.4000000000001</v>
+        <v>1258.9</v>
       </c>
       <c r="N10">
-        <v>-46.40000000000009</v>
+        <v>-177.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>238.4</v>
+        <v>278.9</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="F11">
-        <v>534.5</v>
+        <v>1089.5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -889,42 +889,42 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="J11">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L11">
-        <v>599.5</v>
+        <v>1089.5</v>
       </c>
       <c r="M11">
-        <v>638.4000000000001</v>
+        <v>1258.9</v>
       </c>
       <c r="N11">
-        <v>-38.90000000000009</v>
+        <v>-169.4000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>238.4</v>
+        <v>278.9</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="F12">
-        <v>538.4</v>
+        <v>1125.4</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -933,42 +933,42 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="J12">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L12">
-        <v>603.4</v>
+        <v>1125.4</v>
       </c>
       <c r="M12">
-        <v>638.4000000000001</v>
+        <v>1258.9</v>
       </c>
       <c r="N12">
-        <v>-35.00000000000011</v>
+        <v>-133.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>238.4</v>
+        <v>278.9</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="F13">
-        <v>551</v>
+        <v>1179.9</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -977,42 +977,42 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="J13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L13">
-        <v>616</v>
+        <v>1179.9</v>
       </c>
       <c r="M13">
-        <v>638.4000000000001</v>
+        <v>1258.9</v>
       </c>
       <c r="N13">
-        <v>-22.40000000000009</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>66.72500099999999</v>
+        <v>265.975</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="F14">
-        <v>474.2</v>
+        <v>1019.5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,42 +1021,42 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>308</v>
+        <v>559</v>
       </c>
       <c r="J14">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L14">
-        <v>535.2</v>
+        <v>1019.5</v>
       </c>
       <c r="M14">
-        <v>417.725001</v>
+        <v>1285.975</v>
       </c>
       <c r="N14">
-        <v>117.474999</v>
+        <v>-266.4749999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>66.72500099999999</v>
+        <v>265.975</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="F15">
-        <v>473.4</v>
+        <v>1059.1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,42 +1065,42 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>308</v>
+        <v>559</v>
       </c>
       <c r="J15">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L15">
-        <v>534.4</v>
+        <v>1059.1</v>
       </c>
       <c r="M15">
-        <v>417.725001</v>
+        <v>1285.975</v>
       </c>
       <c r="N15">
-        <v>116.674999</v>
+        <v>-226.875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>66.72500099999999</v>
+        <v>265.975</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="F16">
-        <v>459.2</v>
+        <v>1049.8</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,42 +1109,42 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>308</v>
+        <v>559</v>
       </c>
       <c r="J16">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L16">
-        <v>520.2</v>
+        <v>1049.8</v>
       </c>
       <c r="M16">
-        <v>417.725001</v>
+        <v>1285.975</v>
       </c>
       <c r="N16">
-        <v>102.474999</v>
+        <v>-236.175</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>66.72500099999999</v>
+        <v>265.975</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="F17">
-        <v>447.8</v>
+        <v>1064.8</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,42 +1153,42 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>308</v>
+        <v>559</v>
       </c>
       <c r="J17">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L17">
-        <v>508.8</v>
+        <v>1064.8</v>
       </c>
       <c r="M17">
-        <v>417.725001</v>
+        <v>1285.975</v>
       </c>
       <c r="N17">
-        <v>91.07499899999999</v>
+        <v>-221.175</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>276.9</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>155.15</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="F18">
-        <v>76.30000000000001</v>
+        <v>911.2</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,42 +1197,42 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="J18">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>529.2</v>
+        <v>911.2</v>
       </c>
       <c r="M18">
-        <v>382</v>
+        <v>986.15</v>
       </c>
       <c r="N18">
-        <v>147.2</v>
+        <v>-74.94999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>276.9</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>155.15</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>869.3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,306 +1241,306 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="J19">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>452.9</v>
+        <v>869.3</v>
       </c>
       <c r="M19">
-        <v>382</v>
+        <v>986.15</v>
       </c>
       <c r="N19">
-        <v>70.89999999999998</v>
+        <v>-116.85</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>276.9</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>155.15</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>811.9</v>
       </c>
       <c r="G20">
-        <v>71.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="J20">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>452.9</v>
+        <v>811.9</v>
       </c>
       <c r="M20">
-        <v>453.2</v>
+        <v>986.15</v>
       </c>
       <c r="N20">
-        <v>-0.3000000000000114</v>
+        <v>-174.25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>276.9</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>155.15</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>803.9</v>
       </c>
       <c r="G21">
-        <v>194.3</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="J21">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>452.9</v>
+        <v>803.9</v>
       </c>
       <c r="M21">
-        <v>576.3</v>
+        <v>986.15</v>
       </c>
       <c r="N21">
-        <v>-123.4</v>
+        <v>-182.25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
-        <v>291.3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>38.72500000000002</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="G22">
-        <v>252.3</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="J22">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>584.3</v>
+        <v>632</v>
       </c>
       <c r="M22">
-        <v>517.3</v>
+        <v>722.725</v>
       </c>
       <c r="N22">
-        <v>67</v>
+        <v>-90.72500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
-        <v>291.3</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>38.72500000000002</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>558.5999999999999</v>
       </c>
       <c r="G23">
-        <v>243.1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="J23">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>584.3</v>
+        <v>660.5999999999999</v>
       </c>
       <c r="M23">
-        <v>508.1</v>
+        <v>722.725</v>
       </c>
       <c r="N23">
-        <v>76.19999999999993</v>
+        <v>-62.12500000000011</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>291.3</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>38.72500000000002</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>478.8</v>
       </c>
       <c r="G24">
-        <v>313.9</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="J24">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>584.3</v>
+        <v>580.8</v>
       </c>
       <c r="M24">
-        <v>578.9</v>
+        <v>722.725</v>
       </c>
       <c r="N24">
-        <v>5.399999999999977</v>
+        <v>-141.9250000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>291.3</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>38.72500000000002</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>490.4</v>
       </c>
       <c r="G25">
-        <v>383.3</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="J25">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>584.3</v>
+        <v>592.4</v>
       </c>
       <c r="M25">
-        <v>648.3</v>
+        <v>722.725</v>
       </c>
       <c r="N25">
-        <v>-64</v>
+        <v>-130.325</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>412.3750000000001</v>
+        <v>208.925</v>
       </c>
       <c r="D26">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F26">
-        <v>524.7</v>
+        <v>912</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1549,42 +1549,42 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L26">
-        <v>674.7</v>
+        <v>912</v>
       </c>
       <c r="M26">
-        <v>798.3750000000001</v>
+        <v>860.925</v>
       </c>
       <c r="N26">
-        <v>-123.6750000000001</v>
+        <v>51.07500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>412.3750000000001</v>
+        <v>208.925</v>
       </c>
       <c r="D27">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F27">
-        <v>576.1</v>
+        <v>904.8000000000001</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1593,42 +1593,42 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L27">
-        <v>726.1</v>
+        <v>904.8000000000001</v>
       </c>
       <c r="M27">
-        <v>798.3750000000001</v>
+        <v>860.925</v>
       </c>
       <c r="N27">
-        <v>-72.27500000000009</v>
+        <v>43.87500000000011</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>412.3750000000001</v>
+        <v>208.925</v>
       </c>
       <c r="D28">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F28">
-        <v>642.5</v>
+        <v>898.4000000000001</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1637,42 +1637,42 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L28">
-        <v>792.5</v>
+        <v>898.4000000000001</v>
       </c>
       <c r="M28">
-        <v>798.3750000000001</v>
+        <v>860.925</v>
       </c>
       <c r="N28">
-        <v>-5.875000000000114</v>
+        <v>37.47500000000014</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>412.3750000000001</v>
+        <v>208.925</v>
       </c>
       <c r="D29">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F29">
-        <v>600.5</v>
+        <v>860</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1681,42 +1681,42 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L29">
-        <v>750.5</v>
+        <v>860</v>
       </c>
       <c r="M29">
-        <v>798.3750000000001</v>
+        <v>860.925</v>
       </c>
       <c r="N29">
-        <v>-47.87500000000011</v>
+        <v>-0.9249999999999545</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>724.2249999999999</v>
+        <v>560.850001</v>
       </c>
       <c r="D30">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>787.1</v>
+        <v>1055.1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="L30">
-        <v>1046.1</v>
+        <v>1068.1</v>
       </c>
       <c r="M30">
-        <v>1198.225</v>
+        <v>799.850001</v>
       </c>
       <c r="N30">
-        <v>-152.125</v>
+        <v>268.2499989999999</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>724.2249999999999</v>
+        <v>560.850001</v>
       </c>
       <c r="D31">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>770.4000000000001</v>
+        <v>1045.9</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="L31">
-        <v>1029.4</v>
+        <v>1058.9</v>
       </c>
       <c r="M31">
-        <v>1198.225</v>
+        <v>799.850001</v>
       </c>
       <c r="N31">
-        <v>-168.8249999999998</v>
+        <v>259.0499990000001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>724.2249999999999</v>
+        <v>560.850001</v>
       </c>
       <c r="D32">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>803.8</v>
+        <v>1091.4</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>1062.8</v>
+        <v>1104.4</v>
       </c>
       <c r="M32">
-        <v>1198.225</v>
+        <v>799.850001</v>
       </c>
       <c r="N32">
-        <v>-135.425</v>
+        <v>304.5499990000001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>724.2249999999999</v>
+        <v>560.850001</v>
       </c>
       <c r="D33">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>854.7</v>
+        <v>1117.4</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="L33">
-        <v>1113.7</v>
+        <v>1130.4</v>
       </c>
       <c r="M33">
-        <v>1198.225</v>
+        <v>799.850001</v>
       </c>
       <c r="N33">
-        <v>-84.52499999999986</v>
+        <v>330.5499990000001</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>558.3749989999999</v>
+        <v>489.35</v>
       </c>
       <c r="D34">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>822.9</v>
+        <v>800</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>940.9</v>
+        <v>1018</v>
       </c>
       <c r="M34">
-        <v>1068.374999</v>
+        <v>681.35</v>
       </c>
       <c r="N34">
-        <v>-127.4749989999999</v>
+        <v>336.65</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>558.3749989999999</v>
+        <v>489.35</v>
       </c>
       <c r="D35">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>873.5</v>
+        <v>767.2</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>991.5</v>
+        <v>985.2</v>
       </c>
       <c r="M35">
-        <v>1068.374999</v>
+        <v>681.35</v>
       </c>
       <c r="N35">
-        <v>-76.87499899999989</v>
+        <v>303.85</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>558.3749989999999</v>
+        <v>489.35</v>
       </c>
       <c r="D36">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>928.3</v>
+        <v>651.4</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1046.3</v>
+        <v>869.4</v>
       </c>
       <c r="M36">
-        <v>1068.374999</v>
+        <v>681.35</v>
       </c>
       <c r="N36">
-        <v>-22.07499899999993</v>
+        <v>188.05</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>558.3749989999999</v>
+        <v>489.35</v>
       </c>
       <c r="D37">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>890.6</v>
+        <v>720.1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1008.6</v>
+        <v>938.1</v>
       </c>
       <c r="M37">
-        <v>1068.374999</v>
+        <v>681.35</v>
       </c>
       <c r="N37">
-        <v>-59.77499899999987</v>
+        <v>256.75</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>168.3</v>
+        <v>882.225</v>
       </c>
       <c r="D38">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>751.5</v>
+        <v>1037</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>404</v>
+        <v>257</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K38">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>841.5</v>
+        <v>1387</v>
       </c>
       <c r="M38">
-        <v>668.3</v>
+        <v>1139.225</v>
       </c>
       <c r="N38">
-        <v>173.2</v>
+        <v>247.7750000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>168.3</v>
+        <v>882.225</v>
       </c>
       <c r="D39">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>826</v>
+        <v>1022</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>404</v>
+        <v>257</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K39">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>916</v>
+        <v>1372</v>
       </c>
       <c r="M39">
-        <v>668.3</v>
+        <v>1139.225</v>
       </c>
       <c r="N39">
-        <v>247.7</v>
+        <v>232.7750000000001</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>168.3</v>
+        <v>882.225</v>
       </c>
       <c r="D40">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>833</v>
+        <v>1071</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>404</v>
+        <v>257</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K40">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>923</v>
+        <v>1421</v>
       </c>
       <c r="M40">
-        <v>668.3</v>
+        <v>1139.225</v>
       </c>
       <c r="N40">
-        <v>254.7</v>
+        <v>281.7750000000001</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>168.3</v>
+        <v>882.225</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>820</v>
+        <v>1073</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,42 +2209,42 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>404</v>
+        <v>257</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K41">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>910</v>
+        <v>1423</v>
       </c>
       <c r="M41">
-        <v>668.3</v>
+        <v>1139.225</v>
       </c>
       <c r="N41">
-        <v>241.7</v>
+        <v>283.7750000000001</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>20.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>759.45</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E42">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>949.8000000000001</v>
+        <v>1204</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2253,42 +2253,42 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="L42">
-        <v>970.3500000000001</v>
+        <v>1456</v>
       </c>
       <c r="M42">
-        <v>664</v>
+        <v>1082.45</v>
       </c>
       <c r="N42">
-        <v>306.3500000000001</v>
+        <v>373.55</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>20.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>759.45</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E43">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>959</v>
+        <v>1168</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2297,42 +2297,42 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="L43">
-        <v>979.55</v>
+        <v>1420</v>
       </c>
       <c r="M43">
-        <v>664</v>
+        <v>1082.45</v>
       </c>
       <c r="N43">
-        <v>315.55</v>
+        <v>337.55</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>20.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>759.45</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E44">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>940</v>
+        <v>1169</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2341,42 +2341,42 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="L44">
-        <v>960.55</v>
+        <v>1421</v>
       </c>
       <c r="M44">
-        <v>664</v>
+        <v>1082.45</v>
       </c>
       <c r="N44">
-        <v>296.55</v>
+        <v>338.55</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>20.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>759.45</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E45">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>907</v>
+        <v>1147</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2385,42 +2385,42 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="L45">
-        <v>927.55</v>
+        <v>1399</v>
       </c>
       <c r="M45">
-        <v>664</v>
+        <v>1082.45</v>
       </c>
       <c r="N45">
-        <v>263.55</v>
+        <v>316.55</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>568.625</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>934</v>
+        <v>801.6</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2429,42 +2429,42 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L46">
-        <v>934</v>
+        <v>1038.6</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>883.625</v>
       </c>
       <c r="N46">
-        <v>934</v>
+        <v>154.9749999999999</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>568.625</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>937</v>
+        <v>790</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2473,42 +2473,42 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>937</v>
+        <v>1027</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>883.625</v>
       </c>
       <c r="N47">
-        <v>937</v>
+        <v>143.375</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>568.625</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>988</v>
+        <v>793</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2517,42 +2517,42 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>988</v>
+        <v>1030</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>883.625</v>
       </c>
       <c r="N48">
-        <v>988</v>
+        <v>146.375</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>568.625</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2561,42 +2561,42 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>883.625</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>148.375</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2605,42 +2605,42 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2649,42 +2649,42 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2693,42 +2693,42 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2737,27 +2737,27 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2790,18 +2790,18 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2834,18 +2834,18 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>686.7</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2878,18 +2878,18 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>686.7</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>686.7</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B2">
-        <v>90.97500000000002</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>115.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -493,30 +493,30 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>321.075</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-182.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45744.01041666666</v>
+        <v>45747.01041666666</v>
       </c>
       <c r="B3">
-        <v>90.97500000000002</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>257.2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,30 +537,30 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>463.175</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-40.82499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45744.02083333334</v>
+        <v>45747.02083333334</v>
       </c>
       <c r="B4">
-        <v>90.97500000000002</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>235.9</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -581,30 +581,30 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>441.875</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-62.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45744.03125</v>
+        <v>45747.03125</v>
       </c>
       <c r="B5">
-        <v>90.97500000000002</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,10 +613,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>247.4</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -625,1670 +625,1670 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>453.375</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-50.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45744.04166666666</v>
+        <v>45747.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>780.4000000000001</v>
       </c>
       <c r="C6">
-        <v>99.65000000000003</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>617.1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1589.4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I6">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>617.1</v>
+        <v>1550.4</v>
       </c>
       <c r="M6">
-        <v>900.6500000000001</v>
+        <v>1607.4</v>
       </c>
       <c r="N6">
-        <v>-283.5500000000001</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45744.05208333334</v>
+        <v>45747.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>780.4000000000001</v>
       </c>
       <c r="C7">
-        <v>99.65000000000003</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>642.7</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1569.6</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I7">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>642.7</v>
+        <v>1550.4</v>
       </c>
       <c r="M7">
-        <v>900.6500000000001</v>
+        <v>1587.6</v>
       </c>
       <c r="N7">
-        <v>-257.95</v>
+        <v>-37.19999999999982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45744.0625</v>
+        <v>45747.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>780.4000000000001</v>
       </c>
       <c r="C8">
-        <v>99.65000000000003</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>635.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1571.3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I8">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>635.5</v>
+        <v>1550.4</v>
       </c>
       <c r="M8">
-        <v>900.6500000000001</v>
+        <v>1589.3</v>
       </c>
       <c r="N8">
-        <v>-265.1500000000001</v>
+        <v>-38.90000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45744.07291666666</v>
+        <v>45747.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>780.4000000000001</v>
       </c>
       <c r="C9">
-        <v>99.65000000000003</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>655.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1590.8</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I9">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>655.3</v>
+        <v>1550.4</v>
       </c>
       <c r="M9">
-        <v>900.6500000000001</v>
+        <v>1608.8</v>
       </c>
       <c r="N9">
-        <v>-245.3500000000001</v>
+        <v>-58.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45744.08333333334</v>
+        <v>45747.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>780.4749999999999</v>
       </c>
       <c r="C10">
-        <v>278.9</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1081.2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I10">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K10">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1081.2</v>
+        <v>1421.475</v>
       </c>
       <c r="M10">
-        <v>1258.9</v>
+        <v>1492</v>
       </c>
       <c r="N10">
-        <v>-177.7</v>
+        <v>-70.52500000000009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45744.09375</v>
+        <v>45747.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>780.4749999999999</v>
       </c>
       <c r="C11">
-        <v>278.9</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1089.5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1527.7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I11">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K11">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1089.5</v>
+        <v>1421.475</v>
       </c>
       <c r="M11">
-        <v>1258.9</v>
+        <v>1527.7</v>
       </c>
       <c r="N11">
-        <v>-169.4000000000001</v>
+        <v>-106.2249999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45744.10416666666</v>
+        <v>45747.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>780.4749999999999</v>
       </c>
       <c r="C12">
-        <v>278.9</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1125.4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1518.4</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I12">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K12">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1125.4</v>
+        <v>1421.475</v>
       </c>
       <c r="M12">
-        <v>1258.9</v>
+        <v>1518.4</v>
       </c>
       <c r="N12">
-        <v>-133.5</v>
+        <v>-96.92500000000018</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45744.11458333334</v>
+        <v>45747.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>780.4749999999999</v>
       </c>
       <c r="C13">
-        <v>278.9</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1179.9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1534.1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I13">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K13">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1179.9</v>
+        <v>1421.475</v>
       </c>
       <c r="M13">
-        <v>1258.9</v>
+        <v>1534.1</v>
       </c>
       <c r="N13">
-        <v>-79</v>
+        <v>-112.625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45744.125</v>
+        <v>45747.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>776.4499999999998</v>
       </c>
       <c r="C14">
-        <v>265.975</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1019.5</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1516.3</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I14">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K14">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1019.5</v>
+        <v>1427.45</v>
       </c>
       <c r="M14">
-        <v>1285.975</v>
+        <v>1516.3</v>
       </c>
       <c r="N14">
-        <v>-266.4749999999999</v>
+        <v>-88.85000000000036</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45744.13541666666</v>
+        <v>45747.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>776.4499999999998</v>
       </c>
       <c r="C15">
-        <v>265.975</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1059.1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1516.4</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I15">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1059.1</v>
+        <v>1427.45</v>
       </c>
       <c r="M15">
-        <v>1285.975</v>
+        <v>1516.4</v>
       </c>
       <c r="N15">
-        <v>-226.875</v>
+        <v>-88.95000000000027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45744.14583333334</v>
+        <v>45747.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>776.4499999999998</v>
       </c>
       <c r="C16">
-        <v>265.975</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E16">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1049.8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1548.1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I16">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K16">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1049.8</v>
+        <v>1427.45</v>
       </c>
       <c r="M16">
-        <v>1285.975</v>
+        <v>1548.1</v>
       </c>
       <c r="N16">
-        <v>-236.175</v>
+        <v>-120.6500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45744.15625</v>
+        <v>45747.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>776.4499999999998</v>
       </c>
       <c r="C17">
-        <v>265.975</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E17">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1064.8</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1525.4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I17">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1064.8</v>
+        <v>1427.45</v>
       </c>
       <c r="M17">
-        <v>1285.975</v>
+        <v>1525.4</v>
       </c>
       <c r="N17">
-        <v>-221.175</v>
+        <v>-97.95000000000027</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45744.16666666666</v>
+        <v>45747.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>821.25</v>
       </c>
       <c r="C18">
-        <v>155.15</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>911.2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1478.3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I18">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>911.2</v>
+        <v>1467.25</v>
       </c>
       <c r="M18">
-        <v>986.15</v>
+        <v>1478.3</v>
       </c>
       <c r="N18">
-        <v>-74.94999999999993</v>
+        <v>-11.05000000000018</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45744.17708333334</v>
+        <v>45747.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>821.25</v>
       </c>
       <c r="C19">
-        <v>155.15</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>869.3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1502.1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I19">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>869.3</v>
+        <v>1467.25</v>
       </c>
       <c r="M19">
-        <v>986.15</v>
+        <v>1502.1</v>
       </c>
       <c r="N19">
-        <v>-116.85</v>
+        <v>-34.84999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45744.1875</v>
+        <v>45747.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>821.25</v>
       </c>
       <c r="C20">
-        <v>155.15</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>811.9</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1584.8</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I20">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>811.9</v>
+        <v>1467.25</v>
       </c>
       <c r="M20">
-        <v>986.15</v>
+        <v>1584.8</v>
       </c>
       <c r="N20">
-        <v>-174.25</v>
+        <v>-117.5500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45744.19791666666</v>
+        <v>45747.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>821.25</v>
       </c>
       <c r="C21">
-        <v>155.15</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>803.9</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I21">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>803.9</v>
+        <v>1467.25</v>
       </c>
       <c r="M21">
-        <v>986.15</v>
+        <v>1664</v>
       </c>
       <c r="N21">
-        <v>-182.25</v>
+        <v>-196.75</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45744.20833333334</v>
+        <v>45747.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>893.7750000000001</v>
       </c>
       <c r="C22">
-        <v>38.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E22">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1944.7</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>102</v>
+        <v>525</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>632</v>
+        <v>1819.775</v>
       </c>
       <c r="M22">
-        <v>722.725</v>
+        <v>1944.7</v>
       </c>
       <c r="N22">
-        <v>-90.72500000000002</v>
+        <v>-124.9249999999997</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45744.21875</v>
+        <v>45747.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>893.7750000000001</v>
       </c>
       <c r="C23">
-        <v>38.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E23">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>558.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1946.3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I23">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>102</v>
+        <v>525</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>660.5999999999999</v>
+        <v>1819.775</v>
       </c>
       <c r="M23">
-        <v>722.725</v>
+        <v>1946.3</v>
       </c>
       <c r="N23">
-        <v>-62.12500000000011</v>
+        <v>-126.5250000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45744.22916666666</v>
+        <v>45747.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>893.7750000000001</v>
       </c>
       <c r="C24">
-        <v>38.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E24">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>478.8</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I24">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>102</v>
+        <v>525</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>580.8</v>
+        <v>1819.775</v>
       </c>
       <c r="M24">
-        <v>722.725</v>
+        <v>2019</v>
       </c>
       <c r="N24">
-        <v>-141.9250000000001</v>
+        <v>-199.2249999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45744.23958333334</v>
+        <v>45747.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>893.7750000000001</v>
       </c>
       <c r="C25">
-        <v>38.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E25">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>490.4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1925.6</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I25">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>102</v>
+        <v>525</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>592.4</v>
+        <v>1819.775</v>
       </c>
       <c r="M25">
-        <v>722.725</v>
+        <v>1925.6</v>
       </c>
       <c r="N25">
-        <v>-130.325</v>
+        <v>-105.8249999999998</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45744.25</v>
+        <v>45747.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>939.3500000000001</v>
       </c>
       <c r="C26">
-        <v>208.925</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E26">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1815.1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I26">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="K26">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>912</v>
+        <v>1773.35</v>
       </c>
       <c r="M26">
-        <v>860.925</v>
+        <v>1815.1</v>
       </c>
       <c r="N26">
-        <v>51.07500000000005</v>
+        <v>-41.74999999999977</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45744.26041666666</v>
+        <v>45747.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>939.3500000000001</v>
       </c>
       <c r="C27">
-        <v>208.925</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E27">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>904.8000000000001</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1812.4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I27">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="K27">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>904.8000000000001</v>
+        <v>1773.35</v>
       </c>
       <c r="M27">
-        <v>860.925</v>
+        <v>1812.4</v>
       </c>
       <c r="N27">
-        <v>43.87500000000011</v>
+        <v>-39.04999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45744.27083333334</v>
+        <v>45747.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>939.3500000000001</v>
       </c>
       <c r="C28">
-        <v>208.925</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E28">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>898.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1878.6</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I28">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="K28">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>898.4000000000001</v>
+        <v>1773.35</v>
       </c>
       <c r="M28">
-        <v>860.925</v>
+        <v>1878.6</v>
       </c>
       <c r="N28">
-        <v>37.47500000000014</v>
+        <v>-105.2499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45744.28125</v>
+        <v>45747.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>939.3500000000001</v>
       </c>
       <c r="C29">
-        <v>208.925</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E29">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I29">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="K29">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>860</v>
+        <v>1773.35</v>
       </c>
       <c r="M29">
-        <v>860.925</v>
+        <v>1885</v>
       </c>
       <c r="N29">
-        <v>-0.9249999999999545</v>
+        <v>-111.6499999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45744.29166666666</v>
+        <v>45747.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>649.2750000000001</v>
       </c>
       <c r="C30">
-        <v>560.850001</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1055.1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="I30">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="K30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1068.1</v>
+        <v>1684.275</v>
       </c>
       <c r="M30">
-        <v>799.850001</v>
+        <v>1631</v>
       </c>
       <c r="N30">
-        <v>268.2499989999999</v>
+        <v>53.27500000000009</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45744.30208333334</v>
+        <v>45747.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>649.2750000000001</v>
       </c>
       <c r="C31">
-        <v>560.850001</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1045.9</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="I31">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="K31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1058.9</v>
+        <v>1684.275</v>
       </c>
       <c r="M31">
-        <v>799.850001</v>
+        <v>1759</v>
       </c>
       <c r="N31">
-        <v>259.0499990000001</v>
+        <v>-74.72499999999991</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45744.3125</v>
+        <v>45747.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>649.2750000000001</v>
       </c>
       <c r="C32">
-        <v>560.850001</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1091.4</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="I32">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="K32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1104.4</v>
+        <v>1684.275</v>
       </c>
       <c r="M32">
-        <v>799.850001</v>
+        <v>1774</v>
       </c>
       <c r="N32">
-        <v>304.5499990000001</v>
+        <v>-89.72499999999991</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45744.32291666666</v>
+        <v>45747.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>649.2750000000001</v>
       </c>
       <c r="C33">
-        <v>560.850001</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1117.4</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="I33">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1130.4</v>
+        <v>1684.275</v>
       </c>
       <c r="M33">
-        <v>799.850001</v>
+        <v>1760</v>
       </c>
       <c r="N33">
-        <v>330.5499990000001</v>
+        <v>-75.72499999999991</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45744.33333333334</v>
+        <v>45747.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>714.3</v>
       </c>
       <c r="C34">
-        <v>489.35</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1799.7</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="I34">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1018</v>
+        <v>1776.3</v>
       </c>
       <c r="M34">
-        <v>681.35</v>
+        <v>1799.7</v>
       </c>
       <c r="N34">
-        <v>336.65</v>
+        <v>-23.39999999999986</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45744.34375</v>
+        <v>45747.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>714.3</v>
       </c>
       <c r="C35">
-        <v>489.35</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>767.2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="I35">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>985.2</v>
+        <v>1776.3</v>
       </c>
       <c r="M35">
-        <v>681.35</v>
+        <v>1851</v>
       </c>
       <c r="N35">
-        <v>303.85</v>
+        <v>-74.70000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45744.35416666666</v>
+        <v>45747.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>714.3</v>
       </c>
       <c r="C36">
-        <v>489.35</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>651.4</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1825.2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="I36">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>869.4</v>
+        <v>1776.3</v>
       </c>
       <c r="M36">
-        <v>681.35</v>
+        <v>1825.2</v>
       </c>
       <c r="N36">
-        <v>188.05</v>
+        <v>-48.89999999999986</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45744.36458333334</v>
+        <v>45747.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>714.3</v>
       </c>
       <c r="C37">
-        <v>489.35</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>720.1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1794.5</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="I37">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>64</v>
+        <v>439</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>938.1</v>
+        <v>1776.3</v>
       </c>
       <c r="M37">
-        <v>681.35</v>
+        <v>1794.5</v>
       </c>
       <c r="N37">
-        <v>256.75</v>
+        <v>-18.20000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45744.375</v>
+        <v>45747.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>569.125</v>
       </c>
       <c r="C38">
-        <v>882.225</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I38">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1387</v>
+        <v>1382.125</v>
       </c>
       <c r="M38">
-        <v>1139.225</v>
+        <v>1448</v>
       </c>
       <c r="N38">
-        <v>247.7750000000001</v>
+        <v>-65.875</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45744.38541666666</v>
+        <v>45747.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>569.125</v>
       </c>
       <c r="C39">
-        <v>882.225</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I39">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1372</v>
+        <v>1382.125</v>
       </c>
       <c r="M39">
-        <v>1139.225</v>
+        <v>1400</v>
       </c>
       <c r="N39">
-        <v>232.7750000000001</v>
+        <v>-17.875</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45744.39583333334</v>
+        <v>45747.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>569.125</v>
       </c>
       <c r="C40">
-        <v>882.225</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I40">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1421</v>
+        <v>1382.125</v>
       </c>
       <c r="M40">
-        <v>1139.225</v>
+        <v>1439</v>
       </c>
       <c r="N40">
-        <v>281.7750000000001</v>
+        <v>-56.875</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45744.40625</v>
+        <v>45747.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>569.125</v>
       </c>
       <c r="C41">
-        <v>882.225</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1409.6</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I41">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1423</v>
+        <v>1382.125</v>
       </c>
       <c r="M41">
-        <v>1139.225</v>
+        <v>1409.6</v>
       </c>
       <c r="N41">
-        <v>283.7750000000001</v>
+        <v>-27.47499999999991</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45744.41666666666</v>
+        <v>45747.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>759.45</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1227</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1456</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1082.45</v>
+        <v>1227</v>
       </c>
       <c r="N42">
-        <v>373.55</v>
+        <v>-1227</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45744.42708333334</v>
+        <v>45747.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>759.45</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1168</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2297,42 +2297,42 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1082.45</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>337.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45744.4375</v>
+        <v>45747.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>759.45</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1169</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2341,42 +2341,42 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>1082.45</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>338.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45744.44791666666</v>
+        <v>45747.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>759.45</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2385,42 +2385,42 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1082.45</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>316.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45744.45833333334</v>
+        <v>45747.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>568.625</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>801.6</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2429,42 +2429,42 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1038.6</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>883.625</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>154.9749999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45744.46875</v>
+        <v>45747.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>568.625</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2473,42 +2473,42 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>883.625</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>143.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45744.47916666666</v>
+        <v>45747.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>568.625</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2517,42 +2517,42 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>883.625</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>146.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45744.48958333334</v>
+        <v>45747.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>568.625</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2561,42 +2561,42 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>883.625</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>148.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45744.5</v>
+        <v>45747.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2605,42 +2605,42 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45744.51041666666</v>
+        <v>45747.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2649,42 +2649,42 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45744.52083333334</v>
+        <v>45747.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2693,42 +2693,42 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45744.53125</v>
+        <v>45747.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2737,27 +2737,27 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>918</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45744.54166666666</v>
+        <v>45747.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2790,18 +2790,18 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45744.55208333334</v>
+        <v>45747.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2834,18 +2834,18 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45744.5625</v>
+        <v>45747.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>686.7</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2878,18 +2878,18 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>686.7</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>686.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45744.57291666666</v>
+        <v>45747.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45744.58333333334</v>
+        <v>45747.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45744.59375</v>
+        <v>45747.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45744.60416666666</v>
+        <v>45747.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45744.61458333334</v>
+        <v>45747.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45744.625</v>
+        <v>45747.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45744.63541666666</v>
+        <v>45747.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45744.64583333334</v>
+        <v>45747.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45744.65625</v>
+        <v>45747.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45744.66666666666</v>
+        <v>45747.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45744.67708333334</v>
+        <v>45747.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45744.6875</v>
+        <v>45747.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45744.69791666666</v>
+        <v>45747.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45744.70833333334</v>
+        <v>45747.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45744.71875</v>
+        <v>45747.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45744.72916666666</v>
+        <v>45747.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45744.73958333334</v>
+        <v>45747.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45744.75</v>
+        <v>45747.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45744.76041666666</v>
+        <v>45747.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45744.77083333334</v>
+        <v>45747.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45744.78125</v>
+        <v>45747.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45744.79166666666</v>
+        <v>45747.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45744.80208333334</v>
+        <v>45747.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45744.8125</v>
+        <v>45747.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45744.82291666666</v>
+        <v>45747.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45744.83333333334</v>
+        <v>45747.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45744.84375</v>
+        <v>45747.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45744.85416666666</v>
+        <v>45747.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45744.86458333334</v>
+        <v>45747.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45744.875</v>
+        <v>45747.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45744.88541666666</v>
+        <v>45747.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45744.89583333334</v>
+        <v>45747.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45744.90625</v>
+        <v>45747.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45744.91666666666</v>
+        <v>45747.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45744.92708333334</v>
+        <v>45747.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45744.9375</v>
+        <v>45747.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45744.94791666666</v>
+        <v>45747.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45744.95833333334</v>
+        <v>45747.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45744.96875</v>
+        <v>45747.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45744.97916666666</v>
+        <v>45747.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45744.98958333334</v>
+        <v>45747.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1382.125</v>
+        <v>1365.125</v>
       </c>
       <c r="M38">
         <v>1448</v>
       </c>
       <c r="N38">
-        <v>-65.875</v>
+        <v>-82.875</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1382.125</v>
+        <v>1365.125</v>
       </c>
       <c r="M39">
         <v>1400</v>
       </c>
       <c r="N39">
-        <v>-17.875</v>
+        <v>-34.875</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1382.125</v>
+        <v>1365.125</v>
       </c>
       <c r="M40">
         <v>1439</v>
       </c>
       <c r="N40">
-        <v>-56.875</v>
+        <v>-73.875</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2218,13 +2218,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1382.125</v>
+        <v>1365.125</v>
       </c>
       <c r="M41">
         <v>1409.6</v>
       </c>
       <c r="N41">
-        <v>-27.47499999999991</v>
+        <v>-44.47499999999991</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2232,13 +2232,13 @@
         <v>45747.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>485.025</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2250,25 +2250,25 @@
         <v>1227</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1129.025</v>
       </c>
       <c r="M42">
         <v>1227</v>
       </c>
       <c r="N42">
-        <v>-1227</v>
+        <v>-97.97499999999991</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2276,13 +2276,13 @@
         <v>45747.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>485.025</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2291,28 +2291,28 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1210.4</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1129.025</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1210.4</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>-81.375</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2320,13 +2320,13 @@
         <v>45747.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>485.025</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2335,28 +2335,28 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1164.5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1129.025</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1164.5</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-35.47499999999991</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2364,13 +2364,13 @@
         <v>45747.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>485.025</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2379,28 +2379,28 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1104.9</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1129.025</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1104.9</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>24.125</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2408,13 +2408,13 @@
         <v>45747.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>429.8</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2423,28 +2423,28 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1033.6</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>962.8</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1033.6</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>-70.79999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2452,13 +2452,13 @@
         <v>45747.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>429.8</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2467,28 +2467,28 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>959.9000000000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>962.8</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>959.9000000000001</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2.899999999999864</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2496,13 +2496,13 @@
         <v>45747.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>429.8</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2511,28 +2511,28 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>993.7</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>962.8</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>993.7</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>-30.90000000000009</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2540,13 +2540,13 @@
         <v>45747.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>429.8</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1041.5</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>962.8</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1041.5</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>-78.70000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1090.2</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1090.2</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>-1090.2</v>
       </c>
     </row>
     <row r="51" spans="1:14">

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45747</v>
+        <v>45751</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>280.825</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,42 +487,42 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>869.825</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-21.17499999999995</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45747.01041666666</v>
+        <v>45751.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>280.825</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -531,42 +531,42 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>795.8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>869.825</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>795.8</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>74.02500000000009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45747.02083333334</v>
+        <v>45751.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>280.825</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -575,42 +575,42 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>869.825</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>21.82500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45747.03125</v>
+        <v>45751.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>280.825</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -619,218 +619,218 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>869.825</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>71.82500000000005</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45747.04166666666</v>
+        <v>45751.04166666666</v>
       </c>
       <c r="B6">
-        <v>780.4000000000001</v>
+        <v>297.324999</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1589.4</v>
+        <v>1020</v>
       </c>
       <c r="H6">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>456</v>
+        <v>213</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1550.4</v>
+        <v>972.324999</v>
       </c>
       <c r="M6">
-        <v>1607.4</v>
+        <v>1020</v>
       </c>
       <c r="N6">
-        <v>-57</v>
+        <v>-47.67500099999995</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45747.05208333334</v>
+        <v>45751.05208333334</v>
       </c>
       <c r="B7">
-        <v>780.4000000000001</v>
+        <v>297.324999</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1569.6</v>
+        <v>1000</v>
       </c>
       <c r="H7">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>456</v>
+        <v>213</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1550.4</v>
+        <v>972.324999</v>
       </c>
       <c r="M7">
-        <v>1587.6</v>
+        <v>1000</v>
       </c>
       <c r="N7">
-        <v>-37.19999999999982</v>
+        <v>-27.67500099999995</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45747.0625</v>
+        <v>45751.0625</v>
       </c>
       <c r="B8">
-        <v>780.4000000000001</v>
+        <v>297.324999</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1571.3</v>
+        <v>997</v>
       </c>
       <c r="H8">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>456</v>
+        <v>213</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1550.4</v>
+        <v>972.324999</v>
       </c>
       <c r="M8">
-        <v>1589.3</v>
+        <v>997</v>
       </c>
       <c r="N8">
-        <v>-38.90000000000009</v>
+        <v>-24.67500099999995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45747.07291666666</v>
+        <v>45751.07291666666</v>
       </c>
       <c r="B9">
-        <v>780.4000000000001</v>
+        <v>297.324999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1590.8</v>
+        <v>964.4000000000001</v>
       </c>
       <c r="H9">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>456</v>
+        <v>213</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1550.4</v>
+        <v>972.324999</v>
       </c>
       <c r="M9">
-        <v>1608.8</v>
+        <v>964.4000000000001</v>
       </c>
       <c r="N9">
-        <v>-58.40000000000009</v>
+        <v>7.924998999999957</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45747.08333333334</v>
+        <v>45751.08333333334</v>
       </c>
       <c r="B10">
-        <v>780.4749999999999</v>
+        <v>136.975</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -839,42 +839,42 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1492</v>
+        <v>683.7</v>
       </c>
       <c r="H10">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1421.475</v>
+        <v>584.975</v>
       </c>
       <c r="M10">
-        <v>1492</v>
+        <v>683.7</v>
       </c>
       <c r="N10">
-        <v>-70.52500000000009</v>
+        <v>-98.72500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45747.09375</v>
+        <v>45751.09375</v>
       </c>
       <c r="B11">
-        <v>780.4749999999999</v>
+        <v>136.975</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -883,42 +883,42 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1527.7</v>
+        <v>652.4</v>
       </c>
       <c r="H11">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1421.475</v>
+        <v>584.975</v>
       </c>
       <c r="M11">
-        <v>1527.7</v>
+        <v>652.4</v>
       </c>
       <c r="N11">
-        <v>-106.2249999999999</v>
+        <v>-67.42499999999995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45747.10416666666</v>
+        <v>45751.10416666666</v>
       </c>
       <c r="B12">
-        <v>780.4749999999999</v>
+        <v>136.975</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -927,42 +927,42 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1518.4</v>
+        <v>645.2</v>
       </c>
       <c r="H12">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1421.475</v>
+        <v>584.975</v>
       </c>
       <c r="M12">
-        <v>1518.4</v>
+        <v>645.2</v>
       </c>
       <c r="N12">
-        <v>-96.92500000000018</v>
+        <v>-60.22500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45747.11458333334</v>
+        <v>45751.11458333334</v>
       </c>
       <c r="B13">
-        <v>780.4749999999999</v>
+        <v>136.975</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -971,42 +971,42 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1534.1</v>
+        <v>653.1</v>
       </c>
       <c r="H13">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1421.475</v>
+        <v>584.975</v>
       </c>
       <c r="M13">
-        <v>1534.1</v>
+        <v>653.1</v>
       </c>
       <c r="N13">
-        <v>-112.625</v>
+        <v>-68.125</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45747.125</v>
+        <v>45751.125</v>
       </c>
       <c r="B14">
-        <v>776.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>72.875</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1015,42 +1015,42 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1516.3</v>
+        <v>266.2</v>
       </c>
       <c r="H14">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1427.45</v>
+        <v>261</v>
       </c>
       <c r="M14">
-        <v>1516.3</v>
+        <v>345.075</v>
       </c>
       <c r="N14">
-        <v>-88.85000000000036</v>
+        <v>-84.07500000000005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45747.13541666666</v>
+        <v>45751.13541666666</v>
       </c>
       <c r="B15">
-        <v>776.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>72.875</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1059,42 +1059,42 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1516.4</v>
+        <v>203.5</v>
       </c>
       <c r="H15">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1427.45</v>
+        <v>261</v>
       </c>
       <c r="M15">
-        <v>1516.4</v>
+        <v>282.375</v>
       </c>
       <c r="N15">
-        <v>-88.95000000000027</v>
+        <v>-21.375</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45747.14583333334</v>
+        <v>45751.14583333334</v>
       </c>
       <c r="B16">
-        <v>776.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>72.875</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1103,42 +1103,42 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1548.1</v>
+        <v>218.9</v>
       </c>
       <c r="H16">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1427.45</v>
+        <v>261</v>
       </c>
       <c r="M16">
-        <v>1548.1</v>
+        <v>297.775</v>
       </c>
       <c r="N16">
-        <v>-120.6500000000001</v>
+        <v>-36.77499999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45747.15625</v>
+        <v>45751.15625</v>
       </c>
       <c r="B17">
-        <v>776.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>72.875</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1147,42 +1147,42 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1525.4</v>
+        <v>324.4000000000001</v>
       </c>
       <c r="H17">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1427.45</v>
+        <v>261</v>
       </c>
       <c r="M17">
-        <v>1525.4</v>
+        <v>403.2750000000001</v>
       </c>
       <c r="N17">
-        <v>-97.95000000000027</v>
+        <v>-142.2750000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45747.16666666666</v>
+        <v>45751.16666666666</v>
       </c>
       <c r="B18">
-        <v>821.25</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>88.875</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1191,42 +1191,42 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1478.3</v>
+        <v>322.4</v>
       </c>
       <c r="H18">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>434</v>
+        <v>150</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1467.25</v>
+        <v>322</v>
       </c>
       <c r="M18">
-        <v>1478.3</v>
+        <v>411.275</v>
       </c>
       <c r="N18">
-        <v>-11.05000000000018</v>
+        <v>-89.27499999999998</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45747.17708333334</v>
+        <v>45751.17708333334</v>
       </c>
       <c r="B19">
-        <v>821.25</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>88.875</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1235,42 +1235,42 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1502.1</v>
+        <v>336</v>
       </c>
       <c r="H19">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>434</v>
+        <v>150</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1467.25</v>
+        <v>322</v>
       </c>
       <c r="M19">
-        <v>1502.1</v>
+        <v>424.875</v>
       </c>
       <c r="N19">
-        <v>-34.84999999999991</v>
+        <v>-102.875</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45747.1875</v>
+        <v>45751.1875</v>
       </c>
       <c r="B20">
-        <v>821.25</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>88.875</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1279,42 +1279,42 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1584.8</v>
+        <v>323.1999999999999</v>
       </c>
       <c r="H20">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>434</v>
+        <v>150</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1467.25</v>
+        <v>322</v>
       </c>
       <c r="M20">
-        <v>1584.8</v>
+        <v>412.0749999999999</v>
       </c>
       <c r="N20">
-        <v>-117.5500000000002</v>
+        <v>-90.07499999999993</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45747.19791666666</v>
+        <v>45751.19791666666</v>
       </c>
       <c r="B21">
-        <v>821.25</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>88.875</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1323,42 +1323,42 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1664</v>
+        <v>420</v>
       </c>
       <c r="H21">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>434</v>
+        <v>150</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1467.25</v>
+        <v>322</v>
       </c>
       <c r="M21">
-        <v>1664</v>
+        <v>508.875</v>
       </c>
       <c r="N21">
-        <v>-196.75</v>
+        <v>-186.875</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45747.20833333334</v>
+        <v>45751.20833333334</v>
       </c>
       <c r="B22">
-        <v>893.7750000000001</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>265.825</v>
       </c>
       <c r="D22">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1367,42 +1367,42 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1944.7</v>
+        <v>272.6</v>
       </c>
       <c r="H22">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1819.775</v>
+        <v>480</v>
       </c>
       <c r="M22">
-        <v>1944.7</v>
+        <v>538.4250000000001</v>
       </c>
       <c r="N22">
-        <v>-124.9249999999997</v>
+        <v>-58.42500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45747.21875</v>
+        <v>45751.21875</v>
       </c>
       <c r="B23">
-        <v>893.7750000000001</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>265.825</v>
       </c>
       <c r="D23">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1411,42 +1411,42 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1946.3</v>
+        <v>315.7</v>
       </c>
       <c r="H23">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1819.775</v>
+        <v>480</v>
       </c>
       <c r="M23">
-        <v>1946.3</v>
+        <v>581.5250000000001</v>
       </c>
       <c r="N23">
-        <v>-126.5250000000001</v>
+        <v>-101.5250000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45747.22916666666</v>
+        <v>45751.22916666666</v>
       </c>
       <c r="B24">
-        <v>893.7750000000001</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>265.825</v>
       </c>
       <c r="D24">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1455,42 +1455,42 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2019</v>
+        <v>341.8</v>
       </c>
       <c r="H24">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1819.775</v>
+        <v>480</v>
       </c>
       <c r="M24">
-        <v>2019</v>
+        <v>607.625</v>
       </c>
       <c r="N24">
-        <v>-199.2249999999999</v>
+        <v>-127.625</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45747.23958333334</v>
+        <v>45751.23958333334</v>
       </c>
       <c r="B25">
-        <v>893.7750000000001</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>265.825</v>
       </c>
       <c r="D25">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1499,42 +1499,42 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1925.6</v>
+        <v>347.3</v>
       </c>
       <c r="H25">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1819.775</v>
+        <v>480</v>
       </c>
       <c r="M25">
-        <v>1925.6</v>
+        <v>613.125</v>
       </c>
       <c r="N25">
-        <v>-105.8249999999998</v>
+        <v>-133.125</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45747.25</v>
+        <v>45751.25</v>
       </c>
       <c r="B26">
-        <v>939.3500000000001</v>
+        <v>94.92499900000007</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1543,42 +1543,42 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1815.1</v>
+        <v>521.7</v>
       </c>
       <c r="H26">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1773.35</v>
+        <v>403.9249990000001</v>
       </c>
       <c r="M26">
-        <v>1815.1</v>
+        <v>521.7</v>
       </c>
       <c r="N26">
-        <v>-41.74999999999977</v>
+        <v>-117.775001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45747.26041666666</v>
+        <v>45751.26041666666</v>
       </c>
       <c r="B27">
-        <v>939.3500000000001</v>
+        <v>94.92499900000007</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1587,42 +1587,42 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1812.4</v>
+        <v>599.8</v>
       </c>
       <c r="H27">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1773.35</v>
+        <v>403.9249990000001</v>
       </c>
       <c r="M27">
-        <v>1812.4</v>
+        <v>599.8</v>
       </c>
       <c r="N27">
-        <v>-39.04999999999995</v>
+        <v>-195.8750009999999</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45747.27083333334</v>
+        <v>45751.27083333334</v>
       </c>
       <c r="B28">
-        <v>939.3500000000001</v>
+        <v>94.92499900000007</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1631,42 +1631,42 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1878.6</v>
+        <v>487.8</v>
       </c>
       <c r="H28">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1773.35</v>
+        <v>403.9249990000001</v>
       </c>
       <c r="M28">
-        <v>1878.6</v>
+        <v>487.8</v>
       </c>
       <c r="N28">
-        <v>-105.2499999999998</v>
+        <v>-83.87500099999988</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45747.28125</v>
+        <v>45751.28125</v>
       </c>
       <c r="B29">
-        <v>939.3500000000001</v>
+        <v>94.92499900000007</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1675,42 +1675,42 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1885</v>
+        <v>448.8</v>
       </c>
       <c r="H29">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1773.35</v>
+        <v>403.9249990000001</v>
       </c>
       <c r="M29">
-        <v>1885</v>
+        <v>448.8</v>
       </c>
       <c r="N29">
-        <v>-111.6499999999999</v>
+        <v>-44.87500099999988</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45747.29166666666</v>
+        <v>45751.29166666666</v>
       </c>
       <c r="B30">
-        <v>649.2750000000001</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>13.59999999999991</v>
       </c>
       <c r="D30">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1719,42 +1719,42 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1631</v>
+        <v>426.8</v>
       </c>
       <c r="H30">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>455</v>
+        <v>85</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1684.275</v>
+        <v>283</v>
       </c>
       <c r="M30">
-        <v>1631</v>
+        <v>440.3999999999999</v>
       </c>
       <c r="N30">
-        <v>53.27500000000009</v>
+        <v>-157.3999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45747.30208333334</v>
+        <v>45751.30208333334</v>
       </c>
       <c r="B31">
-        <v>649.2750000000001</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>13.59999999999991</v>
       </c>
       <c r="D31">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1763,42 +1763,42 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1759</v>
+        <v>456.1</v>
       </c>
       <c r="H31">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>455</v>
+        <v>85</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1684.275</v>
+        <v>283</v>
       </c>
       <c r="M31">
-        <v>1759</v>
+        <v>469.6999999999999</v>
       </c>
       <c r="N31">
-        <v>-74.72499999999991</v>
+        <v>-186.6999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45747.3125</v>
+        <v>45751.3125</v>
       </c>
       <c r="B32">
-        <v>649.2750000000001</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>13.59999999999991</v>
       </c>
       <c r="D32">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1807,42 +1807,42 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1774</v>
+        <v>377</v>
       </c>
       <c r="H32">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>455</v>
+        <v>85</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1684.275</v>
+        <v>283</v>
       </c>
       <c r="M32">
-        <v>1774</v>
+        <v>390.5999999999999</v>
       </c>
       <c r="N32">
-        <v>-89.72499999999991</v>
+        <v>-107.5999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45747.32291666666</v>
+        <v>45751.32291666666</v>
       </c>
       <c r="B33">
-        <v>649.2750000000001</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>13.59999999999991</v>
       </c>
       <c r="D33">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1851,218 +1851,218 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1760</v>
+        <v>328.3</v>
       </c>
       <c r="H33">
-        <v>357</v>
+        <v>48</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>455</v>
+        <v>85</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1684.275</v>
+        <v>283</v>
       </c>
       <c r="M33">
-        <v>1760</v>
+        <v>341.8999999999999</v>
       </c>
       <c r="N33">
-        <v>-75.72499999999991</v>
+        <v>-58.89999999999986</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45747.33333333334</v>
+        <v>45751.33333333334</v>
       </c>
       <c r="B34">
-        <v>714.3</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>402.575</v>
       </c>
       <c r="D34">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>1799.7</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1776.3</v>
+        <v>234</v>
       </c>
       <c r="M34">
-        <v>1799.7</v>
+        <v>404.575</v>
       </c>
       <c r="N34">
-        <v>-23.39999999999986</v>
+        <v>-170.575</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45747.34375</v>
+        <v>45751.34375</v>
       </c>
       <c r="B35">
-        <v>714.3</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>402.575</v>
       </c>
       <c r="D35">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>132.4</v>
       </c>
       <c r="G35">
-        <v>1851</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1776.3</v>
+        <v>266.4</v>
       </c>
       <c r="M35">
-        <v>1851</v>
+        <v>404.575</v>
       </c>
       <c r="N35">
-        <v>-74.70000000000005</v>
+        <v>-138.1750000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45747.35416666666</v>
+        <v>45751.35416666666</v>
       </c>
       <c r="B36">
-        <v>714.3</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>402.575</v>
       </c>
       <c r="D36">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>273.3</v>
       </c>
       <c r="G36">
-        <v>1825.2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1776.3</v>
+        <v>407.3</v>
       </c>
       <c r="M36">
-        <v>1825.2</v>
+        <v>404.575</v>
       </c>
       <c r="N36">
-        <v>-48.89999999999986</v>
+        <v>2.724999999999966</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45747.36458333334</v>
+        <v>45751.36458333334</v>
       </c>
       <c r="B37">
-        <v>714.3</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>402.575</v>
       </c>
       <c r="D37">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>276.4</v>
       </c>
       <c r="G37">
-        <v>1794.5</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1776.3</v>
+        <v>410.4</v>
       </c>
       <c r="M37">
-        <v>1794.5</v>
+        <v>404.575</v>
       </c>
       <c r="N37">
-        <v>-18.20000000000005</v>
+        <v>5.824999999999932</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45747.375</v>
+        <v>45751.375</v>
       </c>
       <c r="B38">
-        <v>569.125</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>177.375</v>
       </c>
       <c r="D38">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2071,42 +2071,42 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1448</v>
+        <v>66.00000000000006</v>
       </c>
       <c r="H38">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1365.125</v>
+        <v>282</v>
       </c>
       <c r="M38">
-        <v>1448</v>
+        <v>243.3750000000001</v>
       </c>
       <c r="N38">
-        <v>-82.875</v>
+        <v>38.62499999999994</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45747.38541666666</v>
+        <v>45751.38541666666</v>
       </c>
       <c r="B39">
-        <v>569.125</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>177.375</v>
       </c>
       <c r="D39">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2115,42 +2115,42 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1400</v>
+        <v>117.2</v>
       </c>
       <c r="H39">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1365.125</v>
+        <v>282</v>
       </c>
       <c r="M39">
-        <v>1400</v>
+        <v>294.575</v>
       </c>
       <c r="N39">
-        <v>-34.875</v>
+        <v>-12.57499999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45747.39583333334</v>
+        <v>45751.39583333334</v>
       </c>
       <c r="B40">
-        <v>569.125</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>177.375</v>
       </c>
       <c r="D40">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2159,42 +2159,42 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1439</v>
+        <v>130.2</v>
       </c>
       <c r="H40">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1365.125</v>
+        <v>282</v>
       </c>
       <c r="M40">
-        <v>1439</v>
+        <v>307.575</v>
       </c>
       <c r="N40">
-        <v>-73.875</v>
+        <v>-25.57499999999999</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45747.40625</v>
+        <v>45751.40625</v>
       </c>
       <c r="B41">
-        <v>569.125</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>177.375</v>
       </c>
       <c r="D41">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2203,42 +2203,42 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1409.6</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1365.125</v>
+        <v>282</v>
       </c>
       <c r="M41">
-        <v>1409.6</v>
+        <v>212.375</v>
       </c>
       <c r="N41">
-        <v>-44.47499999999991</v>
+        <v>69.625</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45747.41666666666</v>
+        <v>45751.41666666666</v>
       </c>
       <c r="B42">
-        <v>485.025</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>115.525</v>
       </c>
       <c r="D42">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2247,42 +2247,42 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1227</v>
+        <v>169</v>
       </c>
       <c r="H42">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1129.025</v>
+        <v>382</v>
       </c>
       <c r="M42">
-        <v>1227</v>
+        <v>284.525</v>
       </c>
       <c r="N42">
-        <v>-97.97499999999991</v>
+        <v>97.47500000000002</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45747.42708333334</v>
+        <v>45751.42708333334</v>
       </c>
       <c r="B43">
-        <v>485.025</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>115.525</v>
       </c>
       <c r="D43">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2291,42 +2291,42 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1210.4</v>
+        <v>116.7</v>
       </c>
       <c r="H43">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1129.025</v>
+        <v>382</v>
       </c>
       <c r="M43">
-        <v>1210.4</v>
+        <v>232.225</v>
       </c>
       <c r="N43">
-        <v>-81.375</v>
+        <v>149.775</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45747.4375</v>
+        <v>45751.4375</v>
       </c>
       <c r="B44">
-        <v>485.025</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>115.525</v>
       </c>
       <c r="D44">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2335,42 +2335,42 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1164.5</v>
+        <v>116.1</v>
       </c>
       <c r="H44">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1129.025</v>
+        <v>382</v>
       </c>
       <c r="M44">
-        <v>1164.5</v>
+        <v>231.625</v>
       </c>
       <c r="N44">
-        <v>-35.47499999999991</v>
+        <v>150.375</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45747.44791666666</v>
+        <v>45751.44791666666</v>
       </c>
       <c r="B45">
-        <v>485.025</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>115.525</v>
       </c>
       <c r="D45">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2379,42 +2379,42 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1104.9</v>
+        <v>144.6</v>
       </c>
       <c r="H45">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1129.025</v>
+        <v>382</v>
       </c>
       <c r="M45">
-        <v>1104.9</v>
+        <v>260.1249999999999</v>
       </c>
       <c r="N45">
-        <v>24.125</v>
+        <v>121.8750000000001</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45747.45833333334</v>
+        <v>45751.45833333334</v>
       </c>
       <c r="B46">
-        <v>429.8</v>
+        <v>268.875</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2423,42 +2423,42 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1033.6</v>
+        <v>1133.9</v>
       </c>
       <c r="H46">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>962.8</v>
+        <v>1181.875</v>
       </c>
       <c r="M46">
-        <v>1033.6</v>
+        <v>1133.9</v>
       </c>
       <c r="N46">
-        <v>-70.79999999999995</v>
+        <v>47.97499999999991</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45747.46875</v>
+        <v>45751.46875</v>
       </c>
       <c r="B47">
-        <v>429.8</v>
+        <v>268.875</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2467,42 +2467,42 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>959.9000000000001</v>
+        <v>1058.3</v>
       </c>
       <c r="H47">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>962.8</v>
+        <v>1181.875</v>
       </c>
       <c r="M47">
-        <v>959.9000000000001</v>
+        <v>1058.3</v>
       </c>
       <c r="N47">
-        <v>2.899999999999864</v>
+        <v>123.575</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45747.47916666666</v>
+        <v>45751.47916666666</v>
       </c>
       <c r="B48">
-        <v>429.8</v>
+        <v>268.875</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2511,42 +2511,42 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>993.7</v>
+        <v>1132.2</v>
       </c>
       <c r="H48">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>962.8</v>
+        <v>1181.875</v>
       </c>
       <c r="M48">
-        <v>993.7</v>
+        <v>1132.2</v>
       </c>
       <c r="N48">
-        <v>-30.90000000000009</v>
+        <v>49.67499999999995</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45747.48958333334</v>
+        <v>45751.48958333334</v>
       </c>
       <c r="B49">
-        <v>429.8</v>
+        <v>268.875</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2555,42 +2555,42 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1041.5</v>
+        <v>1102.2</v>
       </c>
       <c r="H49">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>962.8</v>
+        <v>1181.875</v>
       </c>
       <c r="M49">
-        <v>1041.5</v>
+        <v>1102.2</v>
       </c>
       <c r="N49">
-        <v>-78.70000000000005</v>
+        <v>79.67499999999995</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45747.5</v>
+        <v>45751.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>362.325</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2599,42 +2599,42 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1090.2</v>
+        <v>1413.7</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1473.325</v>
       </c>
       <c r="M50">
-        <v>1090.2</v>
+        <v>1413.7</v>
       </c>
       <c r="N50">
-        <v>-1090.2</v>
+        <v>59.62500000000023</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45747.51041666666</v>
+        <v>45751.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>362.325</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2643,42 +2643,42 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1368.4</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1473.325</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1368.4</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>104.9250000000002</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45747.52083333334</v>
+        <v>45751.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>362.325</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2687,42 +2687,42 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1401.2</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1473.325</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1401.2</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>72.12500000000023</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45747.53125</v>
+        <v>45751.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>362.325</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1420.2</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1473.325</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1420.2</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>53.12500000000023</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45747.54166666666</v>
+        <v>45751.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>579.6999989999999</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2775,42 +2775,42 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1600.4</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1659.699999</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1600.4</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>59.29999899999984</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45747.55208333334</v>
+        <v>45751.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>579.6999989999999</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2819,42 +2819,42 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1598.9</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1659.699999</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1598.9</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>60.79999899999984</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45747.5625</v>
+        <v>45751.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>579.6999989999999</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2863,42 +2863,42 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1606.2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1659.699999</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1606.2</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>53.49999899999966</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45747.57291666666</v>
+        <v>45751.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>579.6999989999999</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2907,42 +2907,42 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1590.6</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1659.699999</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1590.6</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>69.09999900000003</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45747.58333333334</v>
+        <v>45751.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>461.4250000000002</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2951,42 +2951,42 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1475.1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1581.425</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1475.1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>106.3250000000003</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45747.59375</v>
+        <v>45751.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>461.4250000000002</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2995,42 +2995,42 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1469.2</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1581.425</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1469.2</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>112.2250000000001</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45747.60416666666</v>
+        <v>45751.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>461.4250000000002</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3039,42 +3039,42 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1451.7</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1581.425</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1451.7</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>129.7250000000001</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45747.61458333334</v>
+        <v>45751.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>461.4250000000002</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3083,42 +3083,42 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1406.7</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1581.425</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1406.7</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>174.7250000000001</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45747.625</v>
+        <v>45751.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>513.1500000000001</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3127,42 +3127,42 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1868.15</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>98.15000000000009</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45747.63541666666</v>
+        <v>45751.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>513.1500000000001</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3171,42 +3171,42 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1868.15</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>86.15000000000009</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45747.64583333334</v>
+        <v>45751.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>513.1500000000001</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3215,42 +3215,42 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1765.8</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1868.15</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1765.8</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>102.3499999999999</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45747.65625</v>
+        <v>45751.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>513.1500000000001</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3259,33 +3259,33 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1814.2</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1868.15</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1814.2</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>53.94999999999982</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45747.66666666666</v>
+        <v>45751.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1300.7</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3321,15 +3321,15 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1300.7</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>-1300.7</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45747.67708333334</v>
+        <v>45751.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45747.6875</v>
+        <v>45751.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45747.69791666666</v>
+        <v>45751.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45747.70833333334</v>
+        <v>45751.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45747.71875</v>
+        <v>45751.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45747.72916666666</v>
+        <v>45751.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45747.73958333334</v>
+        <v>45751.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45747.75</v>
+        <v>45751.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45747.76041666666</v>
+        <v>45751.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45747.77083333334</v>
+        <v>45751.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45747.78125</v>
+        <v>45751.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45747.79166666666</v>
+        <v>45751.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45747.80208333334</v>
+        <v>45751.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45747.8125</v>
+        <v>45751.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45747.82291666666</v>
+        <v>45751.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45747.83333333334</v>
+        <v>45751.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45747.84375</v>
+        <v>45751.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45747.85416666666</v>
+        <v>45751.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45747.86458333334</v>
+        <v>45751.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45747.875</v>
+        <v>45751.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45747.88541666666</v>
+        <v>45751.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45747.89583333334</v>
+        <v>45751.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45747.90625</v>
+        <v>45751.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45747.91666666666</v>
+        <v>45751.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45747.92708333334</v>
+        <v>45751.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45747.9375</v>
+        <v>45751.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45747.94791666666</v>
+        <v>45751.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45747.95833333334</v>
+        <v>45751.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45747.96875</v>
+        <v>45751.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45747.97916666666</v>
+        <v>45751.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45747.98958333334</v>
+        <v>45751.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,1600 +469,1600 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B2">
-        <v>280.825</v>
+        <v>303.5250000000001</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>891</v>
+        <v>303.5</v>
       </c>
       <c r="H2">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J2">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>869.825</v>
+        <v>708.5250000000001</v>
       </c>
       <c r="M2">
-        <v>891</v>
+        <v>697.5</v>
       </c>
       <c r="N2">
-        <v>-21.17499999999995</v>
+        <v>11.02500000000009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B3">
-        <v>280.825</v>
+        <v>303.5250000000001</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>795.8</v>
+        <v>225.7</v>
       </c>
       <c r="H3">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J3">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>869.825</v>
+        <v>708.5250000000001</v>
       </c>
       <c r="M3">
-        <v>795.8</v>
+        <v>619.7</v>
       </c>
       <c r="N3">
-        <v>74.02500000000009</v>
+        <v>88.82500000000005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B4">
-        <v>280.825</v>
+        <v>303.5250000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>848</v>
+        <v>288.9</v>
       </c>
       <c r="H4">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J4">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>869.825</v>
+        <v>708.5250000000001</v>
       </c>
       <c r="M4">
-        <v>848</v>
+        <v>682.9</v>
       </c>
       <c r="N4">
-        <v>21.82500000000005</v>
+        <v>25.62500000000011</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B5">
-        <v>280.825</v>
+        <v>303.5250000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>798</v>
+        <v>269.1</v>
       </c>
       <c r="H5">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J5">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>869.825</v>
+        <v>708.5250000000001</v>
       </c>
       <c r="M5">
-        <v>798</v>
+        <v>663.1</v>
       </c>
       <c r="N5">
-        <v>71.82500000000005</v>
+        <v>45.42500000000007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B6">
-        <v>297.324999</v>
+        <v>140.0999999999999</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1020</v>
+        <v>51.60000000000002</v>
       </c>
       <c r="H6">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J6">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>972.324999</v>
+        <v>541.0999999999999</v>
       </c>
       <c r="M6">
-        <v>1020</v>
+        <v>526.6</v>
       </c>
       <c r="N6">
-        <v>-47.67500099999995</v>
+        <v>14.49999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B7">
-        <v>297.324999</v>
+        <v>140.0999999999999</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="H7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J7">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>972.324999</v>
+        <v>541.0999999999999</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>475.1</v>
       </c>
       <c r="N7">
-        <v>-27.67500099999995</v>
+        <v>65.99999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B8">
-        <v>297.324999</v>
+        <v>140.0999999999999</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>997</v>
+        <v>54.40000000000003</v>
       </c>
       <c r="H8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J8">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>972.324999</v>
+        <v>541.0999999999999</v>
       </c>
       <c r="M8">
-        <v>997</v>
+        <v>529.4000000000001</v>
       </c>
       <c r="N8">
-        <v>-24.67500099999995</v>
+        <v>11.69999999999982</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B9">
-        <v>297.324999</v>
+        <v>140.0999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>964.4000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="H9">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J9">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>972.324999</v>
+        <v>541.0999999999999</v>
       </c>
       <c r="M9">
-        <v>964.4000000000001</v>
+        <v>562.5</v>
       </c>
       <c r="N9">
-        <v>7.924998999999957</v>
+        <v>-21.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B10">
-        <v>136.975</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>180.2750000000001</v>
       </c>
       <c r="D10">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>483.2</v>
       </c>
       <c r="G10">
-        <v>683.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J10">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>584.975</v>
+        <v>819.2</v>
       </c>
       <c r="M10">
-        <v>683.7</v>
+        <v>780.2750000000001</v>
       </c>
       <c r="N10">
-        <v>-98.72500000000002</v>
+        <v>38.92499999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B11">
-        <v>136.975</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>180.2750000000001</v>
       </c>
       <c r="D11">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>490.3</v>
       </c>
       <c r="G11">
-        <v>652.4</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J11">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>584.975</v>
+        <v>826.3</v>
       </c>
       <c r="M11">
-        <v>652.4</v>
+        <v>780.2750000000001</v>
       </c>
       <c r="N11">
-        <v>-67.42499999999995</v>
+        <v>46.02499999999986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B12">
-        <v>136.975</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>180.2750000000001</v>
       </c>
       <c r="D12">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="G12">
-        <v>645.2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J12">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>584.975</v>
+        <v>795</v>
       </c>
       <c r="M12">
-        <v>645.2</v>
+        <v>780.2750000000001</v>
       </c>
       <c r="N12">
-        <v>-60.22500000000002</v>
+        <v>14.72499999999991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B13">
-        <v>136.975</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>180.2750000000001</v>
       </c>
       <c r="D13">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>462.6</v>
       </c>
       <c r="G13">
-        <v>653.1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J13">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>584.975</v>
+        <v>798.5999999999999</v>
       </c>
       <c r="M13">
-        <v>653.1</v>
+        <v>780.2750000000001</v>
       </c>
       <c r="N13">
-        <v>-68.125</v>
+        <v>18.32499999999982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>72.875</v>
+        <v>66.60000000000002</v>
       </c>
       <c r="D14">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G14">
-        <v>266.2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="J14">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>261</v>
+        <v>597</v>
       </c>
       <c r="M14">
-        <v>345.075</v>
+        <v>619.6</v>
       </c>
       <c r="N14">
-        <v>-84.07500000000005</v>
+        <v>-22.60000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>72.875</v>
+        <v>66.60000000000002</v>
       </c>
       <c r="D15">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="G15">
-        <v>203.5</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="J15">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>261</v>
+        <v>601.8</v>
       </c>
       <c r="M15">
-        <v>282.375</v>
+        <v>619.6</v>
       </c>
       <c r="N15">
-        <v>-21.375</v>
+        <v>-17.80000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>72.875</v>
+        <v>66.60000000000002</v>
       </c>
       <c r="D16">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>233.8</v>
       </c>
       <c r="G16">
-        <v>218.9</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="J16">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>261</v>
+        <v>608.8</v>
       </c>
       <c r="M16">
-        <v>297.775</v>
+        <v>619.6</v>
       </c>
       <c r="N16">
-        <v>-36.77499999999998</v>
+        <v>-10.80000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>72.875</v>
+        <v>66.60000000000002</v>
       </c>
       <c r="D17">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>234.3</v>
       </c>
       <c r="G17">
-        <v>324.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="J17">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>261</v>
+        <v>609.3</v>
       </c>
       <c r="M17">
-        <v>403.2750000000001</v>
+        <v>619.6</v>
       </c>
       <c r="N17">
-        <v>-142.2750000000001</v>
+        <v>-10.30000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>17.07500000000005</v>
       </c>
       <c r="C18">
-        <v>88.875</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>53.60000000000002</v>
       </c>
       <c r="G18">
-        <v>322.4</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J18">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>322</v>
+        <v>516.6750000000001</v>
       </c>
       <c r="M18">
-        <v>411.275</v>
+        <v>494</v>
       </c>
       <c r="N18">
-        <v>-89.27499999999998</v>
+        <v>22.67500000000007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>17.07500000000005</v>
       </c>
       <c r="C19">
-        <v>88.875</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>19.70000000000005</v>
       </c>
       <c r="G19">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J19">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>322</v>
+        <v>482.7750000000001</v>
       </c>
       <c r="M19">
-        <v>424.875</v>
+        <v>494</v>
       </c>
       <c r="N19">
-        <v>-102.875</v>
+        <v>-11.22499999999991</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>17.07500000000005</v>
       </c>
       <c r="C20">
-        <v>88.875</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="G20">
-        <v>323.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J20">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>322</v>
+        <v>490.275</v>
       </c>
       <c r="M20">
-        <v>412.0749999999999</v>
+        <v>494</v>
       </c>
       <c r="N20">
-        <v>-90.07499999999993</v>
+        <v>-3.724999999999966</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>17.07500000000005</v>
       </c>
       <c r="C21">
-        <v>88.875</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>420</v>
+        <v>39.29999999999995</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J21">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>322</v>
+        <v>463.075</v>
       </c>
       <c r="M21">
-        <v>508.875</v>
+        <v>533.3</v>
       </c>
       <c r="N21">
-        <v>-186.875</v>
+        <v>-70.22499999999991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>324.325</v>
       </c>
       <c r="C22">
-        <v>265.825</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>272.6</v>
+        <v>778.5999999999999</v>
       </c>
       <c r="H22">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>480</v>
+        <v>961.325</v>
       </c>
       <c r="M22">
-        <v>538.4250000000001</v>
+        <v>1035.6</v>
       </c>
       <c r="N22">
-        <v>-58.42500000000007</v>
+        <v>-74.27499999999986</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>324.325</v>
       </c>
       <c r="C23">
-        <v>265.825</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>315.7</v>
+        <v>758.5999999999999</v>
       </c>
       <c r="H23">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>480</v>
+        <v>961.325</v>
       </c>
       <c r="M23">
-        <v>581.5250000000001</v>
+        <v>1015.6</v>
       </c>
       <c r="N23">
-        <v>-101.5250000000001</v>
+        <v>-54.27499999999986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>324.325</v>
       </c>
       <c r="C24">
-        <v>265.825</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>341.8</v>
+        <v>689.5</v>
       </c>
       <c r="H24">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>480</v>
+        <v>961.325</v>
       </c>
       <c r="M24">
-        <v>607.625</v>
+        <v>946.5</v>
       </c>
       <c r="N24">
-        <v>-127.625</v>
+        <v>14.82500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>324.325</v>
       </c>
       <c r="C25">
-        <v>265.825</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>347.3</v>
+        <v>693.8999999999999</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>480</v>
+        <v>961.325</v>
       </c>
       <c r="M25">
-        <v>613.125</v>
+        <v>950.8999999999999</v>
       </c>
       <c r="N25">
-        <v>-133.125</v>
+        <v>10.42500000000018</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B26">
-        <v>94.92499900000007</v>
+        <v>177.4499989999999</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>521.7</v>
+        <v>568.8999999999999</v>
       </c>
       <c r="H26">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J26">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>403.9249990000001</v>
+        <v>773.4499989999999</v>
       </c>
       <c r="M26">
-        <v>521.7</v>
+        <v>793.8999999999999</v>
       </c>
       <c r="N26">
-        <v>-117.775001</v>
+        <v>-20.45000099999993</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B27">
-        <v>94.92499900000007</v>
+        <v>177.4499989999999</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>599.8</v>
+        <v>559.4000000000001</v>
       </c>
       <c r="H27">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J27">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>403.9249990000001</v>
+        <v>773.4499989999999</v>
       </c>
       <c r="M27">
-        <v>599.8</v>
+        <v>784.4000000000001</v>
       </c>
       <c r="N27">
-        <v>-195.8750009999999</v>
+        <v>-10.95000100000016</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B28">
-        <v>94.92499900000007</v>
+        <v>177.4499989999999</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>487.8</v>
+        <v>520.1</v>
       </c>
       <c r="H28">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J28">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>403.9249990000001</v>
+        <v>773.4499989999999</v>
       </c>
       <c r="M28">
-        <v>487.8</v>
+        <v>745.1</v>
       </c>
       <c r="N28">
-        <v>-83.87500099999988</v>
+        <v>28.34999899999991</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B29">
-        <v>94.92499900000007</v>
+        <v>177.4499989999999</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>448.8</v>
+        <v>392.5</v>
       </c>
       <c r="H29">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J29">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>403.9249990000001</v>
+        <v>773.4499989999999</v>
       </c>
       <c r="M29">
-        <v>448.8</v>
+        <v>617.5</v>
       </c>
       <c r="N29">
-        <v>-44.87500099999988</v>
+        <v>155.9499989999999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>13.59999999999991</v>
+        <v>283.1750010000001</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>206.4</v>
       </c>
       <c r="G30">
-        <v>426.8</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J30">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>283</v>
+        <v>590.4</v>
       </c>
       <c r="M30">
-        <v>440.3999999999999</v>
+        <v>493.1750010000001</v>
       </c>
       <c r="N30">
-        <v>-157.3999999999999</v>
+        <v>97.22499899999991</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>13.59999999999991</v>
+        <v>283.1750010000001</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>242.6</v>
       </c>
       <c r="G31">
-        <v>456.1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J31">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>283</v>
+        <v>626.6</v>
       </c>
       <c r="M31">
-        <v>469.6999999999999</v>
+        <v>493.1750010000001</v>
       </c>
       <c r="N31">
-        <v>-186.6999999999999</v>
+        <v>133.424999</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>13.59999999999991</v>
+        <v>283.1750010000001</v>
       </c>
       <c r="D32">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>302.3</v>
       </c>
       <c r="G32">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J32">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>283</v>
+        <v>686.3</v>
       </c>
       <c r="M32">
-        <v>390.5999999999999</v>
+        <v>493.1750010000001</v>
       </c>
       <c r="N32">
-        <v>-107.5999999999999</v>
+        <v>193.1249989999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>13.59999999999991</v>
+        <v>283.1750010000001</v>
       </c>
       <c r="D33">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>409.1</v>
       </c>
       <c r="G33">
-        <v>328.3</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>283</v>
+        <v>793.1</v>
       </c>
       <c r="M33">
-        <v>341.8999999999999</v>
+        <v>493.1750010000001</v>
       </c>
       <c r="N33">
-        <v>-58.89999999999986</v>
+        <v>299.924999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>402.575</v>
+        <v>604.05</v>
       </c>
       <c r="D34">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>1006.4</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>234</v>
+        <v>1006.4</v>
       </c>
       <c r="M34">
-        <v>404.575</v>
+        <v>1057.05</v>
       </c>
       <c r="N34">
-        <v>-170.575</v>
+        <v>-50.64999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>402.575</v>
+        <v>604.05</v>
       </c>
       <c r="D35">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>132.4</v>
+        <v>1003.2</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>266.4</v>
+        <v>1003.2</v>
       </c>
       <c r="M35">
-        <v>404.575</v>
+        <v>1057.05</v>
       </c>
       <c r="N35">
-        <v>-138.1750000000001</v>
+        <v>-53.84999999999991</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>402.575</v>
+        <v>604.05</v>
       </c>
       <c r="D36">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>273.3</v>
+        <v>989.2</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>407.3</v>
+        <v>989.2</v>
       </c>
       <c r="M36">
-        <v>404.575</v>
+        <v>1057.05</v>
       </c>
       <c r="N36">
-        <v>2.724999999999966</v>
+        <v>-67.84999999999991</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>402.575</v>
+        <v>604.05</v>
       </c>
       <c r="D37">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>276.4</v>
+        <v>1047</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>410.4</v>
+        <v>1047</v>
       </c>
       <c r="M37">
-        <v>404.575</v>
+        <v>1057.05</v>
       </c>
       <c r="N37">
-        <v>5.824999999999932</v>
+        <v>-10.04999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>177.375</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2071,42 +2071,42 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>66.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>243.3750000000001</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>38.62499999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>177.375</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2115,42 +2115,42 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>117.2</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>294.575</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-12.57499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>177.375</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2159,42 +2159,42 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>130.2</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>307.575</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>-25.57499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>177.375</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2203,42 +2203,42 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>212.375</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>69.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>115.525</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2247,42 +2247,42 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>284.525</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>97.47500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>115.525</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2291,42 +2291,42 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>116.7</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>232.225</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>149.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>115.525</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2335,42 +2335,42 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>116.1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>231.625</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>150.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>115.525</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2379,42 +2379,42 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>144.6</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>260.1249999999999</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>121.8750000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B46">
-        <v>268.875</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2423,42 +2423,42 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1133.9</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>1181.875</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1133.9</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>47.97499999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B47">
-        <v>268.875</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2467,42 +2467,42 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1058.3</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1181.875</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1058.3</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>123.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B48">
-        <v>268.875</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2511,42 +2511,42 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1132.2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>1181.875</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>1132.2</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>49.67499999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B49">
-        <v>268.875</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2555,42 +2555,42 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1102.2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1181.875</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1102.2</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>79.67499999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B50">
-        <v>362.325</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2599,42 +2599,42 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1413.7</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>1473.325</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1413.7</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>59.62500000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B51">
-        <v>362.325</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2643,42 +2643,42 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1368.4</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1473.325</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1368.4</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>104.9250000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B52">
-        <v>362.325</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2687,42 +2687,42 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1401.2</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1473.325</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>1401.2</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>72.12500000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B53">
-        <v>362.325</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1420.2</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1473.325</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1420.2</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>53.12500000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B54">
-        <v>579.6999989999999</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2775,42 +2775,42 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1600.4</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1659.699999</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>1600.4</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>59.29999899999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B55">
-        <v>579.6999989999999</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2819,42 +2819,42 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1598.9</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1659.699999</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1598.9</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>60.79999899999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B56">
-        <v>579.6999989999999</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2863,42 +2863,42 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1606.2</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1659.699999</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1606.2</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>53.49999899999966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B57">
-        <v>579.6999989999999</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2907,42 +2907,42 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1590.6</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1659.699999</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1590.6</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>69.09999900000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B58">
-        <v>461.4250000000002</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2951,42 +2951,42 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1475.1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1581.425</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>1475.1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>106.3250000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B59">
-        <v>461.4250000000002</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2995,42 +2995,42 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1469.2</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1581.425</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1469.2</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>112.2250000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B60">
-        <v>461.4250000000002</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3039,42 +3039,42 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1451.7</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1581.425</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1451.7</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>129.7250000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B61">
-        <v>461.4250000000002</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3083,42 +3083,42 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1406.7</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1581.425</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>1406.7</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>174.7250000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B62">
-        <v>513.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3127,42 +3127,42 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1868.15</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>98.15000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B63">
-        <v>513.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3171,42 +3171,42 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1782</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1868.15</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>1782</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>86.15000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B64">
-        <v>513.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3215,42 +3215,42 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1765.8</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1868.15</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1765.8</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>102.3499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B65">
-        <v>513.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3259,33 +3259,33 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1814.2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1868.15</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1814.2</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>53.94999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1300.7</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3321,15 +3321,15 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1300.7</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>-1300.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,714 +469,714 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B2">
-        <v>303.5250000000001</v>
+        <v>66.14999999999998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="E2">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>303.5</v>
+        <v>846.5999999999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I2">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>708.5250000000001</v>
+        <v>724.15</v>
       </c>
       <c r="M2">
-        <v>697.5</v>
+        <v>846.5999999999999</v>
       </c>
       <c r="N2">
-        <v>11.02500000000009</v>
+        <v>-122.4499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B3">
-        <v>303.5250000000001</v>
+        <v>66.14999999999998</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="E3">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>225.7</v>
+        <v>796.3</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>708.5250000000001</v>
+        <v>724.15</v>
       </c>
       <c r="M3">
-        <v>619.7</v>
+        <v>796.3</v>
       </c>
       <c r="N3">
-        <v>88.82500000000005</v>
+        <v>-72.14999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B4">
-        <v>303.5250000000001</v>
+        <v>66.14999999999998</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="E4">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>288.9</v>
+        <v>745.0999999999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>708.5250000000001</v>
+        <v>724.15</v>
       </c>
       <c r="M4">
-        <v>682.9</v>
+        <v>745.0999999999999</v>
       </c>
       <c r="N4">
-        <v>25.62500000000011</v>
+        <v>-20.94999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B5">
-        <v>303.5250000000001</v>
+        <v>66.14999999999998</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="E5">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>269.1</v>
+        <v>680.9000000000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>405</v>
+        <v>177</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>708.5250000000001</v>
+        <v>724.15</v>
       </c>
       <c r="M5">
-        <v>663.1</v>
+        <v>680.9000000000001</v>
       </c>
       <c r="N5">
-        <v>45.42500000000007</v>
+        <v>43.24999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B6">
-        <v>140.0999999999999</v>
+        <v>74.52499999999998</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E6">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.60000000000002</v>
+        <v>730.5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I6">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>541.0999999999999</v>
+        <v>643.525</v>
       </c>
       <c r="M6">
-        <v>526.6</v>
+        <v>730.5</v>
       </c>
       <c r="N6">
-        <v>14.49999999999989</v>
+        <v>-86.97500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B7">
-        <v>140.0999999999999</v>
+        <v>74.52499999999998</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1000000000000227</v>
+        <v>682.3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I7">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>541.0999999999999</v>
+        <v>643.525</v>
       </c>
       <c r="M7">
-        <v>475.1</v>
+        <v>682.3</v>
       </c>
       <c r="N7">
-        <v>65.99999999999989</v>
+        <v>-38.77499999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B8">
-        <v>140.0999999999999</v>
+        <v>74.52499999999998</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.40000000000003</v>
+        <v>670.0999999999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I8">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>541.0999999999999</v>
+        <v>643.525</v>
       </c>
       <c r="M8">
-        <v>529.4000000000001</v>
+        <v>670.0999999999999</v>
       </c>
       <c r="N8">
-        <v>11.69999999999982</v>
+        <v>-26.57499999999993</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B9">
-        <v>140.0999999999999</v>
+        <v>74.52499999999998</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E9">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>87.5</v>
+        <v>685.4000000000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I9">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>541.0999999999999</v>
+        <v>643.525</v>
       </c>
       <c r="M9">
-        <v>562.5</v>
+        <v>685.4000000000001</v>
       </c>
       <c r="N9">
-        <v>-21.40000000000009</v>
+        <v>-41.87500000000011</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>180.2750000000001</v>
+        <v>52.75000000000011</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>483.2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>563.1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I10">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>819.2</v>
+        <v>457</v>
       </c>
       <c r="M10">
-        <v>780.2750000000001</v>
+        <v>615.8500000000001</v>
       </c>
       <c r="N10">
-        <v>38.92499999999995</v>
+        <v>-158.8500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>180.2750000000001</v>
+        <v>52.75000000000011</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>490.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>540.4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I11">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>826.3</v>
+        <v>457</v>
       </c>
       <c r="M11">
-        <v>780.2750000000001</v>
+        <v>593.1500000000001</v>
       </c>
       <c r="N11">
-        <v>46.02499999999986</v>
+        <v>-136.1500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>180.2750000000001</v>
+        <v>52.75000000000011</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>550.3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I12">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>795</v>
+        <v>457</v>
       </c>
       <c r="M12">
-        <v>780.2750000000001</v>
+        <v>603.0500000000001</v>
       </c>
       <c r="N12">
-        <v>14.72499999999991</v>
+        <v>-146.0500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>180.2750000000001</v>
+        <v>52.75000000000011</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>462.6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>544.3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I13">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>798.5999999999999</v>
+        <v>457</v>
       </c>
       <c r="M13">
-        <v>780.2750000000001</v>
+        <v>597.0500000000001</v>
       </c>
       <c r="N13">
-        <v>18.32499999999982</v>
+        <v>-140.0500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>66.60000000000002</v>
+        <v>495.625</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="F14">
-        <v>222</v>
+        <v>19.19999999999999</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="I14">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>597</v>
+        <v>471.2</v>
       </c>
       <c r="M14">
-        <v>619.6</v>
+        <v>607.625</v>
       </c>
       <c r="N14">
-        <v>-22.60000000000002</v>
+        <v>-136.425</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>66.60000000000002</v>
+        <v>495.625</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="F15">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>21.60000000000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="I15">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>601.8</v>
+        <v>452</v>
       </c>
       <c r="M15">
-        <v>619.6</v>
+        <v>629.225</v>
       </c>
       <c r="N15">
-        <v>-17.80000000000007</v>
+        <v>-177.225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>66.60000000000002</v>
+        <v>495.625</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="F16">
-        <v>233.8</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="I16">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>608.8</v>
+        <v>453.6</v>
       </c>
       <c r="M16">
-        <v>619.6</v>
+        <v>607.625</v>
       </c>
       <c r="N16">
-        <v>-10.80000000000007</v>
+        <v>-154.025</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>66.60000000000002</v>
+        <v>495.625</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="F17">
-        <v>234.3</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>17.30000000000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="I17">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>609.3</v>
+        <v>452</v>
       </c>
       <c r="M17">
-        <v>619.6</v>
+        <v>624.925</v>
       </c>
       <c r="N17">
-        <v>-10.30000000000007</v>
+        <v>-172.925</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B18">
-        <v>17.07500000000005</v>
+        <v>114.599999</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="F18">
-        <v>53.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>827.3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="I18">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>516.6750000000001</v>
+        <v>809.599999</v>
       </c>
       <c r="M18">
-        <v>494</v>
+        <v>974.3</v>
       </c>
       <c r="N18">
-        <v>22.67500000000007</v>
+        <v>-164.7000009999999</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B19">
-        <v>17.07500000000005</v>
+        <v>114.599999</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="F19">
-        <v>19.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>783.8999999999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="I19">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>482.7750000000001</v>
+        <v>809.599999</v>
       </c>
       <c r="M19">
-        <v>494</v>
+        <v>930.8999999999999</v>
       </c>
       <c r="N19">
-        <v>-11.22499999999991</v>
+        <v>-121.3000009999998</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B20">
-        <v>17.07500000000005</v>
+        <v>114.599999</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="F20">
-        <v>27.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>843.7</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="I20">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>490.275</v>
+        <v>809.599999</v>
       </c>
       <c r="M20">
-        <v>494</v>
+        <v>990.7</v>
       </c>
       <c r="N20">
-        <v>-3.724999999999966</v>
+        <v>-181.100001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B21">
-        <v>17.07500000000005</v>
+        <v>114.599999</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,406 +1317,406 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>39.29999999999995</v>
+        <v>858.3999999999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="I21">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>463.075</v>
+        <v>809.599999</v>
       </c>
       <c r="M21">
-        <v>533.3</v>
+        <v>1005.4</v>
       </c>
       <c r="N21">
-        <v>-70.22499999999991</v>
+        <v>-195.8000009999998</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B22">
-        <v>324.325</v>
+        <v>200.775</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E22">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>778.5999999999999</v>
+        <v>1155.8</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>609</v>
+        <v>472</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>961.325</v>
+        <v>1108.775</v>
       </c>
       <c r="M22">
-        <v>1035.6</v>
+        <v>1155.8</v>
       </c>
       <c r="N22">
-        <v>-74.27499999999986</v>
+        <v>-47.02499999999986</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B23">
-        <v>324.325</v>
+        <v>200.775</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>758.5999999999999</v>
+        <v>1241.9</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>609</v>
+        <v>472</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>961.325</v>
+        <v>1108.775</v>
       </c>
       <c r="M23">
-        <v>1015.6</v>
+        <v>1241.9</v>
       </c>
       <c r="N23">
-        <v>-54.27499999999986</v>
+        <v>-133.125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B24">
-        <v>324.325</v>
+        <v>200.775</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>689.5</v>
+        <v>1323.5</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>609</v>
+        <v>472</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>961.325</v>
+        <v>1108.775</v>
       </c>
       <c r="M24">
-        <v>946.5</v>
+        <v>1323.5</v>
       </c>
       <c r="N24">
-        <v>14.82500000000005</v>
+        <v>-214.7249999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B25">
-        <v>324.325</v>
+        <v>200.775</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>693.8999999999999</v>
+        <v>1328.2</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>609</v>
+        <v>472</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>961.325</v>
+        <v>1108.775</v>
       </c>
       <c r="M25">
-        <v>950.8999999999999</v>
+        <v>1328.2</v>
       </c>
       <c r="N25">
-        <v>10.42500000000018</v>
+        <v>-219.425</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B26">
-        <v>177.4499989999999</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>301.0000010000001</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>568.8999999999999</v>
+        <v>432.9</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I26">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>596</v>
+        <v>293</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>773.4499989999999</v>
+        <v>567</v>
       </c>
       <c r="M26">
-        <v>793.8999999999999</v>
+        <v>750.9000010000001</v>
       </c>
       <c r="N26">
-        <v>-20.45000099999993</v>
+        <v>-183.9000010000001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B27">
-        <v>177.4499989999999</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>301.0000010000001</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>559.4000000000001</v>
+        <v>457.6</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I27">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>596</v>
+        <v>293</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>773.4499989999999</v>
+        <v>567</v>
       </c>
       <c r="M27">
-        <v>784.4000000000001</v>
+        <v>775.6000010000001</v>
       </c>
       <c r="N27">
-        <v>-10.95000100000016</v>
+        <v>-208.6000010000001</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B28">
-        <v>177.4499989999999</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>301.0000010000001</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>520.1</v>
+        <v>370.3000000000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>596</v>
+        <v>293</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>773.4499989999999</v>
+        <v>567</v>
       </c>
       <c r="M28">
-        <v>745.1</v>
+        <v>688.3000010000002</v>
       </c>
       <c r="N28">
-        <v>28.34999899999991</v>
+        <v>-121.3000010000002</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B29">
-        <v>177.4499989999999</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>301.0000010000001</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>392.5</v>
+        <v>227.9</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>596</v>
+        <v>293</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>773.4499989999999</v>
+        <v>567</v>
       </c>
       <c r="M29">
-        <v>617.5</v>
+        <v>545.9000010000001</v>
       </c>
       <c r="N29">
-        <v>155.9499989999999</v>
+        <v>21.09999899999991</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>283.1750010000001</v>
+        <v>530.9500009999999</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>206.4</v>
+        <v>634.9</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="J30">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L30">
-        <v>590.4</v>
+        <v>657.9</v>
       </c>
       <c r="M30">
-        <v>493.1750010000001</v>
+        <v>656.9500009999999</v>
       </c>
       <c r="N30">
-        <v>97.22499899999991</v>
+        <v>0.949999000000048</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>283.1750010000001</v>
+        <v>530.9500009999999</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>242.6</v>
+        <v>742.5</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="J31">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L31">
-        <v>626.6</v>
+        <v>765.5</v>
       </c>
       <c r="M31">
-        <v>493.1750010000001</v>
+        <v>656.9500009999999</v>
       </c>
       <c r="N31">
-        <v>133.424999</v>
+        <v>108.5499990000001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>283.1750010000001</v>
+        <v>530.9500009999999</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>302.3</v>
+        <v>684</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L32">
-        <v>686.3</v>
+        <v>707</v>
       </c>
       <c r="M32">
-        <v>493.1750010000001</v>
+        <v>656.9500009999999</v>
       </c>
       <c r="N32">
-        <v>193.1249989999999</v>
+        <v>50.04999900000007</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>283.1750010000001</v>
+        <v>530.9500009999999</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>409.1</v>
+        <v>657</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="J33">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L33">
-        <v>793.1</v>
+        <v>680</v>
       </c>
       <c r="M33">
-        <v>493.1750010000001</v>
+        <v>656.9500009999999</v>
       </c>
       <c r="N33">
-        <v>299.924999</v>
+        <v>23.04999900000007</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>604.05</v>
+        <v>761.625</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F34">
-        <v>1006.4</v>
+        <v>932.1000000000001</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="L34">
-        <v>1006.4</v>
+        <v>932.1000000000001</v>
       </c>
       <c r="M34">
-        <v>1057.05</v>
+        <v>1006.625</v>
       </c>
       <c r="N34">
-        <v>-50.64999999999998</v>
+        <v>-74.52499999999986</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>604.05</v>
+        <v>761.625</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F35">
-        <v>1003.2</v>
+        <v>1009</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="L35">
-        <v>1003.2</v>
+        <v>1009</v>
       </c>
       <c r="M35">
-        <v>1057.05</v>
+        <v>1006.625</v>
       </c>
       <c r="N35">
-        <v>-53.84999999999991</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>604.05</v>
+        <v>761.625</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F36">
-        <v>989.2</v>
+        <v>1015</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="L36">
-        <v>989.2</v>
+        <v>1015</v>
       </c>
       <c r="M36">
-        <v>1057.05</v>
+        <v>1006.625</v>
       </c>
       <c r="N36">
-        <v>-67.84999999999991</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>604.05</v>
+        <v>761.625</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F37">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,27 +2033,27 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="L37">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="M37">
-        <v>1057.05</v>
+        <v>1006.625</v>
       </c>
       <c r="N37">
-        <v>-10.04999999999995</v>
+        <v>-18.625</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1512.7</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1512.7</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1512.7</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1598.7</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1598.7</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1598.7</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,714 +469,714 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B2">
-        <v>66.14999999999998</v>
+        <v>556.0999999999999</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>846.5999999999999</v>
+        <v>663.3</v>
       </c>
       <c r="H2">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>724.15</v>
+        <v>1080.1</v>
       </c>
       <c r="M2">
-        <v>846.5999999999999</v>
+        <v>1078.3</v>
       </c>
       <c r="N2">
-        <v>-122.4499999999999</v>
+        <v>1.799999999999955</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B3">
-        <v>66.14999999999998</v>
+        <v>556.0999999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>796.3</v>
+        <v>714.3999999999999</v>
       </c>
       <c r="H3">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>724.15</v>
+        <v>1080.1</v>
       </c>
       <c r="M3">
-        <v>796.3</v>
+        <v>1129.4</v>
       </c>
       <c r="N3">
-        <v>-72.14999999999998</v>
+        <v>-49.29999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B4">
-        <v>66.14999999999998</v>
+        <v>556.0999999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>745.0999999999999</v>
+        <v>712.3</v>
       </c>
       <c r="H4">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>724.15</v>
+        <v>1080.1</v>
       </c>
       <c r="M4">
-        <v>745.0999999999999</v>
+        <v>1127.3</v>
       </c>
       <c r="N4">
-        <v>-20.94999999999993</v>
+        <v>-47.20000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B5">
-        <v>66.14999999999998</v>
+        <v>556.0999999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>680.9000000000001</v>
+        <v>688.0999999999999</v>
       </c>
       <c r="H5">
-        <v>218</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>724.15</v>
+        <v>1080.1</v>
       </c>
       <c r="M5">
-        <v>680.9000000000001</v>
+        <v>1103.1</v>
       </c>
       <c r="N5">
-        <v>43.24999999999989</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B6">
-        <v>74.52499999999998</v>
+        <v>683.5250000000001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>730.5</v>
+        <v>936.7</v>
       </c>
       <c r="H6">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>643.525</v>
+        <v>1128.525</v>
       </c>
       <c r="M6">
-        <v>730.5</v>
+        <v>1387.7</v>
       </c>
       <c r="N6">
-        <v>-86.97500000000002</v>
+        <v>-259.175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B7">
-        <v>74.52499999999998</v>
+        <v>683.5250000000001</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>682.3</v>
+        <v>892.9000000000001</v>
       </c>
       <c r="H7">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>643.525</v>
+        <v>1128.525</v>
       </c>
       <c r="M7">
-        <v>682.3</v>
+        <v>1343.9</v>
       </c>
       <c r="N7">
-        <v>-38.77499999999998</v>
+        <v>-215.375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B8">
-        <v>74.52499999999998</v>
+        <v>683.5250000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>670.0999999999999</v>
+        <v>853.5</v>
       </c>
       <c r="H8">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>643.525</v>
+        <v>1128.525</v>
       </c>
       <c r="M8">
-        <v>670.0999999999999</v>
+        <v>1304.5</v>
       </c>
       <c r="N8">
-        <v>-26.57499999999993</v>
+        <v>-175.9749999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B9">
-        <v>74.52499999999998</v>
+        <v>683.5250000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>685.4000000000001</v>
+        <v>834.3000000000002</v>
       </c>
       <c r="H9">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>643.525</v>
+        <v>1128.525</v>
       </c>
       <c r="M9">
-        <v>685.4000000000001</v>
+        <v>1285.3</v>
       </c>
       <c r="N9">
-        <v>-41.87500000000011</v>
+        <v>-156.7750000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>762.9750000000001</v>
       </c>
       <c r="C10">
-        <v>52.75000000000011</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>563.1</v>
+        <v>872.4000000000001</v>
       </c>
       <c r="H10">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>457</v>
+        <v>1208.975</v>
       </c>
       <c r="M10">
-        <v>615.8500000000001</v>
+        <v>1258.4</v>
       </c>
       <c r="N10">
-        <v>-158.8500000000001</v>
+        <v>-49.42499999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>762.9750000000001</v>
       </c>
       <c r="C11">
-        <v>52.75000000000011</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>540.4</v>
+        <v>732.6000000000001</v>
       </c>
       <c r="H11">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>457</v>
+        <v>1208.975</v>
       </c>
       <c r="M11">
-        <v>593.1500000000001</v>
+        <v>1118.6</v>
       </c>
       <c r="N11">
-        <v>-136.1500000000001</v>
+        <v>90.375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>762.9750000000001</v>
       </c>
       <c r="C12">
-        <v>52.75000000000011</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>550.3</v>
+        <v>771.3000000000002</v>
       </c>
       <c r="H12">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>457</v>
+        <v>1208.975</v>
       </c>
       <c r="M12">
-        <v>603.0500000000001</v>
+        <v>1157.3</v>
       </c>
       <c r="N12">
-        <v>-146.0500000000001</v>
+        <v>51.67499999999995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>762.9750000000001</v>
       </c>
       <c r="C13">
-        <v>52.75000000000011</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>544.3</v>
+        <v>807.2</v>
       </c>
       <c r="H13">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>457</v>
+        <v>1208.975</v>
       </c>
       <c r="M13">
-        <v>597.0500000000001</v>
+        <v>1193.2</v>
       </c>
       <c r="N13">
-        <v>-140.0500000000001</v>
+        <v>15.77500000000009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>810.5</v>
       </c>
       <c r="C14">
-        <v>495.625</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="F14">
-        <v>19.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>833.3</v>
       </c>
       <c r="H14">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>471.2</v>
+        <v>1221.5</v>
       </c>
       <c r="M14">
-        <v>607.625</v>
+        <v>1247.3</v>
       </c>
       <c r="N14">
-        <v>-136.425</v>
+        <v>-25.79999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>810.5</v>
       </c>
       <c r="C15">
-        <v>495.625</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>21.60000000000002</v>
+        <v>882.8</v>
       </c>
       <c r="H15">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>452</v>
+        <v>1221.5</v>
       </c>
       <c r="M15">
-        <v>629.225</v>
+        <v>1296.8</v>
       </c>
       <c r="N15">
-        <v>-177.225</v>
+        <v>-75.29999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>810.5</v>
       </c>
       <c r="C16">
-        <v>495.625</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="F16">
-        <v>1.600000000000023</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>894.3</v>
       </c>
       <c r="H16">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>453.6</v>
+        <v>1221.5</v>
       </c>
       <c r="M16">
-        <v>607.625</v>
+        <v>1308.3</v>
       </c>
       <c r="N16">
-        <v>-154.025</v>
+        <v>-86.79999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>810.5</v>
       </c>
       <c r="C17">
-        <v>495.625</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>17.30000000000001</v>
+        <v>880.9000000000001</v>
       </c>
       <c r="H17">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>452</v>
+        <v>1221.5</v>
       </c>
       <c r="M17">
-        <v>624.925</v>
+        <v>1294.9</v>
       </c>
       <c r="N17">
-        <v>-172.925</v>
+        <v>-73.40000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B18">
-        <v>114.599999</v>
+        <v>805.325</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>827.3</v>
+        <v>1076.8</v>
       </c>
       <c r="H18">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>809.599999</v>
+        <v>1328.325</v>
       </c>
       <c r="M18">
-        <v>974.3</v>
+        <v>1403.8</v>
       </c>
       <c r="N18">
-        <v>-164.7000009999999</v>
+        <v>-75.47500000000014</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B19">
-        <v>114.599999</v>
+        <v>805.325</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>783.8999999999999</v>
+        <v>1112.1</v>
       </c>
       <c r="H19">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>809.599999</v>
+        <v>1328.325</v>
       </c>
       <c r="M19">
-        <v>930.8999999999999</v>
+        <v>1439.1</v>
       </c>
       <c r="N19">
-        <v>-121.3000009999998</v>
+        <v>-110.7750000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B20">
-        <v>114.599999</v>
+        <v>805.325</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>843.7</v>
+        <v>1103.1</v>
       </c>
       <c r="H20">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>809.599999</v>
+        <v>1328.325</v>
       </c>
       <c r="M20">
-        <v>990.7</v>
+        <v>1430.1</v>
       </c>
       <c r="N20">
-        <v>-181.100001</v>
+        <v>-101.7750000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B21">
-        <v>114.599999</v>
+        <v>805.325</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,406 +1317,406 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>858.3999999999999</v>
+        <v>1119.7</v>
       </c>
       <c r="H21">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>809.599999</v>
+        <v>1328.325</v>
       </c>
       <c r="M21">
-        <v>1005.4</v>
+        <v>1446.7</v>
       </c>
       <c r="N21">
-        <v>-195.8000009999998</v>
+        <v>-118.375</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B22">
-        <v>200.775</v>
+        <v>536.725001</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1155.8</v>
+        <v>580.7</v>
       </c>
       <c r="H22">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1108.775</v>
+        <v>1095.725001</v>
       </c>
       <c r="M22">
-        <v>1155.8</v>
+        <v>770.7</v>
       </c>
       <c r="N22">
-        <v>-47.02499999999986</v>
+        <v>325.025001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B23">
-        <v>200.775</v>
+        <v>536.725001</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1241.9</v>
+        <v>652.9000000000001</v>
       </c>
       <c r="H23">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1108.775</v>
+        <v>1095.725001</v>
       </c>
       <c r="M23">
-        <v>1241.9</v>
+        <v>842.9000000000001</v>
       </c>
       <c r="N23">
-        <v>-133.125</v>
+        <v>252.8250009999999</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B24">
-        <v>200.775</v>
+        <v>536.725001</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1323.5</v>
+        <v>718.4000000000001</v>
       </c>
       <c r="H24">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1108.775</v>
+        <v>1095.725001</v>
       </c>
       <c r="M24">
-        <v>1323.5</v>
+        <v>908.4000000000001</v>
       </c>
       <c r="N24">
-        <v>-214.7249999999999</v>
+        <v>187.3250009999999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B25">
-        <v>200.775</v>
+        <v>536.725001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1328.2</v>
+        <v>702.7</v>
       </c>
       <c r="H25">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1108.775</v>
+        <v>1095.725001</v>
       </c>
       <c r="M25">
-        <v>1328.2</v>
+        <v>892.7</v>
       </c>
       <c r="N25">
-        <v>-219.425</v>
+        <v>203.025001</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>301.0000010000001</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>432.9</v>
+        <v>266.8000000000001</v>
       </c>
       <c r="H26">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>750.9000010000001</v>
+        <v>266.8000000000001</v>
       </c>
       <c r="N26">
-        <v>-183.9000010000001</v>
+        <v>-266.8000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>301.0000010000001</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>457.6</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>775.6000010000001</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-208.6000010000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>301.0000010000001</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>370.3000000000001</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>688.3000010000002</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-121.3000010000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>301.0000010000001</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>227.9</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>545.9000010000001</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>21.09999899999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>530.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>634.9</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>657.9</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>656.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0.949999000000048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>530.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>742.5</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>765.5</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>656.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>108.5499990000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>530.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>656.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>50.04999900000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>530.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>656.9500009999999</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>23.04999900000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>761.625</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>932.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1907,36 +1907,36 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>932.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1006.625</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>-74.52499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>761.625</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1951,36 +1951,36 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1006.625</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>761.625</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1995,36 +1995,36 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1006.625</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>8.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>761.625</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2039,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1006.625</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>-18.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1512.7</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1512.7</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1512.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1598.7</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1598.7</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1598.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,362 +469,362 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>556.0999999999999</v>
+        <v>465.3749999999999</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="E2">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>663.3</v>
+        <v>1017.5</v>
       </c>
       <c r="H2">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>438</v>
+        <v>199</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1080.1</v>
+        <v>960.3749999999999</v>
       </c>
       <c r="M2">
-        <v>1078.3</v>
+        <v>1025.5</v>
       </c>
       <c r="N2">
-        <v>1.799999999999955</v>
+        <v>-65.12500000000011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>556.0999999999999</v>
+        <v>465.3749999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="E3">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>714.3999999999999</v>
+        <v>882.9000000000001</v>
       </c>
       <c r="H3">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>438</v>
+        <v>199</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1080.1</v>
+        <v>960.3749999999999</v>
       </c>
       <c r="M3">
-        <v>1129.4</v>
+        <v>890.9000000000001</v>
       </c>
       <c r="N3">
-        <v>-49.29999999999995</v>
+        <v>69.4749999999998</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>556.0999999999999</v>
+        <v>465.3749999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="E4">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>712.3</v>
+        <v>882.4000000000001</v>
       </c>
       <c r="H4">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>438</v>
+        <v>199</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1080.1</v>
+        <v>960.3749999999999</v>
       </c>
       <c r="M4">
-        <v>1127.3</v>
+        <v>890.4000000000001</v>
       </c>
       <c r="N4">
-        <v>-47.20000000000005</v>
+        <v>69.9749999999998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>556.0999999999999</v>
+        <v>465.3749999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="E5">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>688.0999999999999</v>
+        <v>1026.4</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>438</v>
+        <v>199</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1080.1</v>
+        <v>960.3749999999999</v>
       </c>
       <c r="M5">
-        <v>1103.1</v>
+        <v>1034.4</v>
       </c>
       <c r="N5">
-        <v>-23</v>
+        <v>-74.02499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>683.5250000000001</v>
+        <v>286.4</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>936.7</v>
+        <v>696.9</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1128.525</v>
+        <v>514.4</v>
       </c>
       <c r="M6">
-        <v>1387.7</v>
+        <v>710.9</v>
       </c>
       <c r="N6">
-        <v>-259.175</v>
+        <v>-196.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
-        <v>683.5250000000001</v>
+        <v>286.4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>892.9000000000001</v>
+        <v>638</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1128.525</v>
+        <v>514.4</v>
       </c>
       <c r="M7">
-        <v>1343.9</v>
+        <v>652</v>
       </c>
       <c r="N7">
-        <v>-215.375</v>
+        <v>-137.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
-        <v>683.5250000000001</v>
+        <v>286.4</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>853.5</v>
+        <v>631.8000000000001</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1128.525</v>
+        <v>514.4</v>
       </c>
       <c r="M8">
-        <v>1304.5</v>
+        <v>645.8000000000001</v>
       </c>
       <c r="N8">
-        <v>-175.9749999999999</v>
+        <v>-131.4000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>683.5250000000001</v>
+        <v>286.4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>834.3000000000002</v>
+        <v>614.5</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1128.525</v>
+        <v>514.4</v>
       </c>
       <c r="M9">
-        <v>1285.3</v>
+        <v>628.5</v>
       </c>
       <c r="N9">
-        <v>-156.7750000000001</v>
+        <v>-114.1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>762.9750000000001</v>
+        <v>257.15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>872.4000000000001</v>
+        <v>489.3000000000001</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1208.975</v>
+        <v>454.15</v>
       </c>
       <c r="M10">
-        <v>1258.4</v>
+        <v>518.3000000000001</v>
       </c>
       <c r="N10">
-        <v>-49.42499999999995</v>
+        <v>-64.15000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>762.9750000000001</v>
+        <v>257.15</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>732.6000000000001</v>
+        <v>451.2</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1208.975</v>
+        <v>454.15</v>
       </c>
       <c r="M11">
-        <v>1118.6</v>
+        <v>480.2</v>
       </c>
       <c r="N11">
-        <v>90.375</v>
+        <v>-26.05000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>762.9750000000001</v>
+        <v>257.15</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>771.3000000000002</v>
+        <v>420.4000000000001</v>
       </c>
       <c r="H12">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1208.975</v>
+        <v>454.15</v>
       </c>
       <c r="M12">
-        <v>1157.3</v>
+        <v>449.4000000000001</v>
       </c>
       <c r="N12">
-        <v>51.67499999999995</v>
+        <v>4.749999999999886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>762.9750000000001</v>
+        <v>257.15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>807.2</v>
+        <v>413.1</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J13">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1208.975</v>
+        <v>454.15</v>
       </c>
       <c r="M13">
-        <v>1193.2</v>
+        <v>442.1</v>
       </c>
       <c r="N13">
-        <v>15.77500000000009</v>
+        <v>12.04999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>810.5</v>
+        <v>375.95</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>833.3</v>
+        <v>512</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J14">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1221.5</v>
+        <v>582.95</v>
       </c>
       <c r="M14">
-        <v>1247.3</v>
+        <v>576</v>
       </c>
       <c r="N14">
-        <v>-25.79999999999995</v>
+        <v>6.950000000000045</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>810.5</v>
+        <v>375.95</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>882.8</v>
+        <v>542.3</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J15">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1221.5</v>
+        <v>582.95</v>
       </c>
       <c r="M15">
-        <v>1296.8</v>
+        <v>606.3</v>
       </c>
       <c r="N15">
-        <v>-75.29999999999995</v>
+        <v>-23.34999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>810.5</v>
+        <v>375.95</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>894.3</v>
+        <v>522.6999999999999</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J16">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1221.5</v>
+        <v>582.95</v>
       </c>
       <c r="M16">
-        <v>1308.3</v>
+        <v>586.6999999999999</v>
       </c>
       <c r="N16">
-        <v>-86.79999999999995</v>
+        <v>-3.749999999999886</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>810.5</v>
+        <v>375.95</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>880.9000000000001</v>
+        <v>509.6999999999999</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J17">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1221.5</v>
+        <v>582.95</v>
       </c>
       <c r="M17">
-        <v>1294.9</v>
+        <v>573.6999999999999</v>
       </c>
       <c r="N17">
-        <v>-73.40000000000009</v>
+        <v>9.250000000000114</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>805.325</v>
+        <v>353.325</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1076.8</v>
+        <v>436.3</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1328.325</v>
+        <v>643.325</v>
       </c>
       <c r="M18">
-        <v>1403.8</v>
+        <v>533.3</v>
       </c>
       <c r="N18">
-        <v>-75.47500000000014</v>
+        <v>110.0250000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>805.325</v>
+        <v>353.325</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1112.1</v>
+        <v>533</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J19">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1328.325</v>
+        <v>643.325</v>
       </c>
       <c r="M19">
-        <v>1439.1</v>
+        <v>630</v>
       </c>
       <c r="N19">
-        <v>-110.7750000000001</v>
+        <v>13.32500000000005</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>805.325</v>
+        <v>353.325</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1103.1</v>
+        <v>562.5</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J20">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1328.325</v>
+        <v>643.325</v>
       </c>
       <c r="M20">
-        <v>1430.1</v>
+        <v>659.5</v>
       </c>
       <c r="N20">
-        <v>-101.7750000000001</v>
+        <v>-16.17499999999995</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>805.325</v>
+        <v>353.325</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,218 +1317,218 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1119.7</v>
+        <v>602.3</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J21">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1328.325</v>
+        <v>643.325</v>
       </c>
       <c r="M21">
-        <v>1446.7</v>
+        <v>699.3</v>
       </c>
       <c r="N21">
-        <v>-118.375</v>
+        <v>-55.97499999999991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>536.725001</v>
+        <v>655.125</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E22">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>580.7</v>
+        <v>1072.7</v>
       </c>
       <c r="H22">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1095.725001</v>
+        <v>1181.125</v>
       </c>
       <c r="M22">
-        <v>770.7</v>
+        <v>1072.7</v>
       </c>
       <c r="N22">
-        <v>325.025001</v>
+        <v>108.425</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>536.725001</v>
+        <v>655.125</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E23">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>652.9000000000001</v>
+        <v>1074.6</v>
       </c>
       <c r="H23">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1095.725001</v>
+        <v>1181.125</v>
       </c>
       <c r="M23">
-        <v>842.9000000000001</v>
+        <v>1074.6</v>
       </c>
       <c r="N23">
-        <v>252.8250009999999</v>
+        <v>106.5250000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>536.725001</v>
+        <v>655.125</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>718.4000000000001</v>
+        <v>1121.7</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1095.725001</v>
+        <v>1181.125</v>
       </c>
       <c r="M24">
-        <v>908.4000000000001</v>
+        <v>1121.7</v>
       </c>
       <c r="N24">
-        <v>187.3250009999999</v>
+        <v>59.42499999999995</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>536.725001</v>
+        <v>655.125</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>702.7</v>
+        <v>1175.3</v>
       </c>
       <c r="H25">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1095.725001</v>
+        <v>1181.125</v>
       </c>
       <c r="M25">
-        <v>892.7</v>
+        <v>1175.3</v>
       </c>
       <c r="N25">
-        <v>203.025001</v>
+        <v>5.825000000000045</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>296.15</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>266.8000000000001</v>
+        <v>442.3</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>537.15</v>
       </c>
       <c r="M26">
-        <v>266.8000000000001</v>
+        <v>575.3</v>
       </c>
       <c r="N26">
-        <v>-266.8000000000001</v>
+        <v>-38.14999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>296.15</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>490.1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>537.15</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>623.1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-85.95000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>296.15</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>214.4</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>537.15</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>347.4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>189.75</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>296.15</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,54 +1669,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>537.15</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>150.15</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>338.1499999999999</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>549.8000000000001</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>616.8000000000001</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>702.1499999999999</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-85.3499999999998</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>338.1499999999999</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>506.4000000000001</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>573.4000000000001</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>702.1499999999999</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-128.7499999999998</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>338.1499999999999</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>617.1999999999999</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>684.1999999999999</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>702.1499999999999</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-17.94999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>338.1499999999999</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>520.6999999999999</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>587.6999999999999</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>702.1499999999999</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-114.4499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>994.6500000000001</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1648.6</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1679.6</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1887.65</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-208.05</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>994.6500000000001</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1609.8</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1640.8</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1887.65</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-246.8499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>994.6500000000001</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1744.3</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1775.3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1887.65</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>-112.3499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>994.6500000000001</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1828.2</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,27 +2033,27 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1859.2</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1887.65</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-28.44999999999982</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1227.7</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1227.7</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1227.7</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1255.4</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1255.4</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1255.4</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2174,18 +2174,18 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45797</v>
+        <v>45799</v>
       </c>
       <c r="B2">
-        <v>465.3749999999999</v>
+        <v>409.0500000000001</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,42 +487,42 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1017.5</v>
+        <v>832.9000000000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>960.3749999999999</v>
+        <v>729.0500000000001</v>
       </c>
       <c r="M2">
-        <v>1025.5</v>
+        <v>832.9000000000001</v>
       </c>
       <c r="N2">
-        <v>-65.12500000000011</v>
+        <v>-103.85</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
       <c r="B3">
-        <v>465.3749999999999</v>
+        <v>409.0500000000001</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -531,42 +531,42 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>882.9000000000001</v>
+        <v>747.8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>960.3749999999999</v>
+        <v>729.0500000000001</v>
       </c>
       <c r="M3">
-        <v>890.9000000000001</v>
+        <v>747.8</v>
       </c>
       <c r="N3">
-        <v>69.4749999999998</v>
+        <v>-18.74999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
       <c r="B4">
-        <v>465.3749999999999</v>
+        <v>409.0500000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -575,42 +575,42 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>882.4000000000001</v>
+        <v>748.1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>960.3749999999999</v>
+        <v>729.0500000000001</v>
       </c>
       <c r="M4">
-        <v>890.4000000000001</v>
+        <v>748.1</v>
       </c>
       <c r="N4">
-        <v>69.9749999999998</v>
+        <v>-19.04999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
       <c r="B5">
-        <v>465.3749999999999</v>
+        <v>409.0500000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -619,388 +619,388 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1026.4</v>
+        <v>726.6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>960.3749999999999</v>
+        <v>729.0500000000001</v>
       </c>
       <c r="M5">
-        <v>1034.4</v>
+        <v>726.6</v>
       </c>
       <c r="N5">
-        <v>-74.02499999999998</v>
+        <v>2.450000000000045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
       <c r="B6">
-        <v>286.4</v>
+        <v>412.6</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>696.9</v>
+        <v>788</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>514.4</v>
+        <v>764.6</v>
       </c>
       <c r="M6">
-        <v>710.9</v>
+        <v>821</v>
       </c>
       <c r="N6">
-        <v>-196.5</v>
+        <v>-56.39999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
       <c r="B7">
-        <v>286.4</v>
+        <v>412.6</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>638</v>
+        <v>759</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>514.4</v>
+        <v>764.6</v>
       </c>
       <c r="M7">
-        <v>652</v>
+        <v>792</v>
       </c>
       <c r="N7">
-        <v>-137.6</v>
+        <v>-27.39999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
       <c r="B8">
-        <v>286.4</v>
+        <v>412.6</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>631.8000000000001</v>
+        <v>730</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>514.4</v>
+        <v>764.6</v>
       </c>
       <c r="M8">
-        <v>645.8000000000001</v>
+        <v>763</v>
       </c>
       <c r="N8">
-        <v>-131.4000000000001</v>
+        <v>1.600000000000023</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
       <c r="B9">
-        <v>286.4</v>
+        <v>412.6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>614.5</v>
+        <v>723.4999999999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>514.4</v>
+        <v>764.6</v>
       </c>
       <c r="M9">
-        <v>628.5</v>
+        <v>756.4999999999999</v>
       </c>
       <c r="N9">
-        <v>-114.1</v>
+        <v>8.100000000000136</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
       <c r="B10">
-        <v>257.15</v>
+        <v>437.675</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>489.3000000000001</v>
+        <v>653</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>454.15</v>
+        <v>722.675</v>
       </c>
       <c r="M10">
-        <v>518.3000000000001</v>
+        <v>653</v>
       </c>
       <c r="N10">
-        <v>-64.15000000000009</v>
+        <v>69.67499999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
       <c r="B11">
-        <v>257.15</v>
+        <v>437.675</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>451.2</v>
+        <v>636.3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>454.15</v>
+        <v>722.675</v>
       </c>
       <c r="M11">
-        <v>480.2</v>
+        <v>636.3</v>
       </c>
       <c r="N11">
-        <v>-26.05000000000007</v>
+        <v>86.375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
       <c r="B12">
-        <v>257.15</v>
+        <v>437.675</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>420.4000000000001</v>
+        <v>659.4000000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>454.15</v>
+        <v>722.675</v>
       </c>
       <c r="M12">
-        <v>449.4000000000001</v>
+        <v>659.4000000000001</v>
       </c>
       <c r="N12">
-        <v>4.749999999999886</v>
+        <v>63.27499999999986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
       <c r="B13">
-        <v>257.15</v>
+        <v>437.675</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>413.1</v>
+        <v>663.4000000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>454.15</v>
+        <v>722.675</v>
       </c>
       <c r="M13">
-        <v>442.1</v>
+        <v>663.4000000000001</v>
       </c>
       <c r="N13">
-        <v>12.04999999999995</v>
+        <v>59.27499999999986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
       <c r="B14">
-        <v>375.95</v>
+        <v>436.924999</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>512</v>
+        <v>533.8</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I14">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>582.95</v>
+        <v>740.924999</v>
       </c>
       <c r="M14">
-        <v>576</v>
+        <v>552.8</v>
       </c>
       <c r="N14">
-        <v>6.950000000000045</v>
+        <v>188.124999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
       <c r="B15">
-        <v>375.95</v>
+        <v>436.924999</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>542.3</v>
+        <v>552.9000000000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I15">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>582.95</v>
+        <v>740.924999</v>
       </c>
       <c r="M15">
-        <v>606.3</v>
+        <v>571.9000000000001</v>
       </c>
       <c r="N15">
-        <v>-23.34999999999991</v>
+        <v>169.0249989999999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
       <c r="B16">
-        <v>375.95</v>
+        <v>436.924999</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>522.6999999999999</v>
+        <v>547.8</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I16">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>582.95</v>
+        <v>740.924999</v>
       </c>
       <c r="M16">
-        <v>586.6999999999999</v>
+        <v>566.8</v>
       </c>
       <c r="N16">
-        <v>-3.749999999999886</v>
+        <v>174.124999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
       <c r="B17">
-        <v>375.95</v>
+        <v>436.924999</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>509.6999999999999</v>
+        <v>543.2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I17">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>582.95</v>
+        <v>740.924999</v>
       </c>
       <c r="M17">
-        <v>573.6999999999999</v>
+        <v>562.2</v>
       </c>
       <c r="N17">
-        <v>9.250000000000114</v>
+        <v>178.7249989999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
       <c r="B18">
-        <v>353.325</v>
+        <v>694.625</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>436.3</v>
+        <v>849.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>643.325</v>
+        <v>1076.625</v>
       </c>
       <c r="M18">
-        <v>533.3</v>
+        <v>861.5</v>
       </c>
       <c r="N18">
-        <v>110.0250000000001</v>
+        <v>215.125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
       <c r="B19">
-        <v>353.325</v>
+        <v>694.625</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>533</v>
+        <v>909</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>643.325</v>
+        <v>1076.625</v>
       </c>
       <c r="M19">
-        <v>630</v>
+        <v>921</v>
       </c>
       <c r="N19">
-        <v>13.32500000000005</v>
+        <v>155.625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
       <c r="B20">
-        <v>353.325</v>
+        <v>694.625</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>562.5</v>
+        <v>932</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>643.325</v>
+        <v>1076.625</v>
       </c>
       <c r="M20">
-        <v>659.5</v>
+        <v>944</v>
       </c>
       <c r="N20">
-        <v>-16.17499999999995</v>
+        <v>132.625</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
       <c r="B21">
-        <v>353.325</v>
+        <v>694.625</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,218 +1317,218 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>602.3</v>
+        <v>946</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>643.325</v>
+        <v>1076.625</v>
       </c>
       <c r="M21">
-        <v>699.3</v>
+        <v>958</v>
       </c>
       <c r="N21">
-        <v>-55.97499999999991</v>
+        <v>118.625</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
       <c r="B22">
-        <v>655.125</v>
+        <v>828.5749999999998</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1072.7</v>
+        <v>1028</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>407</v>
+        <v>284</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1181.125</v>
+        <v>1256.575</v>
       </c>
       <c r="M22">
-        <v>1072.7</v>
+        <v>1063</v>
       </c>
       <c r="N22">
-        <v>108.425</v>
+        <v>193.5749999999998</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
       <c r="B23">
-        <v>655.125</v>
+        <v>828.5749999999998</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1074.6</v>
+        <v>1079</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>407</v>
+        <v>284</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1181.125</v>
+        <v>1256.575</v>
       </c>
       <c r="M23">
-        <v>1074.6</v>
+        <v>1114</v>
       </c>
       <c r="N23">
-        <v>106.5250000000001</v>
+        <v>142.5749999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
       <c r="B24">
-        <v>655.125</v>
+        <v>828.5749999999998</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1121.7</v>
+        <v>1158</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>407</v>
+        <v>284</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1181.125</v>
+        <v>1256.575</v>
       </c>
       <c r="M24">
-        <v>1121.7</v>
+        <v>1193</v>
       </c>
       <c r="N24">
-        <v>59.42499999999995</v>
+        <v>63.57499999999982</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
       <c r="B25">
-        <v>655.125</v>
+        <v>828.5749999999998</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1175.3</v>
+        <v>1154</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>407</v>
+        <v>284</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1181.125</v>
+        <v>1256.575</v>
       </c>
       <c r="M25">
-        <v>1175.3</v>
+        <v>1189</v>
       </c>
       <c r="N25">
-        <v>5.825000000000045</v>
+        <v>67.57499999999982</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
       <c r="B26">
-        <v>296.15</v>
+        <v>260.575001</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>442.3</v>
+        <v>403.7</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I26">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>537.15</v>
+        <v>534.5750009999999</v>
       </c>
       <c r="M26">
-        <v>575.3</v>
+        <v>499.7</v>
       </c>
       <c r="N26">
-        <v>-38.14999999999998</v>
+        <v>34.87500099999988</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
       <c r="B27">
-        <v>296.15</v>
+        <v>260.575001</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>490.1</v>
+        <v>372.5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I27">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>537.15</v>
+        <v>534.5750009999999</v>
       </c>
       <c r="M27">
-        <v>623.1</v>
+        <v>468.5</v>
       </c>
       <c r="N27">
-        <v>-85.95000000000005</v>
+        <v>66.07500099999993</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
       <c r="B28">
-        <v>296.15</v>
+        <v>260.575001</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>214.4</v>
+        <v>353.6</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I28">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>537.15</v>
+        <v>534.5750009999999</v>
       </c>
       <c r="M28">
-        <v>347.4</v>
+        <v>449.6</v>
       </c>
       <c r="N28">
-        <v>189.75</v>
+        <v>84.97500099999991</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
       <c r="B29">
-        <v>296.15</v>
+        <v>260.575001</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,54 +1669,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>254</v>
+        <v>221.9</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I29">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>537.15</v>
+        <v>534.5750009999999</v>
       </c>
       <c r="M29">
-        <v>387</v>
+        <v>317.9</v>
       </c>
       <c r="N29">
-        <v>150.15</v>
+        <v>216.6750009999999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>338.1499999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D30">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>549.8000000000001</v>
+        <v>270</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L30">
-        <v>616.8000000000001</v>
+        <v>476</v>
       </c>
       <c r="M30">
-        <v>702.1499999999999</v>
+        <v>216.5</v>
       </c>
       <c r="N30">
-        <v>-85.3499999999998</v>
+        <v>259.5</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>338.1499999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D31">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>506.4000000000001</v>
+        <v>171</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L31">
-        <v>573.4000000000001</v>
+        <v>377</v>
       </c>
       <c r="M31">
-        <v>702.1499999999999</v>
+        <v>216.5</v>
       </c>
       <c r="N31">
-        <v>-128.7499999999998</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>338.1499999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>617.1999999999999</v>
+        <v>111</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L32">
-        <v>684.1999999999999</v>
+        <v>317</v>
       </c>
       <c r="M32">
-        <v>702.1499999999999</v>
+        <v>216.5</v>
       </c>
       <c r="N32">
-        <v>-17.94999999999993</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>338.1499999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>520.6999999999999</v>
+        <v>108.3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L33">
-        <v>587.6999999999999</v>
+        <v>314.3</v>
       </c>
       <c r="M33">
-        <v>702.1499999999999</v>
+        <v>216.5</v>
       </c>
       <c r="N33">
-        <v>-114.4499999999999</v>
+        <v>97.80000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>994.6500000000001</v>
+        <v>839.375</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1648.6</v>
+        <v>1010</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>553</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="L34">
-        <v>1679.6</v>
+        <v>1138</v>
       </c>
       <c r="M34">
-        <v>1887.65</v>
+        <v>1129.375</v>
       </c>
       <c r="N34">
-        <v>-208.05</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>994.6500000000001</v>
+        <v>839.375</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1609.8</v>
+        <v>980</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>553</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="L35">
-        <v>1640.8</v>
+        <v>1108</v>
       </c>
       <c r="M35">
-        <v>1887.65</v>
+        <v>1129.375</v>
       </c>
       <c r="N35">
-        <v>-246.8499999999999</v>
+        <v>-21.375</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>994.6500000000001</v>
+        <v>839.375</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1744.3</v>
+        <v>895</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>553</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="L36">
-        <v>1775.3</v>
+        <v>1023</v>
       </c>
       <c r="M36">
-        <v>1887.65</v>
+        <v>1129.375</v>
       </c>
       <c r="N36">
-        <v>-112.3499999999999</v>
+        <v>-106.375</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>994.6500000000001</v>
+        <v>839.375</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1828.2</v>
+        <v>849</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>553</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="L37">
-        <v>1859.2</v>
+        <v>977</v>
       </c>
       <c r="M37">
-        <v>1887.65</v>
+        <v>1129.375</v>
       </c>
       <c r="N37">
-        <v>-28.44999999999982</v>
+        <v>-152.375</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>964.8500000000001</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1227.7</v>
+        <v>823</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L38">
-        <v>1227.7</v>
+        <v>1076</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1215.85</v>
       </c>
       <c r="N38">
-        <v>1227.7</v>
+        <v>-139.8500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>964.8500000000001</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1255.4</v>
+        <v>921</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L39">
-        <v>1255.4</v>
+        <v>1174</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1215.85</v>
       </c>
       <c r="N39">
-        <v>1255.4</v>
+        <v>-41.85000000000014</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>964.8500000000001</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1286</v>
+        <v>869</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L40">
-        <v>1286</v>
+        <v>1122</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1215.85</v>
       </c>
       <c r="N40">
-        <v>1286</v>
+        <v>-93.85000000000014</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45797.40625</v>
+        <v>45799.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>964.8500000000001</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1215.85</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-112.8500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45797.41666666666</v>
+        <v>45799.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45797.42708333334</v>
+        <v>45799.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>888.4000000000001</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2306,18 +2306,18 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>888.4000000000001</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>888.4000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45797.4375</v>
+        <v>45799.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>935.3000000000002</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2350,18 +2350,18 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>935.3000000000002</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>935.3000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45797.44791666666</v>
+        <v>45799.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45797.45833333334</v>
+        <v>45799.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45797.46875</v>
+        <v>45799.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45797.47916666666</v>
+        <v>45799.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45797.48958333334</v>
+        <v>45799.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45797.5</v>
+        <v>45799.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45797.51041666666</v>
+        <v>45799.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45797.52083333334</v>
+        <v>45799.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45797.53125</v>
+        <v>45799.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45797.54166666666</v>
+        <v>45799.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45797.55208333334</v>
+        <v>45799.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45797.5625</v>
+        <v>45799.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45797.57291666666</v>
+        <v>45799.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45797.58333333334</v>
+        <v>45799.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45797.59375</v>
+        <v>45799.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45797.60416666666</v>
+        <v>45799.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45797.61458333334</v>
+        <v>45799.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45797.625</v>
+        <v>45799.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45797.63541666666</v>
+        <v>45799.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45797.64583333334</v>
+        <v>45799.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45797.65625</v>
+        <v>45799.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45797.66666666666</v>
+        <v>45799.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45797.67708333334</v>
+        <v>45799.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45797.6875</v>
+        <v>45799.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45797.69791666666</v>
+        <v>45799.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45797.70833333334</v>
+        <v>45799.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45797.71875</v>
+        <v>45799.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45797.72916666666</v>
+        <v>45799.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45797.73958333334</v>
+        <v>45799.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45797.75</v>
+        <v>45799.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45797.76041666666</v>
+        <v>45799.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45797.77083333334</v>
+        <v>45799.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45797.78125</v>
+        <v>45799.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45797.79166666666</v>
+        <v>45799.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45797.80208333334</v>
+        <v>45799.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45797.8125</v>
+        <v>45799.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45797.82291666666</v>
+        <v>45799.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45797.83333333334</v>
+        <v>45799.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45797.84375</v>
+        <v>45799.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45797.85416666666</v>
+        <v>45799.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45797.86458333334</v>
+        <v>45799.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45797.875</v>
+        <v>45799.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45797.88541666666</v>
+        <v>45799.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45797.89583333334</v>
+        <v>45799.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45797.90625</v>
+        <v>45799.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45797.91666666666</v>
+        <v>45799.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45797.92708333334</v>
+        <v>45799.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45797.9375</v>
+        <v>45799.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45797.94791666666</v>
+        <v>45799.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45797.95833333334</v>
+        <v>45799.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45797.96875</v>
+        <v>45799.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45797.97916666666</v>
+        <v>45799.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45797.98958333334</v>
+        <v>45799.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>409.0500000000001</v>
+        <v>812.55</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,42 +487,42 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>832.9000000000001</v>
+        <v>1594.3</v>
       </c>
       <c r="H2">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>729.0500000000001</v>
+        <v>1611.55</v>
       </c>
       <c r="M2">
-        <v>832.9000000000001</v>
+        <v>1594.3</v>
       </c>
       <c r="N2">
-        <v>-103.85</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>409.0500000000001</v>
+        <v>812.55</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -531,42 +531,42 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>747.8</v>
+        <v>1603.1</v>
       </c>
       <c r="H3">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>729.0500000000001</v>
+        <v>1611.55</v>
       </c>
       <c r="M3">
-        <v>747.8</v>
+        <v>1603.1</v>
       </c>
       <c r="N3">
-        <v>-18.74999999999989</v>
+        <v>8.450000000000045</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>409.0500000000001</v>
+        <v>812.55</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -575,42 +575,42 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>748.1</v>
+        <v>1544.9</v>
       </c>
       <c r="H4">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>729.0500000000001</v>
+        <v>1611.55</v>
       </c>
       <c r="M4">
-        <v>748.1</v>
+        <v>1544.9</v>
       </c>
       <c r="N4">
-        <v>-19.04999999999995</v>
+        <v>66.64999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>409.0500000000001</v>
+        <v>812.55</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -619,36 +619,36 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>726.6</v>
+        <v>1543</v>
       </c>
       <c r="H5">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>729.0500000000001</v>
+        <v>1611.55</v>
       </c>
       <c r="M5">
-        <v>726.6</v>
+        <v>1543</v>
       </c>
       <c r="N5">
-        <v>2.450000000000045</v>
+        <v>68.54999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>412.6</v>
+        <v>923.875</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>788</v>
+        <v>1548.4</v>
       </c>
       <c r="H6">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>764.6</v>
+        <v>1593.875</v>
       </c>
       <c r="M6">
-        <v>821</v>
+        <v>1646.4</v>
       </c>
       <c r="N6">
-        <v>-56.39999999999998</v>
+        <v>-52.52500000000009</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>412.6</v>
+        <v>923.875</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>759</v>
+        <v>1500.8</v>
       </c>
       <c r="H7">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>764.6</v>
+        <v>1593.875</v>
       </c>
       <c r="M7">
-        <v>792</v>
+        <v>1598.8</v>
       </c>
       <c r="N7">
-        <v>-27.39999999999998</v>
+        <v>-4.925000000000182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>412.6</v>
+        <v>923.875</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>730</v>
+        <v>1524</v>
       </c>
       <c r="H8">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>764.6</v>
+        <v>1593.875</v>
       </c>
       <c r="M8">
-        <v>763</v>
+        <v>1622</v>
       </c>
       <c r="N8">
-        <v>1.600000000000023</v>
+        <v>-28.125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>412.6</v>
+        <v>923.875</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,218 +789,218 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>723.4999999999999</v>
+        <v>1529.9</v>
       </c>
       <c r="H9">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>764.6</v>
+        <v>1593.875</v>
       </c>
       <c r="M9">
-        <v>756.4999999999999</v>
+        <v>1627.9</v>
       </c>
       <c r="N9">
-        <v>8.100000000000136</v>
+        <v>-34.02500000000009</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>437.675</v>
+        <v>884.875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>653</v>
+        <v>1557.6</v>
       </c>
       <c r="H10">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>722.675</v>
+        <v>1498.875</v>
       </c>
       <c r="M10">
-        <v>653</v>
+        <v>1609.6</v>
       </c>
       <c r="N10">
-        <v>69.67499999999995</v>
+        <v>-110.7249999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>437.675</v>
+        <v>884.875</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>636.3</v>
+        <v>1528.2</v>
       </c>
       <c r="H11">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>722.675</v>
+        <v>1498.875</v>
       </c>
       <c r="M11">
-        <v>636.3</v>
+        <v>1580.2</v>
       </c>
       <c r="N11">
-        <v>86.375</v>
+        <v>-81.32499999999982</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>437.675</v>
+        <v>884.875</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>659.4000000000001</v>
+        <v>1496</v>
       </c>
       <c r="H12">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>722.675</v>
+        <v>1498.875</v>
       </c>
       <c r="M12">
-        <v>659.4000000000001</v>
+        <v>1548</v>
       </c>
       <c r="N12">
-        <v>63.27499999999986</v>
+        <v>-49.125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>437.675</v>
+        <v>884.875</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>663.4000000000001</v>
+        <v>1519</v>
       </c>
       <c r="H13">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>722.675</v>
+        <v>1498.875</v>
       </c>
       <c r="M13">
-        <v>663.4000000000001</v>
+        <v>1571</v>
       </c>
       <c r="N13">
-        <v>59.27499999999986</v>
+        <v>-72.125</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>436.924999</v>
+        <v>746.2750000000001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>533.8</v>
+        <v>1219.5</v>
       </c>
       <c r="H14">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>740.924999</v>
+        <v>1254.275</v>
       </c>
       <c r="M14">
-        <v>552.8</v>
+        <v>1244.5</v>
       </c>
       <c r="N14">
-        <v>188.124999</v>
+        <v>9.775000000000091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>436.924999</v>
+        <v>746.2750000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>552.9000000000001</v>
+        <v>1222.9</v>
       </c>
       <c r="H15">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>740.924999</v>
+        <v>1254.275</v>
       </c>
       <c r="M15">
-        <v>571.9000000000001</v>
+        <v>1247.9</v>
       </c>
       <c r="N15">
-        <v>169.0249989999999</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>436.924999</v>
+        <v>746.2750000000001</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>547.8</v>
+        <v>1246.1</v>
       </c>
       <c r="H16">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>740.924999</v>
+        <v>1254.275</v>
       </c>
       <c r="M16">
-        <v>566.8</v>
+        <v>1271.1</v>
       </c>
       <c r="N16">
-        <v>174.124999</v>
+        <v>-16.82500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>436.924999</v>
+        <v>746.2750000000001</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>543.2</v>
+        <v>1269</v>
       </c>
       <c r="H17">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>740.924999</v>
+        <v>1254.275</v>
       </c>
       <c r="M17">
-        <v>562.2</v>
+        <v>1294</v>
       </c>
       <c r="N17">
-        <v>178.7249989999999</v>
+        <v>-39.72499999999991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>694.625</v>
+        <v>582.925</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>849.5</v>
+        <v>990.1000000000001</v>
       </c>
       <c r="H18">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1076.625</v>
+        <v>947.925</v>
       </c>
       <c r="M18">
-        <v>861.5</v>
+        <v>1001.1</v>
       </c>
       <c r="N18">
-        <v>215.125</v>
+        <v>-53.17500000000018</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>694.625</v>
+        <v>582.925</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>909</v>
+        <v>920.3</v>
       </c>
       <c r="H19">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1076.625</v>
+        <v>947.925</v>
       </c>
       <c r="M19">
-        <v>921</v>
+        <v>931.3</v>
       </c>
       <c r="N19">
-        <v>155.625</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>694.625</v>
+        <v>582.925</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>932</v>
+        <v>941.5</v>
       </c>
       <c r="H20">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1076.625</v>
+        <v>947.925</v>
       </c>
       <c r="M20">
-        <v>944</v>
+        <v>952.5</v>
       </c>
       <c r="N20">
-        <v>132.625</v>
+        <v>-4.575000000000045</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>694.625</v>
+        <v>582.925</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
+        <v>935</v>
+      </c>
+      <c r="H21">
+        <v>49</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>316</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>947.925</v>
+      </c>
+      <c r="M21">
         <v>946</v>
       </c>
-      <c r="H21">
-        <v>171</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>211</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1076.625</v>
-      </c>
-      <c r="M21">
-        <v>958</v>
-      </c>
       <c r="N21">
-        <v>118.625</v>
+        <v>1.924999999999955</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>828.5749999999998</v>
+        <v>297.825</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1028</v>
+        <v>544.1</v>
       </c>
       <c r="H22">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1256.575</v>
+        <v>600.825</v>
       </c>
       <c r="M22">
-        <v>1063</v>
+        <v>624.1</v>
       </c>
       <c r="N22">
-        <v>193.5749999999998</v>
+        <v>-23.27499999999998</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>828.5749999999998</v>
+        <v>297.825</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1079</v>
+        <v>516.1</v>
       </c>
       <c r="H23">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1256.575</v>
+        <v>600.825</v>
       </c>
       <c r="M23">
-        <v>1114</v>
+        <v>596.1</v>
       </c>
       <c r="N23">
-        <v>142.5749999999998</v>
+        <v>4.725000000000023</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>828.5749999999998</v>
+        <v>297.825</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1158</v>
+        <v>471</v>
       </c>
       <c r="H24">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1256.575</v>
+        <v>600.825</v>
       </c>
       <c r="M24">
-        <v>1193</v>
+        <v>551</v>
       </c>
       <c r="N24">
-        <v>63.57499999999982</v>
+        <v>49.82500000000005</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>828.5749999999998</v>
+        <v>297.825</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1154</v>
+        <v>438</v>
       </c>
       <c r="H25">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1256.575</v>
+        <v>600.825</v>
       </c>
       <c r="M25">
-        <v>1189</v>
+        <v>518</v>
       </c>
       <c r="N25">
-        <v>67.57499999999982</v>
+        <v>82.82500000000005</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>260.575001</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G26">
-        <v>403.7</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>534.5750009999999</v>
+        <v>158</v>
       </c>
       <c r="M26">
-        <v>499.7</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>34.87500099999988</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45799.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>260.575001</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>40.10000000000002</v>
       </c>
       <c r="G27">
-        <v>372.5</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>534.5750009999999</v>
+        <v>40.10000000000002</v>
       </c>
       <c r="M27">
-        <v>468.5</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>66.07500099999993</v>
+        <v>40.10000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45799.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>260.575001</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>353.6</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>534.5750009999999</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>449.6</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>84.97500099999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45799.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>260.575001</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,54 +1669,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>221.9</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>534.5750009999999</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>317.9</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>216.6750009999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45799.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>216.5</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>259.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45799.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>216.5</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>160.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45799.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>216.5</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>100.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45799.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>108.3</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>314.3</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>216.5</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>97.80000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45799.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>839.375</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1138</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1129.375</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>8.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45799.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>839.375</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1108</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1129.375</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-21.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45799.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>839.375</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1129.375</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>-106.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45799.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>839.375</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1129.375</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>-152.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45799.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>964.8500000000001</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1076</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1215.85</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-139.8500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45799.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>964.8500000000001</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1174</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1215.85</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-41.85000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45799.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>964.8500000000001</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1215.85</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>-93.85000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45799.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>964.8500000000001</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1215.85</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-112.8500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45799.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45799.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>888.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2306,18 +2306,18 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>888.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>888.4000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45799.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>935.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2350,18 +2350,18 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>935.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>935.3000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45799.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45799.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45799.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45799.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45799.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45799.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45799.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45799.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45799.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45799.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45799.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45799.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45799.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45799.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45799.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45799.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45799.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45799.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45799.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45799.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45799.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45799.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45799.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45799.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45799.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45799.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45799.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45799.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45799.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45799.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45799.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45799.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45799.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45799.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45799.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45799.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45799.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45799.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45799.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45799.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45799.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45799.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45799.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45799.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45799.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45799.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45799.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45799.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45799.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45799.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45799.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45799.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45799.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B2">
-        <v>812.55</v>
+        <v>1195.1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,42 +487,42 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1594.3</v>
+        <v>2474.3</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>355</v>
+        <v>658</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1611.55</v>
+        <v>2250.1</v>
       </c>
       <c r="M2">
-        <v>1594.3</v>
+        <v>2474.3</v>
       </c>
       <c r="N2">
-        <v>17.25</v>
+        <v>-224.2000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
       <c r="B3">
-        <v>812.55</v>
+        <v>1195.1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -531,42 +531,42 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1603.1</v>
+        <v>2459.4</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>355</v>
+        <v>658</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1611.55</v>
+        <v>2250.1</v>
       </c>
       <c r="M3">
-        <v>1603.1</v>
+        <v>2459.4</v>
       </c>
       <c r="N3">
-        <v>8.450000000000045</v>
+        <v>-209.3000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
       <c r="B4">
-        <v>812.55</v>
+        <v>1195.1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -575,42 +575,42 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1544.9</v>
+        <v>2402.4</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>355</v>
+        <v>658</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1611.55</v>
+        <v>2250.1</v>
       </c>
       <c r="M4">
-        <v>1544.9</v>
+        <v>2402.4</v>
       </c>
       <c r="N4">
-        <v>66.64999999999986</v>
+        <v>-152.3000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
       <c r="B5">
-        <v>812.55</v>
+        <v>1195.1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -619,212 +619,212 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1543</v>
+        <v>2362.2</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>355</v>
+        <v>658</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1611.55</v>
+        <v>2250.1</v>
       </c>
       <c r="M5">
-        <v>1543</v>
+        <v>2362.2</v>
       </c>
       <c r="N5">
-        <v>68.54999999999995</v>
+        <v>-112.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
       <c r="B6">
-        <v>923.875</v>
+        <v>1063.125</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1548.4</v>
+        <v>1997.4</v>
       </c>
       <c r="H6">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>373</v>
+        <v>566</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1593.875</v>
+        <v>1927.125</v>
       </c>
       <c r="M6">
-        <v>1646.4</v>
+        <v>1997.4</v>
       </c>
       <c r="N6">
-        <v>-52.52500000000009</v>
+        <v>-70.27499999999964</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
       <c r="B7">
-        <v>923.875</v>
+        <v>1063.125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1500.8</v>
+        <v>1963.5</v>
       </c>
       <c r="H7">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>373</v>
+        <v>566</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1593.875</v>
+        <v>1927.125</v>
       </c>
       <c r="M7">
-        <v>1598.8</v>
+        <v>1963.5</v>
       </c>
       <c r="N7">
-        <v>-4.925000000000182</v>
+        <v>-36.375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
       <c r="B8">
-        <v>923.875</v>
+        <v>1063.125</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1524</v>
+        <v>1935.5</v>
       </c>
       <c r="H8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>373</v>
+        <v>566</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1593.875</v>
+        <v>1927.125</v>
       </c>
       <c r="M8">
-        <v>1622</v>
+        <v>1935.5</v>
       </c>
       <c r="N8">
-        <v>-28.125</v>
+        <v>-8.375</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
       <c r="B9">
-        <v>923.875</v>
+        <v>1063.125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1529.9</v>
+        <v>1929.4</v>
       </c>
       <c r="H9">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>373</v>
+        <v>566</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1593.875</v>
+        <v>1927.125</v>
       </c>
       <c r="M9">
-        <v>1627.9</v>
+        <v>1929.4</v>
       </c>
       <c r="N9">
-        <v>-34.02500000000009</v>
+        <v>-2.274999999999636</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
       <c r="B10">
-        <v>884.875</v>
+        <v>1284.549999</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1557.6</v>
+        <v>2120.1</v>
       </c>
       <c r="H10">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1498.875</v>
+        <v>2120.549999</v>
       </c>
       <c r="M10">
-        <v>1609.6</v>
+        <v>2210.1</v>
       </c>
       <c r="N10">
-        <v>-110.7249999999999</v>
+        <v>-89.55000100000007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
       <c r="B11">
-        <v>884.875</v>
+        <v>1284.549999</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1528.2</v>
+        <v>2084.2</v>
       </c>
       <c r="H11">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1498.875</v>
+        <v>2120.549999</v>
       </c>
       <c r="M11">
-        <v>1580.2</v>
+        <v>2174.2</v>
       </c>
       <c r="N11">
-        <v>-81.32499999999982</v>
+        <v>-53.65000099999997</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
       <c r="B12">
-        <v>884.875</v>
+        <v>1284.549999</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1496</v>
+        <v>2083.9</v>
       </c>
       <c r="H12">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1498.875</v>
+        <v>2120.549999</v>
       </c>
       <c r="M12">
-        <v>1548</v>
+        <v>2173.9</v>
       </c>
       <c r="N12">
-        <v>-49.125</v>
+        <v>-53.35000099999979</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
       <c r="B13">
-        <v>884.875</v>
+        <v>1284.549999</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1519</v>
+        <v>2105.5</v>
       </c>
       <c r="H13">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1498.875</v>
+        <v>2120.549999</v>
       </c>
       <c r="M13">
-        <v>1571</v>
+        <v>2195.5</v>
       </c>
       <c r="N13">
-        <v>-72.125</v>
+        <v>-74.95000100000016</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
       <c r="B14">
-        <v>746.2750000000001</v>
+        <v>1192.625</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1219.5</v>
+        <v>2056</v>
       </c>
       <c r="H14">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1254.275</v>
+        <v>2023.625</v>
       </c>
       <c r="M14">
-        <v>1244.5</v>
+        <v>2149</v>
       </c>
       <c r="N14">
-        <v>9.775000000000091</v>
+        <v>-125.375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
       <c r="B15">
-        <v>746.2750000000001</v>
+        <v>1192.625</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1222.9</v>
+        <v>2022.8</v>
       </c>
       <c r="H15">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1254.275</v>
+        <v>2023.625</v>
       </c>
       <c r="M15">
-        <v>1247.9</v>
+        <v>2115.8</v>
       </c>
       <c r="N15">
-        <v>6.375</v>
+        <v>-92.17500000000018</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
       <c r="B16">
-        <v>746.2750000000001</v>
+        <v>1192.625</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1246.1</v>
+        <v>2066.9</v>
       </c>
       <c r="H16">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1254.275</v>
+        <v>2023.625</v>
       </c>
       <c r="M16">
-        <v>1271.1</v>
+        <v>2159.9</v>
       </c>
       <c r="N16">
-        <v>-16.82500000000005</v>
+        <v>-136.2750000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
       <c r="B17">
-        <v>746.2750000000001</v>
+        <v>1192.625</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1269</v>
+        <v>2043.9</v>
       </c>
       <c r="H17">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1254.275</v>
+        <v>2023.625</v>
       </c>
       <c r="M17">
-        <v>1294</v>
+        <v>2136.9</v>
       </c>
       <c r="N17">
-        <v>-39.72499999999991</v>
+        <v>-113.2750000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
       <c r="B18">
-        <v>582.925</v>
+        <v>1091.3</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>990.1000000000001</v>
+        <v>1878.9</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>316</v>
+        <v>616</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>947.925</v>
+        <v>1938.3</v>
       </c>
       <c r="M18">
-        <v>1001.1</v>
+        <v>2044.9</v>
       </c>
       <c r="N18">
-        <v>-53.17500000000018</v>
+        <v>-106.6000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
       <c r="B19">
-        <v>582.925</v>
+        <v>1091.3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>920.3</v>
+        <v>1910</v>
       </c>
       <c r="H19">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>316</v>
+        <v>616</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>947.925</v>
+        <v>1938.3</v>
       </c>
       <c r="M19">
-        <v>931.3</v>
+        <v>2076</v>
       </c>
       <c r="N19">
-        <v>16.625</v>
+        <v>-137.7</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
       <c r="B20">
-        <v>582.925</v>
+        <v>1091.3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>941.5</v>
+        <v>1844.8</v>
       </c>
       <c r="H20">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>316</v>
+        <v>616</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>947.925</v>
+        <v>1938.3</v>
       </c>
       <c r="M20">
-        <v>952.5</v>
+        <v>2010.8</v>
       </c>
       <c r="N20">
-        <v>-4.575000000000045</v>
+        <v>-72.50000000000023</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
       <c r="B21">
-        <v>582.925</v>
+        <v>1091.3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>935</v>
+        <v>1783.4</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>316</v>
+        <v>616</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>947.925</v>
+        <v>1938.3</v>
       </c>
       <c r="M21">
-        <v>946</v>
+        <v>1949.4</v>
       </c>
       <c r="N21">
-        <v>1.924999999999955</v>
+        <v>-11.10000000000014</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
       <c r="B22">
-        <v>297.825</v>
+        <v>1135.699999</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>544.1</v>
+        <v>1872.7</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>600.825</v>
+        <v>1974.699999</v>
       </c>
       <c r="M22">
-        <v>624.1</v>
+        <v>2045.7</v>
       </c>
       <c r="N22">
-        <v>-23.27499999999998</v>
+        <v>-71.00000099999988</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
       <c r="B23">
-        <v>297.825</v>
+        <v>1135.699999</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>516.1</v>
+        <v>1860.2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>600.825</v>
+        <v>1974.699999</v>
       </c>
       <c r="M23">
-        <v>596.1</v>
+        <v>2033.2</v>
       </c>
       <c r="N23">
-        <v>4.725000000000023</v>
+        <v>-58.50000099999988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
       <c r="B24">
-        <v>297.825</v>
+        <v>1135.699999</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>471</v>
+        <v>1847.2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>600.825</v>
+        <v>1974.699999</v>
       </c>
       <c r="M24">
-        <v>551</v>
+        <v>2020.2</v>
       </c>
       <c r="N24">
-        <v>49.82500000000005</v>
+        <v>-45.50000099999988</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
       <c r="B25">
-        <v>297.825</v>
+        <v>1135.699999</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>438</v>
+        <v>1789.4</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>600.825</v>
+        <v>1974.699999</v>
       </c>
       <c r="M25">
-        <v>518</v>
+        <v>1962.4</v>
       </c>
       <c r="N25">
-        <v>82.82500000000005</v>
+        <v>12.29999899999984</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>545.149999</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F26">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1244.4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>158</v>
+        <v>888.149999</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1312.4</v>
       </c>
       <c r="N26">
-        <v>158</v>
+        <v>-424.2500009999999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>545.149999</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F27">
-        <v>40.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>931.3999999999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>40.10000000000002</v>
+        <v>888.149999</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>999.3999999999999</v>
       </c>
       <c r="N27">
-        <v>40.10000000000002</v>
+        <v>-111.2500009999999</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45807.27083333334</v>
+        <v>45810.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>545.149999</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>634.1999999999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>888.149999</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>702.1999999999998</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>185.9499990000002</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45807.28125</v>
+        <v>45810.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>545.149999</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,54 +1669,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>554.8</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>888.149999</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>622.8</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>265.349999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45807.29166666666</v>
+        <v>45810.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>141.025</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1734,33 +1734,33 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>254.025</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-113.125</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45807.30208333334</v>
+        <v>45810.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>141.025</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>161.7</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1778,33 +1778,33 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>161.7</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>254.025</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-92.32499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45807.3125</v>
+        <v>45810.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>141.025</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>277.7</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1822,33 +1822,33 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>277.7</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>254.025</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>23.67500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45807.32291666666</v>
+        <v>45810.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>141.025</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1866,33 +1866,33 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>254.025</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-50.02500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45807.33333333334</v>
+        <v>45810.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>735.7249999999999</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1381.7</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1910,33 +1910,33 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1381.7</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1382.725</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-1.024999999999864</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45807.34375</v>
+        <v>45810.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>735.7249999999999</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1360.4</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1954,33 +1954,33 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1360.4</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1382.725</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-22.32499999999982</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45807.35416666666</v>
+        <v>45810.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>735.7249999999999</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1998,33 +1998,33 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1382.725</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>48.27500000000009</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45807.36458333334</v>
+        <v>45810.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>735.7249999999999</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1282.5</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2042,33 +2042,33 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1282.5</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1382.725</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-100.2249999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45807.375</v>
+        <v>45810.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>778.2</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1233.2</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2086,33 +2086,33 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1233.2</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1226.2</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45807.38541666666</v>
+        <v>45810.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>778.2</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1242.8</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2130,33 +2130,33 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1242.8</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1226.2</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>16.59999999999991</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45807.39583333334</v>
+        <v>45810.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>778.2</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1143.6</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2174,33 +2174,33 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1143.6</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1226.2</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>-82.60000000000014</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45807.40625</v>
+        <v>45810.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>778.2</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1129.9</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1129.9</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1226.2</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-96.30000000000018</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45807.41666666666</v>
+        <v>45810.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45807.42708333334</v>
+        <v>45810.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45807.4375</v>
+        <v>45810.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45807.44791666666</v>
+        <v>45810.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45807.45833333334</v>
+        <v>45810.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45807.46875</v>
+        <v>45810.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45807.47916666666</v>
+        <v>45810.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45807.48958333334</v>
+        <v>45810.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45807.5</v>
+        <v>45810.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45807.51041666666</v>
+        <v>45810.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45807.52083333334</v>
+        <v>45810.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45807.53125</v>
+        <v>45810.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45807.54166666666</v>
+        <v>45810.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45807.55208333334</v>
+        <v>45810.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45807.5625</v>
+        <v>45810.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45807.57291666666</v>
+        <v>45810.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45807.58333333334</v>
+        <v>45810.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45807.59375</v>
+        <v>45810.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45807.60416666666</v>
+        <v>45810.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45807.61458333334</v>
+        <v>45810.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45807.625</v>
+        <v>45810.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45807.63541666666</v>
+        <v>45810.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45807.64583333334</v>
+        <v>45810.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45807.65625</v>
+        <v>45810.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45807.66666666666</v>
+        <v>45810.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45807.67708333334</v>
+        <v>45810.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45807.6875</v>
+        <v>45810.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45807.69791666666</v>
+        <v>45810.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45807.70833333334</v>
+        <v>45810.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45807.71875</v>
+        <v>45810.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45807.72916666666</v>
+        <v>45810.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45807.73958333334</v>
+        <v>45810.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45807.75</v>
+        <v>45810.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45807.76041666666</v>
+        <v>45810.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45807.77083333334</v>
+        <v>45810.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45807.78125</v>
+        <v>45810.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45807.79166666666</v>
+        <v>45810.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45807.80208333334</v>
+        <v>45810.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45807.8125</v>
+        <v>45810.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45807.82291666666</v>
+        <v>45810.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45807.83333333334</v>
+        <v>45810.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45807.84375</v>
+        <v>45810.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45807.85416666666</v>
+        <v>45810.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45807.86458333334</v>
+        <v>45810.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45807.875</v>
+        <v>45810.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45807.88541666666</v>
+        <v>45810.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45807.89583333334</v>
+        <v>45810.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45807.90625</v>
+        <v>45810.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45807.91666666666</v>
+        <v>45810.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45807.92708333334</v>
+        <v>45810.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45807.9375</v>
+        <v>45810.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45807.94791666666</v>
+        <v>45810.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45807.95833333334</v>
+        <v>45810.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45807.96875</v>
+        <v>45810.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45807.97916666666</v>
+        <v>45810.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45807.98958333334</v>
+        <v>45810.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,890 +469,890 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45810</v>
+        <v>45821</v>
       </c>
       <c r="B2">
-        <v>1195.1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2474.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>658</v>
+        <v>494</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2250.1</v>
+        <v>513</v>
       </c>
       <c r="M2">
-        <v>2474.3</v>
+        <v>225</v>
       </c>
       <c r="N2">
-        <v>-224.2000000000003</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
       <c r="B3">
-        <v>1195.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2459.4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>658</v>
+        <v>494</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2250.1</v>
+        <v>513</v>
       </c>
       <c r="M3">
-        <v>2459.4</v>
+        <v>225</v>
       </c>
       <c r="N3">
-        <v>-209.3000000000002</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
       <c r="B4">
-        <v>1195.1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2402.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>658</v>
+        <v>494</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2250.1</v>
+        <v>513</v>
       </c>
       <c r="M4">
-        <v>2402.4</v>
+        <v>225</v>
       </c>
       <c r="N4">
-        <v>-152.3000000000002</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
       <c r="B5">
-        <v>1195.1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2362.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>658</v>
+        <v>494</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2250.1</v>
+        <v>513</v>
       </c>
       <c r="M5">
-        <v>2362.2</v>
+        <v>225</v>
       </c>
       <c r="N5">
-        <v>-112.0999999999999</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
       <c r="B6">
-        <v>1063.125</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1997.4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1927.125</v>
+        <v>594</v>
       </c>
       <c r="M6">
-        <v>1997.4</v>
+        <v>488</v>
       </c>
       <c r="N6">
-        <v>-70.27499999999964</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
       <c r="B7">
-        <v>1063.125</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1963.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1927.125</v>
+        <v>594</v>
       </c>
       <c r="M7">
-        <v>1963.5</v>
+        <v>488</v>
       </c>
       <c r="N7">
-        <v>-36.375</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
       <c r="B8">
-        <v>1063.125</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1935.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1927.125</v>
+        <v>594</v>
       </c>
       <c r="M8">
-        <v>1935.5</v>
+        <v>488</v>
       </c>
       <c r="N8">
-        <v>-8.375</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
       <c r="B9">
-        <v>1063.125</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1929.4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1927.125</v>
+        <v>594</v>
       </c>
       <c r="M9">
-        <v>1929.4</v>
+        <v>488</v>
       </c>
       <c r="N9">
-        <v>-2.274999999999636</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
       <c r="B10">
-        <v>1284.549999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2120.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2120.549999</v>
+        <v>491</v>
       </c>
       <c r="M10">
-        <v>2210.1</v>
+        <v>444</v>
       </c>
       <c r="N10">
-        <v>-89.55000100000007</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
       <c r="B11">
-        <v>1284.549999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2084.2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2120.549999</v>
+        <v>491</v>
       </c>
       <c r="M11">
-        <v>2174.2</v>
+        <v>444</v>
       </c>
       <c r="N11">
-        <v>-53.65000099999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
       <c r="B12">
-        <v>1284.549999</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2083.9</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2120.549999</v>
+        <v>491</v>
       </c>
       <c r="M12">
-        <v>2173.9</v>
+        <v>444</v>
       </c>
       <c r="N12">
-        <v>-53.35000099999979</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
       <c r="B13">
-        <v>1284.549999</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2105.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2120.549999</v>
+        <v>491</v>
       </c>
       <c r="M13">
-        <v>2195.5</v>
+        <v>444</v>
       </c>
       <c r="N13">
-        <v>-74.95000100000016</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
       <c r="B14">
-        <v>1192.625</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2056</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2023.625</v>
+        <v>515</v>
       </c>
       <c r="M14">
-        <v>2149</v>
+        <v>264</v>
       </c>
       <c r="N14">
-        <v>-125.375</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
       <c r="B15">
-        <v>1192.625</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2022.8</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2023.625</v>
+        <v>515</v>
       </c>
       <c r="M15">
-        <v>2115.8</v>
+        <v>264</v>
       </c>
       <c r="N15">
-        <v>-92.17500000000018</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
       <c r="B16">
-        <v>1192.625</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2066.9</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2023.625</v>
+        <v>515</v>
       </c>
       <c r="M16">
-        <v>2159.9</v>
+        <v>264</v>
       </c>
       <c r="N16">
-        <v>-136.2750000000001</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
       <c r="B17">
-        <v>1192.625</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2043.9</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2023.625</v>
+        <v>515</v>
       </c>
       <c r="M17">
-        <v>2136.9</v>
+        <v>264</v>
       </c>
       <c r="N17">
-        <v>-113.2750000000001</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B18">
-        <v>1091.3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1878.9</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1938.3</v>
+        <v>519</v>
       </c>
       <c r="M18">
-        <v>2044.9</v>
+        <v>289</v>
       </c>
       <c r="N18">
-        <v>-106.6000000000001</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
       <c r="B19">
-        <v>1091.3</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1910</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1938.3</v>
+        <v>519</v>
       </c>
       <c r="M19">
-        <v>2076</v>
+        <v>289</v>
       </c>
       <c r="N19">
-        <v>-137.7</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
       <c r="B20">
-        <v>1091.3</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1844.8</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1938.3</v>
+        <v>519</v>
       </c>
       <c r="M20">
-        <v>2010.8</v>
+        <v>289</v>
       </c>
       <c r="N20">
-        <v>-72.50000000000023</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
       <c r="B21">
-        <v>1091.3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1783.4</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1938.3</v>
+        <v>519</v>
       </c>
       <c r="M21">
-        <v>1949.4</v>
+        <v>289</v>
       </c>
       <c r="N21">
-        <v>-11.10000000000014</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
       <c r="B22">
-        <v>1135.699999</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1872.7</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J22">
-        <v>593</v>
+        <v>436</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1974.699999</v>
+        <v>530</v>
       </c>
       <c r="M22">
-        <v>2045.7</v>
+        <v>146</v>
       </c>
       <c r="N22">
-        <v>-71.00000099999988</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
       <c r="B23">
-        <v>1135.699999</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1860.2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J23">
-        <v>593</v>
+        <v>436</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1974.699999</v>
+        <v>530</v>
       </c>
       <c r="M23">
-        <v>2033.2</v>
+        <v>146</v>
       </c>
       <c r="N23">
-        <v>-58.50000099999988</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
       <c r="B24">
-        <v>1135.699999</v>
+        <v>94</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1847.2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J24">
-        <v>593</v>
+        <v>436</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1974.699999</v>
+        <v>530</v>
       </c>
       <c r="M24">
-        <v>2020.2</v>
+        <v>146</v>
       </c>
       <c r="N24">
-        <v>-45.50000099999988</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
       <c r="B25">
-        <v>1135.699999</v>
+        <v>94</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1789.4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J25">
-        <v>593</v>
+        <v>436</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1974.699999</v>
+        <v>530</v>
       </c>
       <c r="M25">
-        <v>1962.4</v>
+        <v>146</v>
       </c>
       <c r="N25">
-        <v>12.29999899999984</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45810.25</v>
+        <v>45821.25</v>
       </c>
       <c r="B26">
-        <v>545.149999</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1244.4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>888.149999</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1312.4</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-424.2500009999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45810.26041666666</v>
+        <v>45821.26041666666</v>
       </c>
       <c r="B27">
-        <v>545.149999</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>931.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>888.149999</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>999.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-111.2500009999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45810.27083333334</v>
+        <v>45821.27083333334</v>
       </c>
       <c r="B28">
-        <v>545.149999</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>634.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>888.149999</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>702.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>185.9499990000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45810.28125</v>
+        <v>45821.28125</v>
       </c>
       <c r="B29">
-        <v>545.149999</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,54 +1669,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>554.8</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>888.149999</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>622.8</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>265.349999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45810.29166666666</v>
+        <v>45821.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>141.025</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>140.9</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1734,33 +1734,33 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>140.9</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>254.025</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-113.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45810.30208333334</v>
+        <v>45821.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>141.025</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>161.7</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1778,33 +1778,33 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>161.7</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>254.025</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-92.32499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45810.3125</v>
+        <v>45821.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>141.025</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>277.7</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1822,33 +1822,33 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>277.7</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>254.025</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>23.67500000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45810.32291666666</v>
+        <v>45821.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>141.025</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1866,33 +1866,33 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>254.025</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-50.02500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45810.33333333334</v>
+        <v>45821.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>735.7249999999999</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1381.7</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1910,33 +1910,33 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1381.7</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1382.725</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>-1.024999999999864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45810.34375</v>
+        <v>45821.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>735.7249999999999</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1360.4</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1954,33 +1954,33 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1360.4</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1382.725</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-22.32499999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45810.35416666666</v>
+        <v>45821.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>735.7249999999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1998,33 +1998,33 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1382.725</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>48.27500000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45810.36458333334</v>
+        <v>45821.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>735.7249999999999</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1282.5</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2042,33 +2042,33 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1282.5</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1382.725</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>-100.2249999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45810.375</v>
+        <v>45821.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>778.2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1233.2</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2086,33 +2086,33 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1233.2</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1226.2</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45810.38541666666</v>
+        <v>45821.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>778.2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1242.8</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2130,33 +2130,33 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1242.8</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1226.2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>16.59999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45810.39583333334</v>
+        <v>45821.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>778.2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1143.6</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2174,33 +2174,33 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1143.6</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1226.2</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>-82.60000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45810.40625</v>
+        <v>45821.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>778.2</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1129.9</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1129.9</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1226.2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-96.30000000000018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45810.41666666666</v>
+        <v>45821.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45810.42708333334</v>
+        <v>45821.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45810.4375</v>
+        <v>45821.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45810.44791666666</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45810.45833333334</v>
+        <v>45821.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45810.46875</v>
+        <v>45821.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45810.47916666666</v>
+        <v>45821.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45810.48958333334</v>
+        <v>45821.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45810.5</v>
+        <v>45821.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45810.51041666666</v>
+        <v>45821.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45810.52083333334</v>
+        <v>45821.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45810.53125</v>
+        <v>45821.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45810.54166666666</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45810.55208333334</v>
+        <v>45821.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45810.5625</v>
+        <v>45821.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45810.57291666666</v>
+        <v>45821.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45810.58333333334</v>
+        <v>45821.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45810.59375</v>
+        <v>45821.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45810.60416666666</v>
+        <v>45821.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45810.61458333334</v>
+        <v>45821.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45810.625</v>
+        <v>45821.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45810.63541666666</v>
+        <v>45821.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45810.64583333334</v>
+        <v>45821.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45810.65625</v>
+        <v>45821.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45810.66666666666</v>
+        <v>45821.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45810.67708333334</v>
+        <v>45821.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45810.6875</v>
+        <v>45821.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45810.69791666666</v>
+        <v>45821.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45810.70833333334</v>
+        <v>45821.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45810.71875</v>
+        <v>45821.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45810.72916666666</v>
+        <v>45821.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45810.73958333334</v>
+        <v>45821.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45810.75</v>
+        <v>45821.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45810.76041666666</v>
+        <v>45821.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45810.77083333334</v>
+        <v>45821.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45810.78125</v>
+        <v>45821.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45810.79166666666</v>
+        <v>45821.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45810.80208333334</v>
+        <v>45821.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45810.8125</v>
+        <v>45821.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45810.82291666666</v>
+        <v>45821.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45810.83333333334</v>
+        <v>45821.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45810.84375</v>
+        <v>45821.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45810.85416666666</v>
+        <v>45821.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45810.86458333334</v>
+        <v>45821.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45810.875</v>
+        <v>45821.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45810.88541666666</v>
+        <v>45821.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45810.89583333334</v>
+        <v>45821.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45810.90625</v>
+        <v>45821.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45810.91666666666</v>
+        <v>45821.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45810.92708333334</v>
+        <v>45821.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45810.9375</v>
+        <v>45821.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45810.94791666666</v>
+        <v>45821.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45810.95833333334</v>
+        <v>45821.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45810.96875</v>
+        <v>45821.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45810.97916666666</v>
+        <v>45821.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45810.98958333334</v>
+        <v>45821.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,890 +469,890 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>643.175</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1194.7</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>513</v>
+        <v>1153.175</v>
       </c>
       <c r="M2">
-        <v>225</v>
+        <v>1294.7</v>
       </c>
       <c r="N2">
-        <v>288</v>
+        <v>-141.5250000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>643.175</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1092.2</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>513</v>
+        <v>1153.175</v>
       </c>
       <c r="M3">
-        <v>225</v>
+        <v>1192.2</v>
       </c>
       <c r="N3">
-        <v>288</v>
+        <v>-39.02500000000009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>643.175</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1191.6</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>513</v>
+        <v>1153.175</v>
       </c>
       <c r="M4">
-        <v>225</v>
+        <v>1291.6</v>
       </c>
       <c r="N4">
-        <v>288</v>
+        <v>-138.425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>643.175</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1213.4</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>513</v>
+        <v>1153.175</v>
       </c>
       <c r="M5">
-        <v>225</v>
+        <v>1313.4</v>
       </c>
       <c r="N5">
-        <v>288</v>
+        <v>-160.2249999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>702.175</v>
       </c>
       <c r="C6">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1087.4</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>528</v>
+        <v>206</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>594</v>
+        <v>1132.175</v>
       </c>
       <c r="M6">
-        <v>488</v>
+        <v>1215.4</v>
       </c>
       <c r="N6">
-        <v>106</v>
+        <v>-83.22500000000014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>702.175</v>
       </c>
       <c r="C7">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1084.1</v>
       </c>
       <c r="H7">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>528</v>
+        <v>206</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>594</v>
+        <v>1132.175</v>
       </c>
       <c r="M7">
-        <v>488</v>
+        <v>1212.1</v>
       </c>
       <c r="N7">
-        <v>106</v>
+        <v>-79.92500000000018</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>702.175</v>
       </c>
       <c r="C8">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1092.9</v>
       </c>
       <c r="H8">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>528</v>
+        <v>206</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>594</v>
+        <v>1132.175</v>
       </c>
       <c r="M8">
-        <v>488</v>
+        <v>1220.9</v>
       </c>
       <c r="N8">
-        <v>106</v>
+        <v>-88.72500000000014</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>702.175</v>
       </c>
       <c r="C9">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1084.5</v>
       </c>
       <c r="H9">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>528</v>
+        <v>206</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>594</v>
+        <v>1132.175</v>
       </c>
       <c r="M9">
-        <v>488</v>
+        <v>1212.5</v>
       </c>
       <c r="N9">
-        <v>106</v>
+        <v>-80.32500000000005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>533.7</v>
       </c>
       <c r="C10">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>655.2</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>491</v>
+        <v>847.7</v>
       </c>
       <c r="M10">
-        <v>444</v>
+        <v>852.2</v>
       </c>
       <c r="N10">
-        <v>47</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>533.7</v>
       </c>
       <c r="C11">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>491</v>
+        <v>847.7</v>
       </c>
       <c r="M11">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="N11">
-        <v>47</v>
+        <v>-19.29999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>533.7</v>
       </c>
       <c r="C12">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>491</v>
+        <v>847.7</v>
       </c>
       <c r="M12">
-        <v>444</v>
+        <v>872</v>
       </c>
       <c r="N12">
-        <v>47</v>
+        <v>-24.29999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>533.7</v>
       </c>
       <c r="C13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>656.7</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>491</v>
+        <v>847.7</v>
       </c>
       <c r="M13">
-        <v>444</v>
+        <v>853.7</v>
       </c>
       <c r="N13">
-        <v>47</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>373.65</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>515</v>
+        <v>694.65</v>
       </c>
       <c r="M14">
-        <v>264</v>
+        <v>700</v>
       </c>
       <c r="N14">
-        <v>251</v>
+        <v>-5.350000000000023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>373.65</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>506.3</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>515</v>
+        <v>694.65</v>
       </c>
       <c r="M15">
-        <v>264</v>
+        <v>719.3</v>
       </c>
       <c r="N15">
-        <v>251</v>
+        <v>-24.64999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>373.65</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>527.6</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>515</v>
+        <v>694.65</v>
       </c>
       <c r="M16">
-        <v>264</v>
+        <v>740.6</v>
       </c>
       <c r="N16">
-        <v>251</v>
+        <v>-45.95000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>373.65</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>542.3</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>515</v>
+        <v>694.65</v>
       </c>
       <c r="M17">
-        <v>264</v>
+        <v>755.3</v>
       </c>
       <c r="N17">
-        <v>251</v>
+        <v>-60.64999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>393.225</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>673.0000000000001</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>495</v>
+        <v>235</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>519</v>
+        <v>680.225</v>
       </c>
       <c r="M18">
-        <v>289</v>
+        <v>797.0000000000001</v>
       </c>
       <c r="N18">
-        <v>230</v>
+        <v>-116.7750000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>393.225</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>705.5000000000001</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>495</v>
+        <v>235</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>519</v>
+        <v>680.225</v>
       </c>
       <c r="M19">
-        <v>289</v>
+        <v>829.5000000000001</v>
       </c>
       <c r="N19">
-        <v>230</v>
+        <v>-149.2750000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>393.225</v>
       </c>
       <c r="C20">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>689.6999999999999</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>495</v>
+        <v>235</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>519</v>
+        <v>680.225</v>
       </c>
       <c r="M20">
-        <v>289</v>
+        <v>813.6999999999999</v>
       </c>
       <c r="N20">
-        <v>230</v>
+        <v>-133.4749999999999</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>393.225</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>722.1999999999999</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>495</v>
+        <v>235</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>519</v>
+        <v>680.225</v>
       </c>
       <c r="M21">
-        <v>289</v>
+        <v>846.1999999999999</v>
       </c>
       <c r="N21">
-        <v>230</v>
+        <v>-165.9749999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>231.725</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>346.1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I22">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>530</v>
+        <v>487.725</v>
       </c>
       <c r="M22">
-        <v>146</v>
+        <v>596.1</v>
       </c>
       <c r="N22">
-        <v>384</v>
+        <v>-108.375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>231.725</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>353.5</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I23">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>530</v>
+        <v>487.725</v>
       </c>
       <c r="M23">
-        <v>146</v>
+        <v>603.5</v>
       </c>
       <c r="N23">
-        <v>384</v>
+        <v>-115.775</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>231.725</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>359.7</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I24">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>530</v>
+        <v>487.725</v>
       </c>
       <c r="M24">
-        <v>146</v>
+        <v>609.7</v>
       </c>
       <c r="N24">
-        <v>384</v>
+        <v>-121.975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>231.725</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,54 +1493,54 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>324.3000000000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I25">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>530</v>
+        <v>487.725</v>
       </c>
       <c r="M25">
-        <v>146</v>
+        <v>574.3000000000001</v>
       </c>
       <c r="N25">
-        <v>384</v>
+        <v>-86.57500000000005</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>94.27499899999998</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>52.10000000000002</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1549,42 +1549,42 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>86.10000000000002</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>269.274999</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-183.174999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>94.27499899999998</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1593,42 +1593,42 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>101.8</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>269.274999</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-167.474999</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>94.27499899999998</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>183.7</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1637,42 +1637,42 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>217.7</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>269.274999</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-51.57499899999999</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>94.27499899999998</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1681,42 +1681,42 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>269.274999</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-4.27499899999998</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>505.25</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>821.1999999999999</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1033.2</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1067.25</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-34.05000000000018</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>505.25</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>858.4999999999999</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1070.5</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1067.25</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>505.25</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>947.0999999999999</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1159.1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1067.25</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>91.84999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>505.25</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>966.0999999999999</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1178.1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1067.25</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>110.8499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>373.325</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>860.7</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1338.7</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1223.325</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>115.375</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>373.325</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>777.4000000000001</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1255.4</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1223.325</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>32.07500000000005</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>373.325</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>860.2</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1338.2</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1223.325</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>114.875</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>373.325</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>889.5</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1367.5</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1223.325</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>144.175</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>759.4000000000001</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1354.3</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1505.3</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1559.4</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-54.10000000000014</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>759.4000000000001</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1376.5</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1527.5</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1559.4</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>-31.90000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>759.4000000000001</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1438</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1589</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1559.4</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>29.59999999999991</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>759.4000000000001</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1373.2</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1524.2</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1559.4</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-35.20000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B2">
-        <v>643.175</v>
+        <v>222.349999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1194.7</v>
+        <v>829.6999999999998</v>
       </c>
       <c r="H2">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1153.175</v>
+        <v>818.349999</v>
       </c>
       <c r="M2">
-        <v>1294.7</v>
+        <v>970.6999999999998</v>
       </c>
       <c r="N2">
-        <v>-141.5250000000001</v>
+        <v>-152.3500009999998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
       <c r="B3">
-        <v>643.175</v>
+        <v>222.349999</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1092.2</v>
+        <v>718.5</v>
       </c>
       <c r="H3">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1153.175</v>
+        <v>818.349999</v>
       </c>
       <c r="M3">
-        <v>1192.2</v>
+        <v>859.5</v>
       </c>
       <c r="N3">
-        <v>-39.02500000000009</v>
+        <v>-41.15000099999997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
       <c r="B4">
-        <v>643.175</v>
+        <v>222.349999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1191.6</v>
+        <v>680.6999999999998</v>
       </c>
       <c r="H4">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1153.175</v>
+        <v>818.349999</v>
       </c>
       <c r="M4">
-        <v>1291.6</v>
+        <v>821.6999999999998</v>
       </c>
       <c r="N4">
-        <v>-138.425</v>
+        <v>-3.350000999999793</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
       <c r="B5">
-        <v>643.175</v>
+        <v>222.349999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,42 +613,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1213.4</v>
+        <v>697.0999999999999</v>
       </c>
       <c r="H5">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1153.175</v>
+        <v>818.349999</v>
       </c>
       <c r="M5">
-        <v>1313.4</v>
+        <v>838.0999999999999</v>
       </c>
       <c r="N5">
-        <v>-160.2249999999999</v>
+        <v>-19.75000099999988</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
       <c r="B6">
-        <v>702.175</v>
+        <v>207.875</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1087.4</v>
+        <v>687</v>
       </c>
       <c r="H6">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1132.175</v>
+        <v>792.875</v>
       </c>
       <c r="M6">
-        <v>1215.4</v>
+        <v>933</v>
       </c>
       <c r="N6">
-        <v>-83.22500000000014</v>
+        <v>-140.125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
       <c r="B7">
-        <v>702.175</v>
+        <v>207.875</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1084.1</v>
+        <v>696.9000000000001</v>
       </c>
       <c r="H7">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1132.175</v>
+        <v>792.875</v>
       </c>
       <c r="M7">
-        <v>1212.1</v>
+        <v>942.9000000000001</v>
       </c>
       <c r="N7">
-        <v>-79.92500000000018</v>
+        <v>-150.0250000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
       <c r="B8">
-        <v>702.175</v>
+        <v>207.875</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1092.9</v>
+        <v>717.4000000000001</v>
       </c>
       <c r="H8">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1132.175</v>
+        <v>792.875</v>
       </c>
       <c r="M8">
-        <v>1220.9</v>
+        <v>963.4000000000001</v>
       </c>
       <c r="N8">
-        <v>-88.72500000000014</v>
+        <v>-170.5250000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
       <c r="B9">
-        <v>702.175</v>
+        <v>207.875</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,42 +789,42 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1084.5</v>
+        <v>676.4000000000001</v>
       </c>
       <c r="H9">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1132.175</v>
+        <v>792.875</v>
       </c>
       <c r="M9">
-        <v>1212.5</v>
+        <v>922.4000000000001</v>
       </c>
       <c r="N9">
-        <v>-80.32500000000005</v>
+        <v>-129.5250000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B10">
-        <v>533.7</v>
+        <v>151.474999</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>655.2</v>
+        <v>853.7</v>
       </c>
       <c r="H10">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>847.7</v>
+        <v>692.474999</v>
       </c>
       <c r="M10">
-        <v>852.2</v>
+        <v>1048.7</v>
       </c>
       <c r="N10">
-        <v>-4.5</v>
+        <v>-356.225001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
       <c r="B11">
-        <v>533.7</v>
+        <v>151.474999</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>670</v>
+        <v>816</v>
       </c>
       <c r="H11">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>847.7</v>
+        <v>692.474999</v>
       </c>
       <c r="M11">
-        <v>867</v>
+        <v>1011</v>
       </c>
       <c r="N11">
-        <v>-19.29999999999995</v>
+        <v>-318.525001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B12">
-        <v>533.7</v>
+        <v>151.474999</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>675</v>
+        <v>834.5</v>
       </c>
       <c r="H12">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>847.7</v>
+        <v>692.474999</v>
       </c>
       <c r="M12">
-        <v>872</v>
+        <v>1029.5</v>
       </c>
       <c r="N12">
-        <v>-24.29999999999995</v>
+        <v>-337.025001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
       <c r="B13">
-        <v>533.7</v>
+        <v>151.474999</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>656.7</v>
+        <v>822.8</v>
       </c>
       <c r="H13">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>847.7</v>
+        <v>692.474999</v>
       </c>
       <c r="M13">
-        <v>853.7</v>
+        <v>1017.8</v>
       </c>
       <c r="N13">
-        <v>-6</v>
+        <v>-325.3250009999999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
       <c r="B14">
-        <v>373.65</v>
+        <v>211.125</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>487</v>
+        <v>676.5</v>
       </c>
       <c r="H14">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>694.65</v>
+        <v>649.125</v>
       </c>
       <c r="M14">
-        <v>700</v>
+        <v>832.5</v>
       </c>
       <c r="N14">
-        <v>-5.350000000000023</v>
+        <v>-183.375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
       <c r="B15">
-        <v>373.65</v>
+        <v>211.125</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>506.3</v>
+        <v>680.0999999999999</v>
       </c>
       <c r="H15">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>694.65</v>
+        <v>649.125</v>
       </c>
       <c r="M15">
-        <v>719.3</v>
+        <v>836.0999999999999</v>
       </c>
       <c r="N15">
-        <v>-24.64999999999998</v>
+        <v>-186.9749999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B16">
-        <v>373.65</v>
+        <v>211.125</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>527.6</v>
+        <v>673.7</v>
       </c>
       <c r="H16">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>694.65</v>
+        <v>649.125</v>
       </c>
       <c r="M16">
-        <v>740.6</v>
+        <v>829.7</v>
       </c>
       <c r="N16">
-        <v>-45.95000000000005</v>
+        <v>-180.575</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
       <c r="B17">
-        <v>373.65</v>
+        <v>211.125</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>542.3</v>
+        <v>629.7</v>
       </c>
       <c r="H17">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>694.65</v>
+        <v>649.125</v>
       </c>
       <c r="M17">
-        <v>755.3</v>
+        <v>785.7</v>
       </c>
       <c r="N17">
-        <v>-60.64999999999998</v>
+        <v>-136.575</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
       <c r="B18">
-        <v>393.225</v>
+        <v>49.79999999999995</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>20.10000000000002</v>
       </c>
       <c r="G18">
-        <v>673.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J18">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>680.225</v>
+        <v>308.9</v>
       </c>
       <c r="M18">
-        <v>797.0000000000001</v>
+        <v>383</v>
       </c>
       <c r="N18">
-        <v>-116.7750000000001</v>
+        <v>-74.10000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
       <c r="B19">
-        <v>393.225</v>
+        <v>49.79999999999995</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>705.5000000000001</v>
+        <v>21.5</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J19">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>680.225</v>
+        <v>288.8</v>
       </c>
       <c r="M19">
-        <v>829.5000000000001</v>
+        <v>404.5</v>
       </c>
       <c r="N19">
-        <v>-149.2750000000001</v>
+        <v>-115.7</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
       <c r="B20">
-        <v>393.225</v>
+        <v>49.79999999999995</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>689.6999999999999</v>
+        <v>52.10000000000002</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J20">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>680.225</v>
+        <v>288.8</v>
       </c>
       <c r="M20">
-        <v>813.6999999999999</v>
+        <v>435.1</v>
       </c>
       <c r="N20">
-        <v>-133.4749999999999</v>
+        <v>-146.3000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
       <c r="B21">
-        <v>393.225</v>
+        <v>49.79999999999995</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>722.1999999999999</v>
+        <v>61.60000000000002</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J21">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>680.225</v>
+        <v>288.8</v>
       </c>
       <c r="M21">
-        <v>846.1999999999999</v>
+        <v>444.6</v>
       </c>
       <c r="N21">
-        <v>-165.9749999999999</v>
+        <v>-155.8000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
       <c r="B22">
-        <v>231.725</v>
+        <v>13.89999999999998</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>352.5</v>
       </c>
       <c r="G22">
-        <v>346.1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J22">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>487.725</v>
+        <v>478.4</v>
       </c>
       <c r="M22">
-        <v>596.1</v>
+        <v>500</v>
       </c>
       <c r="N22">
-        <v>-108.375</v>
+        <v>-21.60000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
       <c r="B23">
-        <v>231.725</v>
+        <v>13.89999999999998</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>282.2</v>
       </c>
       <c r="G23">
-        <v>353.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J23">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>487.725</v>
+        <v>408.1</v>
       </c>
       <c r="M23">
-        <v>603.5</v>
+        <v>500</v>
       </c>
       <c r="N23">
-        <v>-115.775</v>
+        <v>-91.89999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
       <c r="B24">
-        <v>231.725</v>
+        <v>13.89999999999998</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>288.5</v>
       </c>
       <c r="G24">
-        <v>359.7</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J24">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>487.725</v>
+        <v>414.4</v>
       </c>
       <c r="M24">
-        <v>609.7</v>
+        <v>500</v>
       </c>
       <c r="N24">
-        <v>-121.975</v>
+        <v>-85.60000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
       <c r="B25">
-        <v>231.725</v>
+        <v>13.89999999999998</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,54 +1493,54 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>335.5</v>
       </c>
       <c r="G25">
-        <v>324.3000000000001</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J25">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>487.725</v>
+        <v>461.4</v>
       </c>
       <c r="M25">
-        <v>574.3000000000001</v>
+        <v>500</v>
       </c>
       <c r="N25">
-        <v>-86.57500000000005</v>
+        <v>-38.60000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>94.27499899999998</v>
+        <v>231.225</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F26">
-        <v>52.10000000000002</v>
+        <v>521.3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1549,42 +1549,42 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="J26">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>86.10000000000002</v>
+        <v>550.3</v>
       </c>
       <c r="M26">
-        <v>269.274999</v>
+        <v>569.2249999999999</v>
       </c>
       <c r="N26">
-        <v>-183.174999</v>
+        <v>-18.92499999999995</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>94.27499899999998</v>
+        <v>231.225</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>67.80000000000001</v>
+        <v>527.5999999999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1593,42 +1593,42 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="J27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>101.8</v>
+        <v>556.5999999999999</v>
       </c>
       <c r="M27">
-        <v>269.274999</v>
+        <v>569.2249999999999</v>
       </c>
       <c r="N27">
-        <v>-167.474999</v>
+        <v>-12.625</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>94.27499899999998</v>
+        <v>231.225</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>183.7</v>
+        <v>551.1999999999999</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1637,42 +1637,42 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="J28">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>217.7</v>
+        <v>580.1999999999999</v>
       </c>
       <c r="M28">
-        <v>269.274999</v>
+        <v>569.2249999999999</v>
       </c>
       <c r="N28">
-        <v>-51.57499899999999</v>
+        <v>10.97500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>94.27499899999998</v>
+        <v>231.225</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F29">
-        <v>231</v>
+        <v>586.8999999999999</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1681,42 +1681,42 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="J29">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>265</v>
+        <v>615.8999999999999</v>
       </c>
       <c r="M29">
-        <v>269.274999</v>
+        <v>569.2249999999999</v>
       </c>
       <c r="N29">
-        <v>-4.27499899999998</v>
+        <v>46.67499999999995</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>505.25</v>
+        <v>492.4499999999999</v>
       </c>
       <c r="D30">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>821.1999999999999</v>
+        <v>1013.4</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L30">
-        <v>1033.2</v>
+        <v>1029.4</v>
       </c>
       <c r="M30">
-        <v>1067.25</v>
+        <v>1049.45</v>
       </c>
       <c r="N30">
-        <v>-34.05000000000018</v>
+        <v>-20.04999999999973</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>505.25</v>
+        <v>492.4499999999999</v>
       </c>
       <c r="D31">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>858.4999999999999</v>
+        <v>1116.8</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L31">
-        <v>1070.5</v>
+        <v>1132.8</v>
       </c>
       <c r="M31">
-        <v>1067.25</v>
+        <v>1049.45</v>
       </c>
       <c r="N31">
-        <v>3.25</v>
+        <v>83.35000000000014</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>505.25</v>
+        <v>492.4499999999999</v>
       </c>
       <c r="D32">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>947.0999999999999</v>
+        <v>1173.3</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L32">
-        <v>1159.1</v>
+        <v>1189.3</v>
       </c>
       <c r="M32">
-        <v>1067.25</v>
+        <v>1049.45</v>
       </c>
       <c r="N32">
-        <v>91.84999999999991</v>
+        <v>139.8500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>505.25</v>
+        <v>492.4499999999999</v>
       </c>
       <c r="D33">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>966.0999999999999</v>
+        <v>1251.6</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L33">
-        <v>1178.1</v>
+        <v>1267.6</v>
       </c>
       <c r="M33">
-        <v>1067.25</v>
+        <v>1049.45</v>
       </c>
       <c r="N33">
-        <v>110.8499999999999</v>
+        <v>218.1500000000003</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>373.325</v>
+        <v>1079.975</v>
       </c>
       <c r="D34">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>860.7</v>
+        <v>1350.6</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="L34">
-        <v>1338.7</v>
+        <v>1370.6</v>
       </c>
       <c r="M34">
-        <v>1223.325</v>
+        <v>1453.975</v>
       </c>
       <c r="N34">
-        <v>115.375</v>
+        <v>-83.375</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>373.325</v>
+        <v>1079.975</v>
       </c>
       <c r="D35">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>777.4000000000001</v>
+        <v>1380.3</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="L35">
-        <v>1255.4</v>
+        <v>1400.3</v>
       </c>
       <c r="M35">
-        <v>1223.325</v>
+        <v>1453.975</v>
       </c>
       <c r="N35">
-        <v>32.07500000000005</v>
+        <v>-53.67499999999995</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>373.325</v>
+        <v>1079.975</v>
       </c>
       <c r="D36">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>860.2</v>
+        <v>1518.1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="L36">
-        <v>1338.2</v>
+        <v>1538.1</v>
       </c>
       <c r="M36">
-        <v>1223.325</v>
+        <v>1453.975</v>
       </c>
       <c r="N36">
-        <v>114.875</v>
+        <v>84.125</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>373.325</v>
+        <v>1079.975</v>
       </c>
       <c r="D37">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>889.5</v>
+        <v>1636.5</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="L37">
-        <v>1367.5</v>
+        <v>1656.5</v>
       </c>
       <c r="M37">
-        <v>1223.325</v>
+        <v>1453.975</v>
       </c>
       <c r="N37">
-        <v>144.175</v>
+        <v>202.5250000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>759.4000000000001</v>
+        <v>1219.5</v>
       </c>
       <c r="D38">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1354.3</v>
+        <v>1327.1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K38">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1505.3</v>
+        <v>1383.1</v>
       </c>
       <c r="M38">
-        <v>1559.4</v>
+        <v>1382.5</v>
       </c>
       <c r="N38">
-        <v>-54.10000000000014</v>
+        <v>0.6000000000001364</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>759.4000000000001</v>
+        <v>1219.5</v>
       </c>
       <c r="D39">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1376.5</v>
+        <v>1361.6</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K39">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1527.5</v>
+        <v>1417.6</v>
       </c>
       <c r="M39">
-        <v>1559.4</v>
+        <v>1382.5</v>
       </c>
       <c r="N39">
-        <v>-31.90000000000009</v>
+        <v>35.10000000000014</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>759.4000000000001</v>
+        <v>1219.5</v>
       </c>
       <c r="D40">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1438</v>
+        <v>1374.6</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K40">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1589</v>
+        <v>1430.6</v>
       </c>
       <c r="M40">
-        <v>1559.4</v>
+        <v>1382.5</v>
       </c>
       <c r="N40">
-        <v>29.59999999999991</v>
+        <v>48.10000000000014</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>759.4000000000001</v>
+        <v>1219.5</v>
       </c>
       <c r="D41">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1373.2</v>
+        <v>1298.2</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,42 +2209,42 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K41">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1524.2</v>
+        <v>1354.2</v>
       </c>
       <c r="M41">
-        <v>1559.4</v>
+        <v>1382.5</v>
       </c>
       <c r="N41">
-        <v>-35.20000000000005</v>
+        <v>-28.29999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45825.41666666666</v>
+        <v>45828.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>710.5500000000001</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>725.1999999999999</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2253,42 +2253,42 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>967.1999999999999</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>749.5500000000001</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>217.6499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45825.42708333334</v>
+        <v>45828.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>710.5500000000001</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>659.4000000000001</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2297,42 +2297,42 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>901.4000000000001</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>749.5500000000001</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>151.85</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45825.4375</v>
+        <v>45828.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>710.5500000000001</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>527.9</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2341,42 +2341,42 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>769.9</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>749.5500000000001</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>20.34999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45825.44791666666</v>
+        <v>45828.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>710.5500000000001</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>483.1999999999999</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2385,27 +2385,27 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>725.1999999999999</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>749.5500000000001</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>-24.35000000000014</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45825.45833333334</v>
+        <v>45828.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>624.7</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2441,15 +2441,15 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>624.7</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>-624.7</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45825.46875</v>
+        <v>45828.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>566.5</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2485,15 +2485,15 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>566.5</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>-566.5</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45825.47916666666</v>
+        <v>45828.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45825.48958333334</v>
+        <v>45828.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45825.5</v>
+        <v>45828.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45825.51041666666</v>
+        <v>45828.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45825.52083333334</v>
+        <v>45828.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45825.53125</v>
+        <v>45828.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45825.54166666666</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45825.55208333334</v>
+        <v>45828.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45825.5625</v>
+        <v>45828.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45825.57291666666</v>
+        <v>45828.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45825.58333333334</v>
+        <v>45828.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45825.59375</v>
+        <v>45828.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45825.60416666666</v>
+        <v>45828.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45825.61458333334</v>
+        <v>45828.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45825.625</v>
+        <v>45828.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45825.63541666666</v>
+        <v>45828.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45825.64583333334</v>
+        <v>45828.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45825.65625</v>
+        <v>45828.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45825.66666666666</v>
+        <v>45828.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45825.67708333334</v>
+        <v>45828.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45825.6875</v>
+        <v>45828.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45825.69791666666</v>
+        <v>45828.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45825.70833333334</v>
+        <v>45828.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45825.71875</v>
+        <v>45828.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45825.72916666666</v>
+        <v>45828.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45825.73958333334</v>
+        <v>45828.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45825.75</v>
+        <v>45828.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45825.76041666666</v>
+        <v>45828.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45825.77083333334</v>
+        <v>45828.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45825.78125</v>
+        <v>45828.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45825.79166666666</v>
+        <v>45828.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45825.80208333334</v>
+        <v>45828.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45825.8125</v>
+        <v>45828.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45825.82291666666</v>
+        <v>45828.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45825.83333333334</v>
+        <v>45828.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45825.84375</v>
+        <v>45828.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45825.85416666666</v>
+        <v>45828.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45825.86458333334</v>
+        <v>45828.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45825.875</v>
+        <v>45828.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45825.88541666666</v>
+        <v>45828.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45825.89583333334</v>
+        <v>45828.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45825.90625</v>
+        <v>45828.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45825.91666666666</v>
+        <v>45828.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45825.92708333334</v>
+        <v>45828.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45825.9375</v>
+        <v>45828.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45825.94791666666</v>
+        <v>45828.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45825.95833333334</v>
+        <v>45828.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45825.96875</v>
+        <v>45828.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45825.97916666666</v>
+        <v>45828.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45825.98958333334</v>
+        <v>45828.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45828</v>
+        <v>45859</v>
       </c>
       <c r="B2">
-        <v>222.349999</v>
+        <v>849.8499999999999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>829.6999999999998</v>
+        <v>1646.2</v>
       </c>
       <c r="H2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>388</v>
+        <v>576</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>818.349999</v>
+        <v>1648.85</v>
       </c>
       <c r="M2">
-        <v>970.6999999999998</v>
+        <v>1786.2</v>
       </c>
       <c r="N2">
-        <v>-152.3500009999998</v>
+        <v>-137.3499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
       <c r="B3">
-        <v>222.349999</v>
+        <v>849.8499999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>718.5</v>
+        <v>1582.2</v>
       </c>
       <c r="H3">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>388</v>
+        <v>576</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>818.349999</v>
+        <v>1648.85</v>
       </c>
       <c r="M3">
-        <v>859.5</v>
+        <v>1722.2</v>
       </c>
       <c r="N3">
-        <v>-41.15000099999997</v>
+        <v>-73.34999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
       <c r="B4">
-        <v>222.349999</v>
+        <v>849.8499999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>680.6999999999998</v>
+        <v>1632.8</v>
       </c>
       <c r="H4">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>388</v>
+        <v>576</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>818.349999</v>
+        <v>1648.85</v>
       </c>
       <c r="M4">
-        <v>821.6999999999998</v>
+        <v>1772.8</v>
       </c>
       <c r="N4">
-        <v>-3.350000999999793</v>
+        <v>-123.9500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
       <c r="B5">
-        <v>222.349999</v>
+        <v>849.8499999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,42 +613,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>697.0999999999999</v>
+        <v>1584.1</v>
       </c>
       <c r="H5">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>388</v>
+        <v>576</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>818.349999</v>
+        <v>1648.85</v>
       </c>
       <c r="M5">
-        <v>838.0999999999999</v>
+        <v>1724.1</v>
       </c>
       <c r="N5">
-        <v>-19.75000099999988</v>
+        <v>-75.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
       <c r="B6">
-        <v>207.875</v>
+        <v>939.875</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>687</v>
+        <v>1519.4</v>
       </c>
       <c r="H6">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>385</v>
+        <v>531</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>792.875</v>
+        <v>1616.875</v>
       </c>
       <c r="M6">
-        <v>933</v>
+        <v>1727.4</v>
       </c>
       <c r="N6">
-        <v>-140.125</v>
+        <v>-110.5250000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
       <c r="B7">
-        <v>207.875</v>
+        <v>939.875</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>696.9000000000001</v>
+        <v>1484.7</v>
       </c>
       <c r="H7">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>385</v>
+        <v>531</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>792.875</v>
+        <v>1616.875</v>
       </c>
       <c r="M7">
-        <v>942.9000000000001</v>
+        <v>1692.7</v>
       </c>
       <c r="N7">
-        <v>-150.0250000000001</v>
+        <v>-75.82499999999982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
       <c r="B8">
-        <v>207.875</v>
+        <v>939.875</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>717.4000000000001</v>
+        <v>1490.3</v>
       </c>
       <c r="H8">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>385</v>
+        <v>531</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>792.875</v>
+        <v>1616.875</v>
       </c>
       <c r="M8">
-        <v>963.4000000000001</v>
+        <v>1698.3</v>
       </c>
       <c r="N8">
-        <v>-170.5250000000001</v>
+        <v>-81.42500000000018</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
       <c r="B9">
-        <v>207.875</v>
+        <v>939.875</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,42 +789,42 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>676.4000000000001</v>
+        <v>1474.2</v>
       </c>
       <c r="H9">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>385</v>
+        <v>531</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>792.875</v>
+        <v>1616.875</v>
       </c>
       <c r="M9">
-        <v>922.4000000000001</v>
+        <v>1682.2</v>
       </c>
       <c r="N9">
-        <v>-129.5250000000001</v>
+        <v>-65.32499999999982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
       <c r="B10">
-        <v>151.474999</v>
+        <v>786.625</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>853.7</v>
+        <v>1405.3</v>
       </c>
       <c r="H10">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>692.474999</v>
+        <v>1459.625</v>
       </c>
       <c r="M10">
-        <v>1048.7</v>
+        <v>1596.3</v>
       </c>
       <c r="N10">
-        <v>-356.225001</v>
+        <v>-136.6750000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
       <c r="B11">
-        <v>151.474999</v>
+        <v>786.625</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>816</v>
+        <v>1361.1</v>
       </c>
       <c r="H11">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>692.474999</v>
+        <v>1459.625</v>
       </c>
       <c r="M11">
-        <v>1011</v>
+        <v>1552.1</v>
       </c>
       <c r="N11">
-        <v>-318.525001</v>
+        <v>-92.47499999999991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
       <c r="B12">
-        <v>151.474999</v>
+        <v>786.625</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>834.5</v>
+        <v>1326.6</v>
       </c>
       <c r="H12">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>692.474999</v>
+        <v>1459.625</v>
       </c>
       <c r="M12">
-        <v>1029.5</v>
+        <v>1517.6</v>
       </c>
       <c r="N12">
-        <v>-337.025001</v>
+        <v>-57.97499999999991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
       <c r="B13">
-        <v>151.474999</v>
+        <v>786.625</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>822.8</v>
+        <v>1278.8</v>
       </c>
       <c r="H13">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>692.474999</v>
+        <v>1459.625</v>
       </c>
       <c r="M13">
-        <v>1017.8</v>
+        <v>1469.8</v>
       </c>
       <c r="N13">
-        <v>-325.3250009999999</v>
+        <v>-10.17500000000018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
       <c r="B14">
-        <v>211.125</v>
+        <v>866.3000000000002</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>676.5</v>
+        <v>1427.6</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>649.125</v>
+        <v>1482.3</v>
       </c>
       <c r="M14">
-        <v>832.5</v>
+        <v>1588.6</v>
       </c>
       <c r="N14">
-        <v>-183.375</v>
+        <v>-106.3000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
       <c r="B15">
-        <v>211.125</v>
+        <v>866.3000000000002</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>680.0999999999999</v>
+        <v>1398.2</v>
       </c>
       <c r="H15">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>649.125</v>
+        <v>1482.3</v>
       </c>
       <c r="M15">
-        <v>836.0999999999999</v>
+        <v>1559.2</v>
       </c>
       <c r="N15">
-        <v>-186.9749999999999</v>
+        <v>-76.89999999999964</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
       <c r="B16">
-        <v>211.125</v>
+        <v>866.3000000000002</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>673.7</v>
+        <v>1365.7</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>649.125</v>
+        <v>1482.3</v>
       </c>
       <c r="M16">
-        <v>829.7</v>
+        <v>1526.7</v>
       </c>
       <c r="N16">
-        <v>-180.575</v>
+        <v>-44.39999999999964</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
       <c r="B17">
-        <v>211.125</v>
+        <v>866.3000000000002</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>629.7</v>
+        <v>1359.3</v>
       </c>
       <c r="H17">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>649.125</v>
+        <v>1482.3</v>
       </c>
       <c r="M17">
-        <v>785.7</v>
+        <v>1520.3</v>
       </c>
       <c r="N17">
-        <v>-136.575</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
       <c r="B18">
-        <v>49.79999999999995</v>
+        <v>811.6500000000001</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="F18">
-        <v>20.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1180.3</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="J18">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>308.9</v>
+        <v>1397.65</v>
       </c>
       <c r="M18">
-        <v>383</v>
+        <v>1350.3</v>
       </c>
       <c r="N18">
-        <v>-74.10000000000002</v>
+        <v>47.34999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
       <c r="B19">
-        <v>49.79999999999995</v>
+        <v>811.6500000000001</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21.5</v>
+        <v>1228.4</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="J19">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>288.8</v>
+        <v>1397.65</v>
       </c>
       <c r="M19">
-        <v>404.5</v>
+        <v>1398.4</v>
       </c>
       <c r="N19">
-        <v>-115.7</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
       <c r="B20">
-        <v>49.79999999999995</v>
+        <v>811.6500000000001</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.10000000000002</v>
+        <v>1249.9</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="J20">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>288.8</v>
+        <v>1397.65</v>
       </c>
       <c r="M20">
-        <v>435.1</v>
+        <v>1419.9</v>
       </c>
       <c r="N20">
-        <v>-146.3000000000001</v>
+        <v>-22.25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
       <c r="B21">
-        <v>49.79999999999995</v>
+        <v>811.6500000000001</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.60000000000002</v>
+        <v>1281.9</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="J21">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>288.8</v>
+        <v>1397.65</v>
       </c>
       <c r="M21">
-        <v>444.6</v>
+        <v>1451.9</v>
       </c>
       <c r="N21">
-        <v>-155.8000000000001</v>
+        <v>-54.25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
       <c r="B22">
-        <v>13.89999999999998</v>
+        <v>638.625</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="F22">
-        <v>352.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1177.1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>478.4</v>
+        <v>1167.625</v>
       </c>
       <c r="M22">
-        <v>500</v>
+        <v>1239.1</v>
       </c>
       <c r="N22">
-        <v>-21.60000000000002</v>
+        <v>-71.47499999999991</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
       <c r="B23">
-        <v>13.89999999999998</v>
+        <v>638.625</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="F23">
-        <v>282.2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1222.6</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>408.1</v>
+        <v>1167.625</v>
       </c>
       <c r="M23">
-        <v>500</v>
+        <v>1284.6</v>
       </c>
       <c r="N23">
-        <v>-91.89999999999998</v>
+        <v>-116.9749999999999</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
       <c r="B24">
-        <v>13.89999999999998</v>
+        <v>638.625</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>288.5</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1193.4</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>414.4</v>
+        <v>1167.625</v>
       </c>
       <c r="M24">
-        <v>500</v>
+        <v>1255.4</v>
       </c>
       <c r="N24">
-        <v>-85.60000000000002</v>
+        <v>-87.77499999999986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
       <c r="B25">
-        <v>13.89999999999998</v>
+        <v>638.625</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,406 +1493,406 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="F25">
-        <v>335.5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1173.8</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>461.4</v>
+        <v>1167.625</v>
       </c>
       <c r="M25">
-        <v>500</v>
+        <v>1235.8</v>
       </c>
       <c r="N25">
-        <v>-38.60000000000002</v>
+        <v>-68.17499999999995</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="C26">
-        <v>231.225</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="F26">
-        <v>521.3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>777.7</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>550.3</v>
+        <v>722.2</v>
       </c>
       <c r="M26">
-        <v>569.2249999999999</v>
+        <v>1061.7</v>
       </c>
       <c r="N26">
-        <v>-18.92499999999995</v>
+        <v>-339.5</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="C27">
-        <v>231.225</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="F27">
-        <v>527.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>588.8</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>556.5999999999999</v>
+        <v>722.2</v>
       </c>
       <c r="M27">
-        <v>569.2249999999999</v>
+        <v>872.8</v>
       </c>
       <c r="N27">
-        <v>-12.625</v>
+        <v>-150.5999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="C28">
-        <v>231.225</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="F28">
-        <v>551.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>580.1999999999999</v>
+        <v>722.2</v>
       </c>
       <c r="M28">
-        <v>569.2249999999999</v>
+        <v>697</v>
       </c>
       <c r="N28">
-        <v>10.97500000000002</v>
+        <v>25.20000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="C29">
-        <v>231.225</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="F29">
-        <v>586.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>615.8999999999999</v>
+        <v>722.2</v>
       </c>
       <c r="M29">
-        <v>569.2249999999999</v>
+        <v>714</v>
       </c>
       <c r="N29">
-        <v>46.67499999999995</v>
+        <v>8.200000000000045</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>106.599999</v>
       </c>
       <c r="C30">
-        <v>492.4499999999999</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="F30">
-        <v>1013.4</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>295.1999999999999</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K30">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1029.4</v>
+        <v>276.599999</v>
       </c>
       <c r="M30">
-        <v>1049.45</v>
+        <v>594.1999999999999</v>
       </c>
       <c r="N30">
-        <v>-20.04999999999973</v>
+        <v>-317.6000009999999</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>106.599999</v>
       </c>
       <c r="C31">
-        <v>492.4499999999999</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="F31">
-        <v>1116.8</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>183.9</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K31">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1132.8</v>
+        <v>276.599999</v>
       </c>
       <c r="M31">
-        <v>1049.45</v>
+        <v>482.9</v>
       </c>
       <c r="N31">
-        <v>83.35000000000014</v>
+        <v>-206.300001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>106.599999</v>
       </c>
       <c r="C32">
-        <v>492.4499999999999</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="F32">
-        <v>1173.3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>56.99999999999994</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K32">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1189.3</v>
+        <v>276.599999</v>
       </c>
       <c r="M32">
-        <v>1049.45</v>
+        <v>355.9999999999999</v>
       </c>
       <c r="N32">
-        <v>139.8500000000001</v>
+        <v>-79.40000099999992</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>106.599999</v>
       </c>
       <c r="C33">
-        <v>492.4499999999999</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="F33">
-        <v>1251.6</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>28.99999999999994</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K33">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1267.6</v>
+        <v>276.599999</v>
       </c>
       <c r="M33">
-        <v>1049.45</v>
+        <v>327.9999999999999</v>
       </c>
       <c r="N33">
-        <v>218.1500000000003</v>
+        <v>-51.40000099999992</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1079.975</v>
+        <v>653.45</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F34">
-        <v>1350.6</v>
+        <v>907.2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>1370.6</v>
+        <v>907.2</v>
       </c>
       <c r="M34">
-        <v>1453.975</v>
+        <v>1012.45</v>
       </c>
       <c r="N34">
-        <v>-83.375</v>
+        <v>-105.25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1079.975</v>
+        <v>653.45</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F35">
-        <v>1380.3</v>
+        <v>889.3</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>1400.3</v>
+        <v>889.3</v>
       </c>
       <c r="M35">
-        <v>1453.975</v>
+        <v>1012.45</v>
       </c>
       <c r="N35">
-        <v>-53.67499999999995</v>
+        <v>-123.1500000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1079.975</v>
+        <v>653.45</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F36">
-        <v>1518.1</v>
+        <v>1091</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>1538.1</v>
+        <v>1091</v>
       </c>
       <c r="M36">
-        <v>1453.975</v>
+        <v>1012.45</v>
       </c>
       <c r="N36">
-        <v>84.125</v>
+        <v>78.54999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1079.975</v>
+        <v>653.45</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F37">
-        <v>1636.5</v>
+        <v>1116</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>1656.5</v>
+        <v>1116</v>
       </c>
       <c r="M37">
-        <v>1453.975</v>
+        <v>1012.45</v>
       </c>
       <c r="N37">
-        <v>202.5250000000001</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1219.5</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1327.1</v>
+        <v>1133.6</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1383.1</v>
+        <v>1133.6</v>
       </c>
       <c r="M38">
-        <v>1382.5</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>0.6000000000001364</v>
+        <v>1133.6</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45828.38541666666</v>
+        <v>45859.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1219.5</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1361.6</v>
+        <v>1218.5</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1417.6</v>
+        <v>1218.5</v>
       </c>
       <c r="M39">
-        <v>1382.5</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>35.10000000000014</v>
+        <v>1218.5</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45828.39583333334</v>
+        <v>45859.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1219.5</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1374.6</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1430.6</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1382.5</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>48.10000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45828.40625</v>
+        <v>45859.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1219.5</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1298.2</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,42 +2209,42 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1354.2</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1382.5</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-28.29999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45828.41666666666</v>
+        <v>45859.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>710.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>725.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2253,42 +2253,42 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>967.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>749.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>217.6499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45828.42708333334</v>
+        <v>45859.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>710.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>659.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2297,42 +2297,42 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>901.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>749.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>151.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45828.4375</v>
+        <v>45859.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>710.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>527.9</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2341,42 +2341,42 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>769.9</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>749.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>20.34999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45828.44791666666</v>
+        <v>45859.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>710.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>483.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2385,27 +2385,27 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>725.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>749.5500000000001</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-24.35000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45828.45833333334</v>
+        <v>45859.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>624.7</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2441,15 +2441,15 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>624.7</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>-624.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45828.46875</v>
+        <v>45859.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>566.5</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2485,15 +2485,15 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>566.5</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>-566.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45828.47916666666</v>
+        <v>45859.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45828.48958333334</v>
+        <v>45859.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45828.5</v>
+        <v>45859.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45828.51041666666</v>
+        <v>45859.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45828.52083333334</v>
+        <v>45859.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45828.53125</v>
+        <v>45859.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45828.54166666666</v>
+        <v>45859.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45828.55208333334</v>
+        <v>45859.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45828.5625</v>
+        <v>45859.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45828.57291666666</v>
+        <v>45859.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45828.58333333334</v>
+        <v>45859.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45828.59375</v>
+        <v>45859.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45828.60416666666</v>
+        <v>45859.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45828.61458333334</v>
+        <v>45859.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45828.625</v>
+        <v>45859.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45828.63541666666</v>
+        <v>45859.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45828.64583333334</v>
+        <v>45859.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45828.65625</v>
+        <v>45859.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45828.66666666666</v>
+        <v>45859.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45828.67708333334</v>
+        <v>45859.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45828.6875</v>
+        <v>45859.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45828.69791666666</v>
+        <v>45859.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45828.70833333334</v>
+        <v>45859.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45828.71875</v>
+        <v>45859.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45828.72916666666</v>
+        <v>45859.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45828.73958333334</v>
+        <v>45859.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45828.75</v>
+        <v>45859.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45828.76041666666</v>
+        <v>45859.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45828.77083333334</v>
+        <v>45859.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45828.78125</v>
+        <v>45859.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45828.79166666666</v>
+        <v>45859.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45828.80208333334</v>
+        <v>45859.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45828.8125</v>
+        <v>45859.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45828.82291666666</v>
+        <v>45859.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45828.83333333334</v>
+        <v>45859.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45828.84375</v>
+        <v>45859.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45828.85416666666</v>
+        <v>45859.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45828.86458333334</v>
+        <v>45859.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45828.875</v>
+        <v>45859.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45828.88541666666</v>
+        <v>45859.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45828.89583333334</v>
+        <v>45859.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45828.90625</v>
+        <v>45859.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45828.91666666666</v>
+        <v>45859.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45828.92708333334</v>
+        <v>45859.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45828.9375</v>
+        <v>45859.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45828.94791666666</v>
+        <v>45859.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45828.95833333334</v>
+        <v>45859.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45828.96875</v>
+        <v>45859.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45828.97916666666</v>
+        <v>45859.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45828.98958333334</v>
+        <v>45859.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B2">
-        <v>849.8499999999999</v>
+        <v>552.95</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1646.2</v>
+        <v>1322.4</v>
       </c>
       <c r="H2">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1648.85</v>
+        <v>1371.95</v>
       </c>
       <c r="M2">
-        <v>1786.2</v>
+        <v>1601.4</v>
       </c>
       <c r="N2">
-        <v>-137.3499999999999</v>
+        <v>-229.45</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
       <c r="B3">
-        <v>849.8499999999999</v>
+        <v>552.95</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1582.2</v>
+        <v>1238</v>
       </c>
       <c r="H3">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1648.85</v>
+        <v>1371.95</v>
       </c>
       <c r="M3">
-        <v>1722.2</v>
+        <v>1517</v>
       </c>
       <c r="N3">
-        <v>-73.34999999999991</v>
+        <v>-145.05</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
       <c r="B4">
-        <v>849.8499999999999</v>
+        <v>552.95</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1632.8</v>
+        <v>1192</v>
       </c>
       <c r="H4">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1648.85</v>
+        <v>1371.95</v>
       </c>
       <c r="M4">
-        <v>1772.8</v>
+        <v>1471</v>
       </c>
       <c r="N4">
-        <v>-123.9500000000003</v>
+        <v>-99.04999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
       <c r="B5">
-        <v>849.8499999999999</v>
+        <v>552.95</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,42 +613,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1584.1</v>
+        <v>1121.8</v>
       </c>
       <c r="H5">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1648.85</v>
+        <v>1371.95</v>
       </c>
       <c r="M5">
-        <v>1724.1</v>
+        <v>1400.8</v>
       </c>
       <c r="N5">
-        <v>-75.25</v>
+        <v>-28.84999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
       <c r="B6">
-        <v>939.875</v>
+        <v>877.675</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1519.4</v>
+        <v>1524</v>
       </c>
       <c r="H6">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1616.875</v>
+        <v>1832.675</v>
       </c>
       <c r="M6">
-        <v>1727.4</v>
+        <v>1860</v>
       </c>
       <c r="N6">
-        <v>-110.5250000000001</v>
+        <v>-27.32500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
       <c r="B7">
-        <v>939.875</v>
+        <v>877.675</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1484.7</v>
+        <v>1543.2</v>
       </c>
       <c r="H7">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1616.875</v>
+        <v>1832.675</v>
       </c>
       <c r="M7">
-        <v>1692.7</v>
+        <v>1879.2</v>
       </c>
       <c r="N7">
-        <v>-75.82499999999982</v>
+        <v>-46.52499999999986</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
       <c r="B8">
-        <v>939.875</v>
+        <v>877.675</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1490.3</v>
+        <v>1515.3</v>
       </c>
       <c r="H8">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1616.875</v>
+        <v>1832.675</v>
       </c>
       <c r="M8">
-        <v>1698.3</v>
+        <v>1851.3</v>
       </c>
       <c r="N8">
-        <v>-81.42500000000018</v>
+        <v>-18.62500000000023</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
       <c r="B9">
-        <v>939.875</v>
+        <v>877.675</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,42 +789,42 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1474.2</v>
+        <v>1496.4</v>
       </c>
       <c r="H9">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1616.875</v>
+        <v>1832.675</v>
       </c>
       <c r="M9">
-        <v>1682.2</v>
+        <v>1832.4</v>
       </c>
       <c r="N9">
-        <v>-65.32499999999982</v>
+        <v>0.2749999999998636</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
       <c r="B10">
-        <v>786.625</v>
+        <v>757.7499999999998</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1405.3</v>
+        <v>1625.3</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1459.625</v>
+        <v>1770.75</v>
       </c>
       <c r="M10">
-        <v>1596.3</v>
+        <v>1885.3</v>
       </c>
       <c r="N10">
-        <v>-136.6750000000002</v>
+        <v>-114.55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
       <c r="B11">
-        <v>786.625</v>
+        <v>757.7499999999998</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1361.1</v>
+        <v>1619</v>
       </c>
       <c r="H11">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1459.625</v>
+        <v>1770.75</v>
       </c>
       <c r="M11">
-        <v>1552.1</v>
+        <v>1879</v>
       </c>
       <c r="N11">
-        <v>-92.47499999999991</v>
+        <v>-108.2500000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
       <c r="B12">
-        <v>786.625</v>
+        <v>757.7499999999998</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1326.6</v>
+        <v>1641.4</v>
       </c>
       <c r="H12">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1459.625</v>
+        <v>1770.75</v>
       </c>
       <c r="M12">
-        <v>1517.6</v>
+        <v>1901.4</v>
       </c>
       <c r="N12">
-        <v>-57.97499999999991</v>
+        <v>-130.6500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
       <c r="B13">
-        <v>786.625</v>
+        <v>757.7499999999998</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1278.8</v>
+        <v>1619.8</v>
       </c>
       <c r="H13">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1459.625</v>
+        <v>1770.75</v>
       </c>
       <c r="M13">
-        <v>1469.8</v>
+        <v>1879.8</v>
       </c>
       <c r="N13">
-        <v>-10.17500000000018</v>
+        <v>-109.05</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
       <c r="B14">
-        <v>866.3000000000002</v>
+        <v>621.2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1427.6</v>
+        <v>1403.8</v>
       </c>
       <c r="H14">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1482.3</v>
+        <v>1560.2</v>
       </c>
       <c r="M14">
-        <v>1588.6</v>
+        <v>1661.8</v>
       </c>
       <c r="N14">
-        <v>-106.3000000000002</v>
+        <v>-101.5999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
       <c r="B15">
-        <v>866.3000000000002</v>
+        <v>621.2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1398.2</v>
+        <v>1410.2</v>
       </c>
       <c r="H15">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1482.3</v>
+        <v>1560.2</v>
       </c>
       <c r="M15">
-        <v>1559.2</v>
+        <v>1668.2</v>
       </c>
       <c r="N15">
-        <v>-76.89999999999964</v>
+        <v>-107.9999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
       <c r="B16">
-        <v>866.3000000000002</v>
+        <v>621.2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1365.7</v>
+        <v>1406.9</v>
       </c>
       <c r="H16">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1482.3</v>
+        <v>1560.2</v>
       </c>
       <c r="M16">
-        <v>1526.7</v>
+        <v>1664.9</v>
       </c>
       <c r="N16">
-        <v>-44.39999999999964</v>
+        <v>-104.6999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
       <c r="B17">
-        <v>866.3000000000002</v>
+        <v>621.2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1359.3</v>
+        <v>1441</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1482.3</v>
+        <v>1560.2</v>
       </c>
       <c r="M17">
-        <v>1520.3</v>
+        <v>1699</v>
       </c>
       <c r="N17">
-        <v>-38</v>
+        <v>-138.8</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
       <c r="B18">
-        <v>811.6500000000001</v>
+        <v>503.9499999999998</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1180.3</v>
+        <v>1278.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1397.65</v>
+        <v>1463.95</v>
       </c>
       <c r="M18">
-        <v>1350.3</v>
+        <v>1493.5</v>
       </c>
       <c r="N18">
-        <v>47.34999999999991</v>
+        <v>-29.55000000000018</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
       <c r="B19">
-        <v>811.6500000000001</v>
+        <v>503.9499999999998</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1228.4</v>
+        <v>1325.9</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="I19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1397.65</v>
+        <v>1463.95</v>
       </c>
       <c r="M19">
-        <v>1398.4</v>
+        <v>1540.9</v>
       </c>
       <c r="N19">
-        <v>-0.75</v>
+        <v>-76.95000000000027</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
       <c r="B20">
-        <v>811.6500000000001</v>
+        <v>503.9499999999998</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1249.9</v>
+        <v>1324.4</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="I20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1397.65</v>
+        <v>1463.95</v>
       </c>
       <c r="M20">
-        <v>1419.9</v>
+        <v>1539.4</v>
       </c>
       <c r="N20">
-        <v>-22.25</v>
+        <v>-75.45000000000027</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
       <c r="B21">
-        <v>811.6500000000001</v>
+        <v>503.9499999999998</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1281.9</v>
+        <v>1398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="I21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1397.65</v>
+        <v>1463.95</v>
       </c>
       <c r="M21">
-        <v>1451.9</v>
+        <v>1613</v>
       </c>
       <c r="N21">
-        <v>-54.25</v>
+        <v>-149.0500000000002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
       <c r="B22">
-        <v>638.625</v>
+        <v>445.8249999999999</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1177.1</v>
+        <v>986.0999999999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1167.625</v>
+        <v>1209.825</v>
       </c>
       <c r="M22">
-        <v>1239.1</v>
+        <v>1266.1</v>
       </c>
       <c r="N22">
-        <v>-71.47499999999991</v>
+        <v>-56.27500000000009</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
       <c r="B23">
-        <v>638.625</v>
+        <v>445.8249999999999</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1222.6</v>
+        <v>1053.1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1167.625</v>
+        <v>1209.825</v>
       </c>
       <c r="M23">
-        <v>1284.6</v>
+        <v>1333.1</v>
       </c>
       <c r="N23">
-        <v>-116.9749999999999</v>
+        <v>-123.2750000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
       <c r="B24">
-        <v>638.625</v>
+        <v>445.8249999999999</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1193.4</v>
+        <v>1051.5</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1167.625</v>
+        <v>1209.825</v>
       </c>
       <c r="M24">
-        <v>1255.4</v>
+        <v>1331.5</v>
       </c>
       <c r="N24">
-        <v>-87.77499999999986</v>
+        <v>-121.6750000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
       <c r="B25">
-        <v>638.625</v>
+        <v>445.8249999999999</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1173.8</v>
+        <v>1053.5</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1167.625</v>
+        <v>1209.825</v>
       </c>
       <c r="M25">
-        <v>1235.8</v>
+        <v>1333.5</v>
       </c>
       <c r="N25">
-        <v>-68.17499999999995</v>
+        <v>-123.6750000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
       <c r="B26">
-        <v>394.2</v>
+        <v>371.9749999999999</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>777.7</v>
+        <v>886.1000000000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>722.2</v>
+        <v>882.9749999999999</v>
       </c>
       <c r="M26">
-        <v>1061.7</v>
+        <v>1016.1</v>
       </c>
       <c r="N26">
-        <v>-339.5</v>
+        <v>-133.1250000000002</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
       <c r="B27">
-        <v>394.2</v>
+        <v>371.9749999999999</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>588.8</v>
+        <v>826.2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>722.2</v>
+        <v>882.9749999999999</v>
       </c>
       <c r="M27">
-        <v>872.8</v>
+        <v>956.2</v>
       </c>
       <c r="N27">
-        <v>-150.5999999999999</v>
+        <v>-73.22500000000014</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
       <c r="B28">
-        <v>394.2</v>
+        <v>371.9749999999999</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>413</v>
+        <v>761.8000000000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>722.2</v>
+        <v>882.9749999999999</v>
       </c>
       <c r="M28">
-        <v>697</v>
+        <v>891.8000000000002</v>
       </c>
       <c r="N28">
-        <v>25.20000000000005</v>
+        <v>-8.825000000000273</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
       <c r="B29">
-        <v>394.2</v>
+        <v>371.9749999999999</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,230 +1669,230 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>430</v>
+        <v>657</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>722.2</v>
+        <v>882.9749999999999</v>
       </c>
       <c r="M29">
-        <v>714</v>
+        <v>787</v>
       </c>
       <c r="N29">
-        <v>8.200000000000045</v>
+        <v>95.97499999999991</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
       <c r="B30">
-        <v>106.599999</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>31.67500000000001</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>295.1999999999999</v>
+        <v>339.7</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>276.599999</v>
+        <v>274</v>
       </c>
       <c r="M30">
-        <v>594.1999999999999</v>
+        <v>497.3750000000001</v>
       </c>
       <c r="N30">
-        <v>-317.6000009999999</v>
+        <v>-223.3750000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
       <c r="B31">
-        <v>106.599999</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>31.67500000000001</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>183.9</v>
+        <v>194.9000000000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>276.599999</v>
+        <v>274</v>
       </c>
       <c r="M31">
-        <v>482.9</v>
+        <v>352.5750000000001</v>
       </c>
       <c r="N31">
-        <v>-206.300001</v>
+        <v>-78.5750000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
       <c r="B32">
-        <v>106.599999</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>31.67500000000001</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9.599999999999909</v>
       </c>
       <c r="G32">
-        <v>56.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>276.599999</v>
+        <v>283.5999999999999</v>
       </c>
       <c r="M32">
-        <v>355.9999999999999</v>
+        <v>157.675</v>
       </c>
       <c r="N32">
-        <v>-79.40000099999992</v>
+        <v>125.9249999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
       <c r="B33">
-        <v>106.599999</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>31.67500000000001</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>137.1999999999999</v>
       </c>
       <c r="G33">
-        <v>28.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>276.599999</v>
+        <v>411.1999999999999</v>
       </c>
       <c r="M33">
-        <v>327.9999999999999</v>
+        <v>157.675</v>
       </c>
       <c r="N33">
-        <v>-51.40000099999992</v>
+        <v>253.5249999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>653.45</v>
+        <v>355.3749999999999</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="F34">
-        <v>907.2</v>
+        <v>395.6</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>907.2</v>
+        <v>534.5999999999999</v>
       </c>
       <c r="M34">
-        <v>1012.45</v>
+        <v>642.3749999999999</v>
       </c>
       <c r="N34">
-        <v>-105.25</v>
+        <v>-107.775</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>653.45</v>
+        <v>355.3749999999999</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="F35">
-        <v>889.3</v>
+        <v>470.4</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>889.3</v>
+        <v>609.4</v>
       </c>
       <c r="M35">
-        <v>1012.45</v>
+        <v>642.3749999999999</v>
       </c>
       <c r="N35">
-        <v>-123.1500000000001</v>
+        <v>-32.97499999999991</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>653.45</v>
+        <v>355.3749999999999</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="F36">
-        <v>1091</v>
+        <v>600.6</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="K36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1091</v>
+        <v>739.6</v>
       </c>
       <c r="M36">
-        <v>1012.45</v>
+        <v>642.3749999999999</v>
       </c>
       <c r="N36">
-        <v>78.54999999999995</v>
+        <v>97.22500000000014</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>653.45</v>
+        <v>355.3749999999999</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="F37">
-        <v>1116</v>
+        <v>754.8</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,27 +2033,27 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="K37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1116</v>
+        <v>893.8</v>
       </c>
       <c r="M37">
-        <v>1012.45</v>
+        <v>642.3749999999999</v>
       </c>
       <c r="N37">
-        <v>103.55</v>
+        <v>251.4250000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1133.6</v>
+        <v>697.4000000000001</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1133.6</v>
+        <v>697.4000000000001</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1133.6</v>
+        <v>697.4000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1218.5</v>
+        <v>911.5999999999999</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1218.5</v>
+        <v>911.5999999999999</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1218.5</v>
+        <v>911.5999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45859.39583333334</v>
+        <v>45863.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45859.40625</v>
+        <v>45863.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45859.41666666666</v>
+        <v>45863.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45859.42708333334</v>
+        <v>45863.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45859.4375</v>
+        <v>45863.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45859.44791666666</v>
+        <v>45863.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45859.45833333334</v>
+        <v>45863.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45859.46875</v>
+        <v>45863.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45859.47916666666</v>
+        <v>45863.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45859.48958333334</v>
+        <v>45863.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45859.5</v>
+        <v>45863.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45859.51041666666</v>
+        <v>45863.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45859.52083333334</v>
+        <v>45863.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45859.53125</v>
+        <v>45863.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45859.54166666666</v>
+        <v>45863.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45859.55208333334</v>
+        <v>45863.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45859.5625</v>
+        <v>45863.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45859.57291666666</v>
+        <v>45863.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45859.58333333334</v>
+        <v>45863.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45859.59375</v>
+        <v>45863.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45859.60416666666</v>
+        <v>45863.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45859.61458333334</v>
+        <v>45863.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45859.625</v>
+        <v>45863.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45859.63541666666</v>
+        <v>45863.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45859.64583333334</v>
+        <v>45863.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45859.65625</v>
+        <v>45863.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45859.66666666666</v>
+        <v>45863.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45859.67708333334</v>
+        <v>45863.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45859.6875</v>
+        <v>45863.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45859.69791666666</v>
+        <v>45863.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45859.70833333334</v>
+        <v>45863.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45859.71875</v>
+        <v>45863.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45859.72916666666</v>
+        <v>45863.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45859.73958333334</v>
+        <v>45863.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45859.75</v>
+        <v>45863.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45859.76041666666</v>
+        <v>45863.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45859.77083333334</v>
+        <v>45863.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45859.78125</v>
+        <v>45863.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45859.79166666666</v>
+        <v>45863.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45859.80208333334</v>
+        <v>45863.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45859.8125</v>
+        <v>45863.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45859.82291666666</v>
+        <v>45863.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45859.83333333334</v>
+        <v>45863.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45859.84375</v>
+        <v>45863.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45859.85416666666</v>
+        <v>45863.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45859.86458333334</v>
+        <v>45863.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45859.875</v>
+        <v>45863.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45859.88541666666</v>
+        <v>45863.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45859.89583333334</v>
+        <v>45863.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45859.90625</v>
+        <v>45863.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45859.91666666666</v>
+        <v>45863.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45859.92708333334</v>
+        <v>45863.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45859.9375</v>
+        <v>45863.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45859.94791666666</v>
+        <v>45863.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45859.95833333334</v>
+        <v>45863.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45859.96875</v>
+        <v>45863.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45859.97916666666</v>
+        <v>45863.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45859.98958333334</v>
+        <v>45863.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45863</v>
+        <v>45875</v>
       </c>
       <c r="B2">
-        <v>552.95</v>
+        <v>453.0500000000001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1322.4</v>
+        <v>648.6000000000001</v>
       </c>
       <c r="H2">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1371.95</v>
+        <v>1139.05</v>
       </c>
       <c r="M2">
-        <v>1601.4</v>
+        <v>1072.6</v>
       </c>
       <c r="N2">
-        <v>-229.45</v>
+        <v>66.45000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
       <c r="B3">
-        <v>552.95</v>
+        <v>453.0500000000001</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1238</v>
+        <v>635.3000000000002</v>
       </c>
       <c r="H3">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1371.95</v>
+        <v>1139.05</v>
       </c>
       <c r="M3">
-        <v>1517</v>
+        <v>1059.3</v>
       </c>
       <c r="N3">
-        <v>-145.05</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
       <c r="B4">
-        <v>552.95</v>
+        <v>453.0500000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1192</v>
+        <v>693.3</v>
       </c>
       <c r="H4">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1371.95</v>
+        <v>1139.05</v>
       </c>
       <c r="M4">
-        <v>1471</v>
+        <v>1117.3</v>
       </c>
       <c r="N4">
-        <v>-99.04999999999995</v>
+        <v>21.75000000000023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
       <c r="B5">
-        <v>552.95</v>
+        <v>453.0500000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,42 +613,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1121.8</v>
+        <v>736.8999999999999</v>
       </c>
       <c r="H5">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1371.95</v>
+        <v>1139.05</v>
       </c>
       <c r="M5">
-        <v>1400.8</v>
+        <v>1160.9</v>
       </c>
       <c r="N5">
-        <v>-28.84999999999991</v>
+        <v>-21.84999999999968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
       <c r="B6">
-        <v>877.675</v>
+        <v>821.5999999999999</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1524</v>
+        <v>1468.6</v>
       </c>
       <c r="H6">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1832.675</v>
+        <v>1641.6</v>
       </c>
       <c r="M6">
-        <v>1860</v>
+        <v>1610.6</v>
       </c>
       <c r="N6">
-        <v>-27.32500000000005</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
       <c r="B7">
-        <v>877.675</v>
+        <v>821.5999999999999</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1543.2</v>
+        <v>1473.3</v>
       </c>
       <c r="H7">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1832.675</v>
+        <v>1641.6</v>
       </c>
       <c r="M7">
-        <v>1879.2</v>
+        <v>1615.3</v>
       </c>
       <c r="N7">
-        <v>-46.52499999999986</v>
+        <v>26.30000000000018</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
       <c r="B8">
-        <v>877.675</v>
+        <v>821.5999999999999</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1515.3</v>
+        <v>1485.1</v>
       </c>
       <c r="H8">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1832.675</v>
+        <v>1641.6</v>
       </c>
       <c r="M8">
-        <v>1851.3</v>
+        <v>1627.1</v>
       </c>
       <c r="N8">
-        <v>-18.62500000000023</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
       <c r="B9">
-        <v>877.675</v>
+        <v>821.5999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,42 +789,42 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1496.4</v>
+        <v>1519.5</v>
       </c>
       <c r="H9">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1832.675</v>
+        <v>1641.6</v>
       </c>
       <c r="M9">
-        <v>1832.4</v>
+        <v>1661.5</v>
       </c>
       <c r="N9">
-        <v>0.2749999999998636</v>
+        <v>-19.90000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
       <c r="B10">
-        <v>757.7499999999998</v>
+        <v>786.8499999999999</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1625.3</v>
+        <v>1503.1</v>
       </c>
       <c r="H10">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1770.75</v>
+        <v>1652.85</v>
       </c>
       <c r="M10">
-        <v>1885.3</v>
+        <v>1769.1</v>
       </c>
       <c r="N10">
-        <v>-114.55</v>
+        <v>-116.2500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
       <c r="B11">
-        <v>757.7499999999998</v>
+        <v>786.8499999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1619</v>
+        <v>1508</v>
       </c>
       <c r="H11">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1770.75</v>
+        <v>1652.85</v>
       </c>
       <c r="M11">
-        <v>1879</v>
+        <v>1774</v>
       </c>
       <c r="N11">
-        <v>-108.2500000000002</v>
+        <v>-121.1500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
       <c r="B12">
-        <v>757.7499999999998</v>
+        <v>786.8499999999999</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1641.4</v>
+        <v>1463.8</v>
       </c>
       <c r="H12">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1770.75</v>
+        <v>1652.85</v>
       </c>
       <c r="M12">
-        <v>1901.4</v>
+        <v>1729.8</v>
       </c>
       <c r="N12">
-        <v>-130.6500000000003</v>
+        <v>-76.95000000000027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
       <c r="B13">
-        <v>757.7499999999998</v>
+        <v>786.8499999999999</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1619.8</v>
+        <v>1427.4</v>
       </c>
       <c r="H13">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1770.75</v>
+        <v>1652.85</v>
       </c>
       <c r="M13">
-        <v>1879.8</v>
+        <v>1693.4</v>
       </c>
       <c r="N13">
-        <v>-109.05</v>
+        <v>-40.55000000000018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
       <c r="B14">
-        <v>621.2</v>
+        <v>862.925</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>317</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1471.1</v>
+      </c>
+      <c r="H14">
         <v>258</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1403.8</v>
-      </c>
-      <c r="H14">
-        <v>322</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1560.2</v>
+        <v>1761.925</v>
       </c>
       <c r="M14">
-        <v>1661.8</v>
+        <v>1788.1</v>
       </c>
       <c r="N14">
-        <v>-101.5999999999997</v>
+        <v>-26.17499999999995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
       <c r="B15">
-        <v>621.2</v>
+        <v>862.925</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <v>317</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1483.8</v>
+      </c>
+      <c r="H15">
         <v>258</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1410.2</v>
-      </c>
-      <c r="H15">
-        <v>322</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1560.2</v>
+        <v>1761.925</v>
       </c>
       <c r="M15">
-        <v>1668.2</v>
+        <v>1800.8</v>
       </c>
       <c r="N15">
-        <v>-107.9999999999998</v>
+        <v>-38.87499999999977</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
       <c r="B16">
-        <v>621.2</v>
+        <v>862.925</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
+        <v>317</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1448.9</v>
+      </c>
+      <c r="H16">
         <v>258</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1406.9</v>
-      </c>
-      <c r="H16">
-        <v>322</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1560.2</v>
+        <v>1761.925</v>
       </c>
       <c r="M16">
-        <v>1664.9</v>
+        <v>1765.9</v>
       </c>
       <c r="N16">
-        <v>-104.6999999999996</v>
+        <v>-3.975000000000136</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
       <c r="B17">
-        <v>621.2</v>
+        <v>862.925</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <v>317</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1451.1</v>
+      </c>
+      <c r="H17">
         <v>258</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1441</v>
-      </c>
-      <c r="H17">
-        <v>322</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1560.2</v>
+        <v>1761.925</v>
       </c>
       <c r="M17">
-        <v>1699</v>
+        <v>1768.1</v>
       </c>
       <c r="N17">
-        <v>-138.8</v>
+        <v>-6.174999999999955</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
       <c r="B18">
-        <v>503.9499999999998</v>
+        <v>772.0249999999999</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1278.5</v>
+        <v>1262.6</v>
       </c>
       <c r="H18">
-        <v>328</v>
+        <v>171</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1463.95</v>
+        <v>1553.025</v>
       </c>
       <c r="M18">
-        <v>1493.5</v>
+        <v>1617.6</v>
       </c>
       <c r="N18">
-        <v>-29.55000000000018</v>
+        <v>-64.57500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
       <c r="B19">
-        <v>503.9499999999998</v>
+        <v>772.0249999999999</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1325.9</v>
+        <v>1242.7</v>
       </c>
       <c r="H19">
-        <v>328</v>
+        <v>171</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1463.95</v>
+        <v>1553.025</v>
       </c>
       <c r="M19">
-        <v>1540.9</v>
+        <v>1597.7</v>
       </c>
       <c r="N19">
-        <v>-76.95000000000027</v>
+        <v>-44.67500000000041</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
       <c r="B20">
-        <v>503.9499999999998</v>
+        <v>772.0249999999999</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1324.4</v>
+        <v>1239.5</v>
       </c>
       <c r="H20">
-        <v>328</v>
+        <v>171</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1463.95</v>
+        <v>1553.025</v>
       </c>
       <c r="M20">
-        <v>1539.4</v>
+        <v>1594.5</v>
       </c>
       <c r="N20">
-        <v>-75.45000000000027</v>
+        <v>-41.47500000000014</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
       <c r="B21">
-        <v>503.9499999999998</v>
+        <v>772.0249999999999</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1398</v>
+        <v>1185.9</v>
       </c>
       <c r="H21">
-        <v>328</v>
+        <v>171</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1463.95</v>
+        <v>1553.025</v>
       </c>
       <c r="M21">
-        <v>1613</v>
+        <v>1540.9</v>
       </c>
       <c r="N21">
-        <v>-149.0500000000002</v>
+        <v>12.12500000000023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
       <c r="B22">
-        <v>445.8249999999999</v>
+        <v>466.35</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>986.0999999999999</v>
+        <v>862.5</v>
       </c>
       <c r="H22">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1209.825</v>
+        <v>1089.35</v>
       </c>
       <c r="M22">
-        <v>1266.1</v>
+        <v>1125.5</v>
       </c>
       <c r="N22">
-        <v>-56.27500000000009</v>
+        <v>-36.15000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
       <c r="B23">
-        <v>445.8249999999999</v>
+        <v>466.35</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1053.1</v>
+        <v>941</v>
       </c>
       <c r="H23">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1209.825</v>
+        <v>1089.35</v>
       </c>
       <c r="M23">
-        <v>1333.1</v>
+        <v>1204</v>
       </c>
       <c r="N23">
-        <v>-123.2750000000001</v>
+        <v>-114.6500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
       <c r="B24">
-        <v>445.8249999999999</v>
+        <v>466.35</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1051.5</v>
+        <v>881.3</v>
       </c>
       <c r="H24">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1209.825</v>
+        <v>1089.35</v>
       </c>
       <c r="M24">
-        <v>1331.5</v>
+        <v>1144.3</v>
       </c>
       <c r="N24">
-        <v>-121.6750000000002</v>
+        <v>-54.95000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
       <c r="B25">
-        <v>445.8249999999999</v>
+        <v>466.35</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1053.5</v>
+        <v>899.8</v>
       </c>
       <c r="H25">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1209.825</v>
+        <v>1089.35</v>
       </c>
       <c r="M25">
-        <v>1333.5</v>
+        <v>1162.8</v>
       </c>
       <c r="N25">
-        <v>-123.6750000000002</v>
+        <v>-73.45000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
       <c r="B26">
-        <v>371.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>886.1000000000001</v>
+        <v>268</v>
       </c>
       <c r="H26">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>882.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1016.1</v>
+        <v>268</v>
       </c>
       <c r="N26">
-        <v>-133.1250000000002</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
       <c r="B27">
-        <v>371.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>826.2</v>
+        <v>279</v>
       </c>
       <c r="H27">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>882.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>956.2</v>
+        <v>279</v>
       </c>
       <c r="N27">
-        <v>-73.22500000000014</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45863.27083333334</v>
+        <v>45875.27083333334</v>
       </c>
       <c r="B28">
-        <v>371.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>761.8000000000002</v>
+        <v>172</v>
       </c>
       <c r="H28">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>882.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>891.8000000000002</v>
+        <v>172</v>
       </c>
       <c r="N28">
-        <v>-8.825000000000273</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45863.28125</v>
+        <v>45875.28125</v>
       </c>
       <c r="B29">
-        <v>371.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,230 +1669,230 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>882.9749999999999</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>95.97499999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45863.29166666666</v>
+        <v>45875.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>31.67500000000001</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>339.7</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>497.3750000000001</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-223.3750000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45863.30208333334</v>
+        <v>45875.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>31.67500000000001</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>194.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>352.5750000000001</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-78.5750000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45863.3125</v>
+        <v>45875.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>31.67500000000001</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>9.599999999999909</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>283.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>157.675</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>125.9249999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45863.32291666666</v>
+        <v>45875.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>31.67500000000001</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>137.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>411.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>157.675</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>253.5249999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45863.33333333334</v>
+        <v>45875.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>355.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>395.6</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>534.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>642.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>-107.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45863.34375</v>
+        <v>45875.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>355.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>470.4</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>609.4</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>642.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-32.97499999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45863.35416666666</v>
+        <v>45875.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>355.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>600.6</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>739.6</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>642.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>97.22500000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45863.36458333334</v>
+        <v>45875.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>355.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>754.8</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,27 +2033,27 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>893.8</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>642.3749999999999</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>251.4250000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45863.375</v>
+        <v>45875.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>697.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>697.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>697.4000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45863.38541666666</v>
+        <v>45875.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>911.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>911.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>911.5999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45863.39583333334</v>
+        <v>45875.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45863.40625</v>
+        <v>45875.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45863.41666666666</v>
+        <v>45875.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45863.42708333334</v>
+        <v>45875.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45863.4375</v>
+        <v>45875.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45863.44791666666</v>
+        <v>45875.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45863.45833333334</v>
+        <v>45875.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45863.46875</v>
+        <v>45875.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45863.47916666666</v>
+        <v>45875.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45863.48958333334</v>
+        <v>45875.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45863.5</v>
+        <v>45875.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45863.51041666666</v>
+        <v>45875.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45863.52083333334</v>
+        <v>45875.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45863.53125</v>
+        <v>45875.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45863.54166666666</v>
+        <v>45875.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45863.55208333334</v>
+        <v>45875.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45863.5625</v>
+        <v>45875.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45863.57291666666</v>
+        <v>45875.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45863.58333333334</v>
+        <v>45875.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45863.59375</v>
+        <v>45875.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45863.60416666666</v>
+        <v>45875.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45863.61458333334</v>
+        <v>45875.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45863.625</v>
+        <v>45875.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45863.63541666666</v>
+        <v>45875.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45863.64583333334</v>
+        <v>45875.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45863.65625</v>
+        <v>45875.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45863.66666666666</v>
+        <v>45875.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45863.67708333334</v>
+        <v>45875.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45863.6875</v>
+        <v>45875.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45863.69791666666</v>
+        <v>45875.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45863.70833333334</v>
+        <v>45875.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45863.71875</v>
+        <v>45875.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45863.72916666666</v>
+        <v>45875.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45863.73958333334</v>
+        <v>45875.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45863.75</v>
+        <v>45875.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45863.76041666666</v>
+        <v>45875.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45863.77083333334</v>
+        <v>45875.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45863.78125</v>
+        <v>45875.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45863.79166666666</v>
+        <v>45875.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45863.80208333334</v>
+        <v>45875.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45863.8125</v>
+        <v>45875.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45863.82291666666</v>
+        <v>45875.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45863.83333333334</v>
+        <v>45875.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45863.84375</v>
+        <v>45875.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45863.85416666666</v>
+        <v>45875.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45863.86458333334</v>
+        <v>45875.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45863.875</v>
+        <v>45875.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45863.88541666666</v>
+        <v>45875.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45863.89583333334</v>
+        <v>45875.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45863.90625</v>
+        <v>45875.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45863.91666666666</v>
+        <v>45875.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45863.92708333334</v>
+        <v>45875.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45863.9375</v>
+        <v>45875.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45863.94791666666</v>
+        <v>45875.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45863.95833333334</v>
+        <v>45875.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45863.96875</v>
+        <v>45875.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45863.97916666666</v>
+        <v>45875.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45863.98958333334</v>
+        <v>45875.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45875</v>
+        <v>45889</v>
       </c>
       <c r="B2">
-        <v>453.0500000000001</v>
+        <v>5.100000000000023</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>648.6000000000001</v>
+        <v>247.9</v>
       </c>
       <c r="H2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>558</v>
+        <v>334</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1139.05</v>
+        <v>499.1</v>
       </c>
       <c r="M2">
-        <v>1072.6</v>
+        <v>676.9</v>
       </c>
       <c r="N2">
-        <v>66.45000000000005</v>
+        <v>-177.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
       <c r="B3">
-        <v>453.0500000000001</v>
+        <v>5.100000000000023</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>635.3000000000002</v>
+        <v>206</v>
       </c>
       <c r="H3">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>558</v>
+        <v>334</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1139.05</v>
+        <v>499.1</v>
       </c>
       <c r="M3">
-        <v>1059.3</v>
+        <v>635</v>
       </c>
       <c r="N3">
-        <v>79.75</v>
+        <v>-135.9</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
       <c r="B4">
-        <v>453.0500000000001</v>
+        <v>5.100000000000023</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>693.3</v>
+        <v>164.8</v>
       </c>
       <c r="H4">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>558</v>
+        <v>334</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1139.05</v>
+        <v>499.1</v>
       </c>
       <c r="M4">
-        <v>1117.3</v>
+        <v>593.8</v>
       </c>
       <c r="N4">
-        <v>21.75000000000023</v>
+        <v>-94.69999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
       <c r="B5">
-        <v>453.0500000000001</v>
+        <v>5.100000000000023</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,1286 +613,1286 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>736.8999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="H5">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>558</v>
+        <v>334</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1139.05</v>
+        <v>499.1</v>
       </c>
       <c r="M5">
-        <v>1160.9</v>
+        <v>521.5</v>
       </c>
       <c r="N5">
-        <v>-21.84999999999968</v>
+        <v>-22.39999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
       <c r="B6">
-        <v>821.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>203.375</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30.69999999999999</v>
       </c>
       <c r="G6">
-        <v>1468.6</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>555</v>
+        <v>262</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1641.6</v>
+        <v>354.7</v>
       </c>
       <c r="M6">
-        <v>1610.6</v>
+        <v>635.375</v>
       </c>
       <c r="N6">
-        <v>31</v>
+        <v>-280.675</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
       <c r="B7">
-        <v>821.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>203.375</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>1473.3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>555</v>
+        <v>262</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1641.6</v>
+        <v>384</v>
       </c>
       <c r="M7">
-        <v>1615.3</v>
+        <v>635.375</v>
       </c>
       <c r="N7">
-        <v>26.30000000000018</v>
+        <v>-251.375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
       <c r="B8">
-        <v>821.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>203.375</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>87.89999999999998</v>
       </c>
       <c r="G8">
-        <v>1485.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>555</v>
+        <v>262</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1641.6</v>
+        <v>411.9</v>
       </c>
       <c r="M8">
-        <v>1627.1</v>
+        <v>635.375</v>
       </c>
       <c r="N8">
-        <v>14.5</v>
+        <v>-223.475</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
       <c r="B9">
-        <v>821.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>203.375</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>126.7</v>
       </c>
       <c r="G9">
-        <v>1519.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>555</v>
+        <v>262</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1641.6</v>
+        <v>450.7</v>
       </c>
       <c r="M9">
-        <v>1661.5</v>
+        <v>635.375</v>
       </c>
       <c r="N9">
-        <v>-19.90000000000009</v>
+        <v>-184.675</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
       <c r="B10">
-        <v>786.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>154.025</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>205.7</v>
       </c>
       <c r="G10">
-        <v>1503.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>253</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>613</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1652.85</v>
+        <v>472.7</v>
       </c>
       <c r="M10">
-        <v>1769.1</v>
+        <v>566.0250000000001</v>
       </c>
       <c r="N10">
-        <v>-116.2500000000005</v>
+        <v>-93.3250000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
       <c r="B11">
-        <v>786.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>154.025</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>255.5</v>
       </c>
       <c r="G11">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>253</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>613</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1652.85</v>
+        <v>522.5</v>
       </c>
       <c r="M11">
-        <v>1774</v>
+        <v>566.0250000000001</v>
       </c>
       <c r="N11">
-        <v>-121.1500000000001</v>
+        <v>-43.52500000000009</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
       <c r="B12">
-        <v>786.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>154.025</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>290.4</v>
       </c>
       <c r="G12">
-        <v>1463.8</v>
+        <v>0</v>
       </c>
       <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>253</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>613</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1652.85</v>
+        <v>557.4</v>
       </c>
       <c r="M12">
-        <v>1729.8</v>
+        <v>566.0250000000001</v>
       </c>
       <c r="N12">
-        <v>-76.95000000000027</v>
+        <v>-8.625000000000114</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
       <c r="B13">
-        <v>786.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>154.025</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>266</v>
+        <v>412</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>262.9</v>
       </c>
       <c r="G13">
-        <v>1427.4</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>253</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>613</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1652.85</v>
+        <v>529.9</v>
       </c>
       <c r="M13">
-        <v>1693.4</v>
+        <v>566.0250000000001</v>
       </c>
       <c r="N13">
-        <v>-40.55000000000018</v>
+        <v>-36.12500000000011</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
       <c r="B14">
-        <v>862.925</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>96.17500000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>249.4</v>
       </c>
       <c r="G14">
-        <v>1471.1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>641</v>
+        <v>233</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1761.925</v>
+        <v>504.4</v>
       </c>
       <c r="M14">
-        <v>1788.1</v>
+        <v>477.175</v>
       </c>
       <c r="N14">
-        <v>-26.17499999999995</v>
+        <v>27.22499999999997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
       <c r="B15">
-        <v>862.925</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>96.17500000000001</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>268.7</v>
       </c>
       <c r="G15">
-        <v>1483.8</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>641</v>
+        <v>233</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1761.925</v>
+        <v>523.7</v>
       </c>
       <c r="M15">
-        <v>1800.8</v>
+        <v>477.175</v>
       </c>
       <c r="N15">
-        <v>-38.87499999999977</v>
+        <v>46.52500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
       <c r="B16">
-        <v>862.925</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>96.17500000000001</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>284.2</v>
       </c>
       <c r="G16">
-        <v>1448.9</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>641</v>
+        <v>233</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1761.925</v>
+        <v>539.2</v>
       </c>
       <c r="M16">
-        <v>1765.9</v>
+        <v>477.175</v>
       </c>
       <c r="N16">
-        <v>-3.975000000000136</v>
+        <v>62.02500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
       <c r="B17">
-        <v>862.925</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>96.17500000000001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>277.3</v>
       </c>
       <c r="G17">
-        <v>1451.1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>641</v>
+        <v>233</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1761.925</v>
+        <v>532.3</v>
       </c>
       <c r="M17">
-        <v>1768.1</v>
+        <v>477.175</v>
       </c>
       <c r="N17">
-        <v>-6.174999999999955</v>
+        <v>55.12499999999994</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
       <c r="B18">
-        <v>772.0249999999999</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>118.05</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>345.6</v>
       </c>
       <c r="G18">
-        <v>1262.6</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>610</v>
+        <v>220</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1553.025</v>
+        <v>590.6</v>
       </c>
       <c r="M18">
-        <v>1617.6</v>
+        <v>547.05</v>
       </c>
       <c r="N18">
-        <v>-64.57500000000005</v>
+        <v>43.55000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
       <c r="B19">
-        <v>772.0249999999999</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>118.05</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="G19">
-        <v>1242.7</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>610</v>
+        <v>220</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1553.025</v>
+        <v>578.5</v>
       </c>
       <c r="M19">
-        <v>1597.7</v>
+        <v>547.05</v>
       </c>
       <c r="N19">
-        <v>-44.67500000000041</v>
+        <v>31.45000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
       <c r="B20">
-        <v>772.0249999999999</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>118.05</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>312.6</v>
       </c>
       <c r="G20">
-        <v>1239.5</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>610</v>
+        <v>220</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1553.025</v>
+        <v>557.6</v>
       </c>
       <c r="M20">
-        <v>1594.5</v>
+        <v>547.05</v>
       </c>
       <c r="N20">
-        <v>-41.47500000000014</v>
+        <v>10.55000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
       <c r="B21">
-        <v>772.0249999999999</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>118.05</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="G21">
-        <v>1185.9</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>610</v>
+        <v>220</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1553.025</v>
+        <v>524</v>
       </c>
       <c r="M21">
-        <v>1540.9</v>
+        <v>547.05</v>
       </c>
       <c r="N21">
-        <v>12.12500000000023</v>
+        <v>-23.04999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
       <c r="B22">
-        <v>466.35</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>251.85</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>470.6</v>
       </c>
       <c r="G22">
-        <v>862.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>582</v>
+        <v>272</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1089.35</v>
+        <v>743.6</v>
       </c>
       <c r="M22">
-        <v>1125.5</v>
+        <v>654.85</v>
       </c>
       <c r="N22">
-        <v>-36.15000000000009</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
       <c r="B23">
-        <v>466.35</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>251.85</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="G23">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>582</v>
+        <v>272</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1089.35</v>
+        <v>684</v>
       </c>
       <c r="M23">
-        <v>1204</v>
+        <v>654.85</v>
       </c>
       <c r="N23">
-        <v>-114.6500000000001</v>
+        <v>29.14999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
       <c r="B24">
-        <v>466.35</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>251.85</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>329.3</v>
       </c>
       <c r="G24">
-        <v>881.3</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>582</v>
+        <v>272</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1089.35</v>
+        <v>602.3</v>
       </c>
       <c r="M24">
-        <v>1144.3</v>
+        <v>654.85</v>
       </c>
       <c r="N24">
-        <v>-54.95000000000005</v>
+        <v>-52.55000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
       <c r="B25">
-        <v>466.35</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>251.85</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>259.4</v>
       </c>
       <c r="G25">
-        <v>899.8</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>582</v>
+        <v>272</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1089.35</v>
+        <v>532.4</v>
       </c>
       <c r="M25">
-        <v>1162.8</v>
+        <v>654.85</v>
       </c>
       <c r="N25">
-        <v>-73.45000000000005</v>
+        <v>-122.45</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>191.825</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>35.39999999999998</v>
       </c>
       <c r="G26">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>405.4</v>
       </c>
       <c r="M26">
-        <v>268</v>
+        <v>539.825</v>
       </c>
       <c r="N26">
-        <v>-268</v>
+        <v>-134.4250000000001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>191.825</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>37.20000000000005</v>
       </c>
       <c r="G27">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>407.2</v>
       </c>
       <c r="M27">
-        <v>279</v>
+        <v>539.825</v>
       </c>
       <c r="N27">
-        <v>-279</v>
+        <v>-132.625</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>191.825</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>131.5</v>
       </c>
       <c r="G28">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>501.5</v>
       </c>
       <c r="M28">
-        <v>172</v>
+        <v>539.825</v>
       </c>
       <c r="N28">
-        <v>-172</v>
+        <v>-38.32500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45875.28125</v>
+        <v>45889.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>191.825</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>143.1</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>513.1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>539.825</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-26.72500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45875.29166666666</v>
+        <v>45889.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>244.175</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>135.6</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>274.6</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>420.175</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-145.575</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45875.30208333334</v>
+        <v>45889.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>244.175</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>187.5000000000001</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>326.5000000000001</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>420.175</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-93.6749999999999</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45875.3125</v>
+        <v>45889.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>244.175</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>454.1</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>593.1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>420.175</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>172.9250000000001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45875.32291666666</v>
+        <v>45889.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>244.175</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>431.8</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>570.8</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>420.175</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>150.625</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45875.33333333334</v>
+        <v>45889.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>534.9500009999999</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>956.7</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>956.7</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>996.9500009999999</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-40.25000099999988</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45875.34375</v>
+        <v>45889.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>534.9500009999999</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>968.1</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>968.1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>996.9500009999999</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-28.85000099999991</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45875.35416666666</v>
+        <v>45889.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>534.9500009999999</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>996.9500009999999</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>223.0499990000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45875.36458333334</v>
+        <v>45889.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>534.9500009999999</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>996.9500009999999</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>212.0499990000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45875.375</v>
+        <v>45889.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>834.75</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1470.8</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1470.8</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1653.75</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-182.95</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45875.38541666666</v>
+        <v>45889.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>834.75</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1599.6</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1599.6</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1653.75</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>-54.15000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45875.39583333334</v>
+        <v>45889.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>834.75</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1661.2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1661.2</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1653.75</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>7.450000000000045</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45875.40625</v>
+        <v>45889.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>834.75</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1664.6</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1664.6</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1653.75</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>10.84999999999991</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45875.41666666666</v>
+        <v>45889.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45875.42708333334</v>
+        <v>45889.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45875.4375</v>
+        <v>45889.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45875.44791666666</v>
+        <v>45889.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45875.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45875.46875</v>
+        <v>45889.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45875.47916666666</v>
+        <v>45889.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45875.48958333334</v>
+        <v>45889.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45875.5</v>
+        <v>45889.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45875.51041666666</v>
+        <v>45889.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45875.52083333334</v>
+        <v>45889.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45875.53125</v>
+        <v>45889.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45875.54166666666</v>
+        <v>45889.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45875.55208333334</v>
+        <v>45889.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45875.5625</v>
+        <v>45889.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45875.57291666666</v>
+        <v>45889.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45875.58333333334</v>
+        <v>45889.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45875.59375</v>
+        <v>45889.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45875.60416666666</v>
+        <v>45889.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45875.61458333334</v>
+        <v>45889.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45875.625</v>
+        <v>45889.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45875.63541666666</v>
+        <v>45889.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45875.64583333334</v>
+        <v>45889.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45875.65625</v>
+        <v>45889.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45875.66666666666</v>
+        <v>45889.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45875.67708333334</v>
+        <v>45889.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45875.6875</v>
+        <v>45889.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45875.69791666666</v>
+        <v>45889.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45875.70833333334</v>
+        <v>45889.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45875.71875</v>
+        <v>45889.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45875.72916666666</v>
+        <v>45889.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45875.73958333334</v>
+        <v>45889.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45875.75</v>
+        <v>45889.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45875.76041666666</v>
+        <v>45889.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45875.77083333334</v>
+        <v>45889.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45875.78125</v>
+        <v>45889.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45875.79166666666</v>
+        <v>45889.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45875.80208333334</v>
+        <v>45889.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45875.8125</v>
+        <v>45889.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45875.82291666666</v>
+        <v>45889.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45875.83333333334</v>
+        <v>45889.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45875.84375</v>
+        <v>45889.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45875.85416666666</v>
+        <v>45889.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45875.86458333334</v>
+        <v>45889.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45875.875</v>
+        <v>45889.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45875.88541666666</v>
+        <v>45889.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45875.89583333334</v>
+        <v>45889.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45875.90625</v>
+        <v>45889.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45875.91666666666</v>
+        <v>45889.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45875.92708333334</v>
+        <v>45889.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45875.9375</v>
+        <v>45889.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45875.94791666666</v>
+        <v>45889.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45875.95833333334</v>
+        <v>45889.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45875.96875</v>
+        <v>45889.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45875.97916666666</v>
+        <v>45889.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45875.98958333334</v>
+        <v>45889.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B2">
-        <v>5.100000000000023</v>
+        <v>751.9000000000001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>247.9</v>
+        <v>655.5</v>
       </c>
       <c r="H2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>499.1</v>
+        <v>1164.9</v>
       </c>
       <c r="M2">
-        <v>676.9</v>
+        <v>1122.5</v>
       </c>
       <c r="N2">
-        <v>-177.8</v>
+        <v>42.40000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
       <c r="B3">
-        <v>5.100000000000023</v>
+        <v>751.9000000000001</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>206</v>
+        <v>653.2</v>
       </c>
       <c r="H3">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>499.1</v>
+        <v>1164.9</v>
       </c>
       <c r="M3">
-        <v>635</v>
+        <v>1120.2</v>
       </c>
       <c r="N3">
-        <v>-135.9</v>
+        <v>44.70000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
       <c r="B4">
-        <v>5.100000000000023</v>
+        <v>751.9000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>164.8</v>
+        <v>667</v>
       </c>
       <c r="H4">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>499.1</v>
+        <v>1164.9</v>
       </c>
       <c r="M4">
-        <v>593.8</v>
+        <v>1134</v>
       </c>
       <c r="N4">
-        <v>-94.69999999999993</v>
+        <v>30.90000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
       <c r="B5">
-        <v>5.100000000000023</v>
+        <v>751.9000000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,1286 +613,1286 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>92.5</v>
+        <v>642</v>
       </c>
       <c r="H5">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>499.1</v>
+        <v>1164.9</v>
       </c>
       <c r="M5">
-        <v>521.5</v>
+        <v>1109</v>
       </c>
       <c r="N5">
-        <v>-22.39999999999998</v>
+        <v>55.90000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>730.1499999999999</v>
       </c>
       <c r="C6">
-        <v>203.375</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F6">
-        <v>30.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>645.4000000000001</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>354.7</v>
+        <v>1115.15</v>
       </c>
       <c r="M6">
-        <v>635.375</v>
+        <v>1091.4</v>
       </c>
       <c r="N6">
-        <v>-280.675</v>
+        <v>23.74999999999977</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>730.1499999999999</v>
       </c>
       <c r="C7">
-        <v>203.375</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>613.4000000000001</v>
       </c>
       <c r="H7">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>384</v>
+        <v>1115.15</v>
       </c>
       <c r="M7">
-        <v>635.375</v>
+        <v>1059.4</v>
       </c>
       <c r="N7">
-        <v>-251.375</v>
+        <v>55.74999999999977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>730.1499999999999</v>
       </c>
       <c r="C8">
-        <v>203.375</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F8">
-        <v>87.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>637.9000000000001</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>411.9</v>
+        <v>1115.15</v>
       </c>
       <c r="M8">
-        <v>635.375</v>
+        <v>1083.9</v>
       </c>
       <c r="N8">
-        <v>-223.475</v>
+        <v>31.24999999999977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>730.1499999999999</v>
       </c>
       <c r="C9">
-        <v>203.375</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F9">
-        <v>126.7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>624.4000000000001</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>450.7</v>
+        <v>1115.15</v>
       </c>
       <c r="M9">
-        <v>635.375</v>
+        <v>1070.4</v>
       </c>
       <c r="N9">
-        <v>-184.675</v>
+        <v>44.74999999999977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>678.999999</v>
       </c>
       <c r="C10">
-        <v>154.025</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F10">
-        <v>205.7</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>566.6000000000001</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>472.7</v>
+        <v>1017.999999</v>
       </c>
       <c r="M10">
-        <v>566.0250000000001</v>
+        <v>992.6000000000001</v>
       </c>
       <c r="N10">
-        <v>-93.3250000000001</v>
+        <v>25.39999899999987</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>678.999999</v>
       </c>
       <c r="C11">
-        <v>154.025</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F11">
-        <v>255.5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>540.0000000000001</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>522.5</v>
+        <v>1017.999999</v>
       </c>
       <c r="M11">
-        <v>566.0250000000001</v>
+        <v>966.0000000000001</v>
       </c>
       <c r="N11">
-        <v>-43.52500000000009</v>
+        <v>51.99999899999989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>678.999999</v>
       </c>
       <c r="C12">
-        <v>154.025</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F12">
-        <v>290.4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>542.6000000000001</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>557.4</v>
+        <v>1017.999999</v>
       </c>
       <c r="M12">
-        <v>566.0250000000001</v>
+        <v>968.6000000000001</v>
       </c>
       <c r="N12">
-        <v>-8.625000000000114</v>
+        <v>49.39999899999987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>678.999999</v>
       </c>
       <c r="C13">
-        <v>154.025</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F13">
-        <v>262.9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>571.1000000000001</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>529.9</v>
+        <v>1017.999999</v>
       </c>
       <c r="M13">
-        <v>566.0250000000001</v>
+        <v>997.1000000000001</v>
       </c>
       <c r="N13">
-        <v>-36.12500000000011</v>
+        <v>20.89999899999987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>625.525</v>
       </c>
       <c r="C14">
-        <v>96.17500000000001</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="F14">
-        <v>249.4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>504.4</v>
+        <v>949.525</v>
       </c>
       <c r="M14">
-        <v>477.175</v>
+        <v>871</v>
       </c>
       <c r="N14">
-        <v>27.22499999999997</v>
+        <v>78.52499999999998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>625.525</v>
       </c>
       <c r="C15">
-        <v>96.17500000000001</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="F15">
-        <v>268.7</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>497.8</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>523.7</v>
+        <v>949.525</v>
       </c>
       <c r="M15">
-        <v>477.175</v>
+        <v>904.8</v>
       </c>
       <c r="N15">
-        <v>46.52500000000003</v>
+        <v>44.72500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>625.525</v>
       </c>
       <c r="C16">
-        <v>96.17500000000001</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="F16">
-        <v>284.2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>510.7</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>539.2</v>
+        <v>949.525</v>
       </c>
       <c r="M16">
-        <v>477.175</v>
+        <v>917.7</v>
       </c>
       <c r="N16">
-        <v>62.02500000000003</v>
+        <v>31.82499999999993</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>625.525</v>
       </c>
       <c r="C17">
-        <v>96.17500000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="F17">
-        <v>277.3</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>550.3</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>532.3</v>
+        <v>949.525</v>
       </c>
       <c r="M17">
-        <v>477.175</v>
+        <v>957.3</v>
       </c>
       <c r="N17">
-        <v>55.12499999999994</v>
+        <v>-7.774999999999977</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>643.2249999999999</v>
       </c>
       <c r="C18">
-        <v>118.05</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="F18">
-        <v>345.6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>498.9</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>590.6</v>
+        <v>928.2249999999999</v>
       </c>
       <c r="M18">
-        <v>547.05</v>
+        <v>891.9</v>
       </c>
       <c r="N18">
-        <v>43.55000000000007</v>
+        <v>36.32499999999993</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>643.2249999999999</v>
       </c>
       <c r="C19">
-        <v>118.05</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="F19">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>536.9</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>578.5</v>
+        <v>928.2249999999999</v>
       </c>
       <c r="M19">
-        <v>547.05</v>
+        <v>929.9</v>
       </c>
       <c r="N19">
-        <v>31.45000000000005</v>
+        <v>-1.675000000000068</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>643.2249999999999</v>
       </c>
       <c r="C20">
-        <v>118.05</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="F20">
-        <v>312.6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>595.7</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>557.6</v>
+        <v>928.2249999999999</v>
       </c>
       <c r="M20">
-        <v>547.05</v>
+        <v>988.7</v>
       </c>
       <c r="N20">
-        <v>10.55000000000007</v>
+        <v>-60.47500000000014</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>643.2249999999999</v>
       </c>
       <c r="C21">
-        <v>118.05</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="F21">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>582.8999999999999</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>524</v>
+        <v>928.2249999999999</v>
       </c>
       <c r="M21">
-        <v>547.05</v>
+        <v>975.8999999999999</v>
       </c>
       <c r="N21">
-        <v>-23.04999999999995</v>
+        <v>-47.67499999999995</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>471.975</v>
       </c>
       <c r="C22">
-        <v>251.85</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F22">
-        <v>470.6</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>327.1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>743.6</v>
+        <v>777.975</v>
       </c>
       <c r="M22">
-        <v>654.85</v>
+        <v>758.1</v>
       </c>
       <c r="N22">
-        <v>88.75</v>
+        <v>19.875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>471.975</v>
       </c>
       <c r="C23">
-        <v>251.85</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F23">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>373.1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>684</v>
+        <v>777.975</v>
       </c>
       <c r="M23">
-        <v>654.85</v>
+        <v>804.1</v>
       </c>
       <c r="N23">
-        <v>29.14999999999998</v>
+        <v>-26.125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>471.975</v>
       </c>
       <c r="C24">
-        <v>251.85</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F24">
-        <v>329.3</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>361.7</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>602.3</v>
+        <v>777.975</v>
       </c>
       <c r="M24">
-        <v>654.85</v>
+        <v>792.7</v>
       </c>
       <c r="N24">
-        <v>-52.55000000000007</v>
+        <v>-14.72500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>471.975</v>
       </c>
       <c r="C25">
-        <v>251.85</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F25">
-        <v>259.4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>383.9</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>532.4</v>
+        <v>777.975</v>
       </c>
       <c r="M25">
-        <v>654.85</v>
+        <v>814.9</v>
       </c>
       <c r="N25">
-        <v>-122.45</v>
+        <v>-36.92499999999995</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>691.05</v>
       </c>
       <c r="C26">
-        <v>191.825</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="F26">
-        <v>35.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>492.8</v>
       </c>
       <c r="H26">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>405.4</v>
+        <v>820.05</v>
       </c>
       <c r="M26">
-        <v>539.825</v>
+        <v>939.8</v>
       </c>
       <c r="N26">
-        <v>-134.4250000000001</v>
+        <v>-119.75</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>691.05</v>
       </c>
       <c r="C27">
-        <v>191.825</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="F27">
-        <v>37.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>457.2</v>
       </c>
       <c r="H27">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>407.2</v>
+        <v>820.05</v>
       </c>
       <c r="M27">
-        <v>539.825</v>
+        <v>904.2</v>
       </c>
       <c r="N27">
-        <v>-132.625</v>
+        <v>-84.15000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>691.05</v>
       </c>
       <c r="C28">
-        <v>191.825</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="F28">
-        <v>131.5</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>279.5</v>
       </c>
       <c r="H28">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>501.5</v>
+        <v>820.05</v>
       </c>
       <c r="M28">
-        <v>539.825</v>
+        <v>726.5</v>
       </c>
       <c r="N28">
-        <v>-38.32500000000005</v>
+        <v>93.54999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>691.05</v>
       </c>
       <c r="C29">
-        <v>191.825</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="F29">
-        <v>143.1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>165.4999999999999</v>
       </c>
       <c r="H29">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>513.1</v>
+        <v>820.05</v>
       </c>
       <c r="M29">
-        <v>539.825</v>
+        <v>612.5</v>
       </c>
       <c r="N29">
-        <v>-26.72500000000002</v>
+        <v>207.55</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>113.150001</v>
       </c>
       <c r="C30">
-        <v>244.175</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="F30">
-        <v>135.6</v>
+        <v>31.39999999999998</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J30">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L30">
-        <v>274.6</v>
+        <v>144.550001</v>
       </c>
       <c r="M30">
-        <v>420.175</v>
+        <v>288</v>
       </c>
       <c r="N30">
-        <v>-145.575</v>
+        <v>-143.449999</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>113.150001</v>
       </c>
       <c r="C31">
-        <v>244.175</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="F31">
-        <v>187.5000000000001</v>
+        <v>96.79999999999995</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J31">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L31">
-        <v>326.5000000000001</v>
+        <v>209.9500009999999</v>
       </c>
       <c r="M31">
-        <v>420.175</v>
+        <v>288</v>
       </c>
       <c r="N31">
-        <v>-93.6749999999999</v>
+        <v>-78.04999900000007</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>113.150001</v>
       </c>
       <c r="C32">
-        <v>244.175</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="F32">
-        <v>454.1</v>
+        <v>293.2</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J32">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L32">
-        <v>593.1</v>
+        <v>406.350001</v>
       </c>
       <c r="M32">
-        <v>420.175</v>
+        <v>288</v>
       </c>
       <c r="N32">
-        <v>172.9250000000001</v>
+        <v>118.350001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>113.150001</v>
       </c>
       <c r="C33">
-        <v>244.175</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="F33">
-        <v>431.8</v>
+        <v>295.2</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J33">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="L33">
-        <v>570.8</v>
+        <v>408.350001</v>
       </c>
       <c r="M33">
-        <v>420.175</v>
+        <v>288</v>
       </c>
       <c r="N33">
-        <v>150.625</v>
+        <v>120.350001</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>534.9500009999999</v>
+        <v>452.8250009999999</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E34">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>956.7</v>
+        <v>588</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L34">
-        <v>956.7</v>
+        <v>617</v>
       </c>
       <c r="M34">
-        <v>996.9500009999999</v>
+        <v>691.8250009999999</v>
       </c>
       <c r="N34">
-        <v>-40.25000099999988</v>
+        <v>-74.82500099999993</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>534.9500009999999</v>
+        <v>452.8250009999999</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>968.1</v>
+        <v>635.8</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L35">
-        <v>968.1</v>
+        <v>664.8</v>
       </c>
       <c r="M35">
-        <v>996.9500009999999</v>
+        <v>691.8250009999999</v>
       </c>
       <c r="N35">
-        <v>-28.85000099999991</v>
+        <v>-27.02500099999997</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>534.9500009999999</v>
+        <v>452.8250009999999</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E36">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1220</v>
+        <v>789</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L36">
-        <v>1220</v>
+        <v>818</v>
       </c>
       <c r="M36">
-        <v>996.9500009999999</v>
+        <v>691.8250009999999</v>
       </c>
       <c r="N36">
-        <v>223.0499990000001</v>
+        <v>126.1749990000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>534.9500009999999</v>
+        <v>452.8250009999999</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1209</v>
+        <v>777</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L37">
-        <v>1209</v>
+        <v>806</v>
       </c>
       <c r="M37">
-        <v>996.9500009999999</v>
+        <v>691.8250009999999</v>
       </c>
       <c r="N37">
-        <v>212.0499990000001</v>
+        <v>114.1749990000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>834.75</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1470.8</v>
+        <v>757.3</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1470.8</v>
+        <v>757.3</v>
       </c>
       <c r="M38">
-        <v>1653.75</v>
+        <v>201</v>
       </c>
       <c r="N38">
-        <v>-182.95</v>
+        <v>556.3</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>834.75</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1599.6</v>
+        <v>933.3</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1599.6</v>
+        <v>933.3</v>
       </c>
       <c r="M39">
-        <v>1653.75</v>
+        <v>201</v>
       </c>
       <c r="N39">
-        <v>-54.15000000000009</v>
+        <v>732.3</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45890.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>834.75</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1661.2</v>
+        <v>1038.2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1661.2</v>
+        <v>1038.2</v>
       </c>
       <c r="M40">
-        <v>1653.75</v>
+        <v>201</v>
       </c>
       <c r="N40">
-        <v>7.450000000000045</v>
+        <v>837.2</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45890.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>834.75</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1664.6</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1664.6</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1653.75</v>
+        <v>201</v>
       </c>
       <c r="N41">
-        <v>10.84999999999991</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45890.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45890.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45890.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45890.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45890.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45890.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45890.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45890.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45890.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45890.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45890.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45890.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45890.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45890.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45890.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45890.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45890.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45890.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45890.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45890.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45890.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45890.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45890.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45890.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45890.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45890.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45890.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45890.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45890.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45890.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45890.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45890.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45890.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45890.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45890.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45890.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45890.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45890.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45890.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45890.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45890.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45890.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45890.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45890.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45890.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45890.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45890.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45890.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45890.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45890.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45890.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45890.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45890.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45890.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45889.97916666666</v>
+        <v>45890.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45889.98958333334</v>
+        <v>45890.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,362 +469,362 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>751.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>92.54999999999995</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>467</v>
+        <v>170</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>391.6</v>
       </c>
       <c r="G2">
-        <v>655.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J2">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1164.9</v>
+        <v>419.6</v>
       </c>
       <c r="M2">
-        <v>1122.5</v>
+        <v>469.55</v>
       </c>
       <c r="N2">
-        <v>42.40000000000009</v>
+        <v>-49.94999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>751.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>92.54999999999995</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>467</v>
+        <v>170</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>383.3</v>
       </c>
       <c r="G3">
-        <v>653.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J3">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1164.9</v>
+        <v>411.3</v>
       </c>
       <c r="M3">
-        <v>1120.2</v>
+        <v>469.55</v>
       </c>
       <c r="N3">
-        <v>44.70000000000005</v>
+        <v>-58.24999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>751.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>92.54999999999995</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>467</v>
+        <v>170</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>366.5</v>
       </c>
       <c r="G4">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J4">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1164.9</v>
+        <v>394.5</v>
       </c>
       <c r="M4">
-        <v>1134</v>
+        <v>469.55</v>
       </c>
       <c r="N4">
-        <v>30.90000000000009</v>
+        <v>-75.04999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
-        <v>751.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>92.54999999999995</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>467</v>
+        <v>170</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>345.9</v>
       </c>
       <c r="G5">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J5">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1164.9</v>
+        <v>373.9</v>
       </c>
       <c r="M5">
-        <v>1109</v>
+        <v>469.55</v>
       </c>
       <c r="N5">
-        <v>55.90000000000009</v>
+        <v>-95.64999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
-        <v>730.1499999999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>56.92500000000007</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>446.6</v>
       </c>
       <c r="G6">
-        <v>645.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J6">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L6">
-        <v>1115.15</v>
+        <v>446.6</v>
       </c>
       <c r="M6">
-        <v>1091.4</v>
+        <v>504.9250000000001</v>
       </c>
       <c r="N6">
-        <v>23.74999999999977</v>
+        <v>-58.32500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>730.1499999999999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>56.92500000000007</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>493.8</v>
       </c>
       <c r="G7">
-        <v>613.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J7">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>1115.15</v>
+        <v>493.8</v>
       </c>
       <c r="M7">
-        <v>1059.4</v>
+        <v>504.9250000000001</v>
       </c>
       <c r="N7">
-        <v>55.74999999999977</v>
+        <v>-11.12500000000006</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
-        <v>730.1499999999999</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>56.92500000000007</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>491.6</v>
       </c>
       <c r="G8">
-        <v>637.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J8">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L8">
-        <v>1115.15</v>
+        <v>491.6</v>
       </c>
       <c r="M8">
-        <v>1083.9</v>
+        <v>504.9250000000001</v>
       </c>
       <c r="N8">
-        <v>31.24999999999977</v>
+        <v>-13.32500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>730.1499999999999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>56.92500000000007</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>501.4</v>
       </c>
       <c r="G9">
-        <v>624.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J9">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L9">
-        <v>1115.15</v>
+        <v>501.4</v>
       </c>
       <c r="M9">
-        <v>1070.4</v>
+        <v>504.9250000000001</v>
       </c>
       <c r="N9">
-        <v>44.74999999999977</v>
+        <v>-3.525000000000091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>678.999999</v>
+        <v>181.9499999999999</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>250.7</v>
       </c>
       <c r="G10">
-        <v>566.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J10">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L10">
-        <v>1017.999999</v>
+        <v>432.6499999999999</v>
       </c>
       <c r="M10">
-        <v>992.6000000000001</v>
+        <v>412</v>
       </c>
       <c r="N10">
-        <v>25.39999899999987</v>
+        <v>20.64999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>678.999999</v>
+        <v>181.9499999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>269.6</v>
       </c>
       <c r="G11">
-        <v>540.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J11">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L11">
-        <v>1017.999999</v>
+        <v>451.55</v>
       </c>
       <c r="M11">
-        <v>966.0000000000001</v>
+        <v>412</v>
       </c>
       <c r="N11">
-        <v>51.99999899999989</v>
+        <v>39.54999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>678.999999</v>
+        <v>181.9499999999999</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>245.5</v>
       </c>
       <c r="G12">
-        <v>542.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J12">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L12">
-        <v>1017.999999</v>
+        <v>427.4499999999999</v>
       </c>
       <c r="M12">
-        <v>968.6000000000001</v>
+        <v>412</v>
       </c>
       <c r="N12">
-        <v>49.39999899999987</v>
+        <v>15.44999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>678.999999</v>
+        <v>181.9499999999999</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>217.2</v>
       </c>
       <c r="G13">
-        <v>571.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J13">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L13">
-        <v>1017.999999</v>
+        <v>399.1499999999999</v>
       </c>
       <c r="M13">
-        <v>997.1000000000001</v>
+        <v>412</v>
       </c>
       <c r="N13">
-        <v>20.89999899999987</v>
+        <v>-12.85000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>625.525</v>
+        <v>148.1750000000001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>195.5</v>
       </c>
       <c r="G14">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J14">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>949.525</v>
+        <v>343.6750000000001</v>
       </c>
       <c r="M14">
-        <v>871</v>
+        <v>338</v>
       </c>
       <c r="N14">
-        <v>78.52499999999998</v>
+        <v>5.675000000000068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>625.525</v>
+        <v>148.1750000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>205.1</v>
       </c>
       <c r="G15">
-        <v>497.8</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J15">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>949.525</v>
+        <v>353.2750000000001</v>
       </c>
       <c r="M15">
-        <v>904.8</v>
+        <v>338</v>
       </c>
       <c r="N15">
-        <v>44.72500000000002</v>
+        <v>15.27500000000009</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>625.525</v>
+        <v>148.1750000000001</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>206.8</v>
       </c>
       <c r="G16">
-        <v>510.7</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J16">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L16">
-        <v>949.525</v>
+        <v>354.9750000000001</v>
       </c>
       <c r="M16">
-        <v>917.7</v>
+        <v>338</v>
       </c>
       <c r="N16">
-        <v>31.82499999999993</v>
+        <v>16.97500000000008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>625.525</v>
+        <v>148.1750000000001</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,582 +1141,582 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>183.8</v>
       </c>
       <c r="G17">
-        <v>550.3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J17">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L17">
-        <v>949.525</v>
+        <v>331.9750000000001</v>
       </c>
       <c r="M17">
-        <v>957.3</v>
+        <v>338</v>
       </c>
       <c r="N17">
-        <v>-7.774999999999977</v>
+        <v>-6.02499999999992</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>643.2249999999999</v>
+        <v>1.425000000000068</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>303.5</v>
       </c>
       <c r="G18">
-        <v>498.9</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="J18">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>928.2249999999999</v>
+        <v>361.9250000000001</v>
       </c>
       <c r="M18">
-        <v>891.9</v>
+        <v>321</v>
       </c>
       <c r="N18">
-        <v>36.32499999999993</v>
+        <v>40.92500000000007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>643.2249999999999</v>
+        <v>1.425000000000068</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>297.8</v>
       </c>
       <c r="G19">
-        <v>536.9</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="J19">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>928.2249999999999</v>
+        <v>356.225</v>
       </c>
       <c r="M19">
-        <v>929.9</v>
+        <v>321</v>
       </c>
       <c r="N19">
-        <v>-1.675000000000068</v>
+        <v>35.22500000000002</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>643.2249999999999</v>
+        <v>1.425000000000068</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>230.2</v>
       </c>
       <c r="G20">
-        <v>595.7</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="J20">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>928.2249999999999</v>
+        <v>288.6250000000001</v>
       </c>
       <c r="M20">
-        <v>988.7</v>
+        <v>321</v>
       </c>
       <c r="N20">
-        <v>-60.47500000000014</v>
+        <v>-32.37499999999994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>643.2249999999999</v>
+        <v>1.425000000000068</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>174.1</v>
       </c>
       <c r="G21">
-        <v>582.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="J21">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>928.2249999999999</v>
+        <v>232.5250000000001</v>
       </c>
       <c r="M21">
-        <v>975.8999999999999</v>
+        <v>321</v>
       </c>
       <c r="N21">
-        <v>-47.67499999999995</v>
+        <v>-88.47499999999991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>471.975</v>
+        <v>13.75</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E22">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>28.19999999999999</v>
       </c>
       <c r="G22">
-        <v>327.1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J22">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>777.975</v>
+        <v>249.95</v>
       </c>
       <c r="M22">
-        <v>758.1</v>
+        <v>341</v>
       </c>
       <c r="N22">
-        <v>19.875</v>
+        <v>-91.05000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>471.975</v>
+        <v>13.75</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E23">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>58.29999999999998</v>
       </c>
       <c r="G23">
-        <v>373.1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J23">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>777.975</v>
+        <v>280.05</v>
       </c>
       <c r="M23">
-        <v>804.1</v>
+        <v>341</v>
       </c>
       <c r="N23">
-        <v>-26.125</v>
+        <v>-60.95000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>471.975</v>
+        <v>13.75</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E24">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>111.9</v>
       </c>
       <c r="G24">
-        <v>361.7</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J24">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>777.975</v>
+        <v>333.65</v>
       </c>
       <c r="M24">
-        <v>792.7</v>
+        <v>341</v>
       </c>
       <c r="N24">
-        <v>-14.72500000000002</v>
+        <v>-7.350000000000023</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>471.975</v>
+        <v>13.75</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E25">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="G25">
-        <v>383.9</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J25">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>777.975</v>
+        <v>325.25</v>
       </c>
       <c r="M25">
-        <v>814.9</v>
+        <v>341</v>
       </c>
       <c r="N25">
-        <v>-36.92499999999995</v>
+        <v>-15.75</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>691.05</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>193.15</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="E26">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>295.8</v>
       </c>
       <c r="G26">
-        <v>492.8</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J26">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L26">
-        <v>820.05</v>
+        <v>574.8</v>
       </c>
       <c r="M26">
-        <v>939.8</v>
+        <v>599.15</v>
       </c>
       <c r="N26">
-        <v>-119.75</v>
+        <v>-24.35000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>691.05</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>193.15</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="E27">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G27">
-        <v>457.2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J27">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L27">
-        <v>820.05</v>
+        <v>563</v>
       </c>
       <c r="M27">
-        <v>904.2</v>
+        <v>599.15</v>
       </c>
       <c r="N27">
-        <v>-84.15000000000009</v>
+        <v>-36.14999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>691.05</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>193.15</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="E28">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G28">
-        <v>279.5</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J28">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L28">
-        <v>820.05</v>
+        <v>632</v>
       </c>
       <c r="M28">
-        <v>726.5</v>
+        <v>599.15</v>
       </c>
       <c r="N28">
-        <v>93.54999999999995</v>
+        <v>32.85000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>691.05</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>193.15</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="E29">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="G29">
-        <v>165.4999999999999</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="J29">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L29">
-        <v>820.05</v>
+        <v>623</v>
       </c>
       <c r="M29">
-        <v>612.5</v>
+        <v>599.15</v>
       </c>
       <c r="N29">
-        <v>207.55</v>
+        <v>23.85000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>113.150001</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>802.1499999999999</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E30">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>31.39999999999998</v>
+        <v>1443.9</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>110</v>
+        <v>648</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="L30">
-        <v>144.550001</v>
+        <v>1644.9</v>
       </c>
       <c r="M30">
-        <v>288</v>
+        <v>1526.15</v>
       </c>
       <c r="N30">
-        <v>-143.449999</v>
+        <v>118.7500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>113.150001</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>802.1499999999999</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E31">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>96.79999999999995</v>
+        <v>1598.9</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>110</v>
+        <v>648</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="L31">
-        <v>209.9500009999999</v>
+        <v>1799.9</v>
       </c>
       <c r="M31">
-        <v>288</v>
+        <v>1526.15</v>
       </c>
       <c r="N31">
-        <v>-78.04999900000007</v>
+        <v>273.7500000000002</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>113.150001</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>802.1499999999999</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E32">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>293.2</v>
+        <v>1662.6</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>110</v>
+        <v>648</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="L32">
-        <v>406.350001</v>
+        <v>1863.6</v>
       </c>
       <c r="M32">
-        <v>288</v>
+        <v>1526.15</v>
       </c>
       <c r="N32">
-        <v>118.350001</v>
+        <v>337.45</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>113.150001</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>802.1499999999999</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>295.2</v>
+        <v>1652</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>110</v>
+        <v>648</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="L33">
-        <v>408.350001</v>
+        <v>1853</v>
       </c>
       <c r="M33">
-        <v>288</v>
+        <v>1526.15</v>
       </c>
       <c r="N33">
-        <v>120.350001</v>
+        <v>326.8500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>452.8250009999999</v>
+        <v>961.675</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>588</v>
+        <v>1573</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="L34">
-        <v>617</v>
+        <v>2088</v>
       </c>
       <c r="M34">
-        <v>691.8250009999999</v>
+        <v>1733.675</v>
       </c>
       <c r="N34">
-        <v>-74.82500099999993</v>
+        <v>354.325</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>452.8250009999999</v>
+        <v>961.675</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>635.8</v>
+        <v>1539</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="L35">
-        <v>664.8</v>
+        <v>2054</v>
       </c>
       <c r="M35">
-        <v>691.8250009999999</v>
+        <v>1733.675</v>
       </c>
       <c r="N35">
-        <v>-27.02500099999997</v>
+        <v>320.325</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>452.8250009999999</v>
+        <v>961.675</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>789</v>
+        <v>1508</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="L36">
-        <v>818</v>
+        <v>2023</v>
       </c>
       <c r="M36">
-        <v>691.8250009999999</v>
+        <v>1733.675</v>
       </c>
       <c r="N36">
-        <v>126.1749990000001</v>
+        <v>289.325</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>452.8250009999999</v>
+        <v>961.675</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>777</v>
+        <v>1488</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="L37">
-        <v>806</v>
+        <v>2003</v>
       </c>
       <c r="M37">
-        <v>691.8250009999999</v>
+        <v>1733.675</v>
       </c>
       <c r="N37">
-        <v>114.1749990000001</v>
+        <v>269.325</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>891.650001</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>757.3</v>
+        <v>1506</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>201</v>
+        <v>687</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L38">
-        <v>757.3</v>
+        <v>1992</v>
       </c>
       <c r="M38">
-        <v>201</v>
+        <v>1608.650001</v>
       </c>
       <c r="N38">
-        <v>556.3</v>
+        <v>383.349999</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>891.650001</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>933.3</v>
+        <v>1482.9</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>201</v>
+        <v>687</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L39">
-        <v>933.3</v>
+        <v>1968.9</v>
       </c>
       <c r="M39">
-        <v>201</v>
+        <v>1608.650001</v>
       </c>
       <c r="N39">
-        <v>732.3</v>
+        <v>360.2499990000001</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>891.650001</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1038.2</v>
+        <v>1454</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>201</v>
+        <v>687</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L40">
-        <v>1038.2</v>
+        <v>1940</v>
       </c>
       <c r="M40">
-        <v>201</v>
+        <v>1608.650001</v>
       </c>
       <c r="N40">
-        <v>837.2</v>
+        <v>331.349999</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>891.650001</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1473</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>201</v>
+        <v>687</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1959</v>
       </c>
       <c r="M41">
-        <v>201</v>
+        <v>1608.650001</v>
       </c>
       <c r="N41">
-        <v>-201</v>
+        <v>350.349999</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1638.8</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1638.8</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1638.8</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,22 +469,22 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>92.54999999999995</v>
+        <v>185.650001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F2">
-        <v>391.6</v>
+        <v>415.3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -493,42 +493,42 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>419.6</v>
+        <v>420.3</v>
       </c>
       <c r="M2">
-        <v>469.55</v>
+        <v>518.650001</v>
       </c>
       <c r="N2">
-        <v>-49.94999999999993</v>
+        <v>-98.35000099999996</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>92.54999999999995</v>
+        <v>185.650001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F3">
-        <v>383.3</v>
+        <v>466.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,42 +537,42 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>411.3</v>
+        <v>471.7</v>
       </c>
       <c r="M3">
-        <v>469.55</v>
+        <v>518.650001</v>
       </c>
       <c r="N3">
-        <v>-58.24999999999994</v>
+        <v>-46.95000099999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>92.54999999999995</v>
+        <v>185.650001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F4">
-        <v>366.5</v>
+        <v>484.8</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -581,42 +581,42 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>394.5</v>
+        <v>489.8</v>
       </c>
       <c r="M4">
-        <v>469.55</v>
+        <v>518.650001</v>
       </c>
       <c r="N4">
-        <v>-75.04999999999995</v>
+        <v>-28.85000099999996</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>92.54999999999995</v>
+        <v>185.650001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F5">
-        <v>345.9</v>
+        <v>449.8</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -625,42 +625,42 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>373.9</v>
+        <v>454.8</v>
       </c>
       <c r="M5">
-        <v>469.55</v>
+        <v>518.650001</v>
       </c>
       <c r="N5">
-        <v>-95.64999999999998</v>
+        <v>-63.85000099999996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>56.92500000000007</v>
+        <v>75.47500000000002</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>446.6</v>
+        <v>315.4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -669,42 +669,42 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>446.6</v>
+        <v>316.4</v>
       </c>
       <c r="M6">
-        <v>504.9250000000001</v>
+        <v>349.475</v>
       </c>
       <c r="N6">
-        <v>-58.32500000000005</v>
+        <v>-33.07499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>56.92500000000007</v>
+        <v>75.47500000000002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>493.8</v>
+        <v>350.8</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -713,42 +713,42 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>493.8</v>
+        <v>351.8</v>
       </c>
       <c r="M7">
-        <v>504.9250000000001</v>
+        <v>349.475</v>
       </c>
       <c r="N7">
-        <v>-11.12500000000006</v>
+        <v>2.324999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>56.92500000000007</v>
+        <v>75.47500000000002</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F8">
-        <v>491.6</v>
+        <v>305.6</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -757,42 +757,42 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>491.6</v>
+        <v>306.6</v>
       </c>
       <c r="M8">
-        <v>504.9250000000001</v>
+        <v>349.475</v>
       </c>
       <c r="N8">
-        <v>-13.32500000000005</v>
+        <v>-42.875</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>56.92500000000007</v>
+        <v>75.47500000000002</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F9">
-        <v>501.4</v>
+        <v>280.5</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -801,42 +801,42 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>501.4</v>
+        <v>281.5</v>
       </c>
       <c r="M9">
-        <v>504.9250000000001</v>
+        <v>349.475</v>
       </c>
       <c r="N9">
-        <v>-3.525000000000091</v>
+        <v>-67.97500000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B10">
-        <v>181.9499999999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F10">
-        <v>250.7</v>
+        <v>483.6</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,42 +845,42 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>432.6499999999999</v>
+        <v>483.6</v>
       </c>
       <c r="M10">
-        <v>412</v>
+        <v>450.8</v>
       </c>
       <c r="N10">
-        <v>20.64999999999992</v>
+        <v>32.80000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B11">
-        <v>181.9499999999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F11">
-        <v>269.6</v>
+        <v>479.2</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -889,42 +889,42 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>451.55</v>
+        <v>479.2</v>
       </c>
       <c r="M11">
-        <v>412</v>
+        <v>450.8</v>
       </c>
       <c r="N11">
-        <v>39.54999999999995</v>
+        <v>28.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B12">
-        <v>181.9499999999999</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F12">
-        <v>245.5</v>
+        <v>449.9</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -933,42 +933,42 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>427.4499999999999</v>
+        <v>449.9</v>
       </c>
       <c r="M12">
-        <v>412</v>
+        <v>450.8</v>
       </c>
       <c r="N12">
-        <v>15.44999999999993</v>
+        <v>-0.8999999999999773</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B13">
-        <v>181.9499999999999</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F13">
-        <v>217.2</v>
+        <v>414.3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -977,42 +977,42 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>399.1499999999999</v>
+        <v>414.3</v>
       </c>
       <c r="M13">
-        <v>412</v>
+        <v>450.8</v>
       </c>
       <c r="N13">
-        <v>-12.85000000000008</v>
+        <v>-36.49999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B14">
-        <v>148.1750000000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>130.25</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F14">
-        <v>195.5</v>
+        <v>563.7</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,42 +1021,42 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L14">
-        <v>343.6750000000001</v>
+        <v>563.7</v>
       </c>
       <c r="M14">
-        <v>338</v>
+        <v>541.25</v>
       </c>
       <c r="N14">
-        <v>5.675000000000068</v>
+        <v>22.45000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B15">
-        <v>148.1750000000001</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>130.25</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F15">
-        <v>205.1</v>
+        <v>568.7</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,42 +1065,42 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>353.2750000000001</v>
+        <v>568.7</v>
       </c>
       <c r="M15">
-        <v>338</v>
+        <v>541.25</v>
       </c>
       <c r="N15">
-        <v>15.27500000000009</v>
+        <v>27.45000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B16">
-        <v>148.1750000000001</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>130.25</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F16">
-        <v>206.8</v>
+        <v>556.5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,42 +1109,42 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L16">
-        <v>354.9750000000001</v>
+        <v>556.5</v>
       </c>
       <c r="M16">
-        <v>338</v>
+        <v>541.25</v>
       </c>
       <c r="N16">
-        <v>16.97500000000008</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B17">
-        <v>148.1750000000001</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>130.25</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F17">
-        <v>183.8</v>
+        <v>541.4</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,42 +1153,42 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>331.9750000000001</v>
+        <v>541.4</v>
       </c>
       <c r="M17">
-        <v>338</v>
+        <v>541.25</v>
       </c>
       <c r="N17">
-        <v>-6.02499999999992</v>
+        <v>0.1499999999999773</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B18">
-        <v>1.425000000000068</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>80.90000000000003</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F18">
-        <v>303.5</v>
+        <v>337.6</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,42 +1197,42 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="J18">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>361.9250000000001</v>
+        <v>363.6</v>
       </c>
       <c r="M18">
-        <v>321</v>
+        <v>414.9</v>
       </c>
       <c r="N18">
-        <v>40.92500000000007</v>
+        <v>-51.30000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B19">
-        <v>1.425000000000068</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>80.90000000000003</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F19">
-        <v>297.8</v>
+        <v>385.2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,42 +1241,42 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="J19">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>356.225</v>
+        <v>411.2</v>
       </c>
       <c r="M19">
-        <v>321</v>
+        <v>414.9</v>
       </c>
       <c r="N19">
-        <v>35.22500000000002</v>
+        <v>-3.700000000000045</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B20">
-        <v>1.425000000000068</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>80.90000000000003</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F20">
-        <v>230.2</v>
+        <v>395.5</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1285,42 +1285,42 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="J20">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>288.6250000000001</v>
+        <v>421.5</v>
       </c>
       <c r="M20">
-        <v>321</v>
+        <v>414.9</v>
       </c>
       <c r="N20">
-        <v>-32.37499999999994</v>
+        <v>6.599999999999966</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.425000000000068</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>80.90000000000003</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F21">
-        <v>174.1</v>
+        <v>403.6</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1329,218 +1329,218 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="J21">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>232.5250000000001</v>
+        <v>429.6</v>
       </c>
       <c r="M21">
-        <v>321</v>
+        <v>414.9</v>
       </c>
       <c r="N21">
-        <v>-88.47499999999991</v>
+        <v>14.69999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B22">
-        <v>13.75</v>
+        <v>172.55</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F22">
-        <v>28.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>96.89999999999998</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>249.95</v>
+        <v>349.55</v>
       </c>
       <c r="M22">
-        <v>341</v>
+        <v>351.9</v>
       </c>
       <c r="N22">
-        <v>-91.05000000000001</v>
+        <v>-2.349999999999966</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B23">
-        <v>13.75</v>
+        <v>172.55</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F23">
-        <v>58.29999999999998</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>129.4</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>280.05</v>
+        <v>349.55</v>
       </c>
       <c r="M23">
-        <v>341</v>
+        <v>384.4</v>
       </c>
       <c r="N23">
-        <v>-60.95000000000005</v>
+        <v>-34.84999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B24">
-        <v>13.75</v>
+        <v>172.55</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F24">
-        <v>111.9</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>333.65</v>
+        <v>349.55</v>
       </c>
       <c r="M24">
-        <v>341</v>
+        <v>341.5</v>
       </c>
       <c r="N24">
-        <v>-7.350000000000023</v>
+        <v>8.050000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B25">
-        <v>13.75</v>
+        <v>172.55</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F25">
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>140.1999999999999</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>325.25</v>
+        <v>349.55</v>
       </c>
       <c r="M25">
-        <v>341</v>
+        <v>395.1999999999999</v>
       </c>
       <c r="N25">
-        <v>-15.75</v>
+        <v>-45.64999999999992</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>160.275</v>
       </c>
       <c r="C26">
-        <v>193.15</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F26">
-        <v>295.8</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1549,42 +1549,42 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>365</v>
+        <v>163</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K26">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>574.8</v>
+        <v>343.275</v>
       </c>
       <c r="M26">
-        <v>599.15</v>
+        <v>435</v>
       </c>
       <c r="N26">
-        <v>-24.35000000000002</v>
+        <v>-91.72500000000002</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>160.275</v>
       </c>
       <c r="C27">
-        <v>193.15</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F27">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1593,42 +1593,42 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>365</v>
+        <v>163</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K27">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>563</v>
+        <v>423.275</v>
       </c>
       <c r="M27">
-        <v>599.15</v>
+        <v>435</v>
       </c>
       <c r="N27">
-        <v>-36.14999999999998</v>
+        <v>-11.72500000000002</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>160.275</v>
       </c>
       <c r="C28">
-        <v>193.15</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F28">
-        <v>353</v>
+        <v>121</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1637,42 +1637,42 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>365</v>
+        <v>163</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K28">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>632</v>
+        <v>432.275</v>
       </c>
       <c r="M28">
-        <v>599.15</v>
+        <v>435</v>
       </c>
       <c r="N28">
-        <v>32.85000000000002</v>
+        <v>-2.725000000000023</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>160.275</v>
       </c>
       <c r="C29">
-        <v>193.15</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F29">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1681,42 +1681,42 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>365</v>
+        <v>163</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>623</v>
+        <v>423.275</v>
       </c>
       <c r="M29">
-        <v>599.15</v>
+        <v>435</v>
       </c>
       <c r="N29">
-        <v>23.85000000000002</v>
+        <v>-11.72500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>802.1499999999999</v>
+        <v>203.1999989999999</v>
       </c>
       <c r="D30">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F30">
-        <v>1443.9</v>
+        <v>596</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>648</v>
+        <v>262</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="L30">
-        <v>1644.9</v>
+        <v>596</v>
       </c>
       <c r="M30">
-        <v>1526.15</v>
+        <v>625.1999989999999</v>
       </c>
       <c r="N30">
-        <v>118.7500000000002</v>
+        <v>-29.19999899999993</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>802.1499999999999</v>
+        <v>203.1999989999999</v>
       </c>
       <c r="D31">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F31">
-        <v>1598.9</v>
+        <v>707.4</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>648</v>
+        <v>262</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="L31">
-        <v>1799.9</v>
+        <v>707.4</v>
       </c>
       <c r="M31">
-        <v>1526.15</v>
+        <v>625.1999989999999</v>
       </c>
       <c r="N31">
-        <v>273.7500000000002</v>
+        <v>82.20000100000004</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>802.1499999999999</v>
+        <v>203.1999989999999</v>
       </c>
       <c r="D32">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F32">
-        <v>1662.6</v>
+        <v>727</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>648</v>
+        <v>262</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="L32">
-        <v>1863.6</v>
+        <v>727</v>
       </c>
       <c r="M32">
-        <v>1526.15</v>
+        <v>625.1999989999999</v>
       </c>
       <c r="N32">
-        <v>337.45</v>
+        <v>101.8000010000001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>802.1499999999999</v>
+        <v>203.1999989999999</v>
       </c>
       <c r="D33">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F33">
-        <v>1652</v>
+        <v>712</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>648</v>
+        <v>262</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="L33">
-        <v>1853</v>
+        <v>712</v>
       </c>
       <c r="M33">
-        <v>1526.15</v>
+        <v>625.1999989999999</v>
       </c>
       <c r="N33">
-        <v>326.8500000000001</v>
+        <v>86.80000100000007</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>961.675</v>
+        <v>777.5</v>
       </c>
       <c r="D34">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1573</v>
+        <v>803</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>609</v>
+        <v>173</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="L34">
-        <v>2088</v>
+        <v>1343</v>
       </c>
       <c r="M34">
-        <v>1733.675</v>
+        <v>1218.5</v>
       </c>
       <c r="N34">
-        <v>354.325</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>961.675</v>
+        <v>777.5</v>
       </c>
       <c r="D35">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1539</v>
+        <v>848</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>609</v>
+        <v>173</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="L35">
-        <v>2054</v>
+        <v>1388</v>
       </c>
       <c r="M35">
-        <v>1733.675</v>
+        <v>1218.5</v>
       </c>
       <c r="N35">
-        <v>320.325</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>961.675</v>
+        <v>777.5</v>
       </c>
       <c r="D36">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1508</v>
+        <v>790</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>609</v>
+        <v>173</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="L36">
-        <v>2023</v>
+        <v>1330</v>
       </c>
       <c r="M36">
-        <v>1733.675</v>
+        <v>1218.5</v>
       </c>
       <c r="N36">
-        <v>289.325</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>961.675</v>
+        <v>777.5</v>
       </c>
       <c r="D37">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1488</v>
+        <v>755</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>609</v>
+        <v>173</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="L37">
-        <v>2003</v>
+        <v>1295</v>
       </c>
       <c r="M37">
-        <v>1733.675</v>
+        <v>1218.5</v>
       </c>
       <c r="N37">
-        <v>269.325</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>891.650001</v>
+        <v>936.8499999999999</v>
       </c>
       <c r="D38">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1506</v>
+        <v>1058.4</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>687</v>
+        <v>195</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="L38">
-        <v>1992</v>
+        <v>1526.4</v>
       </c>
       <c r="M38">
-        <v>1608.650001</v>
+        <v>1513.85</v>
       </c>
       <c r="N38">
-        <v>383.349999</v>
+        <v>12.54999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>891.650001</v>
+        <v>936.8499999999999</v>
       </c>
       <c r="D39">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1482.9</v>
+        <v>1060.2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>687</v>
+        <v>195</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="L39">
-        <v>1968.9</v>
+        <v>1528.2</v>
       </c>
       <c r="M39">
-        <v>1608.650001</v>
+        <v>1513.85</v>
       </c>
       <c r="N39">
-        <v>360.2499990000001</v>
+        <v>14.35000000000014</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>891.650001</v>
+        <v>936.8499999999999</v>
       </c>
       <c r="D40">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1454</v>
+        <v>1010.7</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>687</v>
+        <v>195</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="L40">
-        <v>1940</v>
+        <v>1478.7</v>
       </c>
       <c r="M40">
-        <v>1608.650001</v>
+        <v>1513.85</v>
       </c>
       <c r="N40">
-        <v>331.349999</v>
+        <v>-35.14999999999986</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>891.650001</v>
+        <v>936.8499999999999</v>
       </c>
       <c r="D41">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1473</v>
+        <v>1048</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>687</v>
+        <v>195</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="L41">
-        <v>1959</v>
+        <v>1516</v>
       </c>
       <c r="M41">
-        <v>1608.650001</v>
+        <v>1513.85</v>
       </c>
       <c r="N41">
-        <v>350.349999</v>
+        <v>2.150000000000091</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1638.8</v>
+        <v>1265.6</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1638.8</v>
+        <v>1265.6</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1638.8</v>
+        <v>1265.6</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,22 +469,22 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>280.1499999999999</v>
       </c>
       <c r="C2">
-        <v>185.650001</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="F2">
-        <v>415.3</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -493,42 +493,42 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>420.3</v>
+        <v>532.3499999999999</v>
       </c>
       <c r="M2">
-        <v>518.650001</v>
+        <v>406</v>
       </c>
       <c r="N2">
-        <v>-98.35000099999996</v>
+        <v>126.3499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>280.1499999999999</v>
       </c>
       <c r="C3">
-        <v>185.650001</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="F3">
-        <v>466.7</v>
+        <v>38.40000000000003</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,130 +537,130 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>471.7</v>
+        <v>565.55</v>
       </c>
       <c r="M3">
-        <v>518.650001</v>
+        <v>406</v>
       </c>
       <c r="N3">
-        <v>-46.95000099999999</v>
+        <v>159.55</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>280.1499999999999</v>
       </c>
       <c r="C4">
-        <v>185.650001</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="F4">
-        <v>484.8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>489.8</v>
+        <v>527.1499999999999</v>
       </c>
       <c r="M4">
-        <v>518.650001</v>
+        <v>461</v>
       </c>
       <c r="N4">
-        <v>-28.85000099999996</v>
+        <v>66.14999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>280.1499999999999</v>
       </c>
       <c r="C5">
-        <v>185.650001</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="F5">
-        <v>449.8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100.6999999999999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>454.8</v>
+        <v>527.1499999999999</v>
       </c>
       <c r="M5">
-        <v>518.650001</v>
+        <v>506.6999999999999</v>
       </c>
       <c r="N5">
-        <v>-63.85000099999996</v>
+        <v>20.44999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>183.825</v>
       </c>
       <c r="C6">
-        <v>75.47500000000002</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="F6">
-        <v>315.4</v>
+        <v>72.20000000000005</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -669,42 +669,42 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>316.4</v>
+        <v>451.0250000000001</v>
       </c>
       <c r="M6">
-        <v>349.475</v>
+        <v>347</v>
       </c>
       <c r="N6">
-        <v>-33.07499999999999</v>
+        <v>104.0250000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>183.825</v>
       </c>
       <c r="C7">
-        <v>75.47500000000002</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>350.8</v>
+        <v>71.40000000000003</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -713,42 +713,42 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>351.8</v>
+        <v>450.2250000000001</v>
       </c>
       <c r="M7">
-        <v>349.475</v>
+        <v>347</v>
       </c>
       <c r="N7">
-        <v>2.324999999999989</v>
+        <v>103.2250000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>183.825</v>
       </c>
       <c r="C8">
-        <v>75.47500000000002</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="F8">
-        <v>305.6</v>
+        <v>17.50000000000006</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -757,86 +757,86 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>306.6</v>
+        <v>396.3250000000001</v>
       </c>
       <c r="M8">
-        <v>349.475</v>
+        <v>347</v>
       </c>
       <c r="N8">
-        <v>-42.875</v>
+        <v>49.3250000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>183.825</v>
       </c>
       <c r="C9">
-        <v>75.47500000000002</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="F9">
-        <v>280.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>85.20000000000005</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>281.5</v>
+        <v>378.825</v>
       </c>
       <c r="M9">
-        <v>349.475</v>
+        <v>432.2</v>
       </c>
       <c r="N9">
-        <v>-67.97500000000002</v>
+        <v>-53.375</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>102.1250000000001</v>
       </c>
       <c r="C10">
-        <v>40.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="F10">
-        <v>483.6</v>
+        <v>10.80000000000007</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,514 +845,514 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>483.6</v>
+        <v>292.9250000000002</v>
       </c>
       <c r="M10">
-        <v>450.8</v>
+        <v>262</v>
       </c>
       <c r="N10">
-        <v>32.80000000000007</v>
+        <v>30.92500000000018</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>102.1250000000001</v>
       </c>
       <c r="C11">
-        <v>40.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="F11">
-        <v>479.2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>19.89999999999998</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>479.2</v>
+        <v>282.1250000000001</v>
       </c>
       <c r="M11">
-        <v>450.8</v>
+        <v>281.9</v>
       </c>
       <c r="N11">
-        <v>28.40000000000003</v>
+        <v>0.2250000000001364</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>102.1250000000001</v>
       </c>
       <c r="C12">
-        <v>40.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="F12">
-        <v>449.9</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.599999999999966</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>449.9</v>
+        <v>282.1250000000001</v>
       </c>
       <c r="M12">
-        <v>450.8</v>
+        <v>265.6</v>
       </c>
       <c r="N12">
-        <v>-0.8999999999999773</v>
+        <v>16.52500000000015</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>102.1250000000001</v>
       </c>
       <c r="C13">
-        <v>40.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="F13">
-        <v>414.3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>12.19999999999993</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>414.3</v>
+        <v>282.1250000000001</v>
       </c>
       <c r="M13">
-        <v>450.8</v>
+        <v>274.1999999999999</v>
       </c>
       <c r="N13">
-        <v>-36.49999999999994</v>
+        <v>7.925000000000182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>241.4499999999999</v>
       </c>
       <c r="C14">
-        <v>130.25</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F14">
-        <v>563.7</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>155.4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>563.7</v>
+        <v>473.4499999999999</v>
       </c>
       <c r="M14">
-        <v>541.25</v>
+        <v>394.4</v>
       </c>
       <c r="N14">
-        <v>22.45000000000005</v>
+        <v>79.04999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>241.4499999999999</v>
       </c>
       <c r="C15">
-        <v>130.25</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F15">
-        <v>568.7</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>219.9</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>568.7</v>
+        <v>473.4499999999999</v>
       </c>
       <c r="M15">
-        <v>541.25</v>
+        <v>458.9</v>
       </c>
       <c r="N15">
-        <v>27.45000000000005</v>
+        <v>14.54999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>241.4499999999999</v>
       </c>
       <c r="C16">
-        <v>130.25</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F16">
-        <v>556.5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>556.5</v>
+        <v>473.4499999999999</v>
       </c>
       <c r="M16">
-        <v>541.25</v>
+        <v>359.3</v>
       </c>
       <c r="N16">
-        <v>15.25</v>
+        <v>114.15</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>241.4499999999999</v>
       </c>
       <c r="C17">
-        <v>130.25</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F17">
-        <v>541.4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>135.9</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I17">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>541.4</v>
+        <v>473.4499999999999</v>
       </c>
       <c r="M17">
-        <v>541.25</v>
+        <v>374.9</v>
       </c>
       <c r="N17">
-        <v>0.1499999999999773</v>
+        <v>98.54999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>263.825</v>
       </c>
       <c r="C18">
-        <v>80.90000000000003</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F18">
-        <v>337.6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>323.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I18">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>363.6</v>
+        <v>628.825</v>
       </c>
       <c r="M18">
-        <v>414.9</v>
+        <v>558.5</v>
       </c>
       <c r="N18">
-        <v>-51.30000000000001</v>
+        <v>70.32500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>263.825</v>
       </c>
       <c r="C19">
-        <v>80.90000000000003</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F19">
-        <v>385.2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>366.4999999999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I19">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>411.2</v>
+        <v>628.825</v>
       </c>
       <c r="M19">
-        <v>414.9</v>
+        <v>601.4999999999999</v>
       </c>
       <c r="N19">
-        <v>-3.700000000000045</v>
+        <v>27.32500000000016</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>263.825</v>
       </c>
       <c r="C20">
-        <v>80.90000000000003</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F20">
-        <v>395.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>361.4999999999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I20">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>421.5</v>
+        <v>628.825</v>
       </c>
       <c r="M20">
-        <v>414.9</v>
+        <v>596.4999999999999</v>
       </c>
       <c r="N20">
-        <v>6.599999999999966</v>
+        <v>32.32500000000016</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>263.825</v>
       </c>
       <c r="C21">
-        <v>80.90000000000003</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F21">
-        <v>403.6</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>316.6</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I21">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>26</v>
+        <v>306</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>429.6</v>
+        <v>628.825</v>
       </c>
       <c r="M21">
-        <v>414.9</v>
+        <v>551.6</v>
       </c>
       <c r="N21">
-        <v>14.69999999999999</v>
+        <v>77.22500000000002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B22">
-        <v>172.55</v>
+        <v>772.524999</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>96.89999999999998</v>
+        <v>1107.2</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I22">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>349.55</v>
+        <v>1370.524999</v>
       </c>
       <c r="M22">
-        <v>351.9</v>
+        <v>1389.2</v>
       </c>
       <c r="N22">
-        <v>-2.349999999999966</v>
+        <v>-18.67500100000007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B23">
-        <v>172.55</v>
+        <v>772.524999</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>129.4</v>
+        <v>1076</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I23">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>349.55</v>
+        <v>1370.524999</v>
       </c>
       <c r="M23">
-        <v>384.4</v>
+        <v>1358</v>
       </c>
       <c r="N23">
-        <v>-34.84999999999997</v>
+        <v>12.52499899999998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B24">
-        <v>172.55</v>
+        <v>772.524999</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>86.5</v>
+        <v>1043.5</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I24">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>349.55</v>
+        <v>1370.524999</v>
       </c>
       <c r="M24">
-        <v>341.5</v>
+        <v>1325.5</v>
       </c>
       <c r="N24">
-        <v>8.050000000000011</v>
+        <v>45.02499899999998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B25">
-        <v>172.55</v>
+        <v>772.524999</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>140.1999999999999</v>
+        <v>1064.3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I25">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>177</v>
+        <v>458</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>349.55</v>
+        <v>1370.524999</v>
       </c>
       <c r="M25">
-        <v>395.1999999999999</v>
+        <v>1346.3</v>
       </c>
       <c r="N25">
-        <v>-45.64999999999992</v>
+        <v>24.22499900000003</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B26">
-        <v>160.275</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>611.4000000000001</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>343.275</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>435</v>
+        <v>611.4000000000001</v>
       </c>
       <c r="N26">
-        <v>-91.72500000000002</v>
+        <v>-611.4000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B27">
-        <v>160.275</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>586.2</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>423.275</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>435</v>
+        <v>586.2</v>
       </c>
       <c r="N27">
-        <v>-11.72500000000002</v>
+        <v>-586.2</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B28">
-        <v>160.275</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>432.275</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>435</v>
+        <v>565</v>
       </c>
       <c r="N28">
-        <v>-2.725000000000023</v>
+        <v>-565</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B29">
-        <v>160.275</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1681,42 +1681,42 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>423.275</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-11.72500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>203.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1725,42 +1725,42 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>625.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-29.19999899999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>203.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>707.4</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1769,42 +1769,42 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>707.4</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>625.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>82.20000100000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>203.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1813,42 +1813,42 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>625.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>101.8000010000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>203.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>625.1999989999999</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>86.80000100000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>777.5</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>803</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1901,42 +1901,42 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1343</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1218.5</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>124.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>777.5</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>848</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1945,42 +1945,42 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1388</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1218.5</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>169.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>777.5</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1989,42 +1989,42 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1218.5</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>111.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>777.5</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2033,42 +2033,42 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1218.5</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>76.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>936.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1058.4</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2077,42 +2077,42 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1526.4</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1513.85</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>12.54999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>936.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1060.2</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2121,42 +2121,42 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1528.2</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1513.85</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>14.35000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>936.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1010.7</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2165,42 +2165,42 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1478.7</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1513.85</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>-35.14999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>936.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2209,27 +2209,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1513.85</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2.150000000000091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1265.6</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1265.6</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1265.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45923</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>280.1499999999999</v>
+        <v>1054</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="F2">
-        <v>5.200000000000045</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>498.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>532.3499999999999</v>
+        <v>1311</v>
       </c>
       <c r="M2">
-        <v>406</v>
+        <v>612.5</v>
       </c>
       <c r="N2">
-        <v>126.3499999999999</v>
+        <v>698.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45923.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>280.1499999999999</v>
+        <v>1054</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="F3">
-        <v>38.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>538.9</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>565.55</v>
+        <v>1311</v>
       </c>
       <c r="M3">
-        <v>406</v>
+        <v>652.9</v>
       </c>
       <c r="N3">
-        <v>159.55</v>
+        <v>658.1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45923.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>280.1499999999999</v>
+        <v>1054</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>527.5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>527.1499999999999</v>
+        <v>1311</v>
       </c>
       <c r="M4">
-        <v>461</v>
+        <v>641.5</v>
       </c>
       <c r="N4">
-        <v>66.14999999999986</v>
+        <v>669.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45923.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>280.1499999999999</v>
+        <v>1054</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,42 +613,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>100.6999999999999</v>
+        <v>502</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>527.1499999999999</v>
+        <v>1311</v>
       </c>
       <c r="M5">
-        <v>506.6999999999999</v>
+        <v>616</v>
       </c>
       <c r="N5">
-        <v>20.44999999999993</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45923.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>183.825</v>
+        <v>1069.4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>347</v>
+        <v>203</v>
       </c>
       <c r="F6">
-        <v>72.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>171.8</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>451.0250000000001</v>
+        <v>1216.4</v>
       </c>
       <c r="M6">
-        <v>347</v>
+        <v>374.8</v>
       </c>
       <c r="N6">
-        <v>104.0250000000001</v>
+        <v>841.6000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45923.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>183.825</v>
+        <v>1069.4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>347</v>
+        <v>203</v>
       </c>
       <c r="F7">
-        <v>71.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>215.7</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>450.2250000000001</v>
+        <v>1216.4</v>
       </c>
       <c r="M7">
-        <v>347</v>
+        <v>418.7</v>
       </c>
       <c r="N7">
-        <v>103.2250000000001</v>
+        <v>797.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45923.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>183.825</v>
+        <v>1069.4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>347</v>
+        <v>203</v>
       </c>
       <c r="F8">
-        <v>17.50000000000006</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>396.3250000000001</v>
+        <v>1216.4</v>
       </c>
       <c r="M8">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="N8">
-        <v>49.3250000000001</v>
+        <v>845.4000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45923.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>183.825</v>
+        <v>1069.4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,42 +789,42 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>347</v>
+        <v>203</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85.20000000000005</v>
+        <v>178.1999999999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>378.825</v>
+        <v>1216.4</v>
       </c>
       <c r="M9">
-        <v>432.2</v>
+        <v>381.1999999999999</v>
       </c>
       <c r="N9">
-        <v>-53.375</v>
+        <v>835.2000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45923.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>102.1250000000001</v>
+        <v>1008.4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F10">
-        <v>10.80000000000007</v>
+        <v>121.3</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>292.9250000000002</v>
+        <v>1187.7</v>
       </c>
       <c r="M10">
         <v>262</v>
       </c>
       <c r="N10">
-        <v>30.92500000000018</v>
+        <v>925.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45923.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
-        <v>102.1250000000001</v>
+        <v>1008.4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G11">
-        <v>19.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>282.1250000000001</v>
+        <v>1206.4</v>
       </c>
       <c r="M11">
-        <v>281.9</v>
+        <v>262</v>
       </c>
       <c r="N11">
-        <v>0.2250000000001364</v>
+        <v>944.4000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45923.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>102.1250000000001</v>
+        <v>1008.4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="G12">
-        <v>3.599999999999966</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>282.1250000000001</v>
+        <v>1249.4</v>
       </c>
       <c r="M12">
-        <v>265.6</v>
+        <v>262</v>
       </c>
       <c r="N12">
-        <v>16.52500000000015</v>
+        <v>987.4000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45923.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>102.1250000000001</v>
+        <v>1008.4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="G13">
-        <v>12.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>282.1250000000001</v>
+        <v>1251.4</v>
       </c>
       <c r="M13">
-        <v>274.1999999999999</v>
+        <v>262</v>
       </c>
       <c r="N13">
-        <v>7.925000000000182</v>
+        <v>989.4000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45923.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>241.4499999999999</v>
+        <v>1140.6</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,42 +1009,42 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>283.5</v>
       </c>
       <c r="G14">
-        <v>155.4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J14">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>473.4499999999999</v>
+        <v>1465.1</v>
       </c>
       <c r="M14">
-        <v>394.4</v>
+        <v>291</v>
       </c>
       <c r="N14">
-        <v>79.04999999999995</v>
+        <v>1174.1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45923.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>241.4499999999999</v>
+        <v>1140.6</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,42 +1053,42 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>303.2</v>
       </c>
       <c r="G15">
-        <v>219.9</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J15">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>473.4499999999999</v>
+        <v>1484.8</v>
       </c>
       <c r="M15">
-        <v>458.9</v>
+        <v>291</v>
       </c>
       <c r="N15">
-        <v>14.54999999999995</v>
+        <v>1193.8</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45923.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>241.4499999999999</v>
+        <v>1140.6</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>262.8</v>
       </c>
       <c r="G16">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J16">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>473.4499999999999</v>
+        <v>1444.4</v>
       </c>
       <c r="M16">
-        <v>359.3</v>
+        <v>291</v>
       </c>
       <c r="N16">
-        <v>114.15</v>
+        <v>1153.4</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45923.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>241.4499999999999</v>
+        <v>1140.6</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,42 +1141,42 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>253.7</v>
       </c>
       <c r="G17">
-        <v>135.9</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J17">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>473.4499999999999</v>
+        <v>1435.3</v>
       </c>
       <c r="M17">
-        <v>374.9</v>
+        <v>291</v>
       </c>
       <c r="N17">
-        <v>98.54999999999995</v>
+        <v>1144.3</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45923.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>263.825</v>
+        <v>1281.6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>267.4</v>
       </c>
       <c r="G18">
-        <v>323.5</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>628.825</v>
+        <v>1676</v>
       </c>
       <c r="M18">
-        <v>558.5</v>
+        <v>246</v>
       </c>
       <c r="N18">
-        <v>70.32500000000005</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45923.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>263.825</v>
+        <v>1281.6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>224.8</v>
       </c>
       <c r="G19">
-        <v>366.4999999999999</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>628.825</v>
+        <v>1633.4</v>
       </c>
       <c r="M19">
-        <v>601.4999999999999</v>
+        <v>246</v>
       </c>
       <c r="N19">
-        <v>27.32500000000016</v>
+        <v>1387.4</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45923.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>263.825</v>
+        <v>1281.6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="G20">
-        <v>361.4999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>628.825</v>
+        <v>1592.6</v>
       </c>
       <c r="M20">
-        <v>596.4999999999999</v>
+        <v>246</v>
       </c>
       <c r="N20">
-        <v>32.32500000000016</v>
+        <v>1346.6</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45923.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>263.825</v>
+        <v>1281.6</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>316.6</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>628.825</v>
+        <v>1494.6</v>
       </c>
       <c r="M21">
-        <v>551.6</v>
+        <v>246</v>
       </c>
       <c r="N21">
-        <v>77.22500000000002</v>
+        <v>1248.6</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45923.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>772.524999</v>
+        <v>1223.6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1107.2</v>
+        <v>502.0999999999999</v>
       </c>
       <c r="H22">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1370.524999</v>
+        <v>1841.6</v>
       </c>
       <c r="M22">
-        <v>1389.2</v>
+        <v>708.0999999999999</v>
       </c>
       <c r="N22">
-        <v>-18.67500100000007</v>
+        <v>1133.5</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45923.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>772.524999</v>
+        <v>1223.6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1076</v>
+        <v>647.3999999999999</v>
       </c>
       <c r="H23">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1370.524999</v>
+        <v>1841.6</v>
       </c>
       <c r="M23">
-        <v>1358</v>
+        <v>853.3999999999999</v>
       </c>
       <c r="N23">
-        <v>12.52499899999998</v>
+        <v>988.2</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45923.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>772.524999</v>
+        <v>1223.6</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1043.5</v>
+        <v>787.9000000000001</v>
       </c>
       <c r="H24">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1370.524999</v>
+        <v>1841.6</v>
       </c>
       <c r="M24">
-        <v>1325.5</v>
+        <v>993.9000000000001</v>
       </c>
       <c r="N24">
-        <v>45.02499899999998</v>
+        <v>847.6999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45923.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>772.524999</v>
+        <v>1223.6</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,42 +1493,42 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1064.3</v>
+        <v>915.7</v>
       </c>
       <c r="H25">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1370.524999</v>
+        <v>1841.6</v>
       </c>
       <c r="M25">
-        <v>1346.3</v>
+        <v>1121.7</v>
       </c>
       <c r="N25">
-        <v>24.22499900000003</v>
+        <v>719.8999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45923.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>410.2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,42 +1537,42 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>611.4000000000001</v>
+        <v>1125.4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1071.2</v>
       </c>
       <c r="M26">
-        <v>611.4000000000001</v>
+        <v>1310.4</v>
       </c>
       <c r="N26">
-        <v>-611.4000000000001</v>
+        <v>-239.1999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45923.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>410.2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>586.2</v>
+        <v>1110.4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1071.2</v>
       </c>
       <c r="M27">
-        <v>586.2</v>
+        <v>1295.4</v>
       </c>
       <c r="N27">
-        <v>-586.2</v>
+        <v>-224.2</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45923.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>410.2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,42 +1625,42 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>565</v>
+        <v>1018.3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1071.2</v>
       </c>
       <c r="M28">
-        <v>565</v>
+        <v>1203.3</v>
       </c>
       <c r="N28">
-        <v>-565</v>
+        <v>-132.1000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45923.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>410.2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,42 +1669,42 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>984.4000000000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1071.2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1169.4</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-98.20000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45923.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1713,42 +1713,42 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>887.2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>938.2</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>293.8</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45923.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1757,42 +1757,42 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>930.7</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>981.7</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>250.3</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45923.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1801,42 +1801,42 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>522.1000000000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>573.1000000000001</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>658.8999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45923.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1845,48 +1845,48 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>304.2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>355.2</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>876.8</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45923.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1314.6</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1895,42 +1895,42 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>506.5</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1619.6</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>506.5</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1113.1</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45923.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1314.6</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1939,121 +1939,121 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>195.8</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1619.6</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>195.8</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1423.8</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45923.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1314.6</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>88.79999999999998</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1708.4</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1708.4</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45923.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1314.6</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2085.6</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>2085.6</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45923.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>153.4</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>153.4</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>153.4</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45923.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>322.7</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>322.7</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45923.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45923.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45923.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45923.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45923.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45923.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45923.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45923.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45923.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45923.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45923.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45923.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45923.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45923.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45923.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45923.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45923.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45923.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45923.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45923.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45923.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45923.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45923.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45923.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45923.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45923.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45923.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45923.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45923.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45923.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45923.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45923.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45923.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45923.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45923.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45923.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45923.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45923.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45923.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45923.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45923.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45923.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45923.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45923.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45923.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45923.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45923.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45923.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45923.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45923.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45923.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45923.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45923.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45923.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45923.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45923.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45923.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45923.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>1054</v>
+        <v>241.84</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -481,42 +481,42 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>114</v>
+        <v>126.1962</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>114.8980000000001</v>
       </c>
       <c r="G2">
-        <v>498.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>129</v>
+        <v>464.75</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1311</v>
+        <v>910.4880000000002</v>
       </c>
       <c r="M2">
-        <v>612.5</v>
+        <v>126.1962</v>
       </c>
       <c r="N2">
-        <v>698.5</v>
+        <v>784.2918000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>1054</v>
+        <v>241.84</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -525,42 +525,42 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>126.1962</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>538.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>129</v>
+        <v>464.75</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1311</v>
+        <v>795.59</v>
       </c>
       <c r="M3">
-        <v>652.9</v>
+        <v>126.1962</v>
       </c>
       <c r="N3">
-        <v>658.1</v>
+        <v>669.3938000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>1054</v>
+        <v>241.84</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -569,42 +569,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>114</v>
+        <v>126.1962</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>527.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>129</v>
+        <v>464.75</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1311</v>
+        <v>795.59</v>
       </c>
       <c r="M4">
-        <v>641.5</v>
+        <v>126.1962</v>
       </c>
       <c r="N4">
-        <v>669.5</v>
+        <v>669.3938000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>1054</v>
+        <v>241.84</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -613,42 +613,42 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>114</v>
+        <v>126.1962</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>129</v>
+        <v>464.75</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1311</v>
+        <v>795.59</v>
       </c>
       <c r="M5">
-        <v>616</v>
+        <v>126.1962</v>
       </c>
       <c r="N5">
-        <v>695</v>
+        <v>669.3938000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>1069.4</v>
+        <v>224.519999</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -657,42 +657,42 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>171.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1216.4</v>
+        <v>224.519999</v>
       </c>
       <c r="M6">
-        <v>374.8</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>841.6000000000001</v>
+        <v>224.519999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>1069.4</v>
+        <v>224.519999</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -701,42 +701,42 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>215.7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1216.4</v>
+        <v>224.519999</v>
       </c>
       <c r="M7">
-        <v>418.7</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>797.7</v>
+        <v>224.519999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>1069.4</v>
+        <v>224.519999</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,42 +745,42 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1216.4</v>
+        <v>224.519999</v>
       </c>
       <c r="M8">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>845.4000000000001</v>
+        <v>224.519999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>1069.4</v>
+        <v>224.519999</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -789,42 +789,42 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>178.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1216.4</v>
+        <v>224.519999</v>
       </c>
       <c r="M9">
-        <v>381.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>835.2000000000002</v>
+        <v>224.519999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>1008.4</v>
+        <v>322.28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -833,42 +833,42 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>121.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1187.7</v>
+        <v>322.28</v>
       </c>
       <c r="M10">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>925.7</v>
+        <v>322.28</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
-        <v>1008.4</v>
+        <v>322.28</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -877,42 +877,42 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1206.4</v>
+        <v>322.28</v>
       </c>
       <c r="M11">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>944.4000000000001</v>
+        <v>322.28</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>1008.4</v>
+        <v>322.28</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -921,42 +921,42 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1249.4</v>
+        <v>322.28</v>
       </c>
       <c r="M12">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>987.4000000000001</v>
+        <v>322.28</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>1008.4</v>
+        <v>322.28</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -965,42 +965,42 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1251.4</v>
+        <v>322.28</v>
       </c>
       <c r="M13">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>989.4000000000001</v>
+        <v>322.28</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>1140.6</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>283.5</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,30 +1021,30 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1465.1</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="M14">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1174.1</v>
+        <v>354.6000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
-        <v>1140.6</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>303.2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,30 +1065,30 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1484.8</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="M15">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1193.8</v>
+        <v>354.6000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
-        <v>1140.6</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>262.8</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,30 +1109,30 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1444.4</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="M16">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1153.4</v>
+        <v>354.6000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
-        <v>1140.6</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>253.7</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,30 +1153,30 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1435.3</v>
+        <v>354.6000000000001</v>
       </c>
       <c r="M17">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1144.3</v>
+        <v>354.6000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>1281.6</v>
+        <v>462.02</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,42 +1185,42 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>267.4</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1676</v>
+        <v>462.02</v>
       </c>
       <c r="M18">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1430</v>
+        <v>462.02</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>1281.6</v>
+        <v>462.02</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,42 +1229,42 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>224.8</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1633.4</v>
+        <v>462.02</v>
       </c>
       <c r="M19">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1387.4</v>
+        <v>462.02</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>1281.6</v>
+        <v>462.02</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,42 +1273,42 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1592.6</v>
+        <v>462.02</v>
       </c>
       <c r="M20">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1346.6</v>
+        <v>462.02</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>1281.6</v>
+        <v>462.02</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,42 +1317,42 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1494.6</v>
+        <v>462.02</v>
       </c>
       <c r="M21">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1248.6</v>
+        <v>462.02</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
-        <v>1223.6</v>
+        <v>390.74</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1361,42 +1361,42 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>206</v>
+        <v>290.8032</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>502.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1841.6</v>
+        <v>390.74</v>
       </c>
       <c r="M22">
-        <v>708.0999999999999</v>
+        <v>290.8032</v>
       </c>
       <c r="N22">
-        <v>1133.5</v>
+        <v>99.93679999999995</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>1223.6</v>
+        <v>390.74</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1405,42 +1405,42 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>206</v>
+        <v>290.8032</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>647.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1841.6</v>
+        <v>390.74</v>
       </c>
       <c r="M23">
-        <v>853.3999999999999</v>
+        <v>290.8032</v>
       </c>
       <c r="N23">
-        <v>988.2</v>
+        <v>99.93679999999995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>1223.6</v>
+        <v>390.74</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1449,42 +1449,42 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>206</v>
+        <v>290.8032</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>787.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1841.6</v>
+        <v>390.74</v>
       </c>
       <c r="M24">
-        <v>993.9000000000001</v>
+        <v>290.8032</v>
       </c>
       <c r="N24">
-        <v>847.6999999999998</v>
+        <v>99.93679999999995</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>1223.6</v>
+        <v>390.74</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1493,218 +1493,218 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>206</v>
+        <v>290.8032</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>915.7</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1841.6</v>
+        <v>390.74</v>
       </c>
       <c r="M25">
-        <v>1121.7</v>
+        <v>290.8032</v>
       </c>
       <c r="N25">
-        <v>719.8999999999999</v>
+        <v>99.93679999999995</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>410.2</v>
+        <v>478.16</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>18.30689999999998</v>
       </c>
       <c r="E26">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1125.4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1071.2</v>
+        <v>496.4669</v>
       </c>
       <c r="M26">
-        <v>1310.4</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-239.1999999999998</v>
+        <v>496.4669</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>410.2</v>
+        <v>478.16</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>18.30689999999998</v>
       </c>
       <c r="E27">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1110.4</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1071.2</v>
+        <v>496.4669</v>
       </c>
       <c r="M27">
-        <v>1295.4</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-224.2</v>
+        <v>496.4669</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>410.2</v>
+        <v>478.16</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>18.30689999999998</v>
       </c>
       <c r="E28">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1018.3</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1071.2</v>
+        <v>496.4669</v>
       </c>
       <c r="M28">
-        <v>1203.3</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-132.1000000000001</v>
+        <v>496.4669</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>410.2</v>
+        <v>478.16</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>18.30689999999998</v>
       </c>
       <c r="E29">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>984.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1071.2</v>
+        <v>496.4669</v>
       </c>
       <c r="M29">
-        <v>1169.4</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-98.20000000000005</v>
+        <v>496.4669</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>794</v>
+        <v>1155.08</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1713,42 +1713,42 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>887.2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1232</v>
+        <v>1155.08</v>
       </c>
       <c r="M30">
-        <v>938.2</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>293.8</v>
+        <v>1155.08</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>794</v>
+        <v>1155.08</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1757,42 +1757,42 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>930.7</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1232</v>
+        <v>1155.08</v>
       </c>
       <c r="M31">
-        <v>981.7</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>250.3</v>
+        <v>1155.08</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>794</v>
+        <v>1155.08</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1801,42 +1801,42 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>522.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1232</v>
+        <v>1155.08</v>
       </c>
       <c r="M32">
-        <v>573.1000000000001</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>658.8999999999999</v>
+        <v>1155.08</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>794</v>
+        <v>1155.08</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1845,48 +1845,48 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>304.2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1232</v>
+        <v>1155.08</v>
       </c>
       <c r="M33">
-        <v>355.2</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>876.8</v>
+        <v>1155.08</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>1314.6</v>
+        <v>1556.98</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1895,42 +1895,42 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>506.5</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1619.6</v>
+        <v>1556.98</v>
       </c>
       <c r="M34">
-        <v>506.5</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1113.1</v>
+        <v>1556.98</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>1314.6</v>
+        <v>1556.98</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1939,121 +1939,121 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>195.8</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1619.6</v>
+        <v>1556.98</v>
       </c>
       <c r="M35">
-        <v>195.8</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1423.8</v>
+        <v>1556.98</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>1314.6</v>
+        <v>1556.98</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>88.79999999999998</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1708.4</v>
+        <v>1556.98</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1708.4</v>
+        <v>1556.98</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
-        <v>1314.6</v>
+        <v>1556.98</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>2085.6</v>
+        <v>1556.98</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2085.6</v>
+        <v>1556.98</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>153.4</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>153.4</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>153.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>322.7</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>322.7</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>322.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,63 +469,63 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45944</v>
+        <v>45947</v>
       </c>
       <c r="B2">
-        <v>241.84</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>786.36</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>126.1962</v>
+        <v>71.2949</v>
       </c>
       <c r="F2">
-        <v>114.8980000000001</v>
+        <v>1220.998</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J2">
-        <v>464.75</v>
+        <v>351</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>910.4880000000002</v>
+        <v>1571.998</v>
       </c>
       <c r="M2">
-        <v>126.1962</v>
+        <v>1038.6549</v>
       </c>
       <c r="N2">
-        <v>784.2918000000002</v>
+        <v>533.3431</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45944.01041666666</v>
+        <v>45947.01041666666</v>
       </c>
       <c r="B3">
-        <v>241.84</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>786.36</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>126.1962</v>
+        <v>71.2949</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -534,42 +534,42 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J3">
-        <v>464.75</v>
+        <v>351</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>795.59</v>
+        <v>351</v>
       </c>
       <c r="M3">
-        <v>126.1962</v>
+        <v>1038.6549</v>
       </c>
       <c r="N3">
-        <v>669.3938000000001</v>
+        <v>-687.6549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45944.02083333334</v>
+        <v>45947.02083333334</v>
       </c>
       <c r="B4">
-        <v>241.84</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>786.36</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>126.1962</v>
+        <v>71.2949</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -578,42 +578,42 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J4">
-        <v>464.75</v>
+        <v>351</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>795.59</v>
+        <v>351</v>
       </c>
       <c r="M4">
-        <v>126.1962</v>
+        <v>1038.6549</v>
       </c>
       <c r="N4">
-        <v>669.3938000000001</v>
+        <v>-687.6549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45944.03125</v>
+        <v>45947.03125</v>
       </c>
       <c r="B5">
-        <v>241.84</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>786.36</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>126.1962</v>
+        <v>71.2949</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -622,36 +622,36 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J5">
-        <v>464.75</v>
+        <v>351</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>795.59</v>
+        <v>351</v>
       </c>
       <c r="M5">
-        <v>126.1962</v>
+        <v>1038.6549</v>
       </c>
       <c r="N5">
-        <v>669.3938000000001</v>
+        <v>-687.6549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45944.04166666666</v>
+        <v>45947.04166666666</v>
       </c>
       <c r="B6">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -678,24 +678,24 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="N6">
-        <v>224.519999</v>
+        <v>-668.46</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45944.05208333334</v>
+        <v>45947.05208333334</v>
       </c>
       <c r="B7">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -722,24 +722,24 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="N7">
-        <v>224.519999</v>
+        <v>-668.46</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45944.0625</v>
+        <v>45947.0625</v>
       </c>
       <c r="B8">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -766,24 +766,24 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="N8">
-        <v>224.519999</v>
+        <v>-668.46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45944.07291666666</v>
+        <v>45947.07291666666</v>
       </c>
       <c r="B9">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -810,30 +810,30 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>224.519999</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>668.46</v>
       </c>
       <c r="N9">
-        <v>224.519999</v>
+        <v>-668.46</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45944.08333333334</v>
+        <v>45947.08333333334</v>
       </c>
       <c r="B10">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>875.4999999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>80.5052</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -854,30 +854,30 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>956.0051999999998</v>
       </c>
       <c r="N10">
-        <v>322.28</v>
+        <v>-956.0051999999998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45944.09375</v>
+        <v>45947.09375</v>
       </c>
       <c r="B11">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>875.4999999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>80.5052</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -898,30 +898,30 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>956.0051999999998</v>
       </c>
       <c r="N11">
-        <v>322.28</v>
+        <v>-956.0051999999998</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45944.10416666666</v>
+        <v>45947.10416666666</v>
       </c>
       <c r="B12">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>875.4999999999999</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>80.5052</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -942,30 +942,30 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>956.0051999999998</v>
       </c>
       <c r="N12">
-        <v>322.28</v>
+        <v>-956.0051999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45944.11458333334</v>
+        <v>45947.11458333334</v>
       </c>
       <c r="B13">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>875.4999999999999</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>80.5052</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -986,30 +986,30 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>322.28</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>956.0051999999998</v>
       </c>
       <c r="N13">
-        <v>322.28</v>
+        <v>-956.0051999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45944.125</v>
+        <v>45947.125</v>
       </c>
       <c r="B14">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>663.0799999999999</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>112.9139</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1030,30 +1030,30 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>775.9938999999999</v>
       </c>
       <c r="N14">
-        <v>354.6000000000001</v>
+        <v>-775.9938999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45944.13541666666</v>
+        <v>45947.13541666666</v>
       </c>
       <c r="B15">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>663.0799999999999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>112.9139</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1074,30 +1074,30 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>775.9938999999999</v>
       </c>
       <c r="N15">
-        <v>354.6000000000001</v>
+        <v>-775.9938999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45944.14583333334</v>
+        <v>45947.14583333334</v>
       </c>
       <c r="B16">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>663.0799999999999</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>112.9139</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1118,30 +1118,30 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>775.9938999999999</v>
       </c>
       <c r="N16">
-        <v>354.6000000000001</v>
+        <v>-775.9938999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45944.15625</v>
+        <v>45947.15625</v>
       </c>
       <c r="B17">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>663.0799999999999</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>112.9139</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1162,30 +1162,30 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>354.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>775.9938999999999</v>
       </c>
       <c r="N17">
-        <v>354.6000000000001</v>
+        <v>-775.9938999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45944.16666666666</v>
+        <v>45947.16666666666</v>
       </c>
       <c r="B18">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>328.95</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16.20140000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1206,30 +1206,30 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>345.1514000000001</v>
       </c>
       <c r="N18">
-        <v>462.02</v>
+        <v>-345.1514000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45944.17708333334</v>
+        <v>45947.17708333334</v>
       </c>
       <c r="B19">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>328.95</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>16.20140000000001</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1250,30 +1250,30 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>345.1514000000001</v>
       </c>
       <c r="N19">
-        <v>462.02</v>
+        <v>-345.1514000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45944.1875</v>
+        <v>45947.1875</v>
       </c>
       <c r="B20">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>328.95</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>16.20140000000001</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1294,30 +1294,30 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>345.1514000000001</v>
       </c>
       <c r="N20">
-        <v>462.02</v>
+        <v>-345.1514000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45944.19791666666</v>
+        <v>45947.19791666666</v>
       </c>
       <c r="B21">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>328.95</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>16.20140000000001</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1338,30 +1338,30 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>462.02</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>345.1514000000001</v>
       </c>
       <c r="N21">
-        <v>462.02</v>
+        <v>-345.1514000000001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45944.20833333334</v>
+        <v>45947.20833333334</v>
       </c>
       <c r="B22">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>193.88</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>290.8032</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1382,30 +1382,30 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>290.8032</v>
+        <v>193.88</v>
       </c>
       <c r="N22">
-        <v>99.93679999999995</v>
+        <v>-193.88</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45944.21875</v>
+        <v>45947.21875</v>
       </c>
       <c r="B23">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>193.88</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>290.8032</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1426,30 +1426,30 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>290.8032</v>
+        <v>193.88</v>
       </c>
       <c r="N23">
-        <v>99.93679999999995</v>
+        <v>-193.88</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45944.22916666666</v>
+        <v>45947.22916666666</v>
       </c>
       <c r="B24">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>193.88</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>290.8032</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1470,30 +1470,30 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>290.8032</v>
+        <v>193.88</v>
       </c>
       <c r="N24">
-        <v>99.93679999999995</v>
+        <v>-193.88</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45944.23958333334</v>
+        <v>45947.23958333334</v>
       </c>
       <c r="B25">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>193.88</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>290.8032</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1514,27 +1514,27 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>390.74</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>290.8032</v>
+        <v>193.88</v>
       </c>
       <c r="N25">
-        <v>99.93679999999995</v>
+        <v>-193.88</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45944.25</v>
+        <v>45947.25</v>
       </c>
       <c r="B26">
-        <v>478.16</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="D26">
-        <v>18.30689999999998</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1558,27 +1558,27 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>496.4669</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="N26">
-        <v>496.4669</v>
+        <v>-400.36</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45944.26041666666</v>
+        <v>45947.26041666666</v>
       </c>
       <c r="B27">
-        <v>478.16</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="D27">
-        <v>18.30689999999998</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1602,27 +1602,27 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>496.4669</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="N27">
-        <v>496.4669</v>
+        <v>-400.36</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45944.27083333334</v>
+        <v>45947.27083333334</v>
       </c>
       <c r="B28">
-        <v>478.16</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="D28">
-        <v>18.30689999999998</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1646,27 +1646,27 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>496.4669</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="N28">
-        <v>496.4669</v>
+        <v>-400.36</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45944.28125</v>
+        <v>45947.28125</v>
       </c>
       <c r="B29">
-        <v>478.16</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="D29">
-        <v>18.30689999999998</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1690,24 +1690,24 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>496.4669</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>400.36</v>
       </c>
       <c r="N29">
-        <v>496.4669</v>
+        <v>-400.36</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45944.29166666666</v>
+        <v>45947.29166666666</v>
       </c>
       <c r="B30">
-        <v>1155.08</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1728,30 +1728,30 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>178.75</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1155.08</v>
+        <v>178.75</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="N30">
-        <v>1155.08</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45944.30208333334</v>
+        <v>45947.30208333334</v>
       </c>
       <c r="B31">
-        <v>1155.08</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1772,30 +1772,30 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>178.75</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1155.08</v>
+        <v>178.75</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="N31">
-        <v>1155.08</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45944.3125</v>
+        <v>45947.3125</v>
       </c>
       <c r="B32">
-        <v>1155.08</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1816,30 +1816,30 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>178.75</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1155.08</v>
+        <v>178.75</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="N32">
-        <v>1155.08</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45944.32291666666</v>
+        <v>45947.32291666666</v>
       </c>
       <c r="B33">
-        <v>1155.08</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1860,30 +1860,30 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>178.75</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1155.08</v>
+        <v>178.75</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>102.62</v>
       </c>
       <c r="N33">
-        <v>1155.08</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45944.33333333334</v>
+        <v>45947.33333333334</v>
       </c>
       <c r="B34">
-        <v>1556.98</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1904,30 +1904,30 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>107.25</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1556.98</v>
+        <v>107.25</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="N34">
-        <v>1556.98</v>
+        <v>-32.17000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45944.34375</v>
+        <v>45947.34375</v>
       </c>
       <c r="B35">
-        <v>1556.98</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1948,30 +1948,30 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>107.25</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1556.98</v>
+        <v>107.25</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="N35">
-        <v>1556.98</v>
+        <v>-32.17000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45944.35416666666</v>
+        <v>45947.35416666666</v>
       </c>
       <c r="B36">
-        <v>1556.98</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1992,30 +1992,30 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>107.25</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1556.98</v>
+        <v>107.25</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="N36">
-        <v>1556.98</v>
+        <v>-32.17000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45944.36458333334</v>
+        <v>45947.36458333334</v>
       </c>
       <c r="B37">
-        <v>1556.98</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2036,27 +2036,27 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>107.25</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1556.98</v>
+        <v>107.25</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>139.42</v>
       </c>
       <c r="N37">
-        <v>1556.98</v>
+        <v>-32.17000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45944.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>245.45</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2080,27 +2080,27 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>472.95</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>472.95</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45944.38541666666</v>
+        <v>45947.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>245.45</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2124,27 +2124,27 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>472.95</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>472.95</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45944.39583333334</v>
+        <v>45947.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>245.45</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2168,27 +2168,27 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>472.95</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>472.95</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45944.40625</v>
+        <v>45947.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>245.45</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2212,24 +2212,24 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>472.95</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>472.95</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45944.41666666666</v>
+        <v>45947.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45944.42708333334</v>
+        <v>45947.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45944.4375</v>
+        <v>45947.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45944.44791666666</v>
+        <v>45947.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45944.45833333334</v>
+        <v>45947.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45944.46875</v>
+        <v>45947.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45944.47916666666</v>
+        <v>45947.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45944.48958333334</v>
+        <v>45947.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45944.5</v>
+        <v>45947.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45944.51041666666</v>
+        <v>45947.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45944.52083333334</v>
+        <v>45947.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45944.53125</v>
+        <v>45947.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45944.54166666666</v>
+        <v>45947.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45944.55208333334</v>
+        <v>45947.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45944.5625</v>
+        <v>45947.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45944.57291666666</v>
+        <v>45947.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45944.58333333334</v>
+        <v>45947.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45944.59375</v>
+        <v>45947.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45944.60416666666</v>
+        <v>45947.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45944.61458333334</v>
+        <v>45947.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45944.625</v>
+        <v>45947.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45944.63541666666</v>
+        <v>45947.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45944.64583333334</v>
+        <v>45947.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45944.65625</v>
+        <v>45947.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45944.66666666666</v>
+        <v>45947.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45944.67708333334</v>
+        <v>45947.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45944.6875</v>
+        <v>45947.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45944.69791666666</v>
+        <v>45947.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45944.70833333334</v>
+        <v>45947.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45944.71875</v>
+        <v>45947.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45944.72916666666</v>
+        <v>45947.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45944.73958333334</v>
+        <v>45947.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45944.75</v>
+        <v>45947.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45944.76041666666</v>
+        <v>45947.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45944.77083333334</v>
+        <v>45947.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45944.78125</v>
+        <v>45947.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45944.79166666666</v>
+        <v>45947.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45944.80208333334</v>
+        <v>45947.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45944.8125</v>
+        <v>45947.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45944.82291666666</v>
+        <v>45947.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45944.83333333334</v>
+        <v>45947.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45944.84375</v>
+        <v>45947.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45944.85416666666</v>
+        <v>45947.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45944.86458333334</v>
+        <v>45947.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45944.875</v>
+        <v>45947.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45944.88541666666</v>
+        <v>45947.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45944.89583333334</v>
+        <v>45947.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45944.90625</v>
+        <v>45947.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45944.91666666666</v>
+        <v>45947.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45944.92708333334</v>
+        <v>45947.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45944.9375</v>
+        <v>45947.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45944.94791666666</v>
+        <v>45947.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45944.95833333334</v>
+        <v>45947.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45944.96875</v>
+        <v>45947.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45944.97916666666</v>
+        <v>45947.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45944.98958333334</v>
+        <v>45947.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,63 +469,63 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>52.22000000000003</v>
       </c>
       <c r="C2">
-        <v>786.36</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>216.7417</v>
       </c>
       <c r="E2">
-        <v>71.2949</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1220.998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>472.6489999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="J2">
-        <v>351</v>
+        <v>466</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1571.998</v>
+        <v>734.9617000000001</v>
       </c>
       <c r="M2">
-        <v>1038.6549</v>
+        <v>597.6489999999999</v>
       </c>
       <c r="N2">
-        <v>533.3431</v>
+        <v>137.3127000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>52.22000000000003</v>
       </c>
       <c r="C3">
-        <v>786.36</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>216.7417</v>
       </c>
       <c r="E3">
-        <v>71.2949</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -537,39 +537,39 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="J3">
-        <v>351</v>
+        <v>466</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>351</v>
+        <v>734.9617000000001</v>
       </c>
       <c r="M3">
-        <v>1038.6549</v>
+        <v>125</v>
       </c>
       <c r="N3">
-        <v>-687.6549</v>
+        <v>609.9617000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>52.22000000000003</v>
       </c>
       <c r="C4">
-        <v>786.36</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>216.7417</v>
       </c>
       <c r="E4">
-        <v>71.2949</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="J4">
-        <v>351</v>
+        <v>466</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>351</v>
+        <v>734.9617000000001</v>
       </c>
       <c r="M4">
-        <v>1038.6549</v>
+        <v>125</v>
       </c>
       <c r="N4">
-        <v>-687.6549</v>
+        <v>609.9617000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>52.22000000000003</v>
       </c>
       <c r="C5">
-        <v>786.36</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>216.7417</v>
       </c>
       <c r="E5">
-        <v>71.2949</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -625,33 +625,33 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="J5">
-        <v>351</v>
+        <v>466</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>351</v>
+        <v>734.9617000000001</v>
       </c>
       <c r="M5">
-        <v>1038.6549</v>
+        <v>125</v>
       </c>
       <c r="N5">
-        <v>-687.6549</v>
+        <v>609.9617000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="C6">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -678,24 +678,24 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="M6">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-668.46</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="C7">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -722,24 +722,24 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="M7">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-668.46</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="C8">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -766,24 +766,24 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="M8">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-668.46</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="C9">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -810,30 +810,30 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="M9">
-        <v>668.46</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-668.46</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>875.4999999999999</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>80.5052</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -857,27 +857,27 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>956.0051999999998</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="N10">
-        <v>-956.0051999999998</v>
+        <v>-555.2199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>875.4999999999999</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>80.5052</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -901,27 +901,27 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>956.0051999999998</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="N11">
-        <v>-956.0051999999998</v>
+        <v>-555.2199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>875.4999999999999</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>80.5052</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -945,27 +945,27 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>956.0051999999998</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="N12">
-        <v>-956.0051999999998</v>
+        <v>-555.2199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>875.4999999999999</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>80.5052</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -989,27 +989,27 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>956.0051999999998</v>
+        <v>555.2199999999999</v>
       </c>
       <c r="N13">
-        <v>-956.0051999999998</v>
+        <v>-555.2199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>663.0799999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>112.9139</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1033,27 +1033,27 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>775.9938999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="N14">
-        <v>-775.9938999999999</v>
+        <v>-297.8400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>663.0799999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>112.9139</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1077,27 +1077,27 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>775.9938999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="N15">
-        <v>-775.9938999999999</v>
+        <v>-297.8400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>663.0799999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>112.9139</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1121,27 +1121,27 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>775.9938999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="N16">
-        <v>-775.9938999999999</v>
+        <v>-297.8400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>663.0799999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>112.9139</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1165,27 +1165,27 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>775.9938999999999</v>
+        <v>297.8400000000001</v>
       </c>
       <c r="N17">
-        <v>-775.9938999999999</v>
+        <v>-297.8400000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="C18">
-        <v>328.95</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.20140000000001</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1206,30 +1206,30 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="M18">
-        <v>345.1514000000001</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>-345.1514000000001</v>
+        <v>34.18000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="C19">
-        <v>328.95</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.20140000000001</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1250,30 +1250,30 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="M19">
-        <v>345.1514000000001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-345.1514000000001</v>
+        <v>34.18000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="C20">
-        <v>328.95</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.20140000000001</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1294,30 +1294,30 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="M20">
-        <v>345.1514000000001</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>-345.1514000000001</v>
+        <v>34.18000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="C21">
-        <v>328.95</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.20140000000001</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1338,27 +1338,27 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>34.18000000000006</v>
       </c>
       <c r="M21">
-        <v>345.1514000000001</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>-345.1514000000001</v>
+        <v>34.18000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>255.8400000000001</v>
       </c>
       <c r="C22">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>229.5015</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1382,27 +1382,27 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>485.3415000000001</v>
       </c>
       <c r="M22">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>-193.88</v>
+        <v>485.3415000000001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>255.8400000000001</v>
       </c>
       <c r="C23">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>229.5015</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1426,27 +1426,27 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>485.3415000000001</v>
       </c>
       <c r="M23">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-193.88</v>
+        <v>485.3415000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>255.8400000000001</v>
       </c>
       <c r="C24">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>229.5015</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1470,27 +1470,27 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>485.3415000000001</v>
       </c>
       <c r="M24">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>-193.88</v>
+        <v>485.3415000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>255.8400000000001</v>
       </c>
       <c r="C25">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>229.5015</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1514,30 +1514,30 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>485.3415000000001</v>
       </c>
       <c r="M25">
-        <v>193.88</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-193.88</v>
+        <v>485.3415000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="C26">
-        <v>400.36</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>364.3812</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1558,30 +1558,30 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="M26">
-        <v>400.36</v>
+        <v>364.3812</v>
       </c>
       <c r="N26">
-        <v>-400.36</v>
+        <v>330.7388</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="C27">
-        <v>400.36</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>364.3812</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1602,30 +1602,30 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="M27">
-        <v>400.36</v>
+        <v>364.3812</v>
       </c>
       <c r="N27">
-        <v>-400.36</v>
+        <v>330.7388</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="C28">
-        <v>400.36</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>364.3812</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1646,30 +1646,30 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="M28">
-        <v>400.36</v>
+        <v>364.3812</v>
       </c>
       <c r="N28">
-        <v>-400.36</v>
+        <v>330.7388</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="C29">
-        <v>400.36</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>364.3812</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1690,24 +1690,24 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>695.12</v>
       </c>
       <c r="M29">
-        <v>400.36</v>
+        <v>364.3812</v>
       </c>
       <c r="N29">
-        <v>-400.36</v>
+        <v>330.7388</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1728,30 +1728,30 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>76.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45947.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1772,30 +1772,30 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>76.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45947.3125</v>
+        <v>45954.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1816,30 +1816,30 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>76.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45947.32291666666</v>
+        <v>45954.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1860,30 +1860,30 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>178.75</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>102.62</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>76.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45947.33333333334</v>
+        <v>45954.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1904,30 +1904,30 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>-32.17000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45947.34375</v>
+        <v>45954.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1948,30 +1948,30 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-32.17000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45947.35416666666</v>
+        <v>45954.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1992,30 +1992,30 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>-32.17000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45947.36458333334</v>
+        <v>45954.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2036,27 +2036,27 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>107.25</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>139.42</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>-32.17000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45947.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B38">
-        <v>245.45</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2080,27 +2080,27 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>472.95</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>472.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45947.38541666666</v>
+        <v>45954.38541666666</v>
       </c>
       <c r="B39">
-        <v>245.45</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2124,27 +2124,27 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>472.95</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>472.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45947.39583333334</v>
+        <v>45954.39583333334</v>
       </c>
       <c r="B40">
-        <v>245.45</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2168,27 +2168,27 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>472.95</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>472.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45947.40625</v>
+        <v>45954.40625</v>
       </c>
       <c r="B41">
-        <v>245.45</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2212,24 +2212,24 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>472.95</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>472.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45947.41666666666</v>
+        <v>45954.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45947.42708333334</v>
+        <v>45954.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45947.4375</v>
+        <v>45954.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45947.44791666666</v>
+        <v>45954.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45947.45833333334</v>
+        <v>45954.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45947.46875</v>
+        <v>45954.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45947.47916666666</v>
+        <v>45954.47916666666</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45947.48958333334</v>
+        <v>45954.48958333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45947.5</v>
+        <v>45954.5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45947.51041666666</v>
+        <v>45954.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45947.52083333334</v>
+        <v>45954.52083333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45947.53125</v>
+        <v>45954.53125</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45947.54166666666</v>
+        <v>45954.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45947.55208333334</v>
+        <v>45954.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45947.5625</v>
+        <v>45954.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45947.57291666666</v>
+        <v>45954.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45947.58333333334</v>
+        <v>45954.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45947.59375</v>
+        <v>45954.59375</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45947.60416666666</v>
+        <v>45954.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45947.61458333334</v>
+        <v>45954.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45947.625</v>
+        <v>45954.625</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45947.63541666666</v>
+        <v>45954.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45947.64583333334</v>
+        <v>45954.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45947.65625</v>
+        <v>45954.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45947.66666666666</v>
+        <v>45954.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45947.67708333334</v>
+        <v>45954.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45947.6875</v>
+        <v>45954.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45947.69791666666</v>
+        <v>45954.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45947.70833333334</v>
+        <v>45954.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45947.71875</v>
+        <v>45954.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45947.72916666666</v>
+        <v>45954.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45947.73958333334</v>
+        <v>45954.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45947.75</v>
+        <v>45954.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45947.76041666666</v>
+        <v>45954.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45947.77083333334</v>
+        <v>45954.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45947.78125</v>
+        <v>45954.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45947.79166666666</v>
+        <v>45954.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45947.80208333334</v>
+        <v>45954.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45947.8125</v>
+        <v>45954.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45947.82291666666</v>
+        <v>45954.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45947.83333333334</v>
+        <v>45954.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45947.84375</v>
+        <v>45954.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45947.85416666666</v>
+        <v>45954.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45947.86458333334</v>
+        <v>45954.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45947.875</v>
+        <v>45954.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45947.88541666666</v>
+        <v>45954.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45947.89583333334</v>
+        <v>45954.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45947.90625</v>
+        <v>45954.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45947.91666666666</v>
+        <v>45954.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45947.92708333334</v>
+        <v>45954.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45947.9375</v>
+        <v>45954.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45947.94791666666</v>
+        <v>45954.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45947.95833333334</v>
+        <v>45954.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45947.96875</v>
+        <v>45954.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45947.97916666666</v>
+        <v>45954.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45947.98958333334</v>
+        <v>45954.98958333334</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,16 +469,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45954</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B2">
-        <v>52.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>216.7417</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,42 +487,42 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>472.6489999999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>734.9617000000001</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>597.6489999999999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>137.3127000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.96875</v>
       </c>
       <c r="B3">
-        <v>52.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>216.7417</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -537,36 +537,36 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>734.9617000000001</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>609.9617000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45954.02083333334</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B4">
-        <v>52.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>216.7417</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -581,36 +581,36 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>734.9617000000001</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>609.9617000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45954.03125</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B5">
-        <v>52.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>216.7417</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -625,36 +625,36 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>734.9617000000001</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>609.9617000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45954.04166666666</v>
+        <v>45969</v>
       </c>
       <c r="B6">
-        <v>145.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>92.8467</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>163.75</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -678,27 +678,27 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B7">
-        <v>145.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>92.8467</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>163.75</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -722,27 +722,27 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45954.0625</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B8">
-        <v>145.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>92.8467</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>163.75</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -766,27 +766,27 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.03125</v>
       </c>
       <c r="B9">
-        <v>145.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>92.8467</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>163.75</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -810,24 +810,24 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>145.9</v>
+        <v>256.5967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -854,24 +854,24 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="M10">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-555.2199999999999</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45954.09375</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -898,24 +898,24 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="M11">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>-555.2199999999999</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -942,24 +942,24 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="M12">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-555.2199999999999</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -986,30 +986,30 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="M13">
-        <v>555.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-555.2199999999999</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45954.125</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>297.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>129.3676</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1030,30 +1030,30 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="M14">
-        <v>297.8400000000001</v>
+        <v>129.3676</v>
       </c>
       <c r="N14">
-        <v>-297.8400000000001</v>
+        <v>28.63239999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>297.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>129.3676</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1074,30 +1074,30 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="M15">
-        <v>297.8400000000001</v>
+        <v>129.3676</v>
       </c>
       <c r="N15">
-        <v>-297.8400000000001</v>
+        <v>28.63239999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>297.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>129.3676</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,30 +1118,30 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="M16">
-        <v>297.8400000000001</v>
+        <v>129.3676</v>
       </c>
       <c r="N16">
-        <v>-297.8400000000001</v>
+        <v>28.63239999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45954.15625</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>297.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>129.3676</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="M17">
-        <v>297.8400000000001</v>
+        <v>129.3676</v>
       </c>
       <c r="N17">
-        <v>-297.8400000000001</v>
+        <v>28.63239999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.125</v>
       </c>
       <c r="B18">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1206,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="N18">
-        <v>34.18000000000006</v>
+        <v>-4.4856</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B19">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1250,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="N19">
-        <v>34.18000000000006</v>
+        <v>-4.4856</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45954.1875</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B20">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1294,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="N20">
-        <v>34.18000000000006</v>
+        <v>-4.4856</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.15625</v>
       </c>
       <c r="B21">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1338,27 +1338,27 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>34.18000000000006</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.4856</v>
       </c>
       <c r="N21">
-        <v>34.18000000000006</v>
+        <v>-4.4856</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B22">
-        <v>255.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>229.5015</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1382,27 +1382,27 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45954.21875</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B23">
-        <v>255.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>229.5015</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1426,27 +1426,27 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.1875</v>
       </c>
       <c r="B24">
-        <v>255.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>229.5015</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1470,27 +1470,27 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B25">
-        <v>255.8400000000001</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>229.5015</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1514,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>485.3415000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45954.25</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B26">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1558,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="N26">
-        <v>330.7388</v>
+        <v>-1.2571</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.21875</v>
       </c>
       <c r="B27">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1602,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="N27">
-        <v>330.7388</v>
+        <v>-1.2571</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B28">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1646,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="N28">
-        <v>330.7388</v>
+        <v>-1.2571</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45954.28125</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B29">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1690,18 +1690,18 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>695.12</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>364.3812</v>
+        <v>1.2571</v>
       </c>
       <c r="N29">
-        <v>330.7388</v>
+        <v>-1.2571</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.25</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1734,18 +1734,18 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1778,18 +1778,18 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45954.3125</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1822,18 +1822,18 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1866,18 +1866,18 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>138.2242</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45954.34375</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.3125</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45954.375</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45954.40625</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45954.4375</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45954.46875</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45954.5</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45954.53125</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45954.5625</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45954.59375</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45954.625</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45954.65625</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45954.6875</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45954.71875</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45954.75</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45954.78125</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45954.8125</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45954.84375</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45954.875</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45954.90625</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45954.9375</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45954.96875</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4688,6 +4688,182 @@
         <v>0</v>
       </c>
       <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="2">
+        <v>45969.95833333334</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="2">
+        <v>45969.96875</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="2">
+        <v>45969.97916666666</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="2">
+        <v>45969.98958333334</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>92.8467</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>163.75</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -678,18 +678,18 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>92.8467</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>163.75</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -722,18 +722,18 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>92.8467</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>163.75</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -766,18 +766,18 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>92.8467</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>163.75</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -810,18 +810,18 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>256.5967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -854,18 +854,18 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -898,18 +898,18 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -942,18 +942,18 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -986,18 +986,18 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1030,18 +1030,18 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>28.63239999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1074,18 +1074,18 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>28.63239999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,18 +1118,18 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>28.63239999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,18 +1162,18 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>129.3676</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>28.63239999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1209,15 +1209,15 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>-4.4856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1253,15 +1253,15 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-4.4856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1297,15 +1297,15 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>-4.4856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1341,15 +1341,15 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.4856</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>-4.4856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1561,15 +1561,15 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-1.2571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1605,15 +1605,15 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-1.2571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1649,15 +1649,15 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-1.2571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1693,15 +1693,15 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1.2571</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-1.2571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1734,18 +1734,18 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1778,18 +1778,18 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1822,18 +1822,18 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1866,18 +1866,18 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>138.2242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45970.30208333334</v>
+        <v>45973.30208333334</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45970.3125</v>
+        <v>45973.3125</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45970.32291666666</v>
+        <v>45973.32291666666</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45970.33333333334</v>
+        <v>45973.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45970.34375</v>
+        <v>45973.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45970.35416666666</v>
+        <v>45973.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45970.36458333334</v>
+        <v>45973.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45970.375</v>
+        <v>45973.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45970.38541666666</v>
+        <v>45973.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45970.39583333334</v>
+        <v>45973.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45970.40625</v>
+        <v>45973.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45970.41666666666</v>
+        <v>45973.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45970.42708333334</v>
+        <v>45973.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45970.4375</v>
+        <v>45973.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45970.44791666666</v>
+        <v>45973.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45970.45833333334</v>
+        <v>45973.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2608,24 +2608,24 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45970.46875</v>
+        <v>45973.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2652,24 +2652,24 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45970.47916666666</v>
+        <v>45973.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2696,24 +2696,24 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45970.48958333334</v>
+        <v>45973.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2740,24 +2740,24 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45970.5</v>
+        <v>45973.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2784,24 +2784,24 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>173.25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45970.51041666666</v>
+        <v>45973.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2828,24 +2828,24 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>173.25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45970.52083333334</v>
+        <v>45973.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2872,24 +2872,24 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>173.25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45970.53125</v>
+        <v>45973.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2916,24 +2916,24 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>173.25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45970.54166666666</v>
+        <v>45973.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45970.55208333334</v>
+        <v>45973.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45970.5625</v>
+        <v>45973.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45970.57291666666</v>
+        <v>45973.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45970.58333333334</v>
+        <v>45973.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45970.59375</v>
+        <v>45973.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45970.60416666666</v>
+        <v>45973.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45970.61458333334</v>
+        <v>45973.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45970.625</v>
+        <v>45973.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45970.63541666666</v>
+        <v>45973.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45970.64583333334</v>
+        <v>45973.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45970.65625</v>
+        <v>45973.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45970.66666666666</v>
+        <v>45973.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45970.67708333334</v>
+        <v>45973.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45970.6875</v>
+        <v>45973.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45970.69791666666</v>
+        <v>45973.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45970.70833333334</v>
+        <v>45973.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45970.71875</v>
+        <v>45973.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45970.72916666666</v>
+        <v>45973.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45970.73958333334</v>
+        <v>45973.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45970.75</v>
+        <v>45973.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45970.76041666666</v>
+        <v>45973.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45970.77083333334</v>
+        <v>45973.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45970.78125</v>
+        <v>45973.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45970.79166666666</v>
+        <v>45973.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45970.80208333334</v>
+        <v>45973.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45970.8125</v>
+        <v>45973.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45970.82291666666</v>
+        <v>45973.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45970.83333333334</v>
+        <v>45973.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45970.84375</v>
+        <v>45973.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45970.85416666666</v>
+        <v>45973.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45970.86458333334</v>
+        <v>45973.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45970.875</v>
+        <v>45973.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45970.88541666666</v>
+        <v>45973.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45970.89583333334</v>
+        <v>45973.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45970.90625</v>
+        <v>45973.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45970.91666666666</v>
+        <v>45973.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45970.92708333334</v>
+        <v>45973.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45970.9375</v>
+        <v>45973.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45970.94791666666</v>
+        <v>45973.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45970.95833333334</v>
+        <v>45973.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45970.96875</v>
+        <v>45973.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45970.97916666666</v>
+        <v>45973.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45970.98958333334</v>
+        <v>45973.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45972.95833333334</v>
+        <v>45981.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45972.96875</v>
+        <v>45981.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45972.97916666666</v>
+        <v>45981.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45972.98958333334</v>
+        <v>45981.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,13 +645,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45973</v>
+        <v>45982</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -681,21 +681,21 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-400.14</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45973.01041666666</v>
+        <v>45982.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -725,21 +725,21 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-400.14</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45973.02083333334</v>
+        <v>45982.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -769,21 +769,21 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>-400.14</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45973.03125</v>
+        <v>45982.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -813,21 +813,21 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>400.14</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>-400.14</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45973.04166666666</v>
+        <v>45982.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -857,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>-299.32</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45973.05208333334</v>
+        <v>45982.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -901,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-299.32</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45973.0625</v>
+        <v>45982.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -945,21 +945,21 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-299.32</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45973.07291666666</v>
+        <v>45982.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -989,24 +989,24 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>299.32</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-299.32</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45973.08333333334</v>
+        <v>45982.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1030,27 +1030,27 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-217.6131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45973.09375</v>
+        <v>45982.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1074,27 +1074,27 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-217.6131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45973.10416666666</v>
+        <v>45982.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1118,27 +1118,27 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-217.6131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45973.11458333334</v>
+        <v>45982.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1162,24 +1162,24 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>239.4669</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>457.08</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-217.6131</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45973.125</v>
+        <v>45982.125</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1209,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-427.300001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45973.13541666666</v>
+        <v>45982.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1253,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-427.300001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45973.14583333334</v>
+        <v>45982.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1297,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-427.300001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45973.15625</v>
+        <v>45982.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1341,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>427.300001</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-427.300001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45973.16666666666</v>
+        <v>45982.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1385,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>-323.8200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45973.17708333334</v>
+        <v>45982.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1429,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-323.8200000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45973.1875</v>
+        <v>45982.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1473,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-323.8200000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45973.19791666666</v>
+        <v>45982.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1517,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>323.8200000000001</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-323.8200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45973.20833333334</v>
+        <v>45982.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1561,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-389.8</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45973.21875</v>
+        <v>45982.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1605,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-389.8</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45973.22916666666</v>
+        <v>45982.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1649,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-389.8</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45973.23958333334</v>
+        <v>45982.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1693,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-389.8</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45973.25</v>
+        <v>45982.25</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-86.95999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45973.26041666666</v>
+        <v>45982.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-86.95999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45973.27083333334</v>
+        <v>45982.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1825,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-86.95999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45973.28125</v>
+        <v>45982.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1869,18 +1869,18 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>86.95999999999998</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-86.95999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45973.29166666666</v>
+        <v>45982.29166666666</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>259.1200000000001</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1904,27 +1904,27 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>270.3700000000001</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>270.3700000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45973.30208333334</v>
+        <v>45982.30208333334</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>259.1200000000001</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1948,27 +1948,27 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>270.3700000000001</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>270.3700000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45973.3125</v>
+        <v>45982.3125</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>259.1200000000001</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1992,27 +1992,27 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>270.3700000000001</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>270.3700000000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45973.32291666666</v>
+        <v>45982.32291666666</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>259.1200000000001</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>937.5119999999999</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2036,24 +2036,24 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1207.882</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1207.882</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45973.33333333334</v>
+        <v>45982.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>818.4860000000001</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>818.4860000000001</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>818.4860000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45973.34375</v>
+        <v>45982.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>925.587</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>925.587</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>925.587</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45973.35416666666</v>
+        <v>45982.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>915.3960000000001</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2174,18 +2174,18 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>915.3960000000001</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>915.3960000000001</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45973.36458333334</v>
+        <v>45982.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1010.716</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1010.716</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1010.716</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45973.375</v>
+        <v>45982.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1223.335</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1223.335</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1223.335</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45973.38541666666</v>
+        <v>45982.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1218.78</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2306,18 +2306,18 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1218.78</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1218.78</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45973.39583333334</v>
+        <v>45982.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45973.40625</v>
+        <v>45982.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45973.41666666666</v>
+        <v>45982.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1169.84</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2438,18 +2438,18 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1169.84</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1169.84</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45973.42708333334</v>
+        <v>45982.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1198.157</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2482,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1198.157</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1198.157</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45973.4375</v>
+        <v>45982.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>934.9829999999999</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2526,18 +2526,18 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>934.9829999999999</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>934.9829999999999</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45973.44791666666</v>
+        <v>45982.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>835.52</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2570,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>835.52</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>835.52</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45973.45833333334</v>
+        <v>45982.45833333334</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>288.9000009999999</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2608,27 +2608,27 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>4.25</v>
+        <v>288.9000009999999</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>4.25</v>
+        <v>288.9000009999999</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45973.46875</v>
+        <v>45982.46875</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>288.9000009999999</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1127.455</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2652,27 +2652,27 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>4.25</v>
+        <v>1416.355001</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>4.25</v>
+        <v>1416.355001</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45973.47916666666</v>
+        <v>45982.47916666666</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>288.9000009999999</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1104.288</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2696,27 +2696,27 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>4.25</v>
+        <v>1393.188001</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>4.25</v>
+        <v>1393.188001</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45973.48958333334</v>
+        <v>45982.48958333334</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>288.9000009999999</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>998.12</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2740,27 +2740,27 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>4.25</v>
+        <v>1287.020001</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>4.25</v>
+        <v>1287.020001</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45973.5</v>
+        <v>45982.5</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>268.6799999999999</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1481.259</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2784,27 +2784,27 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>173.25</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>173.25</v>
+        <v>1749.939</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>173.25</v>
+        <v>1749.939</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45973.51041666666</v>
+        <v>45982.51041666666</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>268.6799999999999</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1575.981</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2828,27 +2828,27 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>173.25</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>173.25</v>
+        <v>1844.661</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>173.25</v>
+        <v>1844.661</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45973.52083333334</v>
+        <v>45982.52083333334</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>268.6799999999999</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1513.692</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2872,27 +2872,27 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>173.25</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>173.25</v>
+        <v>1782.372</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>173.25</v>
+        <v>1782.372</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45973.53125</v>
+        <v>45982.53125</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>268.6799999999999</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1381.565</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2916,27 +2916,27 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>173.25</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>173.25</v>
+        <v>1650.245</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>173.25</v>
+        <v>1650.245</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45973.54166666666</v>
+        <v>45982.54166666666</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>458.16</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1581.883</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2966,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>2040.043</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>2040.043</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45973.55208333334</v>
+        <v>45982.55208333334</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>458.16</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1625.347</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3010,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2083.507</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>2083.507</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45973.5625</v>
+        <v>45982.5625</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>458.16</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1428.006</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3054,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1886.166</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1886.166</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45973.57291666666</v>
+        <v>45982.57291666666</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>458.16</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1245.078</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3098,18 +3098,18 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1703.238</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1703.238</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45973.58333333334</v>
+        <v>45982.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1120.649</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3142,18 +3142,18 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1120.649</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1120.649</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45973.59375</v>
+        <v>45982.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45973.60416666666</v>
+        <v>45982.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45973.61458333334</v>
+        <v>45982.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45973.625</v>
+        <v>45982.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45973.63541666666</v>
+        <v>45982.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45973.64583333334</v>
+        <v>45982.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45973.65625</v>
+        <v>45982.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45973.66666666666</v>
+        <v>45982.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45973.67708333334</v>
+        <v>45982.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45973.6875</v>
+        <v>45982.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45973.69791666666</v>
+        <v>45982.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45973.70833333334</v>
+        <v>45982.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45973.71875</v>
+        <v>45982.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45973.72916666666</v>
+        <v>45982.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45973.73958333334</v>
+        <v>45982.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45973.75</v>
+        <v>45982.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45973.76041666666</v>
+        <v>45982.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45973.77083333334</v>
+        <v>45982.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45973.78125</v>
+        <v>45982.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45973.79166666666</v>
+        <v>45982.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45973.80208333334</v>
+        <v>45982.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45973.8125</v>
+        <v>45982.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45973.82291666666</v>
+        <v>45982.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45973.83333333334</v>
+        <v>45982.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45973.84375</v>
+        <v>45982.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45973.85416666666</v>
+        <v>45982.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45973.86458333334</v>
+        <v>45982.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45973.875</v>
+        <v>45982.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45973.88541666666</v>
+        <v>45982.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45973.89583333334</v>
+        <v>45982.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45973.90625</v>
+        <v>45982.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45973.91666666666</v>
+        <v>45982.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45973.92708333334</v>
+        <v>45982.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45973.9375</v>
+        <v>45982.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45973.94791666666</v>
+        <v>45982.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45973.95833333334</v>
+        <v>45982.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45973.96875</v>
+        <v>45982.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45973.97916666666</v>
+        <v>45982.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45973.98958333334</v>
+        <v>45982.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45981.95833333334</v>
+        <v>45983.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45981.96875</v>
+        <v>45983.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45981.97916666666</v>
+        <v>45983.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45981.98958333334</v>
+        <v>45983.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,19 +645,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45982</v>
+        <v>45984</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>400.14</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>174.468</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -681,27 +681,27 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>400.14</v>
+        <v>174.468</v>
       </c>
       <c r="N6">
-        <v>-400.14</v>
+        <v>-174.468</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45982.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>400.14</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>174.468</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -725,27 +725,27 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>400.14</v>
+        <v>174.468</v>
       </c>
       <c r="N7">
-        <v>-400.14</v>
+        <v>-174.468</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45982.02083333334</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>400.14</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>174.468</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -769,27 +769,27 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>400.14</v>
+        <v>174.468</v>
       </c>
       <c r="N8">
-        <v>-400.14</v>
+        <v>-174.468</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45982.03125</v>
+        <v>45984.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>400.14</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>174.468</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -813,21 +813,21 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>400.14</v>
+        <v>174.468</v>
       </c>
       <c r="N9">
-        <v>-400.14</v>
+        <v>-174.468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45982.04166666666</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -857,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-299.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45982.05208333334</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -901,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>-299.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45982.0625</v>
+        <v>45984.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -945,21 +945,21 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-299.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45982.07291666666</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -989,24 +989,24 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>299.32</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-299.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45982.08333333334</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1030,27 +1030,27 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-217.6131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45982.09375</v>
+        <v>45984.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1074,27 +1074,27 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>-217.6131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45982.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1118,27 +1118,27 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-217.6131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45982.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1162,30 +1162,30 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>239.4669</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>457.08</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-217.6131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45982.125</v>
+        <v>45984.125</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>427.300001</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>181.327</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1209,27 +1209,27 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>427.300001</v>
+        <v>181.327</v>
       </c>
       <c r="N18">
-        <v>-427.300001</v>
+        <v>-181.327</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45982.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>427.300001</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>181.327</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1253,27 +1253,27 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>427.300001</v>
+        <v>181.327</v>
       </c>
       <c r="N19">
-        <v>-427.300001</v>
+        <v>-181.327</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45982.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>427.300001</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>181.327</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1297,27 +1297,27 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>427.300001</v>
+        <v>181.327</v>
       </c>
       <c r="N20">
-        <v>-427.300001</v>
+        <v>-181.327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45982.15625</v>
+        <v>45984.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>427.300001</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>181.327</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1341,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>427.300001</v>
+        <v>181.327</v>
       </c>
       <c r="N21">
-        <v>-427.300001</v>
+        <v>-181.327</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45982.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1385,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>-323.8200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45982.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1429,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-323.8200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45982.1875</v>
+        <v>45984.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1473,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>-323.8200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45982.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1517,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>323.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-323.8200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45982.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1561,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-389.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45982.21875</v>
+        <v>45984.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1605,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-389.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45982.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1649,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-389.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45982.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1693,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>389.8</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-389.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45982.25</v>
+        <v>45984.25</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-86.95999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45982.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-86.95999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45982.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1825,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>-86.95999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45982.28125</v>
+        <v>45984.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1869,18 +1869,18 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>86.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-86.95999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45982.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B34">
-        <v>259.1200000000001</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1904,27 +1904,27 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>270.3700000000001</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>270.3700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45982.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B35">
-        <v>259.1200000000001</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1948,27 +1948,27 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>270.3700000000001</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>270.3700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45982.3125</v>
+        <v>45984.3125</v>
       </c>
       <c r="B36">
-        <v>259.1200000000001</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1992,27 +1992,27 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>270.3700000000001</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>270.3700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45982.32291666666</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B37">
-        <v>259.1200000000001</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>937.5119999999999</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2036,24 +2036,24 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1207.882</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1207.882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45982.33333333334</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>818.4860000000001</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2086,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>818.4860000000001</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>818.4860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45982.34375</v>
+        <v>45984.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>925.587</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2130,18 +2130,18 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>925.587</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>925.587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45982.35416666666</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>915.3960000000001</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2174,18 +2174,18 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>915.3960000000001</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>915.3960000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45982.36458333334</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1010.716</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1010.716</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1010.716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45982.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1223.335</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2262,18 +2262,18 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1223.335</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1223.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45982.38541666666</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1218.78</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2306,18 +2306,18 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1218.78</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1218.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45982.39583333334</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45982.40625</v>
+        <v>45984.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45982.41666666666</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1169.84</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2438,18 +2438,18 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>1169.84</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1169.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45982.42708333334</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1198.157</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2482,18 +2482,18 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1198.157</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1198.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45982.4375</v>
+        <v>45984.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>934.9829999999999</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2526,18 +2526,18 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>934.9829999999999</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>934.9829999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45982.44791666666</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>835.52</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2570,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>835.52</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>835.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45982.45833333334</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B50">
-        <v>288.9000009999999</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2614,21 +2614,21 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>288.9000009999999</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>288.9000009999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45982.46875</v>
+        <v>45984.46875</v>
       </c>
       <c r="B51">
-        <v>288.9000009999999</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1127.455</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2658,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1416.355001</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1416.355001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45982.47916666666</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B52">
-        <v>288.9000009999999</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1104.288</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2702,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1393.188001</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1393.188001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45982.48958333334</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B53">
-        <v>288.9000009999999</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>998.12</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2746,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1287.020001</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1287.020001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45982.5</v>
+        <v>45984.5</v>
       </c>
       <c r="B54">
-        <v>268.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1481.259</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2790,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1749.939</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1749.939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45982.51041666666</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B55">
-        <v>268.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1575.981</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2834,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1844.661</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1844.661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45982.52083333334</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B56">
-        <v>268.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1513.692</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2878,21 +2878,21 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1782.372</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1782.372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45982.53125</v>
+        <v>45984.53125</v>
       </c>
       <c r="B57">
-        <v>268.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1381.565</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2922,21 +2922,21 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1650.245</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1650.245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45982.54166666666</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B58">
-        <v>458.16</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1581.883</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2966,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>2040.043</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>2040.043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45982.55208333334</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B59">
-        <v>458.16</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1625.347</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3010,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>2083.507</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2083.507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45982.5625</v>
+        <v>45984.5625</v>
       </c>
       <c r="B60">
-        <v>458.16</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1428.006</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3054,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1886.166</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1886.166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45982.57291666666</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B61">
-        <v>458.16</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1245.078</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3098,18 +3098,18 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1703.238</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1703.238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45982.58333333334</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1120.649</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3142,18 +3142,18 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1120.649</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1120.649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45982.59375</v>
+        <v>45984.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45982.60416666666</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45982.61458333334</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45982.625</v>
+        <v>45984.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45982.63541666666</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45982.64583333334</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45982.65625</v>
+        <v>45984.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45982.66666666666</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45982.67708333334</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45982.6875</v>
+        <v>45984.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45982.69791666666</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45982.70833333334</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45982.71875</v>
+        <v>45984.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45982.72916666666</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45982.73958333334</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45982.75</v>
+        <v>45984.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45982.76041666666</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45982.77083333334</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45982.78125</v>
+        <v>45984.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45982.79166666666</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45982.80208333334</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45982.8125</v>
+        <v>45984.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45982.82291666666</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45982.83333333334</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45982.84375</v>
+        <v>45984.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45982.85416666666</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45982.86458333334</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45982.875</v>
+        <v>45984.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45982.88541666666</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45982.89583333334</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45982.90625</v>
+        <v>45984.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45982.91666666666</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45982.92708333334</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45982.9375</v>
+        <v>45984.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45982.94791666666</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45982.95833333334</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45982.96875</v>
+        <v>45984.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45982.97916666666</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45982.98958333334</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45983.95833333334</v>
+        <v>45992.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45983.96875</v>
+        <v>45992.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45983.97916666666</v>
+        <v>45992.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45983.98958333334</v>
+        <v>45992.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45984</v>
+        <v>45993</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -681,15 +681,15 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-174.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45984.01041666666</v>
+        <v>45993.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -725,15 +725,15 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-174.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45984.02083333334</v>
+        <v>45993.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -769,15 +769,15 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-174.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45984.03125</v>
+        <v>45993.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -813,15 +813,15 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>174.468</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-174.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45984.04166666666</v>
+        <v>45993.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45984.05208333334</v>
+        <v>45993.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45984.0625</v>
+        <v>45993.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45984.07291666666</v>
+        <v>45993.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45984.08333333334</v>
+        <v>45993.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45984.09375</v>
+        <v>45993.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45984.10416666666</v>
+        <v>45993.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45984.11458333334</v>
+        <v>45993.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45984.125</v>
+        <v>45993.125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1209,15 +1209,15 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>-181.327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45984.13541666666</v>
+        <v>45993.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1253,15 +1253,15 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-181.327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45984.14583333334</v>
+        <v>45993.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1297,15 +1297,15 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>-181.327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45984.15625</v>
+        <v>45993.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1341,15 +1341,15 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>181.327</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>-181.327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45984.16666666666</v>
+        <v>45993.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45984.17708333334</v>
+        <v>45993.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45984.1875</v>
+        <v>45993.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45984.19791666666</v>
+        <v>45993.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45984.20833333334</v>
+        <v>45993.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45984.21875</v>
+        <v>45993.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45984.22916666666</v>
+        <v>45993.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45984.23958333334</v>
+        <v>45993.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45984.25</v>
+        <v>45993.25</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1734,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>709.5634999999999</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45984.26041666666</v>
+        <v>45993.26041666666</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1778,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>709.5634999999999</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45984.27083333334</v>
+        <v>45993.27083333334</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1822,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>709.5634999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45984.28125</v>
+        <v>45993.28125</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1866,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>953.4999999999999</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>243.9365</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>709.5634999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45984.29166666666</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1910,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45984.30208333334</v>
+        <v>45993.30208333334</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1954,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45984.3125</v>
+        <v>45993.3125</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1998,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45984.32291666666</v>
+        <v>45993.32291666666</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2042,18 +2042,18 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1770.18</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45984.33333333334</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45984.34375</v>
+        <v>45993.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45984.35416666666</v>
+        <v>45993.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45984.36458333334</v>
+        <v>45993.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45984.375</v>
+        <v>45993.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45984.38541666666</v>
+        <v>45993.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45984.39583333334</v>
+        <v>45993.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45984.40625</v>
+        <v>45993.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45984.41666666666</v>
+        <v>45993.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45984.42708333334</v>
+        <v>45993.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45984.4375</v>
+        <v>45993.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45984.44791666666</v>
+        <v>45993.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45984.45833333334</v>
+        <v>45993.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45984.46875</v>
+        <v>45993.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45984.47916666666</v>
+        <v>45993.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45984.48958333334</v>
+        <v>45993.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45984.5</v>
+        <v>45993.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45984.51041666666</v>
+        <v>45993.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45984.52083333334</v>
+        <v>45993.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45984.53125</v>
+        <v>45993.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45984.54166666666</v>
+        <v>45993.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45984.55208333334</v>
+        <v>45993.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45984.5625</v>
+        <v>45993.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45984.57291666666</v>
+        <v>45993.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45984.58333333334</v>
+        <v>45993.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45984.59375</v>
+        <v>45993.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45984.60416666666</v>
+        <v>45993.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45984.61458333334</v>
+        <v>45993.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45984.625</v>
+        <v>45993.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45984.63541666666</v>
+        <v>45993.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45984.64583333334</v>
+        <v>45993.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45984.65625</v>
+        <v>45993.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45984.66666666666</v>
+        <v>45993.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45984.67708333334</v>
+        <v>45993.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45984.6875</v>
+        <v>45993.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45984.69791666666</v>
+        <v>45993.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45984.70833333334</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45984.71875</v>
+        <v>45993.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45984.72916666666</v>
+        <v>45993.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45984.73958333334</v>
+        <v>45993.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45984.75</v>
+        <v>45993.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45984.76041666666</v>
+        <v>45993.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45984.77083333334</v>
+        <v>45993.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45984.78125</v>
+        <v>45993.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45984.79166666666</v>
+        <v>45993.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45984.80208333334</v>
+        <v>45993.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45984.8125</v>
+        <v>45993.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45984.82291666666</v>
+        <v>45993.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45984.83333333334</v>
+        <v>45993.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45984.84375</v>
+        <v>45993.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45984.85416666666</v>
+        <v>45993.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45984.86458333334</v>
+        <v>45993.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45984.875</v>
+        <v>45993.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45984.88541666666</v>
+        <v>45993.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45984.89583333334</v>
+        <v>45993.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45984.90625</v>
+        <v>45993.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45984.91666666666</v>
+        <v>45993.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45984.92708333334</v>
+        <v>45993.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45984.9375</v>
+        <v>45993.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45984.94791666666</v>
+        <v>45993.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45984.95833333334</v>
+        <v>45993.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45984.96875</v>
+        <v>45993.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45984.97916666666</v>
+        <v>45993.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45984.98958333334</v>
+        <v>45993.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45992.95833333334</v>
+        <v>45994.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45992.96875</v>
+        <v>45994.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45992.97916666666</v>
+        <v>45994.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45992.98958333334</v>
+        <v>45994.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,22 +645,22 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>111.6066</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>850.444</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -672,39 +672,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>995.3005999999999</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>458.0205999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>111.6066</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>907.596</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -716,39 +716,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1052.4526</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>515.1726000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>111.6066</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>832.8190000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -760,39 +760,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>977.6756</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>440.3956000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>111.6066</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>749.499</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -804,30 +804,30 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>894.3556</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>537.28</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>357.0756</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>951.26</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -854,24 +854,24 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>951.26</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>430.2399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>839.428</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -898,24 +898,24 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>839.428</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>318.4079999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45993.0625</v>
+        <v>45995.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>844.347</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -942,24 +942,24 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>844.347</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>323.3269999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>821.847</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -986,24 +986,24 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>821.847</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>521.0200000000001</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>300.8269999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>840.3489999999999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1030,24 +1030,24 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>840.3489999999999</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>433.829</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45993.09375</v>
+        <v>45995.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1077,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-406.52</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>889.0410000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1118,24 +1118,24 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>889.0410000000001</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>482.5210000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>659.3580000000001</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1162,24 +1162,24 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>659.3580000000001</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>406.52</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>252.8380000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45993.125</v>
+        <v>45995.125</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>694.2789999999999</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,24 +1206,24 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>694.2789999999999</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>199.6189999999999</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>695.454</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,24 +1250,24 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>695.454</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>200.794</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>667.549</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,24 +1294,24 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>667.549</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>172.889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45993.15625</v>
+        <v>45995.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>612.3460000000001</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,24 +1338,24 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>612.3460000000001</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>494.66</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>117.6860000000001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>569.309</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1376,30 +1376,30 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>629.309</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.808999999999969</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>601.145</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1420,30 +1420,30 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>661.145</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>39.64499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45993.1875</v>
+        <v>45995.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>636.771</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1464,30 +1464,30 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>696.771</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>75.27099999999996</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>535.722</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1508,39 +1508,39 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>595.722</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>621.5</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-25.77800000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>59.3151</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>501.342</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1552,33 +1552,33 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>121.25</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>681.9071</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>296.0071</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45993.21875</v>
+        <v>45995.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>59.3151</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1596,33 +1596,33 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>121.25</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>180.5651</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-205.3349</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>59.3151</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1640,33 +1640,33 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>121.25</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>180.5651</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-205.3349</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>59.3151</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1684,27 +1684,27 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>121.25</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>180.5651</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>385.9</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-205.3349</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45993.25</v>
+        <v>45995.25</v>
       </c>
       <c r="B30">
-        <v>953.4999999999999</v>
+        <v>77.67999899999995</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1728,27 +1728,27 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>953.4999999999999</v>
+        <v>206.179999</v>
       </c>
       <c r="M30">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>709.5634999999999</v>
+        <v>206.179999</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.26041666666</v>
       </c>
       <c r="B31">
-        <v>953.4999999999999</v>
+        <v>77.67999899999995</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1772,27 +1772,27 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>953.4999999999999</v>
+        <v>206.179999</v>
       </c>
       <c r="M31">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>709.5634999999999</v>
+        <v>206.179999</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.27083333334</v>
       </c>
       <c r="B32">
-        <v>953.4999999999999</v>
+        <v>77.67999899999995</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1816,27 +1816,27 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>953.4999999999999</v>
+        <v>206.179999</v>
       </c>
       <c r="M32">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>709.5634999999999</v>
+        <v>206.179999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45993.28125</v>
+        <v>45995.28125</v>
       </c>
       <c r="B33">
-        <v>953.4999999999999</v>
+        <v>77.67999899999995</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1860,27 +1860,27 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>953.4999999999999</v>
+        <v>206.179999</v>
       </c>
       <c r="M33">
-        <v>243.9365</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>709.5634999999999</v>
+        <v>206.179999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.29166666666</v>
       </c>
       <c r="B34">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1910,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.30208333334</v>
       </c>
       <c r="B35">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1954,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45993.3125</v>
+        <v>45995.3125</v>
       </c>
       <c r="B36">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1998,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.32291666666</v>
       </c>
       <c r="B37">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2042,18 +2042,18 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1770.18</v>
+        <v>328.0600000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45993.34375</v>
+        <v>45995.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>784.352</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2174,18 +2174,18 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>784.352</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>784.352</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>836.432</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>836.432</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>836.432</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45993.375</v>
+        <v>45995.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1095.591</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2306,18 +2306,18 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1095.591</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1095.591</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1048.512</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2350,18 +2350,18 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1048.512</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1048.512</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45993.40625</v>
+        <v>45995.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1004.61</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2394,18 +2394,18 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1004.61</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1004.61</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>819.861</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2438,18 +2438,18 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>819.861</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>819.861</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45993.42708333334</v>
+        <v>45995.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45993.4375</v>
+        <v>45995.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45993.44791666666</v>
+        <v>45995.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45993.45833333334</v>
+        <v>45995.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45993.46875</v>
+        <v>45995.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45993.47916666666</v>
+        <v>45995.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45993.48958333334</v>
+        <v>45995.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45993.5</v>
+        <v>45995.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45993.51041666666</v>
+        <v>45995.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45993.52083333334</v>
+        <v>45995.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45993.53125</v>
+        <v>45995.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45993.54166666666</v>
+        <v>45995.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45993.55208333334</v>
+        <v>45995.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45993.5625</v>
+        <v>45995.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45993.57291666666</v>
+        <v>45995.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45993.58333333334</v>
+        <v>45995.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45993.59375</v>
+        <v>45995.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45993.60416666666</v>
+        <v>45995.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45993.61458333334</v>
+        <v>45995.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45993.625</v>
+        <v>45995.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45993.63541666666</v>
+        <v>45995.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45993.64583333334</v>
+        <v>45995.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45993.65625</v>
+        <v>45995.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45993.66666666666</v>
+        <v>45995.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45993.67708333334</v>
+        <v>45995.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45993.6875</v>
+        <v>45995.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45993.69791666666</v>
+        <v>45995.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45993.70833333334</v>
+        <v>45995.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45993.71875</v>
+        <v>45995.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45993.72916666666</v>
+        <v>45995.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45993.73958333334</v>
+        <v>45995.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45993.75</v>
+        <v>45995.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45993.76041666666</v>
+        <v>45995.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45993.77083333334</v>
+        <v>45995.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45993.78125</v>
+        <v>45995.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45993.79166666666</v>
+        <v>45995.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45993.80208333334</v>
+        <v>45995.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45993.8125</v>
+        <v>45995.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45993.82291666666</v>
+        <v>45995.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45993.83333333334</v>
+        <v>45995.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45993.84375</v>
+        <v>45995.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45993.85416666666</v>
+        <v>45995.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45993.86458333334</v>
+        <v>45995.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45993.875</v>
+        <v>45995.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45993.88541666666</v>
+        <v>45995.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45993.89583333334</v>
+        <v>45995.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45993.90625</v>
+        <v>45995.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45993.91666666666</v>
+        <v>45995.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45993.92708333334</v>
+        <v>45995.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45993.9375</v>
+        <v>45995.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45993.94791666666</v>
+        <v>45995.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45993.95833333334</v>
+        <v>45995.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45993.96875</v>
+        <v>45995.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45993.97916666666</v>
+        <v>45995.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45993.98958333334</v>
+        <v>45995.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>45994.95833333334</v>
+        <v>46005.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>45994.96875</v>
+        <v>46005.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>45994.97916666666</v>
+        <v>46005.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>45994.98958333334</v>
+        <v>46005.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,22 +645,22 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>45995</v>
+        <v>46006</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="C6">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>111.6066</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>850.444</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -672,39 +672,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>995.3005999999999</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="M6">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>458.0205999999999</v>
+        <v>15.22000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="C7">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>111.6066</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>907.596</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -716,39 +716,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1052.4526</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="M7">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>515.1726000000001</v>
+        <v>15.22000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="C8">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>111.6066</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>832.8190000000001</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -760,39 +760,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>977.6756</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="M8">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>440.3956000000001</v>
+        <v>15.22000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="C9">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>111.6066</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>749.499</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -804,30 +804,30 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>894.3556</v>
+        <v>15.22000000000003</v>
       </c>
       <c r="M9">
-        <v>537.28</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>357.0756</v>
+        <v>15.22000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>951.26</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -854,24 +854,24 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>951.26</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="N10">
-        <v>430.2399999999999</v>
+        <v>-29.07999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>45995.05208333334</v>
+        <v>46006.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>839.428</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -898,24 +898,24 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>839.428</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="N11">
-        <v>318.4079999999999</v>
+        <v>-29.07999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>45995.0625</v>
+        <v>46006.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>844.347</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -942,24 +942,24 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>844.347</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="N12">
-        <v>323.3269999999999</v>
+        <v>-29.07999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>45995.07291666666</v>
+        <v>46006.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>821.847</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -986,24 +986,24 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>821.847</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>521.0200000000001</v>
+        <v>29.07999999999993</v>
       </c>
       <c r="N13">
-        <v>300.8269999999999</v>
+        <v>-29.07999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>840.3489999999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1030,24 +1030,24 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>840.3489999999999</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="N14">
-        <v>433.829</v>
+        <v>-391.4799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>45995.09375</v>
+        <v>46006.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1077,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="N15">
-        <v>-406.52</v>
+        <v>-391.4799999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>45995.10416666666</v>
+        <v>46006.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>889.0410000000001</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1118,24 +1118,24 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>889.0410000000001</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="N16">
-        <v>482.5210000000001</v>
+        <v>-391.4799999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>659.3580000000001</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1162,24 +1162,24 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>659.3580000000001</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>406.52</v>
+        <v>391.4799999999999</v>
       </c>
       <c r="N17">
-        <v>252.8380000000001</v>
+        <v>-391.4799999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>45995.125</v>
+        <v>46006.125</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>694.2789999999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,24 +1206,24 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>694.2789999999999</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>199.6189999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>695.454</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,24 +1250,24 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>695.454</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>200.794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>667.549</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,24 +1294,24 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>667.549</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>172.889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>45995.15625</v>
+        <v>46006.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>612.3460000000001</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,24 +1338,24 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>612.3460000000001</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>494.66</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>117.6860000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>569.309</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1376,30 +1376,30 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>629.309</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>7.808999999999969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>601.145</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1420,30 +1420,30 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>661.145</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>39.64499999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>45995.1875</v>
+        <v>46006.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>636.771</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1464,30 +1464,30 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>696.771</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>75.27099999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>535.722</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1508,39 +1508,39 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>595.722</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>621.5</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-25.77800000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>59.3151</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>501.342</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1552,33 +1552,33 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>121.25</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>681.9071</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>296.0071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>45995.21875</v>
+        <v>46006.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>59.3151</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1596,33 +1596,33 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>121.25</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>180.5651</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-205.3349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>59.3151</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1640,33 +1640,33 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>121.25</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>180.5651</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-205.3349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>59.3151</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1684,33 +1684,33 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>121.25</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>180.5651</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>385.9</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-205.3349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>45995.25</v>
+        <v>46006.25</v>
       </c>
       <c r="B30">
-        <v>77.67999899999995</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1728,33 +1728,33 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.26041666666</v>
       </c>
       <c r="B31">
-        <v>77.67999899999995</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1772,33 +1772,33 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.27083333334</v>
       </c>
       <c r="B32">
-        <v>77.67999899999995</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1816,33 +1816,33 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>45995.28125</v>
+        <v>46006.28125</v>
       </c>
       <c r="B33">
-        <v>77.67999899999995</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1860,27 +1860,27 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>206.179999</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>45995.29166666666</v>
+        <v>46006.29166666666</v>
       </c>
       <c r="B34">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1910,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>45995.30208333334</v>
+        <v>46006.30208333334</v>
       </c>
       <c r="B35">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1954,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>45995.3125</v>
+        <v>46006.3125</v>
       </c>
       <c r="B36">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1998,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>45995.32291666666</v>
+        <v>46006.32291666666</v>
       </c>
       <c r="B37">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2042,18 +2042,18 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>328.0600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>45995.33333333334</v>
+        <v>46006.33333333334</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>45995.34375</v>
+        <v>46006.34375</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>45995.35416666666</v>
+        <v>46006.35416666666</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>784.352</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2174,18 +2174,18 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>784.352</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>784.352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>45995.36458333334</v>
+        <v>46006.36458333334</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>836.432</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>836.432</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>836.432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>45995.375</v>
+        <v>46006.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>45995.38541666666</v>
+        <v>46006.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1095.591</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2306,18 +2306,18 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1095.591</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1095.591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>45995.39583333334</v>
+        <v>46006.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1048.512</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2350,18 +2350,18 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1048.512</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1048.512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>45995.40625</v>
+        <v>46006.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1004.61</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2394,18 +2394,18 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1004.61</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1004.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>45995.41666666666</v>
+        <v>46006.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>819.861</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2438,18 +2438,18 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>819.861</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>819.861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>45995.42708333334</v>
+        <v>46006.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>45995.4375</v>
+        <v>46006.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>45995.44791666666</v>
+        <v>46006.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>45995.45833333334</v>
+        <v>46006.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>45995.46875</v>
+        <v>46006.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>45995.47916666666</v>
+        <v>46006.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>45995.48958333334</v>
+        <v>46006.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>45995.5</v>
+        <v>46006.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>45995.51041666666</v>
+        <v>46006.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>45995.52083333334</v>
+        <v>46006.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>45995.53125</v>
+        <v>46006.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>45995.54166666666</v>
+        <v>46006.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>45995.55208333334</v>
+        <v>46006.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>45995.5625</v>
+        <v>46006.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>45995.57291666666</v>
+        <v>46006.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>45995.58333333334</v>
+        <v>46006.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>45995.59375</v>
+        <v>46006.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>45995.60416666666</v>
+        <v>46006.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>45995.61458333334</v>
+        <v>46006.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>45995.625</v>
+        <v>46006.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>45995.63541666666</v>
+        <v>46006.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>45995.64583333334</v>
+        <v>46006.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>45995.65625</v>
+        <v>46006.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>45995.66666666666</v>
+        <v>46006.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>45995.67708333334</v>
+        <v>46006.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>45995.6875</v>
+        <v>46006.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>45995.69791666666</v>
+        <v>46006.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>45995.70833333334</v>
+        <v>46006.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>45995.71875</v>
+        <v>46006.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>45995.72916666666</v>
+        <v>46006.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>45995.73958333334</v>
+        <v>46006.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>45995.75</v>
+        <v>46006.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>45995.76041666666</v>
+        <v>46006.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>45995.77083333334</v>
+        <v>46006.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>45995.78125</v>
+        <v>46006.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>45995.79166666666</v>
+        <v>46006.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>45995.80208333334</v>
+        <v>46006.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>45995.8125</v>
+        <v>46006.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>45995.82291666666</v>
+        <v>46006.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>45995.83333333334</v>
+        <v>46006.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>45995.84375</v>
+        <v>46006.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>45995.85416666666</v>
+        <v>46006.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>45995.86458333334</v>
+        <v>46006.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>45995.875</v>
+        <v>46006.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>45995.88541666666</v>
+        <v>46006.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>45995.89583333334</v>
+        <v>46006.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>45995.90625</v>
+        <v>46006.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>45995.91666666666</v>
+        <v>46006.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>45995.92708333334</v>
+        <v>46006.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>45995.9375</v>
+        <v>46006.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>45995.94791666666</v>
+        <v>46006.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>45995.95833333334</v>
+        <v>46006.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>45995.96875</v>
+        <v>46006.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>45995.97916666666</v>
+        <v>46006.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>45995.98958333334</v>
+        <v>46006.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>46005.95833333334</v>
+        <v>46021.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>46005.96875</v>
+        <v>46021.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>46005.97916666666</v>
+        <v>46021.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>46005.98958333334</v>
+        <v>46021.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>46006</v>
+        <v>46022</v>
       </c>
       <c r="B6">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -678,21 +678,21 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
       <c r="B7">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -722,21 +722,21 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
       <c r="B8">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -766,21 +766,21 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
       <c r="B9">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -810,24 +810,24 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.22000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -857,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-29.07999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -901,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>-29.07999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -945,21 +945,21 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-29.07999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -989,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>29.07999999999993</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-29.07999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1033,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-391.4799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>46006.09375</v>
+        <v>46022.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1077,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>-391.4799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>46006.10416666666</v>
+        <v>46022.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1121,21 +1121,21 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-391.4799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1165,15 +1165,15 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>391.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-391.4799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1734,18 +1734,18 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>267.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1778,18 +1778,18 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>267.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1822,18 +1822,18 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>267.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1866,18 +1866,18 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>267.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>46006.29166666666</v>
+        <v>46022.29166666666</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>46006.30208333334</v>
+        <v>46022.30208333334</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>46006.3125</v>
+        <v>46022.3125</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>46006.32291666666</v>
+        <v>46022.32291666666</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>46006.33333333334</v>
+        <v>46022.33333333334</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2086,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>46006.34375</v>
+        <v>46022.34375</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2130,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>46006.35416666666</v>
+        <v>46022.35416666666</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2174,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>46006.36458333334</v>
+        <v>46022.36458333334</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2218,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>675.8199999999999</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>46006.375</v>
+        <v>46022.375</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>46006.38541666666</v>
+        <v>46022.38541666666</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>46006.39583333334</v>
+        <v>46022.39583333334</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>46006.40625</v>
+        <v>46022.40625</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>46006.41666666666</v>
+        <v>46022.41666666666</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>46006.42708333334</v>
+        <v>46022.42708333334</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>46006.4375</v>
+        <v>46022.4375</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>46006.44791666666</v>
+        <v>46022.44791666666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>46006.45833333334</v>
+        <v>46022.45833333334</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>46006.46875</v>
+        <v>46022.46875</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>46006.47916666666</v>
+        <v>46022.47916666666</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>46006.48958333334</v>
+        <v>46022.48958333334</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>46006.5</v>
+        <v>46022.5</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>46006.51041666666</v>
+        <v>46022.51041666666</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>46006.52083333334</v>
+        <v>46022.52083333334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>46006.53125</v>
+        <v>46022.53125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>46006.54166666666</v>
+        <v>46022.54166666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>46006.55208333334</v>
+        <v>46022.55208333334</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>46006.5625</v>
+        <v>46022.5625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>46006.57291666666</v>
+        <v>46022.57291666666</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>46006.58333333334</v>
+        <v>46022.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>46006.59375</v>
+        <v>46022.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>46006.60416666666</v>
+        <v>46022.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>46006.61458333334</v>
+        <v>46022.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>46006.625</v>
+        <v>46022.625</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>46006.63541666666</v>
+        <v>46022.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>46006.64583333334</v>
+        <v>46022.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>46006.65625</v>
+        <v>46022.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>46006.66666666666</v>
+        <v>46022.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>46006.67708333334</v>
+        <v>46022.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>46006.6875</v>
+        <v>46022.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>46006.69791666666</v>
+        <v>46022.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>46006.70833333334</v>
+        <v>46022.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>46006.71875</v>
+        <v>46022.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>46006.72916666666</v>
+        <v>46022.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>46006.73958333334</v>
+        <v>46022.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>46006.75</v>
+        <v>46022.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>46006.76041666666</v>
+        <v>46022.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>46006.77083333334</v>
+        <v>46022.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>46006.78125</v>
+        <v>46022.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>46006.79166666666</v>
+        <v>46022.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>46006.80208333334</v>
+        <v>46022.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>46006.8125</v>
+        <v>46022.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>46006.82291666666</v>
+        <v>46022.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>46006.83333333334</v>
+        <v>46022.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>46006.84375</v>
+        <v>46022.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>46006.85416666666</v>
+        <v>46022.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>46006.86458333334</v>
+        <v>46022.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>46006.875</v>
+        <v>46022.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>46006.88541666666</v>
+        <v>46022.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>46006.89583333334</v>
+        <v>46022.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>46006.90625</v>
+        <v>46022.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>46006.91666666666</v>
+        <v>46022.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>46006.92708333334</v>
+        <v>46022.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>46006.9375</v>
+        <v>46022.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>46006.94791666666</v>
+        <v>46022.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>46006.95833333334</v>
+        <v>46022.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>46006.96875</v>
+        <v>46022.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>46006.97916666666</v>
+        <v>46022.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>46006.98958333334</v>
+        <v>46022.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>

--- a/data_fetching/Entsoe/Border_Flows.xlsx
+++ b/data_fetching/Entsoe/Border_Flows.xlsx
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>46021.95833333334</v>
+        <v>46022.95833333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>46021.96875</v>
+        <v>46022.96875</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>46021.97916666666</v>
+        <v>46022.97916666666</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>46021.98958333334</v>
+        <v>46022.98958333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>46022</v>
+        <v>46023</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>46022.01041666666</v>
+        <v>46023.01041666666</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>46022.02083333334</v>
+        <v>46023.02083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>46022.03125</v>
+        <v>46023.03125</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>46022.04166666666</v>
+        <v>46023.04166666666</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>46022.05208333334</v>
+        <v>46023.05208333334</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>46022.0625</v>
+        <v>46023.0625</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>46022.07291666666</v>
+        <v>46023.07291666666</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>46022.08333333334</v>
+        <v>46023.08333333334</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>46022.09375</v>
+        <v>46023.09375</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>46022.10416666666</v>
+        <v>46023.10416666666</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>46022.11458333334</v>
+        <v>46023.11458333334</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>46022.125</v>
+        <v>46023.125</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>46022.13541666666</v>
+        <v>46023.13541666666</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>46022.14583333334</v>
+        <v>46023.14583333334</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>46022.15625</v>
+        <v>46023.15625</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>46022.16666666666</v>
+        <v>46023.16666666666</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>46022.17708333334</v>
+        <v>46023.17708333334</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>46022.1875</v>
+        <v>46023.1875</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>46022.19791666666</v>
+        <v>46023.19791666666</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>46022.20833333334</v>
+        <v>46023.20833333334</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>46022.21875</v>
+        <v>46023.21875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>46022.22916666666</v>
+        <v>46023.22916666666</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>46022.23958333334</v>
+        <v>46023.23958333334</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>46022.25</v>
+        <v>46023.25</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>46022.26041666666</v>
+        <v>46023.26041666666</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>46022.27083333334</v>
+        <v>46023.27083333334</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2">
-        <v>46022.28125</v>
+        <v>46023.28125</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>46022.29166666666</v>
+        <v>46023.29166666666</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>46022.30208333334</v>
+        <v>46023.30208333334</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
-        <v>46022.3125</v>
+        <v>46023.3125</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
-        <v>46022.32291666666</v>
+        <v>46023.32291666666</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
-        <v>46022.33333333334</v>
+        <v>46023.33333333334</v>
       </c>
       <c r="B38">
-        <v>675.8199999999999</v>
+        <v>601.6600000000001</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2080,27 +2080,27 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>675.8199999999999</v>
+        <v>816.6600000000001</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>675.8199999999999</v>
+        <v>816.6600000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
-        <v>46022.34375</v>
+        <v>46023.34375</v>
       </c>
       <c r="B39">
-        <v>675.8199999999999</v>
+        <v>601.6600000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2124,27 +2124,27 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>675.8199999999999</v>
+        <v>816.6600000000001</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>675.8199999999999</v>
+        <v>816.6600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
-        <v>46022.35416666666</v>
+        <v>46023.35416666666</v>
       </c>
       <c r="B40">
-        <v>675.8199999999999</v>
+        <v>601.6600000000001</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2168,27 +2168,27 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>675.8199999999999</v>
+        <v>816.6600000000001</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>675.8199999999999</v>
+        <v>816.6600000000001</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2">
-        <v>46022.36458333334</v>
+        <v>46023.36458333334</v>
       </c>
       <c r="B41">
-        <v>675.8199999999999</v>
+        <v>601.6600000000001</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2175.547</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2212,27 +2212,27 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>675.8199999999999</v>
+        <v>2992.207</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>675.8199999999999</v>
+        <v>2992.207</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2">
-        <v>46022.375</v>
+        <v>46023.375</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1106.04</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2045.178</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2259,24 +2259,24 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>3151.218</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>3117.468</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2">
-        <v>46022.38541666666</v>
+        <v>46023.38541666666</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1106.04</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2350.139</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2303,24 +2303,24 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>3456.179</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>3422.429</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2">
-        <v>46022.39583333334</v>
+        <v>46023.39583333334</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1106.04</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2347,24 +2347,24 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1106.04</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1072.29</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2">
-        <v>46022.40625</v>
+        <v>46023.40625</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1106.04</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2391,24 +2391,24 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1106.04</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1072.29</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2">
-        <v>46022.41666666666</v>
+        <v>46023.41666666666</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2438,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>645.16</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>46022.42708333334</v>
+        <v>46023.42708333334</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2482,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>645.16</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2">
-        <v>46022.4375</v>
+        <v>46023.4375</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2526,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>645.16</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>46022.44791666666</v>
+        <v>46023.44791666666</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2570,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>645.16</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>645.16</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2">
-        <v>46022.45833333334</v>
+        <v>46023.45833333334</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1952.505</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2614,21 +2614,21 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2438.505</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2438.505</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2">
-        <v>46022.46875</v>
+        <v>46023.46875</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1873.277</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2658,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2359.277</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2359.277</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2">
-        <v>46022.47916666666</v>
+        <v>46023.47916666666</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1923.469</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2702,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>2409.469</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2409.469</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2">
-        <v>46022.48958333334</v>
+        <v>46023.48958333334</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1940.766</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2746,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>2426.766</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2426.766</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2">
-        <v>46022.5</v>
+        <v>46023.5</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>426.1199999999999</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1916.253</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2784,27 +2784,27 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>138.75</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>2481.123</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2481.123</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2">
-        <v>46022.51041666666</v>
+        <v>46023.51041666666</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>426.1199999999999</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1861.456</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2828,27 +2828,27 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>138.75</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2426.326</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>2426.326</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2">
-        <v>46022.52083333334</v>
+        <v>46023.52083333334</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>426.1199999999999</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1982.557</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2872,27 +2872,27 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>138.75</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2547.427</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>2547.427</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
-        <v>46022.53125</v>
+        <v>46023.53125</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>426.1199999999999</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1817.427</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2916,27 +2916,27 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>138.75</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>2382.297</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>2382.297</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2">
-        <v>46022.54166666666</v>
+        <v>46023.54166666666</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>256.74</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2960,27 +2960,27 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>537.99</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>537.99</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2">
-        <v>46022.55208333334</v>
+        <v>46023.55208333334</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>256.74</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3004,27 +3004,27 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>537.99</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>537.99</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2">
-        <v>46022.5625</v>
+        <v>46023.5625</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>256.74</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3048,27 +3048,27 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>537.99</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>537.99</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2">
-        <v>46022.57291666666</v>
+        <v>46023.57291666666</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>256.74</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3092,30 +3092,30 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>537.99</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>537.99</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2">
-        <v>46022.58333333334</v>
+        <v>46023.58333333334</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3145,21 +3145,21 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>-199.7199999999999</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2">
-        <v>46022.59375</v>
+        <v>46023.59375</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3189,21 +3189,21 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>-199.7199999999999</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2">
-        <v>46022.60416666666</v>
+        <v>46023.60416666666</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3233,21 +3233,21 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>-199.7199999999999</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2">
-        <v>46022.61458333334</v>
+        <v>46023.61458333334</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3277,21 +3277,21 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>199.7199999999999</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>-199.7199999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2">
-        <v>46022.625</v>
+        <v>46023.625</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3321,21 +3321,21 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>-222.8200000000002</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2">
-        <v>46022.63541666666</v>
+        <v>46023.63541666666</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3365,21 +3365,21 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>-222.8200000000002</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2">
-        <v>46022.64583333334</v>
+        <v>46023.64583333334</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3409,21 +3409,21 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>-222.8200000000002</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2">
-        <v>46022.65625</v>
+        <v>46023.65625</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3453,15 +3453,15 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>222.8200000000002</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>-222.8200000000002</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2">
-        <v>46022.66666666666</v>
+        <v>46023.66666666666</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2">
-        <v>46022.67708333334</v>
+        <v>46023.67708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2">
-        <v>46022.6875</v>
+        <v>46023.6875</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2">
-        <v>46022.69791666666</v>
+        <v>46023.69791666666</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2">
-        <v>46022.70833333334</v>
+        <v>46023.70833333334</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2">
-        <v>46022.71875</v>
+        <v>46023.71875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2">
-        <v>46022.72916666666</v>
+        <v>46023.72916666666</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2">
-        <v>46022.73958333334</v>
+        <v>46023.73958333334</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2">
-        <v>46022.75</v>
+        <v>46023.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2">
-        <v>46022.76041666666</v>
+        <v>46023.76041666666</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2">
-        <v>46022.77083333334</v>
+        <v>46023.77083333334</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2">
-        <v>46022.78125</v>
+        <v>46023.78125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2">
-        <v>46022.79166666666</v>
+        <v>46023.79166666666</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2">
-        <v>46022.80208333334</v>
+        <v>46023.80208333334</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2">
-        <v>46022.8125</v>
+        <v>46023.8125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2">
-        <v>46022.82291666666</v>
+        <v>46023.82291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2">
-        <v>46022.83333333334</v>
+        <v>46023.83333333334</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2">
-        <v>46022.84375</v>
+        <v>46023.84375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2">
-        <v>46022.85416666666</v>
+        <v>46023.85416666666</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2">
-        <v>46022.86458333334</v>
+        <v>46023.86458333334</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2">
-        <v>46022.875</v>
+        <v>46023.875</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2">
-        <v>46022.88541666666</v>
+        <v>46023.88541666666</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2">
-        <v>46022.89583333334</v>
+        <v>46023.89583333334</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2">
-        <v>46022.90625</v>
+        <v>46023.90625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2">
-        <v>46022.91666666666</v>
+        <v>46023.91666666666</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2">
-        <v>46022.92708333334</v>
+        <v>46023.92708333334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2">
-        <v>46022.9375</v>
+        <v>46023.9375</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2">
-        <v>46022.94791666666</v>
+        <v>46023.94791666666</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2">
-        <v>46022.95833333334</v>
+        <v>46023.95833333334</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2">
-        <v>46022.96875</v>
+        <v>46023.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2">
-        <v>46022.97916666666</v>
+        <v>46023.97916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2">
-        <v>46022.98958333334</v>
+        <v>46023.98958333334</v>
       </c>
       <c r="B101">
         <v>0</v>
